--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD181337-491A-43DB-90C8-C84CAAFE5699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B293131B-1112-4600-88A3-BB7923D4C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3365,10 +3365,233 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>고객이 서비스센터에 대한 불만이나 확인을 요청할 때 아래를 참조합니다.
+&lt;br&gt;
+&lt;h3&gt;서비스센터 및 딜러사 메일 양식
+&lt;br&gt;&lt;button class="logging-button" width="350" onclick="logging16()"&gt;[메일] 서비스센터 및 딜러사 전달 메일 양식&lt;/button&gt;
+&lt;button class="logging-button" onclick="logging17()"&gt;[메일] 서비스센터 출동 요청 메일 양식&lt;/button&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 대치&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; changseop.park@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 강남 삼성&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; hyunwoo.you@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 성수&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 분당 서현&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('ahn.jeongsik@hvolvo.com')"&gt;안정식&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; hwajeong.ko@hvolvo.com; yongcheol.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 강남 율현&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('euiseop.hwang@hvolvo.com')"&gt;황의섭&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; kyoungha.son@hvolvo.com; hyunseok.kim@hvolvo.com; jooyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 수원&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeongkyu.moon@hvolvo.com')"&gt;문정규&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; byeongwon.mun@hvolvo.com; kimoon.kim@hvolvo.com; yoonyoung.choi@hvolvo.com; hyunjoo.lee@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 인천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('chongjin.an@hvolvo.com')"&gt;안종진&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dongjun.choi@hvolvo.com; kangrae.cho@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 성수센터&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 대전&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yongil.jeon@hvolvo.com')"&gt;전용일&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; sungsik.kim@hvolvo.com; myungjin.oh@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 청주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeguk.ko@hvolvo.com')"&gt;고재국&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 군산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; jeonghun.song@ivymotors.co.kr; dongmyung.yi@ivymotors.co.kr; minsoo.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 광주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yokeun.jo@ivymotors.co.kr;')"&gt;조요근&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; inho.choi@ivymotors.co.kr; geunsik.lee@ivymotors.co.kr; byunghwa.lee@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 전주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr'; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 순천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyungchul.mun@ivymotors.co.kr')"&gt;문경철&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; mingyu.kim@ivymotors.co.kr; kyungchul.mun@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 제주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('daehwan.an@ivymotors.co.kr')"&gt;안대환&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; byunghee.choi@ivymotors.co.kr; bumseok.kang@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 대구&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; juyoung.yun@volvoty.co.kr;  bumseok.kang@ivymotors.co.kr; hyeonggeun.gil@volvoty.co.kr; yonghyeok.lee@volvoty.co.kr; rakmin.kim@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 서대구&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hoiyol.kwon@volvoty.co.kr')"&gt;권회열&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; jongwoon.yun@volvoty.co.kr; kyungkyu.song@volvoty.co.kr; jaewoo.lee@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 포항&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dogun.hwang@volvoty.co.kr; sungjun.lee@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 양평&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hakje.lee@chvolvo.co.kr')"&gt;이학제&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; jin.jeong@chvolvo.co.kr; jeongkuk.lee@chvolvo.co.kr; sungchul.kim@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 동대문&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('byungchang.kim@chvolvo.co.kr')"&gt;김병창&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr;  younghwan.kim@chvolvo.co.kr; jongbin.kim@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 의정부&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;팀장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hyuckjin.kim@chvolvo.co.kr')"&gt;김혁진&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; soonjik.kwon@chvolvo.co.kr; myoungjin.ko@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 구리&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;선임&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongmo.lee@chvolvo.co.kr')"&gt;이종모&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; subong.han@chvolvo.co.kr; jongmo.lee@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;&lt;hr&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 창원&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('myunguk.heo@ironmotors.co.kr')"&gt;허명욱&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; suho.park@ironmotors.co.kr; chungsuk.kim@ironmotors.co.kr; junwon.hwang@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 김해&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungyong.jang@ironmotors.co.kr')"&gt;장성용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; junewoo.heo@ironmotors.co.kr; hyunjin.park@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 광안&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaewoo.cho@ironmotors.co.kr')"&gt;조재우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; bongjun.kim@ironmotors.co.kr; dagyeong.yu@ironmotors.co.kr; hwaseop.song@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 해운대&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('younggon.kim@ironmotors.co.kr')"&gt;김영곤&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; byeongguen.song@ironmotors.co.kr; youbin.kim@ironmotors.co.kr; wonho.chae@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 진주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('dongkyu.kim@ironmotors.co.kr')"&gt;김동규&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; jaewon.jung@ironmotors.co.kr; balgeum.lee@ironmotors.co.kr; hyunseung.kim@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 일산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yghong@aju.co.kr')"&gt;홍영기&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; sjjung2@aju.co.kr; jsmo@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 안양&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jwlee8@aju.co.kr')"&gt;이조원&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; itkim@aju.co.kr; yopark@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 영등포 문래&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr')"&gt;서일선&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; jschoi@aju.co.kr; hschoi@aju.co.kr; icjoo@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 부천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('leejs@aju.co.kr')"&gt;이재석&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; dwlee@aju.co.kr; ghson@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 송파&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeonseong_jeong@kolon.com')"&gt;정전성&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; haneul_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 서초&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyoungmo_choi@kolon.com')"&gt;최경모&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; seungeun_jeoung@kolon.com; yunwoo_lee@kolon.com; yongsuk_park@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 원주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeseop_shim@kolon.com')"&gt;심재섭&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; sugeun_hwang@kolon.com; sunyoung_kwon@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 천안&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jungwoo_ma@kolon.com; wongyun_kil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 울산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kibum_lim@kolon.com')"&gt;임기범&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; minho_kim2@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 판교&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongho_kim@kolon.com')"&gt;김종호&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com;  youngdon_son@kolon.com; hyunmok_cho1@kolon.com; sunghan_im@kolon.com; baegil_jung1@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 강릉&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com')"&gt;김태길&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; bonggeun_seok@kolon.com; youngdon_son@kolon.com; juneyoung_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 서산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jonghwan_seol@kolon.com; donghyun_gil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 보험사의 커넥티드카 특약 할인에 대해서 문의할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;대부분 보험사의 할인 조건에 따르면, 볼보 자동차는 커넥티드카 특약 할인 대상이 아닙니다.&lt;/strong&gt;
+&lt;br&gt;그에 대한 사유는 각 보험사에 문의하도록 안내합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 특약 할인에 대해 문의하는 경우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 보충 시 올바른 연료를 사용해야 합니다. 가솔린은 여러 주행 유형에 맞춰 지정된 여러 옥탄가로 제공됩니다.
+&lt;br&gt;
+&lt;br&gt;잘 알려진 생산자의 가솔린만 사용하십시오. 품질이 의심스런 연료는 절대로 사용하지 마십시오. 가솔린은 EN 228 표준을 충족시켜야 합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;• 에탄올을 10%(용적 기준) 이하 함유한 연료는 사용할 수 있습니다.
+&lt;br&gt;• EN 228 E10 가솔린(에탄올 10% 이하)은 사용할 수 있습니다.
+&lt;br&gt;• E10보다 에탄올을 많이 함유한 가솔린(에탄올 10% 초과)(예 : E85)은 사용할 수 없습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;옥탄가&lt;/h3&gt;
+&lt;br&gt;• RON 95은 일반 주행에 사용할 수 있습니다.
+&lt;br&gt;• RON 98은 좋은 출력과 낮은 연료 소비를 위해 권장합니다.
+&lt;br&gt;• RON 95 미만의 옥탄가는 사용하지 않아야 합니다.
+&lt;br&gt;
+&lt;br&gt;+38 °C (100 °F)가 넘는 온도에서 주행할 때에는 채택된 성능과 연료 경제성을 위해 최고 옥탄가의 연료를 사용할 것을 권장합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;• 촉매 변환기 손상을 방지하려면 무연 가솔린만 사용하십시오.
+&lt;br&gt;• 금속성 첨가제가 포함된 연료는 사용하지 마십시오.
+&lt;br&gt;• 볼보가 권장하지 않는 첨가제는 사용하지 마십시오. &lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 Hej Volvo 앱의 차량 정보 동기화를 위해 문의하는 경우 아래 기준으로 진행합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;Hej Volvo앱은 DMS 상 계약자 이름과 전화번호가 일치하면 자동으로 차량 정보가 연동 됩니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀에서는 절대 실운전자 정보를 수정하면 안 됩니다.&lt;/em&gt;&lt;/string&gt;
+&lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀은 계약자 정보만 수정하며, 정보 변경이 필요한 경우 서비스센터를 방문했으나, 로그인이 안되는 경우로,
+&lt;br&gt;전화번호나 이름 철자 하나가 틀린 경우에만 수정이 가능합니다. 나머지는 서비스센터로 안내합니다.&lt;/em&gt;&lt;/string&gt;&lt;/div&gt;
+&lt;br&gt;&lt;h3&gt;계약자 정보 변경을 위해 다음 정보를 고객으로부터 수집한 후 수정합니다.&lt;/h3&gt;
+1. 실운전자 정보 (실운전자에게 Callback하여 해당 내용을 확인해야 합니다.)
+&lt;br&gt;2. 차량등록증 (차량등록증 상에 리스사로 되어있는 경우 차량등록증+차대번호와 실운전자가 기재된 리스계약서)
+&lt;br&gt;3. 차량등록증 기반으로 변경이 되기 때문에 법인인 경우 법인 이름으로만 변경이 가능함을 안내합니다.
+&lt;br&gt;&lt;strong&gt;위 서류는 고객에게 help_korea@volvocars.com로 발송해달라 요청합니다.&lt;/strong&gt;
+&lt;br&gt;
+&lt;br&gt;고객으로부터 서류를 수집하는 경우 반드시 주민번호 뒷자리를 가리고 보내줄 수 있도록 안내합니다.
+&lt;br&gt;계약자 정보를 수집한 후에는 반드시 해당 서류를 파기할 수 있도록 합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>차량 출고 후 1년이 되는 때에 고객에게 제공하는 1주년 쿠폰에 대해 고객이 문의하는 경우 해당 내용을 참고합니다.
 &lt;br&gt;
 &lt;h3&gt;쿠폰 사용처&lt;/h3&gt;
-서비스센터를 통해 고객이 해당 쿠폰을 제시한 후 Volvo Collection을 구입할 수 있습니다.
+- 서비스센터를 통해 고객이 해당 쿠폰을 제시한 후 Volvo Collection을 구입할 수 있습니다.
+&lt;br&gt;- https://collection.volvocars.com/en/에서 구입 상품 확인 가능하며, 한국 재고에 따라 구입처가 제한될 수 있습니다.
 &lt;h3&gt;사용 방법&lt;/h3&gt;
 - 해당 쿠폰 바코드나 포스 기능이 있는 부분은 아니라 현장에서 담당 딜러나 어드바이저가 쿠폰의 '사용 완료' 버튼 누르면 할인 받고 사용 완료 처리되는 프로세스 입니다.
 &lt;br&gt;- 이에 고객이 실수로 '사용 완료' 버튼 누를 경우 더이상 사용 불가하며, 재발행 되지 않는다고 명시되어 있습니다.
@@ -3378,228 +3601,6 @@
 &lt;br&gt;- 쿠폰 시작일 : 차량 출고일 + 1년 + 1개월의 1일
 &lt;br&gt;- 쿠폰 종료일 : 쿠폰 시작일 + 6개월의 1일
 &lt;br&gt;- 쿠폰 만료 노출일 : 쿠폰종료일 + 1달 의 1일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 서비스센터에 대한 불만이나 확인을 요청할 때 아래를 참조합니다.
-&lt;br&gt;
-&lt;h3&gt;서비스센터 및 딜러사 메일 양식
-&lt;br&gt;&lt;button class="logging-button" width="350" onclick="logging16()"&gt;[메일] 서비스센터 및 딜러사 전달 메일 양식&lt;/button&gt;
-&lt;button class="logging-button" onclick="logging17()"&gt;[메일] 서비스센터 출동 요청 메일 양식&lt;/button&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 대치&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; changseop.park@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 강남 삼성&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; hyunwoo.you@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 성수&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 분당 서현&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('ahn.jeongsik@hvolvo.com')"&gt;안정식&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; hwajeong.ko@hvolvo.com; yongcheol.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 강남 율현&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('euiseop.hwang@hvolvo.com')"&gt;황의섭&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; kyoungha.son@hvolvo.com; hyunseok.kim@hvolvo.com; jooyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 수원&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeongkyu.moon@hvolvo.com')"&gt;문정규&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; byeongwon.mun@hvolvo.com; kimoon.kim@hvolvo.com; yoonyoung.choi@hvolvo.com; hyunjoo.lee@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 인천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('chongjin.an@hvolvo.com')"&gt;안종진&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dongjun.choi@hvolvo.com; kangrae.cho@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 성수센터&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 대전&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yongil.jeon@hvolvo.com')"&gt;전용일&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; sungsik.kim@hvolvo.com; myungjin.oh@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 청주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeguk.ko@hvolvo.com')"&gt;고재국&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 군산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; jeonghun.song@ivymotors.co.kr; dongmyung.yi@ivymotors.co.kr; minsoo.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 광주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yokeun.jo@ivymotors.co.kr;')"&gt;조요근&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; inho.choi@ivymotors.co.kr; geunsik.lee@ivymotors.co.kr; byunghwa.lee@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 전주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr'; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 순천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyungchul.mun@ivymotors.co.kr')"&gt;문경철&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; mingyu.kim@ivymotors.co.kr; kyungchul.mun@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 제주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('daehwan.an@ivymotors.co.kr')"&gt;안대환&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; byunghee.choi@ivymotors.co.kr; bumseok.kang@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 대구&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; juyoung.yun@volvoty.co.kr;  bumseok.kang@ivymotors.co.kr; hyeonggeun.gil@volvoty.co.kr; yonghyeok.lee@volvoty.co.kr; rakmin.kim@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 서대구&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hoiyol.kwon@volvoty.co.kr')"&gt;권회열&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; jongwoon.yun@volvoty.co.kr; kyungkyu.song@volvoty.co.kr; jaewoo.lee@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 포항&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dogun.hwang@volvoty.co.kr; sungjun.lee@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 양평&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hakje.lee@chvolvo.co.kr')"&gt;이학제&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; jin.jeong@chvolvo.co.kr; jeongkuk.lee@chvolvo.co.kr; sungchul.kim@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 동대문&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('byungchang.kim@chvolvo.co.kr')"&gt;김병창&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr;  younghwan.kim@chvolvo.co.kr; jongbin.kim@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 의정부&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;팀장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hyuckjin.kim@chvolvo.co.kr')"&gt;김혁진&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; soonjik.kwon@chvolvo.co.kr; myoungjin.ko@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 구리&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;선임&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongmo.lee@chvolvo.co.kr')"&gt;이종모&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; subong.han@chvolvo.co.kr; jongmo.lee@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;&lt;hr&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 창원&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('myunguk.heo@ironmotors.co.kr')"&gt;허명욱&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; suho.park@ironmotors.co.kr; chungsuk.kim@ironmotors.co.kr; junwon.hwang@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 김해&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungyong.jang@ironmotors.co.kr')"&gt;장성용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; junewoo.heo@ironmotors.co.kr; hyunjin.park@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 광안&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaewoo.cho@ironmotors.co.kr')"&gt;조재우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; bongjun.kim@ironmotors.co.kr; dagyeong.yu@ironmotors.co.kr; hwaseop.song@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 해운대&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('younggon.kim@ironmotors.co.kr')"&gt;김영곤&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; byeongguen.song@ironmotors.co.kr; youbin.kim@ironmotors.co.kr; wonho.chae@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 진주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('dongkyu.kim@ironmotors.co.kr')"&gt;김동규&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; jaewon.jung@ironmotors.co.kr; balgeum.lee@ironmotors.co.kr; hyunseung.kim@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 일산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yghong@aju.co.kr')"&gt;홍영기&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; sjjung2@aju.co.kr; jsmo@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 안양&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jwlee8@aju.co.kr')"&gt;이조원&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; itkim@aju.co.kr; yopark@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 영등포 문래&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr')"&gt;서일선&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; jschoi@aju.co.kr; hschoi@aju.co.kr; icjoo@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 부천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('leejs@aju.co.kr')"&gt;이재석&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; dwlee@aju.co.kr; ghson@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 송파&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeonseong_jeong@kolon.com')"&gt;정전성&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; haneul_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 서초&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyoungmo_choi@kolon.com')"&gt;최경모&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; seungeun_jeoung@kolon.com; yunwoo_lee@kolon.com; yongsuk_park@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 원주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeseop_shim@kolon.com')"&gt;심재섭&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; sugeun_hwang@kolon.com; sunyoung_kwon@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 천안&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jungwoo_ma@kolon.com; wongyun_kil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 울산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kibum_lim@kolon.com')"&gt;임기범&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; minho_kim2@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 판교&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongho_kim@kolon.com')"&gt;김종호&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com;  youngdon_son@kolon.com; hyunmok_cho1@kolon.com; sunghan_im@kolon.com; baegil_jung1@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 강릉&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com')"&gt;김태길&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; bonggeun_seok@kolon.com; youngdon_son@kolon.com; juneyoung_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 서산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jonghwan_seol@kolon.com; donghyun_gil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 보험사의 커넥티드카 특약 할인에 대해서 문의할 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;대부분 보험사의 할인 조건에 따르면, 볼보 자동차는 커넥티드카 특약 할인 대상이 아닙니다.&lt;/strong&gt;
-&lt;br&gt;그에 대한 사유는 각 보험사에 문의하도록 안내합니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 특약 할인에 대해 문의하는 경우</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료 보충 시 올바른 연료를 사용해야 합니다. 가솔린은 여러 주행 유형에 맞춰 지정된 여러 옥탄가로 제공됩니다.
-&lt;br&gt;
-&lt;br&gt;잘 알려진 생산자의 가솔린만 사용하십시오. 품질이 의심스런 연료는 절대로 사용하지 마십시오. 가솔린은 EN 228 표준을 충족시켜야 합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;• 에탄올을 10%(용적 기준) 이하 함유한 연료는 사용할 수 있습니다.
-&lt;br&gt;• EN 228 E10 가솔린(에탄올 10% 이하)은 사용할 수 있습니다.
-&lt;br&gt;• E10보다 에탄올을 많이 함유한 가솔린(에탄올 10% 초과)(예 : E85)은 사용할 수 없습니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;옥탄가&lt;/h3&gt;
-&lt;br&gt;• RON 95은 일반 주행에 사용할 수 있습니다.
-&lt;br&gt;• RON 98은 좋은 출력과 낮은 연료 소비를 위해 권장합니다.
-&lt;br&gt;• RON 95 미만의 옥탄가는 사용하지 않아야 합니다.
-&lt;br&gt;
-&lt;br&gt;+38 °C (100 °F)가 넘는 온도에서 주행할 때에는 채택된 성능과 연료 경제성을 위해 최고 옥탄가의 연료를 사용할 것을 권장합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;• 촉매 변환기 손상을 방지하려면 무연 가솔린만 사용하십시오.
-&lt;br&gt;• 금속성 첨가제가 포함된 연료는 사용하지 마십시오.
-&lt;br&gt;• 볼보가 권장하지 않는 첨가제는 사용하지 마십시오. &lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 Hej Volvo 앱의 차량 정보 동기화를 위해 문의하는 경우 아래 기준으로 진행합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;Hej Volvo앱은 DMS 상 계약자 이름과 전화번호가 일치하면 자동으로 차량 정보가 연동 됩니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-&lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀에서는 절대 실운전자 정보를 수정하면 안 됩니다.&lt;/em&gt;&lt;/string&gt;
-&lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀은 계약자 정보만 수정하며, 정보 변경이 필요한 경우 서비스센터를 방문했으나, 로그인이 안되는 경우로,
-&lt;br&gt;전화번호나 이름 철자 하나가 틀린 경우에만 수정이 가능합니다. 나머지는 서비스센터로 안내합니다.&lt;/em&gt;&lt;/string&gt;&lt;/div&gt;
-&lt;br&gt;&lt;h3&gt;계약자 정보 변경을 위해 다음 정보를 고객으로부터 수집한 후 수정합니다.&lt;/h3&gt;
-1. 실운전자 정보 (실운전자에게 Callback하여 해당 내용을 확인해야 합니다.)
-&lt;br&gt;2. 차량등록증 (차량등록증 상에 리스사로 되어있는 경우 차량등록증+차대번호와 실운전자가 기재된 리스계약서)
-&lt;br&gt;3. 차량등록증 기반으로 변경이 되기 때문에 법인인 경우 법인 이름으로만 변경이 가능함을 안내합니다.
-&lt;br&gt;&lt;strong&gt;위 서류는 고객에게 help_korea@volvocars.com로 발송해달라 요청합니다.&lt;/strong&gt;
-&lt;br&gt;
-&lt;br&gt;고객으로부터 서류를 수집하는 경우 반드시 주민번호 뒷자리를 가리고 보내줄 수 있도록 안내합니다.
-&lt;br&gt;계약자 정보를 수집한 후에는 반드시 해당 서류를 파기할 수 있도록 합니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3755,7 +3756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3789,15 +3790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3812,6 +3804,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4143,37 +4141,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="69">
       <c r="A2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="4">
         <v>45469</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10"/>
@@ -4189,14 +4187,14 @@
         <v>65</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="224.25">
+    <row r="4" spans="1:6" ht="241.5">
       <c r="A4" s="3" t="s">
         <v>259</v>
       </c>
@@ -4205,9 +4203,9 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>249</v>
       </c>
       <c r="F4" s="10"/>
@@ -4419,7 +4417,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>9</v>
@@ -4427,10 +4425,10 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <v>45467</v>
       </c>
       <c r="C18" s="3"/>
@@ -4629,7 +4627,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
@@ -5536,7 +5534,7 @@
       <c r="E81" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="18"/>
+      <c r="F81" s="15"/>
     </row>
     <row r="82" spans="1:6" ht="69">
       <c r="A82" s="6" t="s">
@@ -5812,244 +5810,244 @@
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B293131B-1112-4600-88A3-BB7923D4C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DC893-B28F-4709-8E71-8AD38F06BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="278">
   <si>
     <t>Title</t>
   </si>
@@ -3601,6 +3601,178 @@
 &lt;br&gt;- 쿠폰 시작일 : 차량 출고일 + 1년 + 1개월의 1일
 &lt;br&gt;- 쿠폰 종료일 : 쿠폰 시작일 + 6개월의 1일
 &lt;br&gt;- 쿠폰 만료 노출일 : 쿠폰종료일 + 1달 의 1일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX30 앱과 차량의 페어링</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX30 인수 후 스마트폰의 Volvo EX30 앱과 차량을 페어링할 수 있습니다. 그러면 휴대폰을 통해 특정 기능을 제어하고 차량과 상호 작용할 수 있습니다. 이를 위해 필요한 절차는 앱 화면 및 차량 화면을 통해 안내됩니다.
+&lt;br&gt;
+&lt;br&gt;앱과 차량을 페어링하기 전에 EX30 설정에 안내된 내용에 따라 차량 설정을 먼저 완료해야 합니다.
+&lt;h3&gt;앱과 차량의 페어링&lt;/h3&gt;
+차량을 페어링할 때 차량 시스템이 인터넷에 연결되어 있어야 합니다. 모바일 네트워크에 연결할 수 없는 경우, 차량 화면에서 휴대폰의 핫스팟(hotspot)이나 다른 와이파이 네트워크를 찾아 임시로 연결할 수 있습니다.
+&lt;br&gt;1. 휴대폰을 지참한 상태로 운전석에 탑승합니다.
+&lt;br&gt;2. Volvo EX30 앱에 로그인한 후 &lt;img src="https://www.volvocars.com/images/support/img2dadbb4c85f21df1c0a801521b60d8a9_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;탭으로 이동합니다.
+&lt;br&gt;3. 차량 연결 선택 후 앱과 차량 화면의 안내에 따라 진행합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;차량 화면에 QR 코드가 표시되는 경우, EX30 앱에서 휴대폰 카메라를 사용할 수 있도록 허용해야 합니다. 허용 안 함 선택 시 QR 코드를 스캔할 수 없습니다. 나중에 휴대폰 설정에서 카메라 사용 권한을 허용할 수 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;페어링 과정에서 QR 코드가 표시되지 않는 경우에는 Volvo EX30 앱에서 이미 설정된 프로필이 있습니다 선택 후 안내에 따라 진행하세요.&lt;/div&gt;
+&lt;br&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;a style="size: 12px;"&gt;해당 모델&lt;/a&gt;
+&lt;br&gt;EX30, 2024년 모델 이후</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차 시동 걸기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키가 자동차 내부에 있을 때 터널 콘솔의 시동 다이얼을 사용하여 자동차의 시동을 겁니다.
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;시동 전:
+&lt;br&gt;• 안전벨트를 착용합니다.
+&lt;br&gt;• 시트, 스티어링휠 및 미러를 조절합니다.
+&lt;br&gt;• 브레이크 페달을 완전히 밟을 수 있는지 확인합니다.&lt;/div
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgf6b84e2b04115720c0a80152345ac188_1_--_--_VOICEpnghigh.png" width="299" height="206"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;터널 콘솔의 시동 노브.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;키가 자동차에 있도록 합니다
+&lt;br&gt;1. 안전벨트를 채웁니다.
+&lt;br&gt;2. 브레이크 페달을 밟습니다.
+&lt;br&gt;3. 시동 버튼을 시계 방향으로 돌린 후 놓습니다.
+&lt;br&gt;&gt; 차량 시동이 걸리고 시동 다이얼은 자동으로 원위치로 돌아갑니다.
+&lt;br&gt;4. 기어를 D 또는 R로 변경합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;3회 시도 후 시동이 걸리지 않으면 3분 동안 기다린 다음 다시 시도하십시오. 배터리가 복구되면 시동 용량이 증가합니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;엔진 시동을 걸 때 스타터 모터는 엔진 시동이 걸릴 때까지 또는 과열 보호 기능이 트리거될 때까지 작동합니다.
+&lt;br&gt;
+&lt;h3&gt;오류 메시지
+차량 키 감지되지 않음 메시지가 표시되는 경우에 키를 백업 리더 옆에 놓습니다. 그런 다음 다시 차량의 시동을 겁니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgea32dbd5047f1418c0a80152607f9a10_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;터널 콘솔의 시동 노브.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;키를 백업 리더 옆에 놓을 때, 다른 차량 리모컨, 금속 물체 또는 전자 장치(휴대폰, 태블릿, 컴퓨터 또는 충전기)가 백업 리더 옆에 없는지 확인하십시오. 여러 개의 키가 백업 리더 안에서 서로 가까이 있으면 서로 간섭할 수 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;주행 중이나 견인하는 동안 키를 차량에서 절대 꺼내지 마십시오.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;차량에서 떠날 때는 반드시 열쇠를 차 밖으로 반출하고 차량의 전기 시스템이 점화 위치 0로 되어 있는지 확인하십시오. 어린이가 차내에 있는 경우에는 특히 주의가 필요합니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;일부 엔진의 경우 냉간 시동 중에 공회전 속도가 평소보다 크게 높아질 수 있습니다. 이는 배출가스 시스템의 온도를 신속하게 정상 작동 온도로 올려 배출가스를 최소화함으로써 환경을 보호하기 위한 것입니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 시스템을 여러 레벨/위치로 설정하여 다양한 기능을 사용할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;엔진이 꺼진 상태에서 제한된 수의 기능을 사용할 수 있도록 하기 위해 차량의 전기 시스템을 3가지 서로 다른 레벨(0, I 및 II)로 설정할 수 있습니다. 이들 레벨은 사용 설명서 전체에 걸쳐서 "시동 스위치 위치"라는 명칭으로 설명되어 있습니다.
+&lt;br&gt;
+&lt;br&gt;다음 표는 각 시동 스위치 위치/레벨 에서 이용할 수 있는 기능을 표시합니다.
+&lt;h3&gt;레벨 0&lt;/h3&gt;
+• 누적주행거리, 시계 및 온도 게이지가 점등됩니다
+&lt;br&gt;• 전동 시트는 조절할 수 있습니다.
+&lt;br&gt;• 중앙 화면이 시작되어 사용할 수 있습니다1.
+&lt;br&gt;• 인포테인먼트 시스템을 사용할 수 있습니다1.
+이 위치에서는 기능이 작동하는 시간이 제한되므로 일정 시간이 지나면 기능이 자동으로 꺼집니다.
+&lt;h3&gt;레벨 I&lt;/h3&gt;
+• 파노라마 선루프, 전동 윈도우, 실내의 12V 전원 소켓, 블루투스(Bluetooth), 내비게이션, 전화, 환기용 팬 및 앞유리 와이퍼를 사용할 수 있습니다.
+&lt;br&gt;• 전동 시트는 조절할 수 있습니다.
+&lt;br&gt;• 트렁크의 12V 전원 소켓*을 사용할 수 있습니다.
+이 위치에서는 동력이 배터리에서 인출됩니다.
+&lt;h3&gt;레벨 II&lt;/h3&gt;
+• 전조등이 점등됩니다.
+&lt;br&gt;• 경고/표시등이 5 초 동안 점등됩니다.
+&lt;br&gt;• 기타 여러 시스템이 작동됩니다. 그러나 시트 쿠션 및 뒷유리의 열선은 차량의 시동이 걸린 후에만 켜집니다.
+&lt;br&gt;이 시동 스위치 위치는 배터리의 전원을 많이 소비하므로 피해야 합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시동 스위치 위치</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차 보조 시스템은 청각 신호와 중앙 화면의 그림을 통해 장애물과의 거리를 나타내어 좁은 공간에서 움직일 때 운전자를 지원할 수 있도록 센서를 사용합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img3b859fcfef7253b3c0a8015226f9f31f_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;장애물 구역과 센서 섹터가 포함된 화면 보기의 예.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;중앙 화면은 차량과 탐지된 장애물 간의 관계에 대한 개요를 표시합니다.
+&lt;br&gt;강조 표시된 부분은 장애물의 위치를 가리킵니다. 전방/후방에서 차량 심볼이 강조 표시된 구역 박스에 가까울수록 차량과 탐지된 장애물 사이의 거리가 짧습니다.
+&lt;br&gt;차량과 장애물 사이의 간격이 줄면 측면 구역 색상이 변합니다.
+&lt;br&gt;장애물과의 거리가 짧을수록 신호음이 빨라집니다. 오디오 시스템의 다른 음은 자동으로 소거됩니다.
+&lt;br&gt;전방 및 측면에 있는 장애물에 대한 청각 신호가 작동할 때는 차량이 약 2초 동안 정지 상태인 후에 움직이다가 정지한 경우입니다. 후방에 있는 장애물에 대한 청각 신호도 차량이 정지 상태일 때 작동합니다.
+&lt;br&gt;차량의 후방 또는 전방에서 장애물과의 거리가 약 30 cm (1 피트) 이내일 때 청각음은 지속음이 되며 차량 심볼에 가장 가까운 활성 센서의 필드가 채워집니다.
+&lt;br&gt;장애물과 측면 사이의 간격이 약 25 cm (0.8 피트) 이내일 때 맥동음의 강도가 높아지며 활성 상태의 구역 필드 색상이 오렌지색에서 빨간색으로 변경됩니다.
+&lt;br&gt;주차 보조 시스템의 볼륨은 주차 보조 시스템 설정으로 조절할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;볼륨 설정 방법:
+&lt;br&gt;1. 물체에 가까이 주행하거나 중앙 화면 하단의 카메라 아이콘 &lt;img src="https://www.volvocars.com/images/support/img5a275562a5f420dbc0a801525596adca_2_--_--_VOICEpnghigh.png" width="19" height="19"&gt;을 눌러 주차 보조 시스템 기능을 활성화합니다.
+&lt;br&gt;2. 카메라 보기의 오른쪽 상단에서 설정 &lt;img src="https://www.volvocars.com/images/support/imgf1c5d0bf5cacf617c0a801521667c9fa_2_--_--_VOICEpnghigh.png?imwidth=1600" width="19" height="19"&gt;을 누릅니다.
+&lt;br&gt;3. 필요에 따라 볼륨을 조절합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;차량 심볼과 가장 가까운 구역을 제외하고, 경고음은 직접적으로 차량 경로에 있는 물체에 대해서만 발생합니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;• 주차 센서는 차량 주변에 대한 운전자의 주의 집중을 지원하기 위한 것입니다. 특정 각도에서 장애물을 탐지하는 기능은 사용 시 상황의 영향을 받을 수 있습니다.
+&lt;br&gt;• 차량 근처에 사람이나 동물이 있는 경우에는 특히 주의를 하십시오.
+&lt;br&gt;• 주차 과정에서 차의 앞부분이 통행 차량 쪽으로 돌출될 수 있음에 유의하십시오.
+&lt;br&gt;• 물체/장애물이 화면에 표시된 것보다 차량에 가까울 수 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;• 이 기능은 운전을 용이하게 해 주는 운전자 지원 시스템의 하나이지만 교통 상황, 날씨, 도로 상태에 관계 없이 모든 상황에서 기능을 발휘하는 것은 아닙니다.
+&lt;br&gt;• 운전자는 본 설명서에 나오는 시스템에 대한 정보(시스템의 한계, 시스템을 사용하기 전에 알아야 할 사항 등)를 모두 읽어 보는 것이 권장됩니다.
+&lt;br&gt;• 운전자 지원 기능은 운전자의 주의와 판단을 대체하는 것이 아닙니다. 운전자는 항상 적절한 속도로, 다른 차량과 적절한 간격을 유지하면서, 현행 교통 규칙 및 규정에 따라 차량을 안전하게 운전할 책임이 있습니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차 보조 시스템</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차 보조 시스템이 모든 상황에서 모든 것을 감지할 수 있는 것은 아니며 따라서 일부의 경우에 기능 제한이 있을 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;운전자는 다음과 같은 자동 주차 시스템의 한계를 알고 있어야 합니다.
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;• 차량 주변의 모든 구역을 선명하게 재생하는 주차보조 카메라의 기능은 사용 시 상황의 영향을 받을 수 있습니다.
+&lt;br&gt;• 차량 근처에 사람이나 동물이 있는 경우에는 특히 주의를 하십시오.
+&lt;br&gt;• 주차 과정에서 차의 앞부분이 통행 차량 쪽으로 돌출될 수 있음에 유의하십시오.
+&lt;br&gt;• 물체/장애물이 화면에 표시된 것보다 차량에 가까울 수 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img11720754bfe00001c0a801522deeb827_1_--_--_VOICEpnghigh.png" width="80" height="80"&gt;
+트레일러, 자전거 랙 또는 유사한 장치가 장착되었고 차량에 전기적으로 연결된 경우에 이 심볼이 표시되면 후진할 때 더욱 주의를 기울이십시오.
+&lt;br&gt;꺼져있는 심볼은 후방 주차 보조장치 센서가 꺼져 있으며 장애물에 대해 경고를 하지 않는다는 것을 나타냅니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;일부 장애물(체인, 가늘고 매끄러운 기둥, 낮은 바리케이드 등)이 센서의 사각지대로 들어가면 센서가 이들 장애물을 감지하지 못하게 되어 단속적인 신호음이 지속적인 신호음으로 바뀌지 않고 그대로 멈출 수 있습니다.
+&lt;br&gt;센서는 튀어나온 적재 도크와 같은 높은 물체를 탐지할 수 없습니다.
+&lt;br&gt;
+&lt;br&gt;• 이런 경우에는 센서의 신뢰성이 떨어져 차나 물건이 손상될 위험이 크기 때문에 아주 조심스럽게 주차하거나 주차 동작을 멈추는 것이 바람직합니다.&lt;/div&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;경우에 따라 주차 보조 시스템과 같은 초음파를 방출하는 외부 사운드 소스에 의해 주차 보조 시스템이 잘못된 신호음을 울릴 수도 있습니다.
+&lt;br&gt;
+&lt;br&gt;이러한 사운드 소스에는 경적, 아스팔트 노면에서 주행하는 차량의 젖은 타이어, 공압식 브레이크, 오토바이의 배기음 등이 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;견인바가 차량 전기 시스템에 연결되어 있기 때문에 시스템이 차량 후방 물체와의 거리를 측정할 때 견인바 돌출부가 포함됩니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차 보조의 한계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4126,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4160,296 +4332,296 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69">
+    <row r="2" spans="1:6" ht="379.5">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B2" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="409.5">
+      <c r="A3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45470</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="293.25">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45469</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="241.5">
+    <row r="4" spans="1:6" ht="379.5">
       <c r="A4" s="3" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B4" s="4">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="B5" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>45470</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="103.5">
+    <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B6" s="4">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="86.25">
+    <row r="7" spans="1:6" ht="69">
       <c r="A7" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B7" s="4">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="207">
+    <row r="8" spans="1:6" ht="293.25">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="241.5">
+      <c r="A9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="4">
         <v>45468</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="409.5">
-      <c r="A9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
+        <v>266</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="B10" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>45468</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="138">
+    <row r="11" spans="1:6" ht="103.5">
       <c r="A11" s="3" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B11" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="293.25">
+    <row r="12" spans="1:6" ht="86.25">
       <c r="A12" s="3" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B12" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="396.75">
+    <row r="13" spans="1:6" ht="207">
       <c r="A13" s="3" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>45468</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
+        <v>260</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4">
         <v>45467</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="172.5">
+    <row r="15" spans="1:6" ht="327.75">
       <c r="A15" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B15" s="4">
         <v>45467</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="409.5">
+    <row r="16" spans="1:6" ht="138">
       <c r="A16" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B16" s="4">
         <v>45467</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="409.5">
+    <row r="17" spans="1:6" ht="293.25">
       <c r="A17" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B17" s="4">
         <v>45467</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="409.5">
-      <c r="A18" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="14">
+    <row r="18" spans="1:6" ht="396.75">
+      <c r="A18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="4">
         <v>45467</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B19" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>9</v>
@@ -4457,209 +4629,209 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="172.5">
-      <c r="A20" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="8">
-        <v>45463</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>212</v>
+      <c r="A20" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45467</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="B21" s="4">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="86.25">
+    <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="B22" s="4">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="379.5">
-      <c r="A23" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="4">
-        <v>45463</v>
+    <row r="23" spans="1:6" ht="409.5">
+      <c r="A23" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="14">
+        <v>45467</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="327.75">
+    <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="B24" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="189.75">
-      <c r="A25" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="4">
+    <row r="25" spans="1:6" ht="172.5">
+      <c r="A25" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="8">
         <v>45463</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5" t="s">
-        <v>202</v>
+      <c r="C25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="103.5">
+    <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B26" s="4">
         <v>45463</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="409.5">
+    <row r="27" spans="1:6" ht="86.25">
       <c r="A27" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B27" s="4">
         <v>45463</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="409.5">
+    <row r="28" spans="1:6" ht="379.5">
       <c r="A28" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B28" s="4">
         <v>45463</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="409.5">
+    <row r="29" spans="1:6" ht="327.75">
       <c r="A29" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B29" s="4">
         <v>45463</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="345">
+    <row r="30" spans="1:6" ht="189.75">
       <c r="A30" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B30" s="4">
         <v>45463</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="327.75">
+    <row r="31" spans="1:6" ht="103.5">
       <c r="A31" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B31" s="4">
         <v>45463</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="207">
+    <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B32" s="4">
         <v>45463</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
@@ -4668,14 +4840,14 @@
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -4684,62 +4856,62 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="409.5">
+    <row r="35" spans="1:6" ht="345">
       <c r="A35" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="409.5">
+    <row r="36" spans="1:6" ht="327.75">
       <c r="A36" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B36" s="4">
         <v>45463</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="276">
+    <row r="37" spans="1:6" ht="207">
       <c r="A37" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B37" s="4">
         <v>45463</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
@@ -4748,14 +4920,14 @@
     </row>
     <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B38" s="4">
         <v>45463</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
@@ -4764,250 +4936,240 @@
     </row>
     <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="B39" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>13</v>
+        <v>220</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B40" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="224.25">
-      <c r="A41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>183</v>
+    <row r="41" spans="1:6" ht="409.5">
+      <c r="A41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="120.75">
-      <c r="A42" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>176</v>
+    <row r="42" spans="1:6" ht="276">
+      <c r="A42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="409.5">
       <c r="A43" s="3" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="B43" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="293.25">
+    <row r="44" spans="1:6" ht="409.5">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="B44" s="4">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>9</v>
+        <v>208</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B45" s="4">
         <v>45461</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="172.5">
-      <c r="A46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>184</v>
+    <row r="46" spans="1:6" ht="224.25">
+      <c r="A46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="155.25">
-      <c r="A47" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>160</v>
+    <row r="47" spans="1:6" ht="120.75">
+      <c r="A47" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="B48" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="207">
+    <row r="49" spans="1:6" ht="293.25">
       <c r="A49" s="3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B49" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="B50" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>25</v>
+        <v>188</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="258.75">
+    <row r="51" spans="1:6" ht="172.5">
       <c r="A51" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B51" s="4">
         <v>45460</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="138">
+    <row r="52" spans="1:6" ht="155.25">
       <c r="A52" s="3" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B52" s="4">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
@@ -5016,286 +5178,286 @@
     </row>
     <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B53" s="4">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>13</v>
+        <v>161</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="276">
+    <row r="54" spans="1:6" ht="207">
       <c r="A54" s="3" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="B54" s="4">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>19</v>
+        <v>162</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B55" s="4">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="310.5">
+    <row r="56" spans="1:6" ht="258.75">
       <c r="A56" s="3" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="B56" s="4">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>29</v>
+        <v>165</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="138">
       <c r="A57" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B57" s="4">
-        <v>45456</v>
+        <v>45459</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B58" s="4">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="310.5">
+    <row r="59" spans="1:6" ht="276">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B59" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B60" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="409.5">
+    <row r="61" spans="1:6" ht="310.5">
       <c r="A61" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B61" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="409.5">
+    <row r="62" spans="1:6" ht="138">
       <c r="A62" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B62" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B63" s="4">
         <v>45455</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="310.5">
+      <c r="A64" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="409.5">
+      <c r="A65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="409.5">
+      <c r="A66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="409.5">
+      <c r="A67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="310.5">
+      <c r="A68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="409.5">
-      <c r="A64" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="189.75">
-      <c r="A65" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="224.25">
-      <c r="A66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="103.5">
-      <c r="A67" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="409.5">
-      <c r="A68" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>9</v>
@@ -5304,493 +5466,583 @@
     </row>
     <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B69" s="4">
         <v>45454</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="241.5">
+    <row r="70" spans="1:6" ht="189.75">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B70" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="207">
+    <row r="71" spans="1:6" ht="224.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B71" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="155.25">
+    <row r="72" spans="1:6" ht="103.5">
       <c r="A72" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B72" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="207">
+    <row r="73" spans="1:6" ht="409.5">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B73" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="120.75">
+    <row r="74" spans="1:6" ht="409.5">
       <c r="A74" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B74" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="276">
+    <row r="75" spans="1:6" ht="241.5">
       <c r="A75" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4">
         <v>45453</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="409.5">
+    <row r="76" spans="1:6" ht="207">
       <c r="A76" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4">
         <v>45453</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="396.75">
+    <row r="77" spans="1:6" ht="155.25">
       <c r="A77" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4">
         <v>45453</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="207">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="120.75">
+      <c r="A79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="276">
+      <c r="A80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="409.5">
+      <c r="A81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" ht="396.75">
+      <c r="A82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E82" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="409.5">
-      <c r="A78" s="6" t="s">
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" ht="409.5">
+      <c r="A83" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B83" s="4">
         <v>45452</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="276">
-      <c r="A79" s="6" t="s">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="276">
+      <c r="A84" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B84" s="4">
         <v>45452</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="86.25">
-      <c r="A80" s="6" t="s">
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="86.25">
+      <c r="A85" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B80" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="409.5">
-      <c r="A81" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B81" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="15"/>
-    </row>
-    <row r="82" spans="1:6" ht="69">
-      <c r="A82" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" ht="69">
-      <c r="A83" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="224.25">
-      <c r="A84" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="103.5">
-      <c r="A85" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="B85" s="8">
         <v>45450</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="51.75">
+    <row r="86" spans="1:6" ht="409.5">
       <c r="A86" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B86" s="8">
         <v>45450</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:6" ht="409.5">
+      <c r="F86" s="15"/>
+    </row>
+    <row r="87" spans="1:6" ht="69">
       <c r="A87" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B87" s="8">
         <v>45450</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="51.75">
+    <row r="88" spans="1:6" ht="69">
       <c r="A88" s="6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B88" s="8">
         <v>45450</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="69">
+    <row r="89" spans="1:6" ht="224.25">
       <c r="A89" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B89" s="8">
         <v>45450</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="69">
+    <row r="90" spans="1:6" ht="103.5">
       <c r="A90" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B90" s="8">
         <v>45450</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="103.5">
+    <row r="91" spans="1:6" ht="51.75">
       <c r="A91" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B91" s="8">
         <v>45450</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="86.25">
-      <c r="A92" s="3" t="s">
-        <v>143</v>
+    <row r="92" spans="1:6" ht="409.5">
+      <c r="A92" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B92" s="8">
         <v>45450</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="103.5">
+    <row r="93" spans="1:6" ht="51.75">
       <c r="A93" s="6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B93" s="8">
         <v>45450</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="86.25">
+    <row r="94" spans="1:6" ht="69">
       <c r="A94" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B94" s="8">
         <v>45450</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="86.25">
+    <row r="95" spans="1:6" ht="69">
       <c r="A95" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" ht="103.5">
+      <c r="A96" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" ht="86.25">
+      <c r="A97" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" ht="103.5">
+      <c r="A98" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" ht="86.25">
+      <c r="A99" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" ht="86.25">
+      <c r="A100" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B100" s="4">
         <v>45450</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="10"/>
+      <c r="F100" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F95">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DC893-B28F-4709-8E71-8AD38F06BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE55EC-D263-4C23-AD17-755F5979109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="280">
   <si>
     <t>Title</t>
   </si>
@@ -2591,21 +2591,6 @@
   </si>
   <si>
     <t>연료 소비/전력 소비</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료 소비량은 다양한 요인에 따라 증가할 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;소비량 증가 원인의 예는 다음과 같습니다.
-&lt;br&gt;
-&lt;br&gt;• 중량에 영향을 주는 추가 장비가 차량에 장착되어 있는 경우.
-&lt;br&gt;• 운전 스타일.
-&lt;br&gt;• 모델의 기본 버전에 기본 사양으로 장착된 것과 다른 휠을 고객이 선택하는 경우. 이는 회전 저항을 높일 수 있습니다.
-&lt;br&gt;• 속도가 높으면 공기 저항이 증가합니다.
-&lt;br&gt;• 연료 품질, 도로 및 교통 상황, 날씨 및 차량의 상태.
-&lt;br&gt;위에 나열된 예의 조합으로 인해 연료 소비량이 상당히 높아질 수 있습니다.
-&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
-&lt;br&gt;권장 사양보다 낮은 품질의 연료, 극한의 기후 조건, 트레일러 견인, 높은 고도에서의 주행은 연료 소모량을 상당히 증가시킬 수 있습니다.&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3773,6 +3758,36 @@
   </si>
   <si>
     <t>주차 보조의 한계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 주유구를 열려면 차량의 잠금을 해제해야 합니다.
+&lt;br&gt;
+&lt;br&gt;1. 연료 주유구의 뒤쪽을 가볍게 눌러 엽니다.
+&lt;br&gt;2. 주유가 끝난 후에는 연료 주유구를 가볍게 눌러 닫습니다.
+&lt;br&gt;
+&lt;br&gt;키 및 키리스 사용 또는 Volvo Cars 앱을 통해 잠그고 해제하는 경우에만 연료 주유구의 상태에 영향을 줍니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 주유구 열기 및 닫기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 소비량은 다양한 요인에 따라 증가할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;소비량 증가 원인의 예는 다음과 같습니다.
+&lt;br&gt;
+&lt;br&gt;• 중량에 영향을 주는 추가 장비가 차량에 장착되어 있는 경우.
+&lt;br&gt;• 운전 스타일.
+&lt;br&gt;• 모델의 기본 버전에 기본 사양으로 장착된 것과 다른 휠을 고객이 선택하는 경우. 이는 회전 저항을 높일 수 있습니다.
+&lt;br&gt;• 속도가 높으면 공기 저항이 증가합니다.
+&lt;br&gt;• 연료 품질, 도로 및 교통 상황, 날씨 및 차량의 상태.
+&lt;br&gt;
+&lt;br&gt;위에 나열된 예의 조합으로 인해 연료 소비량이 상당히 높아질 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;권장 사양보다 낮은 품질의 연료, 극한의 기후 조건, 트레일러 견인, 높은 고도에서의 주행은 연료 소모량을 상당히 증가시킬 수 있습니다.&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4298,10 +4313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4334,30 +4349,30 @@
     </row>
     <row r="2" spans="1:6" ht="379.5">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" s="4">
         <v>45470</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="409.5">
       <c r="A3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="4">
         <v>45470</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -4366,14 +4381,14 @@
     </row>
     <row r="4" spans="1:6" ht="379.5">
       <c r="A4" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="4">
         <v>45470</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
@@ -4382,14 +4397,14 @@
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" s="4">
         <v>45470</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -4398,107 +4413,107 @@
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="4">
         <v>45470</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="69">
+    <row r="7" spans="1:6" ht="103.5">
       <c r="A7" s="3" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B7" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="293.25">
+    <row r="8" spans="1:6" ht="69">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="B8" s="4">
         <v>45469</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="293.25">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D9" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="241.5">
-      <c r="A9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="B10" s="4">
         <v>45468</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>9</v>
+        <v>265</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="103.5">
+    <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="B11" s="4">
         <v>45468</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="86.25">
+    <row r="12" spans="1:6" ht="103.5">
       <c r="A12" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B12" s="4">
         <v>45468</v>
@@ -4508,97 +4523,97 @@
         <v>254</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="207">
+    <row r="13" spans="1:6" ht="86.25">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="B13" s="4">
         <v>45468</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="207">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D14" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="409.5">
-      <c r="A14" s="3" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="409.5">
+      <c r="A15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="327.75">
-      <c r="A15" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="B15" s="4">
         <v>45467</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="327.75">
+      <c r="A16" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="138">
-      <c r="A16" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="B16" s="4">
         <v>45467</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="293.25">
+    <row r="17" spans="1:6" ht="138">
       <c r="A17" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B17" s="4">
         <v>45467</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="396.75">
+    <row r="18" spans="1:6" ht="293.25">
       <c r="A18" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18" s="4">
         <v>45467</v>
@@ -4608,52 +4623,52 @@
         <v>256</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="409.5">
+    <row r="19" spans="1:6" ht="396.75">
       <c r="A19" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B19" s="4">
         <v>45467</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="172.5">
+    <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="4">
         <v>45467</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="409.5">
+    <row r="21" spans="1:6" ht="172.5">
       <c r="A21" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B21" s="4">
         <v>45467</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
@@ -4662,14 +4677,14 @@
     </row>
     <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B22" s="4">
         <v>45467</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>9</v>
@@ -4677,161 +4692,161 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="409.5">
-      <c r="A23" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="14">
+      <c r="A23" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="4">
         <v>45467</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="409.5">
-      <c r="A24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="4">
-        <v>45464</v>
+      <c r="A24" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="14">
+        <v>45467</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="409.5">
+      <c r="A25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="172.5">
-      <c r="A25" s="6" t="s">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="172.5">
+      <c r="A26" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B26" s="8">
         <v>45463</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="409.5">
-      <c r="A26" s="3" t="s">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="409.5">
+      <c r="A27" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B26" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="86.25">
-      <c r="A27" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="B27" s="4">
         <v>45463</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="379.5">
+    <row r="28" spans="1:6" ht="86.25">
       <c r="A28" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="4">
         <v>45463</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="327.75">
+    <row r="29" spans="1:6" ht="379.5">
       <c r="A29" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B29" s="4">
         <v>45463</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="189.75">
+    <row r="30" spans="1:6" ht="327.75">
       <c r="A30" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B30" s="4">
         <v>45463</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="103.5">
+    <row r="31" spans="1:6" ht="189.75">
       <c r="A31" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="4">
         <v>45463</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="409.5">
+    <row r="32" spans="1:6" ht="103.5">
       <c r="A32" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B32" s="4">
         <v>45463</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
@@ -4840,14 +4855,14 @@
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -4856,78 +4871,78 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="345">
+    <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="327.75">
+    <row r="36" spans="1:6" ht="345">
       <c r="A36" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36" s="4">
         <v>45463</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="207">
+    <row r="37" spans="1:6" ht="327.75">
       <c r="A37" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37" s="4">
         <v>45463</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="409.5">
+    <row r="38" spans="1:6" ht="241.5">
       <c r="A38" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B38" s="4">
         <v>45463</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
@@ -4936,14 +4951,14 @@
     </row>
     <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B39" s="4">
         <v>45463</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>9</v>
@@ -4952,14 +4967,14 @@
     </row>
     <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B40" s="4">
         <v>45463</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>9</v>
@@ -4968,46 +4983,46 @@
     </row>
     <row r="41" spans="1:6" ht="409.5">
       <c r="A41" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B41" s="4">
         <v>45463</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="276">
+    <row r="42" spans="1:6" ht="409.5">
       <c r="A42" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="409.5">
+    <row r="43" spans="1:6" ht="276">
       <c r="A43" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
@@ -5016,394 +5031,392 @@
     </row>
     <row r="44" spans="1:6" ht="409.5">
       <c r="A44" s="3" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="B44" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>13</v>
+        <v>228</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="4">
+        <v>45462</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="409.5">
+      <c r="A46" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4">
         <v>45461</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="224.25">
-      <c r="A46" s="6" t="s">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="224.25">
+      <c r="A47" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B46" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="120.75">
-      <c r="A47" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="B47" s="8">
         <v>45461</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="120.75">
+      <c r="A48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="409.5">
-      <c r="A48" s="3" t="s">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="409.5">
+      <c r="A49" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B48" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" ht="293.25">
-      <c r="A49" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B49" s="4">
         <v>45461</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="409.5">
+    <row r="50" spans="1:6" ht="293.25">
       <c r="A50" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B50" s="4">
         <v>45461</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="172.5">
+    <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B51" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="155.25">
+    <row r="52" spans="1:6" ht="172.5">
       <c r="A52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" s="4">
         <v>45460</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="409.5">
+    <row r="53" spans="1:6" ht="155.25">
       <c r="A53" s="3" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B53" s="4">
         <v>45460</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="207">
+    <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B54" s="4">
         <v>45460</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="409.5">
+    <row r="55" spans="1:6" ht="207">
       <c r="A55" s="3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B55" s="4">
         <v>45460</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="258.75">
+    <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B56" s="4">
         <v>45460</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="258.75">
+      <c r="A57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" ht="138">
-      <c r="A57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="409.5">
+    <row r="58" spans="1:6" ht="138">
       <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="409.5">
+      <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B59" s="4">
         <v>45457</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E59" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" ht="276">
-      <c r="A59" s="3" t="s">
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="276">
+      <c r="A60" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B59" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="409.5">
-      <c r="A60" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B60" s="4">
         <v>45456</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="310.5">
+    <row r="61" spans="1:6" ht="409.5">
       <c r="A61" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B61" s="4">
         <v>45456</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="138">
+    <row r="62" spans="1:6" ht="310.5">
       <c r="A62" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B62" s="4">
         <v>45456</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="409.5">
+      <c r="A64" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B63" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="310.5">
-      <c r="A64" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B64" s="4">
         <v>45455</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="409.5">
+    <row r="65" spans="1:6" ht="310.5">
       <c r="A65" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B65" s="4">
         <v>45455</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>9</v>
@@ -5412,16 +5425,16 @@
     </row>
     <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B66" s="4">
         <v>45455</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>9</v>
@@ -5430,187 +5443,187 @@
     </row>
     <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B67" s="4">
         <v>45455</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="310.5">
+    <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B68" s="4">
         <v>45455</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="409.5">
+    <row r="69" spans="1:6" ht="310.5">
       <c r="A69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="409.5">
+      <c r="A70" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B69" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="189.75">
-      <c r="A70" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B70" s="4">
         <v>45454</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="224.25">
+    <row r="71" spans="1:6" ht="189.75">
       <c r="A71" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B71" s="4">
         <v>45454</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="103.5">
+    <row r="72" spans="1:6" ht="224.25">
       <c r="A72" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B72" s="4">
         <v>45454</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="409.5">
+    <row r="73" spans="1:6" ht="103.5">
       <c r="A73" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B73" s="4">
         <v>45454</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6" ht="409.5">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B74" s="4">
         <v>45454</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="241.5">
+    <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="241.5">
+      <c r="A76" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B75" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="207">
-      <c r="A76" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B76" s="4">
         <v>45453</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="155.25">
+    <row r="77" spans="1:6" ht="207">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4">
         <v>45453</v>
@@ -5619,430 +5632,448 @@
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="207">
+    <row r="78" spans="1:6" ht="155.25">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4">
         <v>45453</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="120.75">
+    <row r="79" spans="1:6" ht="207">
       <c r="A79" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4">
         <v>45453</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="276">
+    <row r="80" spans="1:6" ht="120.75">
       <c r="A80" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4">
         <v>45453</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="409.5">
+    <row r="81" spans="1:6" ht="276">
       <c r="A81" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4">
         <v>45453</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="396.75">
+    <row r="82" spans="1:6" ht="409.5">
       <c r="A82" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B82" s="4">
         <v>45453</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="409.5">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:6" ht="396.75">
+      <c r="A83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="409.5">
+      <c r="A84" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B83" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="276">
-      <c r="A84" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="B84" s="4">
         <v>45452</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="86.25">
+    <row r="85" spans="1:6" ht="276">
       <c r="A85" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" ht="86.25">
+      <c r="A86" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B85" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" ht="409.5">
-      <c r="A86" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="B86" s="8">
         <v>45450</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="15"/>
-    </row>
-    <row r="87" spans="1:6" ht="69">
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B87" s="8">
         <v>45450</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="10"/>
+      <c r="F87" s="15"/>
     </row>
     <row r="88" spans="1:6" ht="69">
       <c r="A88" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B88" s="8">
         <v>45450</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="224.25">
+    <row r="89" spans="1:6" ht="69">
       <c r="A89" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B89" s="8">
         <v>45450</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="103.5">
+    <row r="90" spans="1:6" ht="224.25">
       <c r="A90" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B90" s="8">
         <v>45450</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="51.75">
+    <row r="91" spans="1:6" ht="103.5">
       <c r="A91" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B91" s="8">
         <v>45450</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="409.5">
+    <row r="92" spans="1:6" ht="51.75">
       <c r="A92" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" s="8">
         <v>45450</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="51.75">
+    <row r="93" spans="1:6" ht="409.5">
       <c r="A93" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B93" s="8">
         <v>45450</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="69">
+    <row r="94" spans="1:6" ht="51.75">
       <c r="A94" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B94" s="8">
         <v>45450</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F94" s="10"/>
     </row>
     <row r="95" spans="1:6" ht="69">
       <c r="A95" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B95" s="8">
         <v>45450</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="103.5">
+    <row r="96" spans="1:6" ht="69">
       <c r="A96" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B96" s="8">
         <v>45450</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="86.25">
-      <c r="A97" s="3" t="s">
-        <v>143</v>
+    <row r="97" spans="1:6" ht="103.5">
+      <c r="A97" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B97" s="8">
         <v>45450</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="103.5">
-      <c r="A98" s="6" t="s">
-        <v>146</v>
+    <row r="98" spans="1:6" ht="86.25">
+      <c r="A98" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B98" s="8">
         <v>45450</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="86.25">
+    <row r="99" spans="1:6" ht="103.5">
       <c r="A99" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" ht="86.25">
       <c r="A100" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" ht="86.25">
+      <c r="A101" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B101" s="4">
         <v>45450</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F101" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F101">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>
@@ -6063,7 +6094,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE55EC-D263-4C23-AD17-755F5979109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8582239C-80AF-4769-B253-E5CED3185A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -3622,46 +3622,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>키가 자동차 내부에 있을 때 터널 콘솔의 시동 다이얼을 사용하여 자동차의 시동을 겁니다.
-&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-&lt;br&gt;시동 전:
-&lt;br&gt;• 안전벨트를 착용합니다.
-&lt;br&gt;• 시트, 스티어링휠 및 미러를 조절합니다.
-&lt;br&gt;• 브레이크 페달을 완전히 밟을 수 있는지 확인합니다.&lt;/div
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgf6b84e2b04115720c0a80152345ac188_1_--_--_VOICEpnghigh.png" width="299" height="206"&gt;
-&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;터널 콘솔의 시동 노브.&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;키가 자동차에 있도록 합니다
-&lt;br&gt;1. 안전벨트를 채웁니다.
-&lt;br&gt;2. 브레이크 페달을 밟습니다.
-&lt;br&gt;3. 시동 버튼을 시계 방향으로 돌린 후 놓습니다.
-&lt;br&gt;&gt; 차량 시동이 걸리고 시동 다이얼은 자동으로 원위치로 돌아갑니다.
-&lt;br&gt;4. 기어를 D 또는 R로 변경합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;3회 시도 후 시동이 걸리지 않으면 3분 동안 기다린 다음 다시 시도하십시오. 배터리가 복구되면 시동 용량이 증가합니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;엔진 시동을 걸 때 스타터 모터는 엔진 시동이 걸릴 때까지 또는 과열 보호 기능이 트리거될 때까지 작동합니다.
-&lt;br&gt;
-&lt;h3&gt;오류 메시지
-차량 키 감지되지 않음 메시지가 표시되는 경우에 키를 백업 리더 옆에 놓습니다. 그런 다음 다시 차량의 시동을 겁니다.
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgea32dbd5047f1418c0a80152607f9a10_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
-&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;터널 콘솔의 시동 노브.&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
-&lt;br&gt;키를 백업 리더 옆에 놓을 때, 다른 차량 리모컨, 금속 물체 또는 전자 장치(휴대폰, 태블릿, 컴퓨터 또는 충전기)가 백업 리더 옆에 없는지 확인하십시오. 여러 개의 키가 백업 리더 안에서 서로 가까이 있으면 서로 간섭할 수 있습니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-&lt;br&gt;주행 중이나 견인하는 동안 키를 차량에서 절대 꺼내지 마십시오.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-&lt;br&gt;차량에서 떠날 때는 반드시 열쇠를 차 밖으로 반출하고 차량의 전기 시스템이 점화 위치 0로 되어 있는지 확인하십시오. 어린이가 차내에 있는 경우에는 특히 주의가 필요합니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
-&lt;br&gt;일부 엔진의 경우 냉간 시동 중에 공회전 속도가 평소보다 크게 높아질 수 있습니다. 이는 배출가스 시스템의 온도를 신속하게 정상 작동 온도로 올려 배출가스를 최소화함으로써 환경을 보호하기 위한 것입니다.&lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>전기 시스템을 여러 레벨/위치로 설정하여 다양한 기능을 사용할 수 있습니다.
 &lt;br&gt;
 &lt;br&gt;엔진이 꺼진 상태에서 제한된 수의 기능을 사용할 수 있도록 하기 위해 차량의 전기 시스템을 3가지 서로 다른 레벨(0, I 및 II)로 설정할 수 있습니다. 이들 레벨은 사용 설명서 전체에 걸쳐서 "시동 스위치 위치"라는 명칭으로 설명되어 있습니다.
@@ -3788,6 +3748,48 @@
 &lt;br&gt;
 &lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
 &lt;br&gt;권장 사양보다 낮은 품질의 연료, 극한의 기후 조건, 트레일러 견인, 높은 고도에서의 주행은 연료 소모량을 상당히 증가시킬 수 있습니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키가 자동차 내부에 있을 때 터널 콘솔의 시동 다이얼을 사용하여 자동차의 시동을 겁니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;시동 전:
+&lt;br&gt;• 안전벨트를 착용합니다.
+&lt;br&gt;• 시트, 스티어링휠 및 미러를 조절합니다.
+&lt;br&gt;• 브레이크 페달을 완전히 밟을 수 있는지 확인합니다.&lt;/div
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgf6b84e2b04115720c0a80152345ac188_1_--_--_VOICEpnghigh.png" width="299" height="206"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;터널 콘솔의 시동 노브.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;키가 자동차에 있도록 합니다
+&lt;br&gt;1. 안전벨트를 채웁니다.
+&lt;br&gt;2. 브레이크 페달을 밟습니다.
+&lt;br&gt;3. 시동 버튼을 시계 방향으로 돌린 후 놓습니다.
+&lt;br&gt;&gt; 차량 시동이 걸리고 시동 다이얼은 자동으로 원위치로 돌아갑니다.
+&lt;br&gt;4. 기어를 D 또는 R로 변경합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;3회 시도 후 시동이 걸리지 않으면 3분 동안 기다린 다음 다시 시도하십시오. 배터리가 복구되면 시동 용량이 증가합니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;엔진 시동을 걸 때 스타터 모터는 엔진 시동이 걸릴 때까지 또는 과열 보호 기능이 트리거될 때까지 작동합니다.
+&lt;br&gt;
+&lt;h3&gt;오류 메시지&lt;/h3&gt;
+차량 키 감지되지 않음 메시지가 표시되는 경우에 키를 백업 리더 옆에 놓습니다. 그런 다음 다시 차량의 시동을 겁니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgea32dbd5047f1418c0a80152607f9a10_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;터널 콘솔의 시동 노브.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;키를 백업 리더 옆에 놓을 때, 다른 차량 리모컨, 금속 물체 또는 전자 장치(휴대폰, 태블릿, 컴퓨터 또는 충전기)가 백업 리더 옆에 없는지 확인하십시오. 여러 개의 키가 백업 리더 안에서 서로 가까이 있으면 서로 간섭할 수 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;주행 중이나 견인하는 동안 키를 차량에서 절대 꺼내지 마십시오.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;차량에서 떠날 때는 반드시 열쇠를 차 밖으로 반출하고 차량의 전기 시스템이 점화 위치 0로 되어 있는지 확인하십시오. 어린이가 차내에 있는 경우에는 특히 주의가 필요합니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;일부 엔진의 경우 냉간 시동 중에 공회전 속도가 평소보다 크게 높아질 수 있습니다. 이는 배출가스 시스템의 온도를 신속하게 정상 작동 온도로 올려 배출가스를 최소화함으로써 환경을 보호하기 위한 것입니다.&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4315,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4372,7 +4374,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -4381,14 +4383,14 @@
     </row>
     <row r="4" spans="1:6" ht="379.5">
       <c r="A4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="4">
         <v>45470</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
@@ -4397,14 +4399,14 @@
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="4">
         <v>45470</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -4413,14 +4415,14 @@
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="4">
         <v>45470</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
@@ -4429,14 +4431,14 @@
     </row>
     <row r="7" spans="1:6" ht="103.5">
       <c r="A7" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="4">
         <v>45470</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
@@ -4942,7 +4944,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8582239C-80AF-4769-B253-E5CED3185A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE98687-B753-43BF-BE97-5B6FEA98717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="282">
   <si>
     <t>Title</t>
   </si>
@@ -3777,7 +3777,7 @@
 &lt;h3&gt;오류 메시지&lt;/h3&gt;
 차량 키 감지되지 않음 메시지가 표시되는 경우에 키를 백업 리더 옆에 놓습니다. 그런 다음 다시 차량의 시동을 겁니다.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgea32dbd5047f1418c0a80152607f9a10_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
-&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;터널 콘솔의 시동 노브.&lt;/a&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;터널 콘솔의 백업 리더 위치..&lt;/a&gt;
 &lt;br&gt;
 &lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
 &lt;br&gt;키를 백업 리더 옆에 놓을 때, 다른 차량 리모컨, 금속 물체 또는 전자 장치(휴대폰, 태블릿, 컴퓨터 또는 충전기)가 백업 리더 옆에 없는지 확인하십시오. 여러 개의 키가 백업 리더 안에서 서로 가까이 있으면 서로 간섭할 수 있습니다.&lt;/div&gt;
@@ -3790,6 +3790,49 @@
 &lt;br&gt;
 &lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
 &lt;br&gt;일부 엔진의 경우 냉간 시동 중에 공회전 속도가 평소보다 크게 높아질 수 있습니다. 이는 배출가스 시스템의 온도를 신속하게 정상 작동 온도로 올려 배출가스를 최소화함으로써 환경을 보호하기 위한 것입니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈착형 보조 키를 이용한 잠금 및 해제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키의 배터리가 방전된 경우 등에 탈착형 보조 키를 사용하여 외부에서 차량의 도어 중 하나를 잠금 해제할 수 있습니다.
+&lt;h3&gt;보조 키를 이용한 잠금 해제&lt;/h3&gt;
+&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;보조키로 도어 잠금을 해제한 후 도어가 열리면, 경보가 작동합니다. 경보를 수동으로 해제해야 합니다.
+&lt;br&gt;- 차량의 문을 열기 전에 해당 섹션을 읽어 볼 것을 권장합니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;1. &lt;img src="https://www.volvocars.com/images/support/imgf3f31f91f6329328c0a801524f2ee2fb_1_--_--_VOICEpnghigh.png" width="402" height="209"&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgea62e30c66630650c0a801521cfb95f3_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
+&lt;br&gt;차량의 왼쪽에서 앞좌석 도어 핸들을 끝까지 밖으로 당깁니다.
+&lt;br&gt;
+&lt;br&gt;2. &lt;img src="https://www.volvocars.com/images/support/imgea62e30c66630650c0a801521cfb95f3_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
+&lt;br&gt;키를 집어넣습니다.
+&lt;br&gt;
+&lt;br&gt;3. &lt;img src="https://www.volvocars.com/images/support/img86795a7b66626adbc0a80152023d600b_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
+&lt;br&gt;시계 방향으로 45도 돌려 키가 뒤쪽을 똑바로 가리키도록 합니다.
+&lt;br&gt;
+&lt;br&gt;3. &lt;img src="https://www.volvocars.com/images/support/imgaf38599766621e9ec0a80152510773ba_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
+&lt;br&gt;키를 다시 원래 위치로 45도 돌린 후 뺍니다.
+&lt;br&gt;
+&lt;br&gt;&gt; 도어는 손잡이를 사용하여 열릴 수 있습니다.
+&lt;h3&gt;보조 키를 이용한 잠금&lt;/h3&gt;
+앞좌석 왼쪽 도어는 탈착형 보조 키를 사용해 잠글 수 있습니다.
+&lt;br&gt;다른 도어에는 끝부분 표면에 잠금장치 재설정 홈이 있어서 보조 키를 사용해 안쪽으로 눌러야 합니다. 그러면 도어가 기계적으로 잠기기 때문에 밖에서는 열 수 없지만 안에서는 열 수 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgbf223a825c3e4825c0a8015247daca88_2_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;도어의 수동 잠금. 어린이 보호용 잠금장치와 혼동하지 않아야 합니다.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;1. 탈착형 보조 키를 버튼이 있는 키에서 꺼냅니다.
+&lt;br&gt;2. 잠금장치를 재설정하려면 구멍에 보조 키를 넣습니다.
+&lt;br&gt;3. 키를 바닥에 닿을 때까지, 12 mm(0.5 인치) 정도 밀어 넣습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img30585700665c501ac0a80152308c54d1_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 바깥과 안 모두에서 도어를 열 수 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img5c6ab006665c01bcc0a801523173defe_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 도어가 차단되어 바깥에서 열 수 없습니다. A 위치로 돌아가려면 내부 도어 핸들을 열어야 합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;• 도어의 잠금장치 재설정은 모든 도어를 동시에 잠그지 않고 특정 도어만 잠급니다.
+&lt;br&gt;• 어린이 보호용 잠금장치를 활성화한 상태에서 수동으로 잠근 경우 그 도어는 내부에서도 외부에서도 열 수 없습니다. 키 버튼, 중앙 잠금 버튼, 키리스 잠금 시스템 또는 Volvo Cars 앱 중 하나를 사용하여 잠금 해제 할 수 있습니다.&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4315,10 +4358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4445,248 +4488,248 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="69">
+    <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B8" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="293.25">
+    <row r="9" spans="1:6" ht="69">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="B9" s="4">
         <v>45469</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>66</v>
+        <v>261</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="241.5">
+      <c r="A11" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="409.5">
-      <c r="A11" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B11" s="4">
         <v>45468</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>9</v>
+        <v>265</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="103.5">
+    <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="B12" s="4">
         <v>45468</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D12" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="86.25">
+    <row r="13" spans="1:6" ht="103.5">
       <c r="A13" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="4">
         <v>45468</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="207">
+    <row r="14" spans="1:6" ht="86.25">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="B14" s="4">
         <v>45468</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="207">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="409.5">
-      <c r="A15" s="3" t="s">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="409.5">
+      <c r="A16" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="327.75">
-      <c r="A16" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="B16" s="4">
         <v>45467</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="138">
+    <row r="17" spans="1:6" ht="327.75">
       <c r="A17" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="4">
         <v>45467</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="293.25">
+    <row r="18" spans="1:6" ht="138">
       <c r="A18" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B18" s="4">
         <v>45467</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="396.75">
+    <row r="19" spans="1:6" ht="293.25">
       <c r="A19" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="4">
         <v>45467</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="409.5">
+    <row r="20" spans="1:6" ht="396.75">
       <c r="A20" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20" s="4">
         <v>45467</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="172.5">
+    <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" s="4">
         <v>45467</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="409.5">
+    <row r="22" spans="1:6" ht="172.5">
       <c r="A22" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B22" s="4">
         <v>45467</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>9</v>
@@ -4695,14 +4738,14 @@
     </row>
     <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B23" s="4">
         <v>45467</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>9</v>
@@ -4710,161 +4753,161 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="409.5">
-      <c r="A24" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="14">
+      <c r="A24" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="4">
         <v>45467</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="409.5">
-      <c r="A25" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="4">
-        <v>45464</v>
+      <c r="A25" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="14">
+        <v>45467</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="409.5">
+      <c r="A26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="172.5">
-      <c r="A26" s="6" t="s">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="172.5">
+      <c r="A27" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="8">
         <v>45463</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="409.5">
-      <c r="A27" s="3" t="s">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="409.5">
+      <c r="A28" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B27" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="86.25">
-      <c r="A28" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="B28" s="4">
         <v>45463</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="379.5">
+    <row r="29" spans="1:6" ht="86.25">
       <c r="A29" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B29" s="4">
         <v>45463</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="327.75">
+    <row r="30" spans="1:6" ht="379.5">
       <c r="A30" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B30" s="4">
         <v>45463</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="189.75">
+    <row r="31" spans="1:6" ht="327.75">
       <c r="A31" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B31" s="4">
         <v>45463</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="103.5">
+    <row r="32" spans="1:6" ht="189.75">
       <c r="A32" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="4">
         <v>45463</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="409.5">
+    <row r="33" spans="1:6" ht="103.5">
       <c r="A33" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -4873,14 +4916,14 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
@@ -4889,78 +4932,78 @@
     </row>
     <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="345">
+    <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B36" s="4">
         <v>45463</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="327.75">
+    <row r="37" spans="1:6" ht="345">
       <c r="A37" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B37" s="4">
         <v>45463</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="241.5">
+    <row r="38" spans="1:6" ht="327.75">
       <c r="A38" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" s="4">
         <v>45463</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="409.5">
+    <row r="39" spans="1:6" ht="241.5">
       <c r="A39" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="4">
         <v>45463</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>9</v>
@@ -4969,14 +5012,14 @@
     </row>
     <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B40" s="4">
         <v>45463</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>9</v>
@@ -4985,14 +5028,14 @@
     </row>
     <row r="41" spans="1:6" ht="409.5">
       <c r="A41" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" s="4">
         <v>45463</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>9</v>
@@ -5001,46 +5044,46 @@
     </row>
     <row r="42" spans="1:6" ht="409.5">
       <c r="A42" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="276">
+    <row r="43" spans="1:6" ht="409.5">
       <c r="A43" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="409.5">
+    <row r="44" spans="1:6" ht="276">
       <c r="A44" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
@@ -5049,394 +5092,392 @@
     </row>
     <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="B45" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>13</v>
+        <v>228</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="4">
+        <v>45462</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="409.5">
+      <c r="A47" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4">
         <v>45461</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="224.25">
-      <c r="A47" s="6" t="s">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="224.25">
+      <c r="A48" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B47" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="120.75">
-      <c r="A48" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="B48" s="8">
         <v>45461</v>
       </c>
       <c r="C48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="120.75">
+      <c r="A49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" ht="409.5">
-      <c r="A49" s="3" t="s">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="409.5">
+      <c r="A50" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B49" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" ht="293.25">
-      <c r="A50" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B50" s="4">
         <v>45461</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="409.5">
+    <row r="51" spans="1:6" ht="293.25">
       <c r="A51" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B51" s="4">
         <v>45461</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="172.5">
+    <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B52" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="155.25">
+    <row r="53" spans="1:6" ht="172.5">
       <c r="A53" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="4">
         <v>45460</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="409.5">
+    <row r="54" spans="1:6" ht="155.25">
       <c r="A54" s="3" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B54" s="4">
         <v>45460</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="207">
+    <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B55" s="4">
         <v>45460</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="409.5">
+    <row r="56" spans="1:6" ht="207">
       <c r="A56" s="3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B56" s="4">
         <v>45460</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="258.75">
+    <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B57" s="4">
         <v>45460</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="258.75">
+      <c r="A58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" ht="138">
-      <c r="A58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="409.5">
+    <row r="59" spans="1:6" ht="138">
       <c r="A59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="409.5">
+      <c r="A60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B60" s="4">
         <v>45457</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="276">
-      <c r="A60" s="3" t="s">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="276">
+      <c r="A61" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B60" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" ht="409.5">
-      <c r="A61" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B61" s="4">
         <v>45456</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="310.5">
+    <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B62" s="4">
         <v>45456</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B63" s="4">
         <v>45456</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="138">
+      <c r="A64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="409.5">
-      <c r="A64" s="3" t="s">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="409.5">
+      <c r="A65" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B64" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="310.5">
-      <c r="A65" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B65" s="4">
         <v>45455</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="409.5">
+    <row r="66" spans="1:6" ht="310.5">
       <c r="A66" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B66" s="4">
         <v>45455</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>9</v>
@@ -5445,16 +5486,16 @@
     </row>
     <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B67" s="4">
         <v>45455</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>9</v>
@@ -5463,187 +5504,187 @@
     </row>
     <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B68" s="4">
         <v>45455</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="310.5">
+    <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B69" s="4">
         <v>45455</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="409.5">
+    <row r="70" spans="1:6" ht="310.5">
       <c r="A70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="409.5">
+      <c r="A71" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B70" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="189.75">
-      <c r="A71" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B71" s="4">
         <v>45454</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="224.25">
+    <row r="72" spans="1:6" ht="189.75">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B72" s="4">
         <v>45454</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="103.5">
+    <row r="73" spans="1:6" ht="224.25">
       <c r="A73" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B73" s="4">
         <v>45454</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="409.5">
+    <row r="74" spans="1:6" ht="103.5">
       <c r="A74" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B74" s="4">
         <v>45454</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B75" s="4">
         <v>45454</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="241.5">
+    <row r="76" spans="1:6" ht="409.5">
       <c r="A76" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="241.5">
+      <c r="A77" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B76" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="207">
-      <c r="A77" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B77" s="4">
         <v>45453</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="155.25">
+    <row r="78" spans="1:6" ht="207">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4">
         <v>45453</v>
@@ -5652,430 +5693,448 @@
         <v>76</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="207">
+    <row r="79" spans="1:6" ht="155.25">
       <c r="A79" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4">
         <v>45453</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="120.75">
+    <row r="80" spans="1:6" ht="207">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4">
         <v>45453</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="276">
+    <row r="81" spans="1:6" ht="120.75">
       <c r="A81" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4">
         <v>45453</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="409.5">
+    <row r="82" spans="1:6" ht="276">
       <c r="A82" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B82" s="4">
         <v>45453</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="396.75">
+    <row r="83" spans="1:6" ht="409.5">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4">
         <v>45453</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="409.5">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:6" ht="396.75">
+      <c r="A84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="409.5">
+      <c r="A85" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B84" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="276">
-      <c r="A85" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="B85" s="4">
         <v>45452</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="86.25">
+    <row r="86" spans="1:6" ht="276">
       <c r="A86" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" ht="86.25">
+      <c r="A87" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B86" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:6" ht="409.5">
-      <c r="A87" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="B87" s="8">
         <v>45450</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" spans="1:6" ht="69">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B88" s="8">
         <v>45450</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="10"/>
+      <c r="F88" s="15"/>
     </row>
     <row r="89" spans="1:6" ht="69">
       <c r="A89" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B89" s="8">
         <v>45450</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="224.25">
+    <row r="90" spans="1:6" ht="69">
       <c r="A90" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B90" s="8">
         <v>45450</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="103.5">
+    <row r="91" spans="1:6" ht="224.25">
       <c r="A91" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B91" s="8">
         <v>45450</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="51.75">
+    <row r="92" spans="1:6" ht="103.5">
       <c r="A92" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B92" s="8">
         <v>45450</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="409.5">
+    <row r="93" spans="1:6" ht="51.75">
       <c r="A93" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="8">
         <v>45450</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="51.75">
+    <row r="94" spans="1:6" ht="409.5">
       <c r="A94" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B94" s="8">
         <v>45450</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="69">
+    <row r="95" spans="1:6" ht="51.75">
       <c r="A95" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B95" s="8">
         <v>45450</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:6" ht="69">
       <c r="A96" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B96" s="8">
         <v>45450</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="103.5">
+    <row r="97" spans="1:6" ht="69">
       <c r="A97" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B97" s="8">
         <v>45450</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="86.25">
-      <c r="A98" s="3" t="s">
-        <v>143</v>
+    <row r="98" spans="1:6" ht="103.5">
+      <c r="A98" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B98" s="8">
         <v>45450</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="103.5">
-      <c r="A99" s="6" t="s">
-        <v>146</v>
+    <row r="99" spans="1:6" ht="86.25">
+      <c r="A99" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="86.25">
+    <row r="100" spans="1:6" ht="103.5">
       <c r="A100" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F100" s="10"/>
     </row>
     <row r="101" spans="1:6" ht="86.25">
       <c r="A101" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B101" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" ht="86.25">
+      <c r="A102" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B102" s="4">
         <v>45450</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="10"/>
+      <c r="F102" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F102">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE98687-B753-43BF-BE97-5B6FEA98717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F98E83-E241-458B-8B8C-27B2BD056F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="290">
   <si>
     <t>Title</t>
   </si>
@@ -3833,6 +3833,225 @@
 &lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
 &lt;br&gt;• 도어의 잠금장치 재설정은 모든 도어를 동시에 잠그지 않고 특정 도어만 잠급니다.
 &lt;br&gt;• 어린이 보호용 잠금장치를 활성화한 상태에서 수동으로 잠근 경우 그 도어는 내부에서도 외부에서도 열 수 없습니다. 키 버튼, 중앙 잠금 버튼, 키리스 잠금 시스템 또는 Volvo Cars 앱 중 하나를 사용하여 잠금 해제 할 수 있습니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인 센서는 앞유리에서 감지되는 물의 양에 따라 자동으로 와이퍼를 작동시킵니다. 레인 센서의 감도는 우측 레버 스위치의 썸휠로 조절할 수 있습니다.
+&lt;img src="https://www.volvocars.com/images/support/imgde98691ef9f7c8a4c0a801522bce2626_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;우측 레버 스위치&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 레인 센서 버튼
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 썸휠 감도/빈도
+&lt;br&gt;
+&lt;br&gt;레인 센서가 작동하면 운전자 화면에 레인 센서 심벌 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;가 표시됩니다.
+&lt;br&gt;레인 센서는 엔진을 끌 때 설정되어 있던 레인 센서 모드에 따라 엔진 시동시 자동으로 켜거나 끌 수 있습니다.
+&lt;h3&gt;레인 센서 켜기&lt;/h3&gt;
+&lt;br&gt;레인 센서를 켜려면 앞유리 와이퍼가 0 위치 또는 와이퍼 한 번 작동 위치에 있어야 합니다.
+&lt;br&gt;레인 센서 버튼 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;을 누르면 레인 센서가 켜집니다.
+&lt;br&gt;레버를 아래로 눌러 와이퍼가 작동하도록 합니다
+&lt;br&gt;썸휠을 위쪽으로 돌리면 감도가 높아지고 아래쪽으로 돌리면 감도가 낮아집니다. 썸휠을 위쪽으로 돌리면 와이퍼가 한 번 더 작동합니다.
+&lt;h3&gt;레인 센서 끄기&lt;/h3&gt;
+레인 센서 버튼 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;을 누르거나 레버 스위치를 다른 와이퍼 프로그램으로 움직이면 레인 센서가 꺼집니다.
+&lt;br&gt;차량을 끄면 레인 센서가 자동으로 꺼집니다.
+&lt;br&gt;와이퍼 블레이드를 서비스 위치에 놓으면 레인 센서가 꺼집니다. 서비스 위치를 취소하면 레인 센서가 다시 켜집니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;자동 세차장에 들어가면 앞유리 와이퍼가 작동하여 손상될 수 있습니다. 세차 전에 레인 센서를 끄십시오. 운전자 화면의 심벌이 꺼집니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인 센서 사용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 운전자 지원 시스템에서 경고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량이 예상치 못한 방식으로 작동할 경우에 이는 켜져 있는 차량의 안전 관련 기능 중 하나 때문일 수 있습니다.
+&lt;h3&gt;차량에서 벌어지는 상황은?&lt;/h3&gt;
+차량에는 운전자와 다른 도로 사용자의 통행 안전을 적극적으로 향상시켜 주는 여러 기능이 있습니다. 일부 기능 및 이들이 할 수 있는 것의 목록을 볼 수 있는 옵션이 있습니다. 이는 이러한 기능 중 어느 하나가 켜져도 운전자가 놀라지 않도록 하기 위한 것입니다. 기능이 켜질 경우, 운전자 화면에 문자 메시지가 표시되어 기능이 켜졌음을 알려줍니다.
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;기능을 자세히 이해하고 중요 경고에 대해 알려면 각 시스템의 개별 단원을 읽어 보십시오.
+&lt;h3&gt;심볼, 청각 신호, 시각 신호 또는 진동을 통한 경고
+차량의 운전자 지원 기능은 여러 방법으로 경고를 제공할 수 있습니다. 예를 들어 스티어링 휠의 떨림, 브레이크 진동 경고, 시각적 신호 또는 신호음 또는 운전자 화면의 심볼을 통해서 경고합니다.
+&lt;br&gt;또한 경고는 헤드업 디스플레이*에 표시될 수 있습니다.
+&lt;h3&gt;충돌 위험 시 지원&lt;/h3&gt;
+&lt;br&gt;충돌 위험 시 지원 기능은 경고, 자동 제동, 조향 지원을 통해 충돌을 회피하거나 완화할 수 있도록 운전자를 지원합니다.
+&lt;br&gt;따라서 이 기능에 대한 경험은 어떤 하위 기능이 켜지는가 하는 것에 따라 다를 수 있습니다.
+&lt;br&gt;충돌 위험 시 지원 기능은 필요한 경우에 다음 과 같은 단계를 실시할 수 있습니다.
+&lt;br&gt;• 충돌 경고
+&lt;br&gt;• 제동 지원
+&lt;br&gt;• 자동 제동
+&lt;br&gt;• 조향 지원
+&lt;h3&gt;차선유지 보조 시스템(LKA)&lt;/h3&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img23cd17043fc4ef56c0a801523dc4d9e5_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;
+&lt;br&gt;
+&lt;br&gt;차선유지 지원 시스템은 차량이 의도치 않게 차선을 이탈할 위험을 줄여줄 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 조향 지원: 이 기능이 차량이 차선 표시선에 접근하고 있음을 감지하면, 스티어링 휠에 부드러운 조향 작용이 적용되는 것을 느끼게 됩니다. 이 기능이 작동하려면 반드시 양손으로 스티어링 휠을 잡고 있어야 합니다.
+&lt;br&gt;• 경고: 이 기능이 차량이 차선 표시선에 접근하고 있음을 감지하면, 스티어링 휠의 떨림으로 경고합니다.
+&lt;br&gt;• 조향 지원 및 경고: 스티어링 휠의 떨림 및 스티어링 휠에 적용되는 부드러운 조향 동작으로 경고합니다.
+&lt;h3&gt;후방 추돌 경고(Rear Collision Warning) (RCW)&lt;/h3&gt;
+&lt;br&gt;
+&lt;br&gt;후방 추돌 경고(Rear Collision Warning)는 후방에서 접근하는 차량과 충돌하는 것을 방지하도록 도울 수 있는 시스템입니다. 이 시스템은 후방 충돌의 위험을 감지할 경우에 경고를 제공하고, 상황에 따라 다음 조치를 취할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 방향지시등의 집중적 점멸.
+&lt;br&gt;• 저속에서 이 기능은 안전벨트 프리텐셔너를 작동하여 안전벨트를 조일 수 있으며, 경추 보호 시스템(Whiplash Protection System)도 작동할 수 있습니다.
+&lt;br&gt;• 차량이 정지해 있을 경우에는 풋 브레이크를 작동할 수 있습니다.
+&lt;h3&gt;사각지대 감지(Blind Spot Information) (BLIS)&lt;/h3&gt;
+&lt;br&gt;
+&lt;br&gt;사각지대 감지(BLIS)는 빠르게 접근하는 차량과 후방의 대각선 방향 차량 및 측면의 차량을 경고하여 동일한 방향의 여러 차선이 있는 도로에서 교통 정체 시 운전을 보조합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0996f701625964e8c0a801526711bcf7_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;
+&lt;br&gt;
+&lt;br&gt;• 사이드 미러의 지시등, 고정식 조명등 및 비상등으로 경고합니다.
+&lt;h3&gt;운전자 경고(Driver Alert)&lt;/h3&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2102e47358a8fb3ec0a8015232194e11_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;
+&lt;br&gt;
+&lt;br&gt;이 기능은 주의가 산만해지거나 졸음 운전을 하는 경우 등 운전자가 일관성 없게 운전하기 시작하는 경우에 운전자의 주의를 환기시키기 위한 것입니다.
+&lt;br&gt;• 신호음과 운전자 화면의 심볼 및 메시지의 결합
+&lt;h3&gt;거리 경고&lt;/h3&gt;
+&lt;br&gt;거리 경고는 앞차와의 시간 간격이 급속히 짧아질 경우 경고할 수 있습니다.
+&lt;br&gt;• 앞유리 헤드업 디스플레이의 경고등 및/또는 심볼. 이 기능을 사용하려면 차량에 헤드업 디스플레이가 장착되어야 합니다.
+&lt;h3&gt;후진 시 경고 및 자동 브레이크&lt;/h3&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgf8124910c7391e59c0a801524178604d_2_--_--_VOICEpnghigh.png" width="64" height="64"&gt;
+&lt;br&gt;
+&lt;br&gt;후진 시 운전자의 충돌 방지를 보조할 수 있는 두 가지 기능이 있습니다.
+&lt;br&gt;• 후측방 접근경고(Cross Traffic Alert)(CTA) 차량 후진 시 후측방에서 접근하는 차량을 경고하도록 고안된 기능입니다.
+&lt;br&gt;• Rear Auto Brake(RAB)는 자동차가 후진 중일 때 자동차 바로 뒤에 있을 수 있는 정지 상태의 장애물을 운전자가 감지할 수 있도록 도움을 주기 위한 것입니다.
+&lt;br&gt;
+&lt;br&gt;장애물이 감지된 경우:
+&lt;br&gt;1. 경고 신호 및 주차 지원 그래픽이 점등되어 장애물의 위치를 나타냅니다.
+&lt;br&gt;2. 운전자가 경고에 주의를 기울이지 않고 충돌을 피할 수 없는 경우에 자동차는 자동으로 제동되며 자동차 제동 이유를 설명하는 문자 메시지가 표시됩니다.
+&lt;br&gt;
+&lt;h3&gt;전자 스태빌리티 컨트롤 (ESC)&lt;/h3&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img8744dfcb24670c97c0a8015273eab6c2_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;
+&lt;br&gt;
+&lt;br&gt;전자 스태빌리티 컨트롤(ESC)은 미끄러지는 것을 방지할 수 있도록 운전자를 지원하고 차량의 접지력을 향상시킵니다. 시스템이 개입하면 운전자 화면의 심볼이 깜박입니다. 고장이 발생하고 시스템을 사용할 수 없는 경우 심볼이 켜지고 문자 메시지가 표시됩니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;여기에서 설명하는 기능은 보완적인 기능이며 모든 조건에서 모든 상황에 대응할 수 있는 것은 아닙니다.
+&lt;br&gt;운전자는 도로교통법을 준수하면서 안전하게 운전할 책임이 있습니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 인테리어 및 보관 위치의 개요
+&lt;h3&gt;앞좌석&lt;/h3&gt;
+&lt;img src="https://www.volvocars.com/images/support/img9b441e099da24028c0a8015257012d8f_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;도어 패널 내의 보관 포켓과 스티어링 휠, 글로브 박스 및 선바이저 옆의 보관 포켓.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgfc6e93f29be30b2ec0a801520f95811c_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;컵 홀더, 무선 전화 충전기*, 전원 소켓 및 터널 콘솔 내의 USB 포트가 있는 수납 공간.&lt;/a&gt;
+&lt;h3&gt;2열 좌석&lt;/h3&gt;
+&lt;br&gt;6인승 차량&lt;/br&gt;
+&lt;img src="https://www.volvocars.com/images/support/imga94e849f9dd00bc1c0a801527c198d2a_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;도어 패널의 수납 공간, 터널 콘솔 바닥의 컵 홀더, 앞좌석 등받이의 보관 포켓* 및 터널 콘솔 내의 USB 포트.&lt;/a&gt;
+&lt;br&gt;7인승 차량&lt;/br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4b6fc79f9c07b392c0a80152298e2e15_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;도어 패널의 수납 공간, 중앙 좌석 등받이의 컵 홀더, 앞좌석 등받이의 보관 포켓 및 터널 콘솔 내의 USB 포트.&lt;/a&gt;
+&lt;h3&gt;3열 좌석&lt;/h3&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgc17292f78a1f47f1c0a801523050c14c_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;사이드 패널의 수납 공간 및 컵 홀더와 시트 사이의 수납 공간.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;휴대폰, 카메라, 액세서리용 리모컨 등과 같은 비고정식 물건은 글로브 박스 또는 기타 수납 공간에 수납하십시오. 그렇게 하지 않을 경우 급제동 또는 충돌 시 차량 탑승자가 부상을 입을 수 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;예를 들어 고광택면은 금속 물체에 의해 쉽게 긁힌다는 것을 염두에 두십시오. 키, 휴대폰, 기타 물건을 민감한 표면 위에 놓지 마십시오.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내 인테리어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 문서에서는 차량 외관의 각 부위별 설명을 확인할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;image src="./image/front.png" width="1082" height="647"&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+헤드램프(헤드라이트) : 상향등과 하향등이 있으며, 가로로 누운 T자 모양은 주간 주행등 및 방향지시등을 수행합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+그릴: 이곳을 통해 바깥 바람을 흡수합니다. 엔진의 열을 식히거나 라디에이터 열을 식히는 용도로 사용합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+번호판: 차량의 식별 번호가 장착됩니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+와이퍼(윈도우 브러시): 전면 유리의 이물질 등을 닦는데 사용합니다. 와셔액도 이곳을 통해 분사됩니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img13271b6666920bd6c0a801525a3d0845_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+타이어
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2d02abd46691bf4cc0a801524ebdde35_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+휠
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgbcad23bb669173cbc0a80152453f9f4a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+사이드미러: 사이드미러에는 측후방 안전 상태를 표시해주며, 그 밑에 360 카메라를 위한 카메라가 있습니다. 좌측 또는 우측에 상대 차량이 가까워오면 사이드미러를 통해 알림을 줍니
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgce0bdadb669126c3c0a8015208ab2f89_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+도어
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img31249d6e6690ce66c0a8015207bd6db2_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+손잡이: 손잡이 바깥을 터치하면 문이 잠기고, 안쪽을 터치하면 문이 열립니다. 차량의 문을 보조 키로 여는 경우 손잡이를 당기고 오른쪽을 보면 보조키로 열 수 있는 구멍이 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;image src="./image/left.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
+파노라마 선루프: 차량 윗 부분이 유리로 되어있으며 일부분이 완전히 열리거나 일부만 열리도록 할 수 있습니다. 개방감을 줍니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+테일램프: 차량 후면의 브레이크 등이나, 어두운 곳이나 야간에서 조명이 켜짐으로서 뒷차에게 차량을 식별할 수 있도록 해줍니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+번호판: 차량 후면에 위치한 식별 번호가 장착되는 부분입니다. 후면에는 번호판을 식별하기 위한 조명이 있습니다. 이 위치에는 차량 주차를 할 때 사용하거나 360도 뷰를 위한 후방 카메라도 존재합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+머플러: 차량의 배기가스 등 연소 후 잔여 물질이 이곳을 통해 방출됩니다. 전기차는 없거나, 디자인용으로 만든 가짜 머플러로 존재하고 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img13271b6666920bd6c0a801525a3d0845_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+후방 센서: 후방에 총 4개의 센서가 있으며, 차량이 저속으로 달리거나 후진을 할 때 사용됩니다. 후진 시 물체와 충돌하는 것을 방지하기 위한 안전 장치입니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2d02abd46691bf4cc0a801524ebdde35_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+방향지시등 또는 후진등: 비상등이나 좌측 또는 우측 방향 지시등이 점멸할 때 켜집니다. 한국에서는 법률 상 황색으로 점멸되며 일부 국가의 경우 적색으로 방향 지시등이 점멸하는 경우가 있습니다. 후진등의 후진을 하는 경우 흰색으로 켜집니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgbcad23bb669173cbc0a80152453f9f4a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+C필러: 차량 후면의 기둥입니다. 후면 또는 측후면 충돌로부터 탑승자를 보호합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img31249d6e6690ce66c0a8015207bd6db2_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+B필러: 차량 중앙의 기둥입니다. 측면 충돌로부터 탑승자를 보호합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;image src="./image/rear.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+테일램프: 차량 후면의 브레이크 등이나, 어두운 곳이나 야간에서 조명이 켜짐으로서 뒷차에게 차량을 식별할 수 있도록 해줍니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+연료주입구: 이 뚜껑을 열고 주유를 할 수 있습니다. 주유구 캡은 존재하지 않으며 주유구 뚜껑 안쪽에는 옥탄가나 주유해야하는 연료 종류가 적혀있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+후방 센서: 후방에 총 4개의 센서가 있으며, 차량이 저속으로 달리거나 후진을 할 때 사용됩니다. 후진 시 물체와 충돌하는 것을 방지하기 위한 안전 장치입니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+머플러: 차량의 배기가스 등 연소 후 잔여 물질이 이곳을 통해 방출됩니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img13271b6666920bd6c0a801525a3d0845_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+트렁크 버튼: 트렁크를 닫거나, 차량의 전체 문을 잠글 수 있습니다. 트렁크를 원하는 높이로 올리고 트렁크 닫힘 버튼을 길게 누르면 해당 높이로 열리도록 설정할 수 있습니다. 이는 세단 모델에는 없는 기능입니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2d02abd46691bf4cc0a801524ebdde35_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+방향지시등 또는 후진등: 비상등이나 좌측 또는 우측 방향 지시등이 점멸할 때 켜집니다. 한국에서는 법률 상 황색으로 점멸되며 일부 국가의 경우 적색으로 방향 지시등이 점멸하는 경우가 있습니다. 후진등의 후진을 하는 경우 흰색으로 켜집니다.
+&lt;br&gt;
+&lt;br&gt;&lt;image src="./image/right.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+연료주입구: 이 뚜껑을 열고 주유를 할 수 있습니다. 주유구 캡은 존재하지 않으며 주유구 뚜껑 안쪽에는 옥탄가나 주유해야하는 연료 종류가 적혀있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
+후방 센서: 후방에 총 4개의 센서가 있으며, 차량이 저속으로 달리거나 후진을 할 때 사용됩니다. 후진 시 물체와 충돌하는 것을 방지하기 위한 안전 장치입니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+사이드 스탭: 이곳 밑에 러닝보드를 장착할 수 있습니다. 러닝 보드는 XC(SUV) 라인업에만 장착할 수 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+파노라마 선루프: 차량 윗 부분이 유리로 되어있으며 일부분이 완전히 열리거나 일부만 열리도록 할 수 있습니다. 개방감을 줍니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img13271b6666920bd6c0a801525a3d0845_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+B필러: 차량 중앙의 기둥입니다. 측면 충돌로부터 탑승자를 보호합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;image src="./image/frontside.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+전방 센서: 후방에 총 4개의 센서가 있으며, 차량이 저속으로 달릴 때 사용 됩니다. 저속에서 차량과 물체의 충돌을 보호하기 위해 또는 전방 물체와 충돌을 막기 위해 사용됩니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+액티브 벤딩 라이트: 액티브 벤딩 라이트는 커브 및 교차로에서 보조 조명을 제공할 수 있도록 설계되었습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+와이퍼(윈도우 브러시): 전면 유리의 이물질 등을 닦는데 사용합니다. 와셔액도 이곳을 통해 분사됩니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+A필러: 차량 전방의 기둥입니다. 전방 또는 측전방 충돌로부터 탑승자를 보호합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img13271b6666920bd6c0a801525a3d0845_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+후면 윈도우 브러시: SUV나 CC 모델에만 존재합니다. 후면에도 와셔액이 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2d02abd46691bf4cc0a801524ebdde35_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+본닛 스위치: 내부에서 본닛 스위치를 당기면 본닛을 열 수 있습니다. 이후 살짝 열린 본닛 사이에서 노란색 손잡이를 좌측에서 우측으로 움직이면 본닛 잠금장치의 캐치에서 본닛이 분리되고 열 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 외관 식별하기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4358,10 +4577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4392,64 +4611,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="379.5">
+    <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B2" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="409.5">
+    <row r="3" spans="1:6" ht="379.5">
       <c r="A3" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B3" s="4">
         <v>45470</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="379.5">
+    <row r="4" spans="1:6" ht="409.5">
       <c r="A4" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B4" s="4">
         <v>45470</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="409.5">
+    <row r="5" spans="1:6" ht="379.5">
       <c r="A5" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" s="4">
         <v>45470</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -4458,62 +4677,62 @@
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="4">
         <v>45470</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="103.5">
+    <row r="7" spans="1:6" ht="409.5">
       <c r="A7" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B7" s="4">
         <v>45470</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="409.5">
+    <row r="8" spans="1:6" ht="103.5">
       <c r="A8" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8" s="4">
         <v>45470</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="69">
+    <row r="9" spans="1:6" ht="409.5">
       <c r="A9" s="3" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B9" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
@@ -4522,246 +4741,246 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="B10" s="4">
-        <v>45469</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>45470</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>66</v>
+        <v>282</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="241.5">
+    <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B11" s="4">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="B12" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>45470</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="103.5">
+    <row r="13" spans="1:6" ht="69">
       <c r="A13" s="3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B13" s="4">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="86.25">
+    <row r="14" spans="1:6" ht="293.25">
       <c r="A14" s="3" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>45469</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
+        <v>264</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="207">
+    <row r="15" spans="1:6" ht="241.5">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="B15" s="4">
         <v>45468</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>13</v>
+        <v>265</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="B16" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="327.75">
+    <row r="17" spans="1:6" ht="103.5">
       <c r="A17" s="3" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B17" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="138">
+    <row r="18" spans="1:6" ht="86.25">
       <c r="A18" s="3" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B18" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="293.25">
+    <row r="19" spans="1:6" ht="207">
       <c r="A19" s="3" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>45468</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>259</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="396.75">
+    <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4">
         <v>45467</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D20" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="409.5">
+    <row r="21" spans="1:6" ht="327.75">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B21" s="4">
         <v>45467</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="172.5">
+    <row r="22" spans="1:6" ht="138">
       <c r="A22" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B22" s="4">
         <v>45467</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="409.5">
+    <row r="23" spans="1:6" ht="293.25">
       <c r="A23" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B23" s="4">
         <v>45467</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="409.5">
+    <row r="24" spans="1:6" ht="396.75">
       <c r="A24" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B24" s="4">
         <v>45467</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
@@ -4769,241 +4988,241 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="409.5">
-      <c r="A25" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="14">
+      <c r="A25" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="4">
         <v>45467</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="409.5">
+    <row r="26" spans="1:6" ht="172.5">
       <c r="A26" s="3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B26" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="172.5">
-      <c r="A27" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="8">
-        <v>45463</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>212</v>
+    <row r="27" spans="1:6" ht="409.5">
+      <c r="A27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45467</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="B28" s="4">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="86.25">
-      <c r="A29" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="4">
-        <v>45463</v>
+    <row r="29" spans="1:6" ht="409.5">
+      <c r="A29" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="14">
+        <v>45467</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="379.5">
+    <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B30" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="327.75">
-      <c r="A31" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="31" spans="1:6" ht="172.5">
+      <c r="A31" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="8">
         <v>45463</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5" t="s">
-        <v>199</v>
+      <c r="C31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="189.75">
+    <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B32" s="4">
         <v>45463</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="103.5">
+    <row r="33" spans="1:6" ht="86.25">
       <c r="A33" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="409.5">
+    <row r="34" spans="1:6" ht="379.5">
       <c r="A34" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="409.5">
+    <row r="35" spans="1:6" ht="327.75">
       <c r="A35" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="409.5">
+    <row r="36" spans="1:6" ht="189.75">
       <c r="A36" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B36" s="4">
         <v>45463</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="345">
+    <row r="37" spans="1:6" ht="103.5">
       <c r="A37" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B37" s="4">
         <v>45463</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="327.75">
+    <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B38" s="4">
         <v>45463</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="241.5">
+    <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B39" s="4">
         <v>45463</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>9</v>
@@ -5012,78 +5231,78 @@
     </row>
     <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B40" s="4">
         <v>45463</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="409.5">
+    <row r="41" spans="1:6" ht="345">
       <c r="A41" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B41" s="4">
         <v>45463</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="409.5">
+    <row r="42" spans="1:6" ht="327.75">
       <c r="A42" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="409.5">
+    <row r="43" spans="1:6" ht="241.5">
       <c r="A43" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="276">
+    <row r="44" spans="1:6" ht="409.5">
       <c r="A44" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
@@ -5092,14 +5311,14 @@
     </row>
     <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
@@ -5108,448 +5327,440 @@
     </row>
     <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="B46" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>13</v>
+        <v>223</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" ht="409.5">
       <c r="A47" s="3" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B47" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="224.25">
-      <c r="A48" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>183</v>
+    <row r="48" spans="1:6" ht="276">
+      <c r="A48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="120.75">
-      <c r="A49" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>176</v>
+    <row r="49" spans="1:6" ht="409.5">
+      <c r="A49" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="B50" s="4">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>173</v>
+        <v>208</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="293.25">
+    <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B51" s="4">
         <v>45461</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="409.5">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:6" ht="224.25">
+      <c r="A52" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" ht="120.75">
+      <c r="A53" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="409.5">
+      <c r="A54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="293.25">
+      <c r="A55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="409.5">
+      <c r="A56" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B56" s="4">
         <v>45461</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" ht="172.5">
-      <c r="A53" s="3" t="s">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="172.5">
+      <c r="A57" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B53" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" ht="155.25">
-      <c r="A54" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" ht="409.5">
-      <c r="A55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" ht="207">
-      <c r="A56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" ht="409.5">
-      <c r="A57" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B57" s="4">
         <v>45460</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>25</v>
+        <v>184</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="258.75">
+    <row r="58" spans="1:6" ht="155.25">
       <c r="A58" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B58" s="4">
         <v>45460</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="138">
+    <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B59" s="4">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="207">
+      <c r="A60" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="409.5">
+      <c r="A61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="258.75">
+      <c r="A62" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="409.5">
-      <c r="A60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="4">
-        <v>45457</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" ht="276">
-      <c r="A61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="409.5">
-      <c r="A62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B63" s="4">
-        <v>45456</v>
+        <v>45459</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="138">
+    <row r="64" spans="1:6" ht="409.5">
       <c r="A64" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B64" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="409.5">
+    <row r="65" spans="1:6" ht="276">
       <c r="A65" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B65" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="310.5">
+    <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B66" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="409.5">
+    <row r="67" spans="1:6" ht="310.5">
       <c r="A67" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B67" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="409.5">
+    <row r="68" spans="1:6" ht="138">
       <c r="A68" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B68" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B69" s="4">
         <v>45455</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" ht="310.5">
       <c r="A70" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B70" s="4">
         <v>45455</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>9</v>
@@ -5558,583 +5769,655 @@
     </row>
     <row r="71" spans="1:6" ht="409.5">
       <c r="A71" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B71" s="4">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="189.75">
+    <row r="72" spans="1:6" ht="409.5">
       <c r="A72" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B72" s="4">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="224.25">
+    <row r="73" spans="1:6" ht="409.5">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B73" s="4">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="103.5">
+    <row r="74" spans="1:6" ht="310.5">
       <c r="A74" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B74" s="4">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B75" s="4">
         <v>45454</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="409.5">
+    <row r="76" spans="1:6" ht="189.75">
       <c r="A76" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B76" s="4">
         <v>45454</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="241.5">
+    <row r="77" spans="1:6" ht="224.25">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B77" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="207">
+    <row r="78" spans="1:6" ht="103.5">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B78" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="155.25">
+    <row r="79" spans="1:6" ht="409.5">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B79" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="207">
+    <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B80" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="120.75">
+    <row r="81" spans="1:6" ht="241.5">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B81" s="4">
         <v>45453</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="276">
+    <row r="82" spans="1:6" ht="207">
       <c r="A82" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B82" s="4">
         <v>45453</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="409.5">
+    <row r="83" spans="1:6" ht="155.25">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B83" s="4">
         <v>45453</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="396.75">
+    <row r="84" spans="1:6" ht="207">
       <c r="A84" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B84" s="4">
         <v>45453</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="120.75">
+      <c r="A85" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" ht="276">
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" ht="409.5">
+      <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="396.75">
+      <c r="A88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E88" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="409.5">
-      <c r="A85" s="6" t="s">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" ht="409.5">
+      <c r="A89" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B89" s="4">
         <v>45452</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" ht="276">
-      <c r="A86" s="6" t="s">
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="276">
+      <c r="A90" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B90" s="4">
         <v>45452</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:6" ht="86.25">
-      <c r="A87" s="6" t="s">
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="86.25">
+      <c r="A91" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B87" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="409.5">
-      <c r="A88" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="15"/>
-    </row>
-    <row r="89" spans="1:6" ht="69">
-      <c r="A89" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="69">
-      <c r="A90" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B90" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" ht="224.25">
-      <c r="A91" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="B91" s="8">
         <v>45450</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="103.5">
+    <row r="92" spans="1:6" ht="409.5">
       <c r="A92" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B92" s="8">
         <v>45450</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" ht="51.75">
+        <v>13</v>
+      </c>
+      <c r="F92" s="15"/>
+    </row>
+    <row r="93" spans="1:6" ht="69">
       <c r="A93" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B93" s="8">
         <v>45450</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="409.5">
+    <row r="94" spans="1:6" ht="69">
       <c r="A94" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B94" s="8">
         <v>45450</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="51.75">
+    <row r="95" spans="1:6" ht="224.25">
       <c r="A95" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B95" s="8">
         <v>45450</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="69">
+    <row r="96" spans="1:6" ht="103.5">
       <c r="A96" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B96" s="8">
         <v>45450</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="69">
+    <row r="97" spans="1:6" ht="51.75">
       <c r="A97" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B97" s="8">
         <v>45450</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="103.5">
+    <row r="98" spans="1:6" ht="409.5">
       <c r="A98" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B98" s="8">
         <v>45450</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="86.25">
-      <c r="A99" s="3" t="s">
-        <v>143</v>
+    <row r="99" spans="1:6" ht="51.75">
+      <c r="A99" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="103.5">
+    <row r="100" spans="1:6" ht="69">
       <c r="A100" s="6" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" ht="86.25">
+    <row r="101" spans="1:6" ht="69">
       <c r="A101" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" ht="103.5">
+      <c r="A102" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" ht="86.25">
+      <c r="A103" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" ht="103.5">
+      <c r="A104" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:6" ht="86.25">
+      <c r="A105" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D105" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6" ht="86.25">
-      <c r="A102" s="6" t="s">
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" ht="86.25">
+      <c r="A106" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B106" s="4">
         <v>45450</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="10"/>
+      <c r="F106" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F102">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F106">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F98E83-E241-458B-8B8C-27B2BD056F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBCB67F-B2CE-41C0-8C6D-590247BC3912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -3966,9 +3966,13 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>차량 외관 식별하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>이 문서에서는 차량 외관의 각 부위별 설명을 확인할 수 있습니다.
 &lt;br&gt;
-&lt;br&gt;&lt;image src="./image/front.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;image src="./image/front.png" width="980" height="647"&gt;
 &lt;br&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 헤드램프(헤드라이트) : 상향등과 하향등이 있으며, 가로로 누운 T자 모양은 주간 주행등 및 방향지시등을 수행합니다.
@@ -3989,7 +3993,7 @@
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img31249d6e6690ce66c0a8015207bd6db2_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 손잡이: 손잡이 바깥을 터치하면 문이 잠기고, 안쪽을 터치하면 문이 열립니다. 차량의 문을 보조 키로 여는 경우 손잡이를 당기고 오른쪽을 보면 보조키로 열 수 있는 구멍이 있습니다.
 &lt;br&gt;
-&lt;br&gt;&lt;image src="./image/left.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;image src="./image/left.png" width="980" height="647"&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
 파노라마 선루프: 차량 윗 부분이 유리로 되어있으며 일부분이 완전히 열리거나 일부만 열리도록 할 수 있습니다. 개방감을 줍니다.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
@@ -4007,7 +4011,7 @@
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img31249d6e6690ce66c0a8015207bd6db2_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 B필러: 차량 중앙의 기둥입니다. 측면 충돌로부터 탑승자를 보호합니다.
 &lt;br&gt;
-&lt;br&gt;&lt;image src="./image/rear.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;image src="./image/rear.png" width="980" height="647"&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 테일램프: 차량 후면의 브레이크 등이나, 어두운 곳이나 야간에서 조명이 켜짐으로서 뒷차에게 차량을 식별할 수 있도록 해줍니다.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
@@ -4021,7 +4025,7 @@
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2d02abd46691bf4cc0a801524ebdde35_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 방향지시등 또는 후진등: 비상등이나 좌측 또는 우측 방향 지시등이 점멸할 때 켜집니다. 한국에서는 법률 상 황색으로 점멸되며 일부 국가의 경우 적색으로 방향 지시등이 점멸하는 경우가 있습니다. 후진등의 후진을 하는 경우 흰색으로 켜집니다.
 &lt;br&gt;
-&lt;br&gt;&lt;image src="./image/right.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;image src="./image/right.png" width="980" height="647"&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 연료주입구: 이 뚜껑을 열고 주유를 할 수 있습니다. 주유구 캡은 존재하지 않으며 주유구 뚜껑 안쪽에는 옥탄가나 주유해야하는 연료 종류가 적혀있습니다.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
@@ -4033,7 +4037,7 @@
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img13271b6666920bd6c0a801525a3d0845_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 B필러: 차량 중앙의 기둥입니다. 측면 충돌로부터 탑승자를 보호합니다.
 &lt;br&gt;
-&lt;br&gt;&lt;image src="./image/frontside.png" width="1082" height="647"&gt;
+&lt;br&gt;&lt;image src="./image/frontside.png" width="980" height="647"&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 전방 센서: 후방에 총 4개의 센서가 있으며, 차량이 저속으로 달릴 때 사용 됩니다. 저속에서 차량과 물체의 충돌을 보호하기 위해 또는 전방 물체와 충돌을 막기 위해 사용됩니다.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
@@ -4048,10 +4052,6 @@
 본닛 스위치: 내부에서 본닛 스위치를 당기면 본닛을 열 수 있습니다. 이후 살짝 열린 본닛 사이에서 노란색 손잡이를 좌측에서 우측으로 움직이면 본닛 잠금장치의 캐치에서 본닛이 분리되고 열 수 있습니다.
 &lt;br&gt;
 &lt;br&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 외관 식별하기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4613,14 +4613,14 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="4">
         <v>45471</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBCB67F-B2CE-41C0-8C6D-590247BC3912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39A027-3E11-48D6-9D8C-A2C8E3CF82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4008,7 +4008,7 @@
 방향지시등 또는 후진등: 비상등이나 좌측 또는 우측 방향 지시등이 점멸할 때 켜집니다. 한국에서는 법률 상 황색으로 점멸되며 일부 국가의 경우 적색으로 방향 지시등이 점멸하는 경우가 있습니다. 후진등의 후진을 하는 경우 흰색으로 켜집니다.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgbcad23bb669173cbc0a80152453f9f4a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 C필러: 차량 후면의 기둥입니다. 후면 또는 측후면 충돌로부터 탑승자를 보호합니다.
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img31249d6e6690ce66c0a8015207bd6db2_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgce0bdadb669126c3c0a8015208ab2f89_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 B필러: 차량 중앙의 기둥입니다. 측면 충돌로부터 탑승자를 보호합니다.
 &lt;br&gt;
 &lt;br&gt;&lt;image src="./image/rear.png" width="980" height="647"&gt;
@@ -4579,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4613,78 +4613,78 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="4">
         <v>45471</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="379.5">
+    <row r="3" spans="1:6" ht="409.5">
       <c r="A3" s="3" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B3" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:6" ht="379.5">
       <c r="A4" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B4" s="4">
         <v>45470</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="379.5">
+    <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="4">
         <v>45470</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="409.5">
+    <row r="6" spans="1:6" ht="379.5">
       <c r="A6" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B6" s="4">
         <v>45470</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
@@ -4693,46 +4693,46 @@
     </row>
     <row r="7" spans="1:6" ht="409.5">
       <c r="A7" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="4">
         <v>45470</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="103.5">
+    <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" s="4">
         <v>45470</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="409.5">
+    <row r="9" spans="1:6" ht="103.5">
       <c r="A9" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B9" s="4">
         <v>45470</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
@@ -4741,14 +4741,14 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" s="4">
         <v>45470</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
@@ -4757,14 +4757,14 @@
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="4">
         <v>45470</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -4773,14 +4773,14 @@
     </row>
     <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B12" s="4">
         <v>45470</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39A027-3E11-48D6-9D8C-A2C8E3CF82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E25ED7-D31C-4692-8CFC-5399CB8643E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -3971,6 +3971,10 @@
   </si>
   <si>
     <t>이 문서에서는 차량 외관의 각 부위별 설명을 확인할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;볼보 자동차는 패밀리룩을 가지고 있어 디자인은 모두 비슷하나, 일부 차량에 따라 없거나 추가되는 기능 또는 옵션이 있을 수 있습니다.
+&lt;br&gt;예를 들어 플러그인 하이브리드 차량은 차량 좌측(운전석 쪽) 휀더 (앞 타이어 위)에 충전 포트가 존재합니다.&lt;/div&gt;
 &lt;br&gt;
 &lt;br&gt;&lt;image src="./image/front.png" width="980" height="647"&gt;
 &lt;br&gt;
@@ -4579,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E25ED7-D31C-4692-8CFC-5399CB8643E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41312F8-81A1-4C85-B327-723F9B2F64BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="292">
   <si>
     <t>Title</t>
   </si>
@@ -4056,6 +4056,50 @@
 본닛 스위치: 내부에서 본닛 스위치를 당기면 본닛을 열 수 있습니다. 이후 살짝 열린 본닛 사이에서 노란색 손잡이를 좌측에서 우측으로 움직이면 본닛 잠금장치의 캐치에서 본닛이 분리되고 열 수 있습니다.
 &lt;br&gt;
 &lt;br&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start/Stop 기능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start/Stop 기능을 탑재하여, 신호등 대기 시 또는 차량 정체 시 차량이 정지할 때 엔진이 일시적으로 꺼졌다가 필요 시 다시 시동됩니다.
+&lt;br&gt;
+&lt;br&gt;Start/Stop 기능은 연료 소비를 줄이고 환경 친화적인 주행 스타일과 배출 가스 저감에 공헌할 수 있습니다.
+&lt;br&gt;
+&lt;h3&gt;Start/Stop 기능을 사용할 때 주의 사항&lt;/h3&gt;
+Start/Stop 기능이 작동하려면 여러 조건이 충족되어야 합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h4&gt;Start/Stop 기능이 켜지지 않음&lt;/h4&gt;
+&lt;br&gt;다음 중 하나 이상의 이유로 인해 엔진이 정지하지 않거나 기능이 작동하지 않을 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 시동 후 차량 속도가 약 10 km/h (6 mph)에 도달하지 않을 때, 또는 기능이 연속적으로 여러 번 작동 될 때
+&lt;br&gt;• 엔진이 정상 작동 온도에 도달하지 않은 경우
+&lt;br&gt;• 앞유리 열선이 작동한 경우
+&lt;br&gt;• 실내 환경이 설정값과 다를 경우
+&lt;br&gt;• 운전자가 스티어링 휠을 크게 돌리는 경우
+&lt;br&gt;• 도로가 매우 가파를 경우
+&lt;br&gt;• ABS 시스템이 작동한 경우
+&lt;br&gt;• 급제동한 경우(ABS 시스템이 작동하지 않은 상태에서도)
+&lt;br&gt;• 짧은 시간에 여러 번 출발하여 스타터 모터의 열 보호 기능이 작동한 경우
+&lt;br&gt;• 배기 시스템의 미립자 필터가 포화된 경우
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;고전류 인출을 실시하면 배터리 용량이 최저 허용 레벨 아래로 떨어질 수 있으며, 이로 인해 Start/Stop 기능이 일시적으로 제한될 수 있습니다. 그런 후에 엔진은 운전자가 브레이크 페달에서 발을 떼지 않은 상태에서 자동으로 시작됩니다.&lt;/div&gt;
+&lt;br&gt;&lt;h4&gt;Start/Stop 기능이 꺼지지 않음&lt;/h4&gt;
+&lt;br&gt;다음 중 하나 이상의 이유로 인해 엔진이 시동되지 않거나 기능이 해제되지 않을 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 운전자가 안전벨트를 착용하지 않은 경우
+&lt;br&gt;• 기어 실렉터 레버가 P 위치에서 보닛이 열려있을 때
+&lt;br&gt;&lt;h4&gt;브레이크 페달에서 발을 떼지 않았는데 Start/Stop 기능이 해제됨&lt;/h4&gt;
+&lt;br&gt;다음의 경우 운전자가 브레이크 페달에서 발을 떼지 않은 상태에서 기능이 꺼지고 엔진이 시동 될 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 실내 습도가 높아 윈도우에 김이 서린 경우
+&lt;br&gt;• 실내 환경이 설정값과 다를 경우
+&lt;br&gt;• 배터리의 잔량이 최소 허용치보다 낮을 경우
+&lt;br&gt;• 기어 선택 레버를 D에서 R 위치로 옮길 경우.
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+Start/Stop 기능이 켜져 있을 때는 보닛을 열지 마십시오. 엔진을 정상적으로 끄고 보닛을 엽니다.&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4581,10 +4625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4647,64 +4691,64 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="379.5">
+    <row r="4" spans="1:6" ht="409.5">
       <c r="A4" s="3" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B4" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="409.5">
+    <row r="5" spans="1:6" ht="379.5">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5" s="4">
         <v>45470</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="379.5">
+    <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" s="4">
         <v>45470</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
+    <row r="7" spans="1:6" ht="379.5">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B7" s="4">
         <v>45470</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
@@ -4713,30 +4757,30 @@
     </row>
     <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" s="4">
         <v>45470</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="103.5">
+    <row r="9" spans="1:6" ht="409.5">
       <c r="A9" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B9" s="4">
         <v>45470</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
@@ -4745,14 +4789,14 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B10" s="4">
         <v>45470</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
@@ -4761,14 +4805,14 @@
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B11" s="4">
         <v>45470</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -4777,262 +4821,262 @@
     </row>
     <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="4">
         <v>45470</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="69">
+    <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B13" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="293.25">
+    <row r="14" spans="1:6" ht="69">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="B14" s="4">
         <v>45469</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="293.25">
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="241.5">
-      <c r="A15" s="3" t="s">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="241.5">
+      <c r="A16" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="409.5">
-      <c r="A16" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B16" s="4">
         <v>45468</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>9</v>
+        <v>265</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="103.5">
+    <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="B17" s="4">
         <v>45468</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="86.25">
+    <row r="18" spans="1:6" ht="103.5">
       <c r="A18" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B18" s="4">
         <v>45468</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="207">
+    <row r="19" spans="1:6" ht="86.25">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="B19" s="4">
         <v>45468</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="207">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="409.5">
-      <c r="A20" s="3" t="s">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="409.5">
+      <c r="A21" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="327.75">
-      <c r="A21" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="B21" s="4">
         <v>45467</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="138">
+    <row r="22" spans="1:6" ht="327.75">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" s="4">
         <v>45467</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="293.25">
+    <row r="23" spans="1:6" ht="138">
       <c r="A23" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B23" s="4">
         <v>45467</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="396.75">
+    <row r="24" spans="1:6" ht="293.25">
       <c r="A24" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="4">
         <v>45467</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="409.5">
+    <row r="25" spans="1:6" ht="396.75">
       <c r="A25" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B25" s="4">
         <v>45467</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="172.5">
+    <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="4">
         <v>45467</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="409.5">
+    <row r="27" spans="1:6" ht="172.5">
       <c r="A27" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B27" s="4">
         <v>45467</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>9</v>
@@ -5041,14 +5085,14 @@
     </row>
     <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B28" s="4">
         <v>45467</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>9</v>
@@ -5056,161 +5100,161 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="409.5">
-      <c r="A29" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="14">
+      <c r="A29" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="4">
         <v>45467</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="409.5">
-      <c r="A30" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="4">
-        <v>45464</v>
+      <c r="A30" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="14">
+        <v>45467</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="409.5">
+      <c r="A31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="172.5">
-      <c r="A31" s="6" t="s">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="172.5">
+      <c r="A32" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B32" s="8">
         <v>45463</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="409.5">
-      <c r="A32" s="3" t="s">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="409.5">
+      <c r="A33" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B32" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="86.25">
-      <c r="A33" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="379.5">
+    <row r="34" spans="1:6" ht="86.25">
       <c r="A34" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="327.75">
+    <row r="35" spans="1:6" ht="379.5">
       <c r="A35" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="189.75">
+    <row r="36" spans="1:6" ht="327.75">
       <c r="A36" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B36" s="4">
         <v>45463</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="103.5">
+    <row r="37" spans="1:6" ht="189.75">
       <c r="A37" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B37" s="4">
         <v>45463</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="409.5">
+    <row r="38" spans="1:6" ht="103.5">
       <c r="A38" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B38" s="4">
         <v>45463</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
@@ -5219,14 +5263,14 @@
     </row>
     <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="4">
         <v>45463</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>9</v>
@@ -5235,78 +5279,78 @@
     </row>
     <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B40" s="4">
         <v>45463</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="345">
+    <row r="41" spans="1:6" ht="409.5">
       <c r="A41" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B41" s="4">
         <v>45463</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="327.75">
+    <row r="42" spans="1:6" ht="345">
       <c r="A42" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="241.5">
+    <row r="43" spans="1:6" ht="327.75">
       <c r="A43" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="409.5">
+    <row r="44" spans="1:6" ht="241.5">
       <c r="A44" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
@@ -5315,14 +5359,14 @@
     </row>
     <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
@@ -5331,14 +5375,14 @@
     </row>
     <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>9</v>
@@ -5347,46 +5391,46 @@
     </row>
     <row r="47" spans="1:6" ht="409.5">
       <c r="A47" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="276">
+    <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="409.5">
+    <row r="49" spans="1:6" ht="276">
       <c r="A49" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>9</v>
@@ -5395,394 +5439,392 @@
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="B50" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>13</v>
+        <v>228</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="4">
+        <v>45462</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="409.5">
+      <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B52" s="4">
         <v>45461</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="224.25">
-      <c r="A52" s="6" t="s">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" ht="224.25">
+      <c r="A53" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B52" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" ht="120.75">
-      <c r="A53" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="B53" s="8">
         <v>45461</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="120.75">
+      <c r="A54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" ht="409.5">
-      <c r="A54" s="3" t="s">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="409.5">
+      <c r="A55" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B54" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" ht="293.25">
-      <c r="A55" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B55" s="4">
         <v>45461</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="409.5">
+    <row r="56" spans="1:6" ht="293.25">
       <c r="A56" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B56" s="4">
         <v>45461</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="172.5">
+    <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B57" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="155.25">
+    <row r="58" spans="1:6" ht="172.5">
       <c r="A58" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="4">
         <v>45460</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="409.5">
+    <row r="59" spans="1:6" ht="155.25">
       <c r="A59" s="3" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B59" s="4">
         <v>45460</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="207">
+    <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B60" s="4">
         <v>45460</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="409.5">
+    <row r="61" spans="1:6" ht="207">
       <c r="A61" s="3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B61" s="4">
         <v>45460</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="258.75">
+    <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B62" s="4">
         <v>45460</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>9</v>
+        <v>156</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B63" s="4">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="409.5">
+    <row r="64" spans="1:6" ht="138">
       <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="409.5">
+      <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B65" s="4">
         <v>45457</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="276">
-      <c r="A65" s="3" t="s">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="276">
+      <c r="A66" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B65" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="409.5">
-      <c r="A66" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B66" s="4">
         <v>45456</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="310.5">
+    <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B67" s="4">
         <v>45456</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="138">
+    <row r="68" spans="1:6" ht="310.5">
       <c r="A68" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B68" s="4">
         <v>45456</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" ht="138">
+      <c r="A69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E69" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="409.5">
-      <c r="A69" s="3" t="s">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="409.5">
+      <c r="A70" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B69" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="310.5">
-      <c r="A70" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B70" s="4">
         <v>45455</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="409.5">
+    <row r="71" spans="1:6" ht="310.5">
       <c r="A71" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B71" s="4">
         <v>45455</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>9</v>
@@ -5791,16 +5833,16 @@
     </row>
     <row r="72" spans="1:6" ht="409.5">
       <c r="A72" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B72" s="4">
         <v>45455</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>9</v>
@@ -5809,187 +5851,187 @@
     </row>
     <row r="73" spans="1:6" ht="409.5">
       <c r="A73" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B73" s="4">
         <v>45455</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="310.5">
+    <row r="74" spans="1:6" ht="409.5">
       <c r="A74" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B74" s="4">
         <v>45455</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="409.5">
+    <row r="75" spans="1:6" ht="310.5">
       <c r="A75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="409.5">
+      <c r="A76" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B75" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="189.75">
-      <c r="A76" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B76" s="4">
         <v>45454</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="224.25">
+    <row r="77" spans="1:6" ht="189.75">
       <c r="A77" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B77" s="4">
         <v>45454</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="103.5">
+    <row r="78" spans="1:6" ht="224.25">
       <c r="A78" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B78" s="4">
         <v>45454</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="409.5">
+    <row r="79" spans="1:6" ht="103.5">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B79" s="4">
         <v>45454</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B80" s="4">
         <v>45454</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="241.5">
+    <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" ht="241.5">
+      <c r="A82" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B81" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="207">
-      <c r="A82" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B82" s="4">
         <v>45453</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="155.25">
+    <row r="83" spans="1:6" ht="207">
       <c r="A83" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B83" s="4">
         <v>45453</v>
@@ -5998,430 +6040,448 @@
         <v>76</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="207">
+    <row r="84" spans="1:6" ht="155.25">
       <c r="A84" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B84" s="4">
         <v>45453</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="120.75">
+    <row r="85" spans="1:6" ht="207">
       <c r="A85" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B85" s="4">
         <v>45453</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="276">
+    <row r="86" spans="1:6" ht="120.75">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4">
         <v>45453</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="409.5">
+    <row r="87" spans="1:6" ht="276">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4">
         <v>45453</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="396.75">
+    <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4">
         <v>45453</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="409.5">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:6" ht="396.75">
+      <c r="A89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="409.5">
+      <c r="A90" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B89" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="276">
-      <c r="A90" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="B90" s="4">
         <v>45452</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="86.25">
+    <row r="91" spans="1:6" ht="276">
       <c r="A91" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" ht="86.25">
+      <c r="A92" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B91" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" ht="409.5">
-      <c r="A92" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="B92" s="8">
         <v>45450</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="15"/>
-    </row>
-    <row r="93" spans="1:6" ht="69">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="409.5">
       <c r="A93" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B93" s="8">
         <v>45450</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="10"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94" spans="1:6" ht="69">
       <c r="A94" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B94" s="8">
         <v>45450</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="224.25">
+    <row r="95" spans="1:6" ht="69">
       <c r="A95" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B95" s="8">
         <v>45450</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="103.5">
+    <row r="96" spans="1:6" ht="224.25">
       <c r="A96" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B96" s="8">
         <v>45450</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="51.75">
+    <row r="97" spans="1:6" ht="103.5">
       <c r="A97" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B97" s="8">
         <v>45450</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="409.5">
+    <row r="98" spans="1:6" ht="51.75">
       <c r="A98" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B98" s="8">
         <v>45450</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="51.75">
+    <row r="99" spans="1:6" ht="409.5">
       <c r="A99" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="69">
+    <row r="100" spans="1:6" ht="51.75">
       <c r="A100" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F100" s="10"/>
     </row>
     <row r="101" spans="1:6" ht="69">
       <c r="A101" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" ht="103.5">
+    <row r="102" spans="1:6" ht="69">
       <c r="A102" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" ht="86.25">
-      <c r="A103" s="3" t="s">
-        <v>143</v>
+    <row r="103" spans="1:6" ht="103.5">
+      <c r="A103" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" ht="103.5">
-      <c r="A104" s="6" t="s">
-        <v>146</v>
+    <row r="104" spans="1:6" ht="86.25">
+      <c r="A104" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="86.25">
+    <row r="105" spans="1:6" ht="103.5">
       <c r="A105" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="1:6" ht="86.25">
       <c r="A106" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" ht="86.25">
+      <c r="A107" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B107" s="4">
         <v>45450</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C107" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="10"/>
+      <c r="F107" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F106">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F107">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41312F8-81A1-4C85-B327-723F9B2F64BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A3C353-30EB-4AAB-AAB7-14A7BCE48FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="302">
   <si>
     <t>Title</t>
   </si>
@@ -4100,6 +4100,117 @@
 &lt;br&gt;• 기어 선택 레버를 D에서 R 위치로 옮길 경우.
 &lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
 Start/Stop 기능이 켜져 있을 때는 보닛을 열지 마십시오. 엔진을 정상적으로 끄고 보닛을 엽니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;br&gt;변속기는 엔진과 구동 휠 사이에 있는 파워 트레인(동력 전달 장치)의 일부입니다. 변속기의 기능은 속도 및 출력 요건에 따라 기어비를 변경하는 것입니다.
+&lt;br&gt;
+&lt;br&gt;차량에는 7속 또는 8속 자동 변속기가 장착되어 있습니다. 기어 단수가 많다는 것은 엔진의 토크 및 출력 범위를 효과적으로 이용할 수 있다는 것을 의미합니다.
+&lt;br&gt;
+&lt;br&gt;기어 중 두 개는 오버드라이브 기어로서 정속 주행 중 연료를 절감합니다. 운전자 화면은 선택한 기어 위치를 표시합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변속기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 화면에 있는 기어 변속 표시등은 수동 기어 변속 중에 현재 기어를 표시하며, 최적의 연비를 위해 다음 기어를 넣기에 적절한 시점을 표시합니다.
+&lt;br&gt;
+&lt;br&gt;수동 변속 시 에코 주행을 하려면 적절한 기어로 운전하고 기어를 적시에 변속하는 것이 중요합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img11be5417fb041228c0a801523313215e_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;운전자 화면의 기어 변속 표시등.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;기어 변속 표시등은 운전자 화면에 현재 기어를 표시하며 더 높은 기어로 변속할 것을 권장하거나 더 낮은 기어로 변속할 것을 권장하기 위해 "+" 또는 "-"로 표시합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;기어 변속 표시등은 특정 국가에서만 제공됩니다.&lt;/br&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기어 위치</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기어 변속 표시등</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량이 에너지 효율적으로 주행할 수 있도록 기어가 자동으로 선택됩니다. 변속기에는 수동 변속 모드도 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img50d41edd041a9302c0a8015243c92f0f_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;운전자 화면의 기어 셀렉터 및 변속 패턴 개요.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;운전자 화면은 선택한 기어 위치를 다음과 같이 표시합니다.
+&lt;br&gt;P, R, N, D 또는 M.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변속기에 문제가 발생하는 경우에 운전자 화면에 심볼과 메시지가 표시됩니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;구동 시스템 구성품이 손상되는 것을 방지하기 위해 변속기의 작동 온도가 점검됩니다. 변속기가 과열될 위험이 있으면 운전자 화면에 경고 심볼이 켜지고 메시지가 나타납니다. 메시지에 나오는 조치를 취하십시오.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img337da2622ba27c4ec0a8015203b272c2_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;변속기에서 오류가 발생했습니다.
+&lt;br&gt;운전자 화면 메시지를 읽어 보십시오.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4df9a45ebcf8a02fc0a80152602ea951_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;과열된 변속기.
+&lt;br&gt;운전자 화면 메시지를 읽어 보십시오.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imge89dca3f2a621a8dc0a8015210c2bc36_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;구동 트레인에 일시적으로 결함이 발생했습니다.
+&lt;br&gt;운전자 화면 메시지를 읽어 보십시오.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변속기 심볼 및 메시지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 보조 시스템(Pilot Assist)과 차선유지 지원 시스템 간의 차이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 보조 시스템(Pilot Assist)은 편안함을 높이기 위한 기능으로, 운전자가 차량을 차선 안에 유지하고 앞차와 안전한 거리를 유지할 수 있도록 도움을 줄 수 있습니다. 차선유지 지원 시스템1은 일부 상황에서 유사한 방법으로 차량이 우발적으로 차선을 이탈하는 위험을 감소시킬 수 있도록 운전자를 지원하는 기능입니다.
+&lt;h4&gt;Pilot Assist&lt;/h4&gt;
+파일럿 보조 시스템(Pilot Assist)은 차량을 차선 표시 내에서 조향할 수 있도록 도움을 줄 수 있고 앞차와 사전 설정된 속도 및 시간 간격을 유지할 수 있도록 지원합니다. 이 기능은 또한 차선 표시를 사용하여 차선 내에서 유리한 위치를 유지하는 데 도움을 줄 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)은 무엇을 합니까?
+&lt;br&gt;
+&lt;br&gt;• 특정 경우에는 조향을 지원하여 차선을 유지하도록 도움을 줄 수 있습니다.
+&lt;br&gt;• 가속 또는 제동을 통해 사전 설정된 속도 또는 앞차와의 거리를 유지하는 데 도움을 줄 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 작동 중일 때를 어떻게 알 수 있나요?
+&lt;br&gt;
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 작동 중인 경우 심볼이 운전자 화면에 표시됩니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd279f6cc3bd65421c0a8015201aaf3a1_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;파일럿 보조 시스템(Adaptive Cruise Control)이 작동함.
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 선택되었으나 사용할 수 없습니다. 이 기능에 대한 기준이 충족되지 않았습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgacc50b593bd648c7c0a801520833268b_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;파일럿 보조 시스템(Adaptive Cruise Control)이 작동함.
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 선택되었으나 사용할 수 없습니다. 이 기능에 대한 기준이 충족되지 않았습니다.
+&lt;br&gt;
+&lt;h3&gt;차선유지 지원 시스템&lt;/h3&gt;
+차선유지 지원 시스템은 차량이 우발적으로 차선을 이탈하려 할 때 운전자에게 조향 지원 또는 경고를 제공할 수 있습니다. 이 기능은 차선이 명확하게 보이는 도로 상에서 속도가 65-180 km/h (40-112 mph)일 때 활성화됩니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;차선유지 지원 시스템의 기능은 무엇입니까?&lt;/strong&gt;
+&lt;br&gt;• 차선유지 지원 시스템은 운전자에게 조향 지원을 통해 차량을 차선 내에 유지하고 스티어링 휠 진동을 통해 경고를 제공할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;차선유지 지원 시스템이 작동 중임을 어떻게 알 수 있나요?
+&lt;br&gt;차량의 운전자 화면에 있는 심볼이 이 기능의 상태를 표시합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img04b6af8245d63622c0a8015217aaa867_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 꺼진 심볼은 이 심볼이 작동 중이지만 LKA의 조건이 충족되지 않았다는 것을 의미합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgdbf1132c45d615e8c0a801523597fd26_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 흰색 기호는 LKA의 조건이 충족되었으며 이 기능을 이용할 수 있다는 것을 의미합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img9e60552a45d5f39ac0a801525cf5d9e4_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 주황색 심볼은 LKA가 차량을 차선 내에 유지하기 위한 조향 지원을 제공하며 스티어링 휠 진동을 통해 경고를 제공한다는 것을 의미합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;운전자는 항상 차량을 안전하게 운전할 책임이 있습니다. 이 기능을 사용하기 전에 사용 설명서에서 이 기능에 대한 모든 섹션을 읽어볼 것을 권장합니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;• 이 기능은 운전을 용이하게 해 주는 운전자 지원 시스템의 하나이지만 교통 상황, 날씨, 도로 상태에 관계 없이 모든 상황에서 기능을 발휘하는 것은 아닙니다.
+&lt;br&gt;• 운전자는 본 설명서에 나오는 시스템에 대한 정보(시스템의 한계, 시스템을 사용하기 전에 알아야 할 사항 등)를 모두 읽어 보는 것이 권장됩니다.
+&lt;br&gt;• 운전자 지원 기능은 운전자의 주의와 판단을 대체하는 것이 아닙니다. 운전자는 항상 적절한 속도로, 다른 차량과 적절한 간격을 유지하면서, 현행 교통 규칙 및 규정에 따라 차량을 안전하게 운전할 책임이 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;Lane Keeping Aid(LKA)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4625,10 +4736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4659,32 +4770,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5">
+    <row r="2" spans="1:6" ht="86.25">
       <c r="A2" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B2" s="4">
-        <v>45471</v>
+        <v>45472</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="409.5">
+    <row r="3" spans="1:6" ht="189.75">
       <c r="A3" s="3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B3" s="4">
-        <v>45471</v>
+        <v>45472</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -4693,78 +4804,78 @@
     </row>
     <row r="4" spans="1:6" ht="409.5">
       <c r="A4" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B4" s="4">
         <v>45471</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="379.5">
+    <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B5" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B6" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="379.5">
+    <row r="7" spans="1:6" ht="120.75">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="B7" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="409.5">
+    <row r="8" spans="1:6" ht="241.5">
       <c r="A8" s="3" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B8" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
@@ -4773,14 +4884,14 @@
     </row>
     <row r="9" spans="1:6" ht="409.5">
       <c r="A9" s="3" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="B9" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
@@ -4789,46 +4900,46 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B10" s="4">
         <v>45470</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B11" s="4">
         <v>45470</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="409.5">
+    <row r="12" spans="1:6" ht="379.5">
       <c r="A12" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B12" s="4">
         <v>45470</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>
@@ -4837,310 +4948,310 @@
     </row>
     <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B13" s="4">
         <v>45470</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="69">
+    <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B14" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="293.25">
+    <row r="15" spans="1:6" ht="103.5">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="B15" s="4">
-        <v>45469</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>45470</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>66</v>
+        <v>276</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="241.5">
+    <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B16" s="4">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="B17" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>45470</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E17" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="103.5">
+    <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="B18" s="4">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="86.25">
+    <row r="19" spans="1:6" ht="69">
       <c r="A19" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B19" s="4">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="207">
+    <row r="20" spans="1:6" ht="293.25">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="241.5">
+      <c r="A21" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="4">
         <v>45468</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="409.5">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="409.5">
+      <c r="A22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="327.75">
-      <c r="A22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="138">
+    <row r="23" spans="1:6" ht="103.5">
       <c r="A23" s="3" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B23" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="293.25">
+    <row r="24" spans="1:6" ht="86.25">
       <c r="A24" s="3" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B24" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="396.75">
+    <row r="25" spans="1:6" ht="207">
       <c r="A25" s="3" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>45468</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D25" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>9</v>
+        <v>259</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4">
         <v>45467</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D26" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="172.5">
+    <row r="27" spans="1:6" ht="327.75">
       <c r="A27" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B27" s="4">
         <v>45467</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="409.5">
+    <row r="28" spans="1:6" ht="138">
       <c r="A28" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B28" s="4">
         <v>45467</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="409.5">
+    <row r="29" spans="1:6" ht="293.25">
       <c r="A29" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B29" s="4">
         <v>45467</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="409.5">
-      <c r="A30" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="14">
+    <row r="30" spans="1:6" ht="396.75">
+      <c r="A30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="4">
         <v>45467</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B31" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
@@ -5148,209 +5259,209 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="172.5">
-      <c r="A32" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="8">
-        <v>45463</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>212</v>
+      <c r="A32" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="4">
+        <v>45467</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="B33" s="4">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="86.25">
+    <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B34" s="4">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="379.5">
-      <c r="A35" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="4">
-        <v>45463</v>
+    <row r="35" spans="1:6" ht="409.5">
+      <c r="A35" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="14">
+        <v>45467</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="327.75">
+    <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B36" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="189.75">
-      <c r="A37" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="37" spans="1:6" ht="172.5">
+      <c r="A37" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="8">
         <v>45463</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5" t="s">
-        <v>202</v>
+      <c r="C37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="103.5">
+    <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B38" s="4">
         <v>45463</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="409.5">
+    <row r="39" spans="1:6" ht="86.25">
       <c r="A39" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B39" s="4">
         <v>45463</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="409.5">
+    <row r="40" spans="1:6" ht="379.5">
       <c r="A40" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B40" s="4">
         <v>45463</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="409.5">
+    <row r="41" spans="1:6" ht="327.75">
       <c r="A41" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B41" s="4">
         <v>45463</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="345">
+    <row r="42" spans="1:6" ht="189.75">
       <c r="A42" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="327.75">
+    <row r="43" spans="1:6" ht="103.5">
       <c r="A43" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="241.5">
+    <row r="44" spans="1:6" ht="409.5">
       <c r="A44" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
@@ -5359,14 +5470,14 @@
     </row>
     <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
@@ -5375,62 +5486,62 @@
     </row>
     <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="409.5">
+    <row r="47" spans="1:6" ht="345">
       <c r="A47" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="409.5">
+    <row r="48" spans="1:6" ht="327.75">
       <c r="A48" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="276">
+    <row r="49" spans="1:6" ht="241.5">
       <c r="A49" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>9</v>
@@ -5439,14 +5550,14 @@
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>9</v>
@@ -5455,250 +5566,240 @@
     </row>
     <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="B51" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>13</v>
+        <v>219</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="B52" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="224.25">
-      <c r="A53" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>183</v>
+    <row r="53" spans="1:6" ht="409.5">
+      <c r="A53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="120.75">
-      <c r="A54" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>176</v>
+    <row r="54" spans="1:6" ht="276">
+      <c r="A54" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B55" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="293.25">
+    <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="B56" s="4">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>9</v>
+        <v>208</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B57" s="4">
         <v>45461</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="172.5">
-      <c r="A58" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>184</v>
+    <row r="58" spans="1:6" ht="224.25">
+      <c r="A58" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="155.25">
-      <c r="A59" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>160</v>
+    <row r="59" spans="1:6" ht="120.75">
+      <c r="A59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="B60" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="207">
+    <row r="61" spans="1:6" ht="293.25">
       <c r="A61" s="3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B61" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="B62" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>25</v>
+        <v>188</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B63" s="4">
         <v>45460</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="138">
+    <row r="64" spans="1:6" ht="155.25">
       <c r="A64" s="3" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B64" s="4">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>9</v>
@@ -5707,286 +5808,286 @@
     </row>
     <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B65" s="4">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>13</v>
+        <v>161</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="276">
+    <row r="66" spans="1:6" ht="207">
       <c r="A66" s="3" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="B66" s="4">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>19</v>
+        <v>162</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B67" s="4">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="310.5">
+    <row r="68" spans="1:6" ht="258.75">
       <c r="A68" s="3" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="B68" s="4">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>29</v>
+        <v>165</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="138">
       <c r="A69" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B69" s="4">
-        <v>45456</v>
+        <v>45459</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" ht="409.5">
       <c r="A70" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B70" s="4">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="310.5">
+    <row r="71" spans="1:6" ht="276">
       <c r="A71" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B71" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F71" s="10"/>
     </row>
     <row r="72" spans="1:6" ht="409.5">
       <c r="A72" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B72" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="409.5">
+    <row r="73" spans="1:6" ht="310.5">
       <c r="A73" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B73" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="409.5">
+    <row r="74" spans="1:6" ht="138">
       <c r="A74" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B74" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="310.5">
+    <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B75" s="4">
         <v>45455</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="310.5">
+      <c r="A76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="409.5">
+      <c r="A77" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="409.5">
+      <c r="A78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="409.5">
+      <c r="A79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="310.5">
+      <c r="A80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="409.5">
-      <c r="A76" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="189.75">
-      <c r="A77" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="224.25">
-      <c r="A78" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="103.5">
-      <c r="A79" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="409.5">
-      <c r="A80" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>9</v>
@@ -5995,493 +6096,583 @@
     </row>
     <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B81" s="4">
         <v>45454</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="241.5">
+    <row r="82" spans="1:6" ht="189.75">
       <c r="A82" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B82" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="207">
+    <row r="83" spans="1:6" ht="224.25">
       <c r="A83" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B83" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="155.25">
+    <row r="84" spans="1:6" ht="103.5">
       <c r="A84" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B84" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="207">
+    <row r="85" spans="1:6" ht="409.5">
       <c r="A85" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B85" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="120.75">
+    <row r="86" spans="1:6" ht="409.5">
       <c r="A86" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="276">
+    <row r="87" spans="1:6" ht="241.5">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B87" s="4">
         <v>45453</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="409.5">
+    <row r="88" spans="1:6" ht="207">
       <c r="A88" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B88" s="4">
         <v>45453</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="396.75">
+    <row r="89" spans="1:6" ht="155.25">
       <c r="A89" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B89" s="4">
         <v>45453</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="207">
+      <c r="A90" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="120.75">
+      <c r="A91" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" ht="276">
+      <c r="A92" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="409.5">
+      <c r="A93" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" ht="396.75">
+      <c r="A94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="409.5">
-      <c r="A90" s="6" t="s">
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" ht="409.5">
+      <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B95" s="4">
         <v>45452</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D95" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" ht="276">
-      <c r="A91" s="6" t="s">
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" ht="276">
+      <c r="A96" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B96" s="4">
         <v>45452</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" ht="86.25">
-      <c r="A92" s="6" t="s">
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" ht="86.25">
+      <c r="A97" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B92" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" ht="409.5">
-      <c r="A93" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="15"/>
-    </row>
-    <row r="94" spans="1:6" ht="69">
-      <c r="A94" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="10"/>
-    </row>
-    <row r="95" spans="1:6" ht="69">
-      <c r="A95" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B95" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6" ht="224.25">
-      <c r="A96" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B96" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="10"/>
-    </row>
-    <row r="97" spans="1:6" ht="103.5">
-      <c r="A97" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="B97" s="8">
         <v>45450</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="51.75">
+    <row r="98" spans="1:6" ht="409.5">
       <c r="A98" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B98" s="8">
         <v>45450</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="409.5">
+      <c r="F98" s="15"/>
+    </row>
+    <row r="99" spans="1:6" ht="69">
       <c r="A99" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="51.75">
+    <row r="100" spans="1:6" ht="69">
       <c r="A100" s="6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" ht="69">
+    <row r="101" spans="1:6" ht="224.25">
       <c r="A101" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" ht="69">
+    <row r="102" spans="1:6" ht="103.5">
       <c r="A102" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" ht="103.5">
+    <row r="103" spans="1:6" ht="51.75">
       <c r="A103" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" ht="86.25">
-      <c r="A104" s="3" t="s">
-        <v>143</v>
+    <row r="104" spans="1:6" ht="409.5">
+      <c r="A104" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="103.5">
+    <row r="105" spans="1:6" ht="51.75">
       <c r="A105" s="6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="86.25">
+    <row r="106" spans="1:6" ht="69">
       <c r="A106" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" ht="86.25">
+    <row r="107" spans="1:6" ht="69">
       <c r="A107" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" ht="103.5">
+      <c r="A108" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" ht="86.25">
+      <c r="A109" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" ht="103.5">
+      <c r="A110" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" ht="86.25">
+      <c r="A111" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" ht="86.25">
+      <c r="A112" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B112" s="4">
         <v>45450</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E112" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="10"/>
+      <c r="F112" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F107">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F112">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A3C353-30EB-4AAB-AAB7-14A7BCE48FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653C5BC-6045-4789-A4E9-116773650587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="304">
   <si>
     <t>Title</t>
   </si>
@@ -4211,6 +4211,17 @@
 &lt;br&gt;• 운전자 지원 기능은 운전자의 주의와 판단을 대체하는 것이 아닙니다. 운전자는 항상 적절한 속도로, 다른 차량과 적절한 간격을 유지하면서, 현행 교통 규칙 및 규정에 따라 차량을 안전하게 운전할 책임이 있습니다.&lt;/div&gt;
 &lt;br&gt;
 &lt;br&gt;Lane Keeping Aid(LKA)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은 휴대폰에는 장치 간의 데이터 전송을 가능하게 하는 무선 통신 기술 중 하나 인 NFC1가 장착되어 있습니다. NFC 지원 iPhone이 있는 경우 스마트폰 무선 충전기를 사용할 때 Apple Wallet이 자동으로 열릴 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;스마트폰 무선 충전기를 사용할 때 신용카드에 요금이 부과되지 않습니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX30 스마트폰 무선 충전기를 사용하는 동안 Apple Wallet 열림</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4366,7 +4377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4420,6 +4431,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4736,10 +4750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4775,7 +4789,7 @@
         <v>293</v>
       </c>
       <c r="B2" s="4">
-        <v>45472</v>
+        <v>45471</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
@@ -4791,7 +4805,7 @@
         <v>296</v>
       </c>
       <c r="B3" s="4">
-        <v>45472</v>
+        <v>45471</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
@@ -4900,62 +4914,62 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="B10" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>267</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:6" ht="379.5">
       <c r="A11" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B11" s="4">
         <v>45470</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="379.5">
+    <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" s="4">
         <v>45470</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="409.5">
+    <row r="13" spans="1:6" ht="379.5">
       <c r="A13" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B13" s="4">
         <v>45470</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
@@ -4964,46 +4978,46 @@
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B14" s="4">
         <v>45470</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="103.5">
+    <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" s="4">
         <v>45470</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="409.5">
+    <row r="16" spans="1:6" ht="103.5">
       <c r="A16" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B16" s="4">
         <v>45470</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
@@ -5012,14 +5026,14 @@
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B17" s="4">
         <v>45470</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>9</v>
@@ -5028,262 +5042,262 @@
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="4">
         <v>45470</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="69">
+    <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B19" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="293.25">
+    <row r="20" spans="1:6" ht="69">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="B20" s="4">
         <v>45469</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="293.25">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="241.5">
-      <c r="A21" s="3" t="s">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="241.5">
+      <c r="A22" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="409.5">
-      <c r="A22" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B22" s="4">
         <v>45468</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>9</v>
+        <v>265</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="103.5">
+    <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="B23" s="4">
         <v>45468</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D23" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="86.25">
+    <row r="24" spans="1:6" ht="103.5">
       <c r="A24" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B24" s="4">
         <v>45468</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="207">
+    <row r="25" spans="1:6" ht="86.25">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="B25" s="4">
         <v>45468</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="207">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="409.5">
-      <c r="A26" s="3" t="s">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="409.5">
+      <c r="A27" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="327.75">
-      <c r="A27" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="B27" s="4">
         <v>45467</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D27" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="138">
+    <row r="28" spans="1:6" ht="327.75">
       <c r="A28" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B28" s="4">
         <v>45467</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="293.25">
+    <row r="29" spans="1:6" ht="138">
       <c r="A29" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B29" s="4">
         <v>45467</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="396.75">
+    <row r="30" spans="1:6" ht="293.25">
       <c r="A30" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" s="4">
         <v>45467</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="409.5">
+    <row r="31" spans="1:6" ht="396.75">
       <c r="A31" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="4">
         <v>45467</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="172.5">
+    <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="4">
         <v>45467</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="409.5">
+    <row r="33" spans="1:6" ht="172.5">
       <c r="A33" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B33" s="4">
         <v>45467</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -5292,14 +5306,14 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B34" s="4">
         <v>45467</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
@@ -5307,161 +5321,161 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="409.5">
-      <c r="A35" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B35" s="14">
+      <c r="A35" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="4">
         <v>45467</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="409.5">
-      <c r="A36" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B36" s="4">
-        <v>45464</v>
+      <c r="A36" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="14">
+        <v>45467</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="409.5">
+      <c r="A37" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="172.5">
-      <c r="A37" s="6" t="s">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="172.5">
+      <c r="A38" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B38" s="8">
         <v>45463</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="409.5">
-      <c r="A38" s="3" t="s">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="409.5">
+      <c r="A39" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B38" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="86.25">
-      <c r="A39" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="B39" s="4">
         <v>45463</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="379.5">
+    <row r="40" spans="1:6" ht="86.25">
       <c r="A40" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B40" s="4">
         <v>45463</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="327.75">
+    <row r="41" spans="1:6" ht="379.5">
       <c r="A41" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B41" s="4">
         <v>45463</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="189.75">
+    <row r="42" spans="1:6" ht="327.75">
       <c r="A42" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="103.5">
+    <row r="43" spans="1:6" ht="189.75">
       <c r="A43" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="409.5">
+    <row r="44" spans="1:6" ht="103.5">
       <c r="A44" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
@@ -5470,14 +5484,14 @@
     </row>
     <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
@@ -5486,78 +5500,78 @@
     </row>
     <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="345">
+    <row r="47" spans="1:6" ht="409.5">
       <c r="A47" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="327.75">
+    <row r="48" spans="1:6" ht="345">
       <c r="A48" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="241.5">
+    <row r="49" spans="1:6" ht="327.75">
       <c r="A49" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="409.5">
+    <row r="50" spans="1:6" ht="241.5">
       <c r="A50" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>9</v>
@@ -5566,14 +5580,14 @@
     </row>
     <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
@@ -5582,14 +5596,14 @@
     </row>
     <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
@@ -5598,46 +5612,46 @@
     </row>
     <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="276">
+    <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="409.5">
+    <row r="55" spans="1:6" ht="276">
       <c r="A55" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
@@ -5646,124 +5660,122 @@
     </row>
     <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="B56" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>13</v>
+        <v>228</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4">
+        <v>45462</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="409.5">
+      <c r="A58" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B58" s="4">
         <v>45461</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" ht="224.25">
-      <c r="A58" s="6" t="s">
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="224.25">
+      <c r="A59" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B58" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" ht="120.75">
-      <c r="A59" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="B59" s="8">
         <v>45461</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="120.75">
+      <c r="A60" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="409.5">
-      <c r="A60" s="3" t="s">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="409.5">
+      <c r="A61" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B60" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" ht="293.25">
-      <c r="A61" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B61" s="4">
         <v>45461</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="409.5">
+    <row r="62" spans="1:6" ht="293.25">
       <c r="A62" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B62" s="4">
         <v>45461</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
@@ -5772,268 +5784,268 @@
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B63" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="155.25">
+    <row r="64" spans="1:6" ht="172.5">
       <c r="A64" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B64" s="4">
         <v>45460</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="409.5">
+    <row r="65" spans="1:6" ht="155.25">
       <c r="A65" s="3" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B65" s="4">
         <v>45460</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="207">
+    <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B66" s="4">
         <v>45460</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="409.5">
+    <row r="67" spans="1:6" ht="207">
       <c r="A67" s="3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B67" s="4">
         <v>45460</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="258.75">
+    <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B68" s="4">
         <v>45460</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" ht="258.75">
+      <c r="A69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="138">
-      <c r="A69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="409.5">
+    <row r="70" spans="1:6" ht="138">
       <c r="A70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="409.5">
+      <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B71" s="4">
         <v>45457</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="276">
-      <c r="A71" s="3" t="s">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="276">
+      <c r="A72" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B71" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="409.5">
-      <c r="A72" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B72" s="4">
         <v>45456</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="310.5">
+    <row r="73" spans="1:6" ht="409.5">
       <c r="A73" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B73" s="4">
         <v>45456</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="138">
+    <row r="74" spans="1:6" ht="310.5">
       <c r="A74" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B74" s="4">
         <v>45456</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="138">
+      <c r="A75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="409.5">
-      <c r="A75" s="3" t="s">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="409.5">
+      <c r="A76" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B75" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="310.5">
-      <c r="A76" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B76" s="4">
         <v>45455</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="409.5">
+    <row r="77" spans="1:6" ht="310.5">
       <c r="A77" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B77" s="4">
         <v>45455</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>9</v>
@@ -6042,16 +6054,16 @@
     </row>
     <row r="78" spans="1:6" ht="409.5">
       <c r="A78" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78" s="4">
         <v>45455</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>9</v>
@@ -6060,187 +6072,187 @@
     </row>
     <row r="79" spans="1:6" ht="409.5">
       <c r="A79" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B79" s="4">
         <v>45455</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="310.5">
+    <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B80" s="4">
         <v>45455</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="409.5">
+    <row r="81" spans="1:6" ht="310.5">
       <c r="A81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" ht="409.5">
+      <c r="A82" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B81" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="189.75">
-      <c r="A82" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B82" s="4">
         <v>45454</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="224.25">
+    <row r="83" spans="1:6" ht="189.75">
       <c r="A83" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B83" s="4">
         <v>45454</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="103.5">
+    <row r="84" spans="1:6" ht="224.25">
       <c r="A84" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B84" s="4">
         <v>45454</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="409.5">
+    <row r="85" spans="1:6" ht="103.5">
       <c r="A85" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B85" s="4">
         <v>45454</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F85" s="10"/>
     </row>
     <row r="86" spans="1:6" ht="409.5">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B86" s="4">
         <v>45454</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="241.5">
+    <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="241.5">
+      <c r="A88" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B87" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="207">
-      <c r="A88" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B88" s="4">
         <v>45453</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="155.25">
+    <row r="89" spans="1:6" ht="207">
       <c r="A89" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" s="4">
         <v>45453</v>
@@ -6249,430 +6261,448 @@
         <v>76</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="207">
+    <row r="90" spans="1:6" ht="155.25">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B90" s="4">
         <v>45453</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="120.75">
+    <row r="91" spans="1:6" ht="207">
       <c r="A91" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B91" s="4">
         <v>45453</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="276">
+    <row r="92" spans="1:6" ht="120.75">
       <c r="A92" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B92" s="4">
         <v>45453</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="409.5">
+    <row r="93" spans="1:6" ht="276">
       <c r="A93" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="396.75">
+    <row r="94" spans="1:6" ht="409.5">
       <c r="A94" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="409.5">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:6" ht="396.75">
+      <c r="A95" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" ht="409.5">
+      <c r="A96" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B95" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6" ht="276">
-      <c r="A96" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="B96" s="4">
         <v>45452</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="86.25">
+    <row r="97" spans="1:6" ht="276">
       <c r="A97" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" ht="86.25">
+      <c r="A98" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B97" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6" ht="409.5">
-      <c r="A98" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="B98" s="8">
         <v>45450</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="15"/>
-    </row>
-    <row r="99" spans="1:6" ht="69">
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" ht="409.5">
       <c r="A99" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="10"/>
+      <c r="F99" s="15"/>
     </row>
     <row r="100" spans="1:6" ht="69">
       <c r="A100" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" ht="224.25">
+    <row r="101" spans="1:6" ht="69">
       <c r="A101" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" ht="103.5">
+    <row r="102" spans="1:6" ht="224.25">
       <c r="A102" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" ht="51.75">
+    <row r="103" spans="1:6" ht="103.5">
       <c r="A103" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" ht="409.5">
+    <row r="104" spans="1:6" ht="51.75">
       <c r="A104" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="51.75">
+    <row r="105" spans="1:6" ht="409.5">
       <c r="A105" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="69">
+    <row r="106" spans="1:6" ht="51.75">
       <c r="A106" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" ht="69">
       <c r="A107" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" ht="103.5">
+    <row r="108" spans="1:6" ht="69">
       <c r="A108" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="86.25">
-      <c r="A109" s="3" t="s">
-        <v>143</v>
+    <row r="109" spans="1:6" ht="103.5">
+      <c r="A109" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="103.5">
-      <c r="A110" s="6" t="s">
-        <v>146</v>
+    <row r="110" spans="1:6" ht="86.25">
+      <c r="A110" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="86.25">
+    <row r="111" spans="1:6" ht="103.5">
       <c r="A111" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="1:6" ht="86.25">
       <c r="A112" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" ht="86.25">
+      <c r="A113" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B113" s="4">
         <v>45450</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C113" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E113" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="10"/>
+      <c r="F113" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F112">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F113">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653C5BC-6045-4789-A4E9-116773650587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE73BB-83D8-4C46-8E65-CF51EAFF2DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="306">
   <si>
     <t>Title</t>
   </si>
@@ -4222,6 +4222,58 @@
   </si>
   <si>
     <t>EX30 스마트폰 무선 충전기를 사용하는 동안 Apple Wallet 열림</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Park Assist Pilot 옵션을 사용하면 수직 주차 시 도움을 받을 수 있습니다. 여기서는 기능 사용 방법을 설명하는 정보와 동영상 자료를 찾을 수 있습니다.
+&lt;h3&gt;Park Assist Pilot을 통한 수직 주차&lt;/h3&gt;
+Park Assist Pilot은 수직 주차를 보조할 수 있는 운전자 지원 기능입니다.
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;메뉴 옵션 및 설정의 모양은 소프트웨어 버전과 언어 설정에 따라 다를 수 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;h4&gt;공간 검색 및 확인&lt;/h4&gt;
+&lt;img src="https://www.volvocars.com/images/support/imgf876d323345b48e7c0a80152756bb4b7_1_--_--_VOICEpnghigh.png" width="369" height="254"&gt;
+&lt;br&gt;
+&lt;br&gt;1. 주차하려는 지역에 도착하면 속도를 낮추고 중앙 화면의 기능 보기에서 파크 인 항목을 또는 카메라 보기에서 또는 이와 동등한 버튼을 탭합니다.
+&lt;br&gt;2. 이제 시스템이 적합한 주차 공간을 검색합니다. 주차하려는 주차 공간의 행을 따라 계속 운전합니다. 20km/h(12mph) 이하로 주행하고 주차된 다른 차량과 1.5m 이상 떨어지지 않도록 합니다.
+&lt;br&gt;3. 시스템이 중앙 화면을 통해 적절한 주차 공간을 찾았다고 알려주면 안내에 따라 차량을 완전히 정차할 준비를 합니다.
+&lt;br&gt;4. 중앙 화면에 나타나는 팝업 창에서 직각 주차 항목을 선택하고 스티어링 휠이 자유롭게 움직이고 후진 기어가 체결될 수 있도록 합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;Park Assist Pilot의 기본 설정은 차량의 동승석 쪽 주차 공간을 검색하는 것입니다. 운전석 쪽 주차 공간을 검색하려면 주차 공간 검색이 진행되는 동안 운전석 쪽 방향지시등을 작동하세요.&lt;/div&gt;
+&lt;h4&gt;주차 공간으로 후진&lt;/h4&gt;
+&lt;img src="https://www.volvocars.com/images/support/img47f696ee345b1efac0a8015238785522_1_--_--_VOICEpnghigh.png" width="369" height="254"&gt;
+&lt;br&gt;1. 후진 기어가 체결된 상태에서 차량 뒤와 주변에 장애물이 없는지 확인합니다.
+&lt;br&gt;2. 해당 공간으로 천천히 후진합니다. 7kmh(4mph) 이하로 주행하고 스티어링 휠을 자유롭게 움직일 수 있도록 합니다. 후진 중에는 항상 차량 뒤와 주변에 나타날 수 있는 장애물이 있는지 또는 센서가 감지하지 않은 장애물이 있는지 주의를 기울입니다. 필요한 경우 항상 차량을 제동할 준비를 합니다.
+&lt;br&gt;3. 중앙 화면에 이를 알리는 메시지가 표시되면 차량을 완전히 정지합니다.
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;Park Assist Pilot이 차량 조향을 지원하는 동안 스티어링 휠이 자유롭게 움직일 수 있도록 하세요. 스티어링 휠 회전이 멈출 때까지 기다렸다가 전진 또는 후진 운전을 시작하세요. 필요한 경우 항상 직접 조향할 준비를 하세요.&lt;/div&gt;
+&lt;h4&gt;주차 공간으로 후진&lt;/h4&gt;
+&lt;img src="https://www.volvocars.com/images/support/imgc2e81f6434644801c0a8015242b7cce9_1_--_--_VOICEpnghigh.png" width="369" height="254"&gt;
+&lt;br&gt;1. 스티어링 휠 회전이 멈출 때까지 기다렸다가 중앙 화면의 안내에 따라 주행합니다.
+&lt;br&gt;2. 중앙 화면의 지침을 계속 따르고 지시가 있으면 정지 및/또는 후진할 준비를 합니다. 차량 주변에서 항상 주의를 기울여야 한다는 점을 잊지 마십시오.
+&lt;br&gt;&gt; 주차가 완료되었다고 판단하면 이 기능이 자동으로 비활성화됩니다. 필요하다고 생각하면 수동으로 주차를 추가적으로 수정합니다. 운전자는 차량이 올바르게 주차되었는지 여부와 시점을 결정합니다. 운전자는 항상 차량을 안전하게 주차할 책임이 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;Park Assist Pilot은 보조 지원 기능이며 모든 조건에서 모든 상황을 처리할 수 있는 것은 아닙니다. 운전자는 항상 다음과 같은 책임이 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;• 차량 주변을 잘 살필 책임
+&lt;br&gt;• 중앙 화면의 지침을 따를 책임
+&lt;br&gt;• 올바를 기어를 선택할 책임
+&lt;br&gt;• 안전 속도를 제어하고 유지할 책임
+&lt;br&gt;• 제동과 정지 책임&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;트레일러가 차량에 연결되어 있는 경우 Park Assist Pilot을 작동할 수 없습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;설명된 기능은 보조 지원 기능이며 모든 조건에서 모든 상황을 처리할 수 있는 것은 아닙니다.
+&lt;br&gt;운전자는 항상 차량을 안전하게 운전하고 해당 도로 교통 규칙과 규정을 준수할 책임이 있습니다.
+&lt;br&gt;자세한 내용은 해당 차량의 사용자 설명서를 참조하세요. &lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Park Assist Pilot을 통한 수직 주차</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4750,10 +4802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4928,64 +4980,64 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="379.5">
+    <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="B11" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="409.5">
+    <row r="12" spans="1:6" ht="379.5">
       <c r="A12" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B12" s="4">
         <v>45470</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="379.5">
+    <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B13" s="4">
         <v>45470</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="409.5">
+    <row r="14" spans="1:6" ht="379.5">
       <c r="A14" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" s="4">
         <v>45470</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
@@ -4994,46 +5046,46 @@
     </row>
     <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B15" s="4">
         <v>45470</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="103.5">
+    <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B16" s="4">
         <v>45470</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="409.5">
+    <row r="17" spans="1:6" ht="103.5">
       <c r="A17" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B17" s="4">
         <v>45470</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>9</v>
@@ -5042,14 +5094,14 @@
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B18" s="4">
         <v>45470</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>9</v>
@@ -5058,262 +5110,262 @@
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" s="4">
         <v>45470</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="69">
+    <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B20" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="293.25">
+    <row r="21" spans="1:6" ht="69">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="B21" s="4">
         <v>45469</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="293.25">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="241.5">
-      <c r="A22" s="3" t="s">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="241.5">
+      <c r="A23" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B22" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="409.5">
-      <c r="A23" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B23" s="4">
         <v>45468</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>9</v>
+        <v>265</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="103.5">
+    <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="B24" s="4">
         <v>45468</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D24" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="86.25">
+    <row r="25" spans="1:6" ht="103.5">
       <c r="A25" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" s="4">
         <v>45468</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="207">
+    <row r="26" spans="1:6" ht="86.25">
       <c r="A26" s="3" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="B26" s="4">
         <v>45468</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="207">
+      <c r="A27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="409.5">
-      <c r="A27" s="3" t="s">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="409.5">
+      <c r="A28" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="327.75">
-      <c r="A28" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="B28" s="4">
         <v>45467</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="138">
+    <row r="29" spans="1:6" ht="327.75">
       <c r="A29" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="4">
         <v>45467</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="293.25">
+    <row r="30" spans="1:6" ht="138">
       <c r="A30" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B30" s="4">
         <v>45467</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="396.75">
+    <row r="31" spans="1:6" ht="293.25">
       <c r="A31" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="4">
         <v>45467</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="409.5">
+    <row r="32" spans="1:6" ht="396.75">
       <c r="A32" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B32" s="4">
         <v>45467</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="172.5">
+    <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="4">
         <v>45467</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="409.5">
+    <row r="34" spans="1:6" ht="172.5">
       <c r="A34" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B34" s="4">
         <v>45467</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
@@ -5322,14 +5374,14 @@
     </row>
     <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B35" s="4">
         <v>45467</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
@@ -5337,161 +5389,161 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="409.5">
-      <c r="A36" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B36" s="14">
+      <c r="A36" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="4">
         <v>45467</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="409.5">
-      <c r="A37" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="4">
-        <v>45464</v>
+      <c r="A37" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="14">
+        <v>45467</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="409.5">
+      <c r="A38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="172.5">
-      <c r="A38" s="6" t="s">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="172.5">
+      <c r="A39" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B39" s="8">
         <v>45463</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="409.5">
-      <c r="A39" s="3" t="s">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="409.5">
+      <c r="A40" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B39" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="86.25">
-      <c r="A40" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="B40" s="4">
         <v>45463</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="379.5">
+    <row r="41" spans="1:6" ht="86.25">
       <c r="A41" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B41" s="4">
         <v>45463</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="327.75">
+    <row r="42" spans="1:6" ht="379.5">
       <c r="A42" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="189.75">
+    <row r="43" spans="1:6" ht="327.75">
       <c r="A43" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="103.5">
+    <row r="44" spans="1:6" ht="189.75">
       <c r="A44" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="409.5">
+    <row r="45" spans="1:6" ht="103.5">
       <c r="A45" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
@@ -5500,14 +5552,14 @@
     </row>
     <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>9</v>
@@ -5516,78 +5568,78 @@
     </row>
     <row r="47" spans="1:6" ht="409.5">
       <c r="A47" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="345">
+    <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="327.75">
+    <row r="49" spans="1:6" ht="345">
       <c r="A49" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="241.5">
+    <row r="50" spans="1:6" ht="327.75">
       <c r="A50" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="409.5">
+    <row r="51" spans="1:6" ht="241.5">
       <c r="A51" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
@@ -5596,14 +5648,14 @@
     </row>
     <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
@@ -5612,14 +5664,14 @@
     </row>
     <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
@@ -5628,46 +5680,46 @@
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="276">
+    <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="409.5">
+    <row r="56" spans="1:6" ht="276">
       <c r="A56" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
@@ -5676,394 +5728,392 @@
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="B57" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>13</v>
+        <v>228</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="4">
+        <v>45462</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="409.5">
+      <c r="A59" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B59" s="4">
         <v>45461</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" ht="224.25">
-      <c r="A59" s="6" t="s">
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="224.25">
+      <c r="A60" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B59" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="120.75">
-      <c r="A60" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="B60" s="8">
         <v>45461</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="120.75">
+      <c r="A61" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" ht="409.5">
-      <c r="A61" s="3" t="s">
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="409.5">
+      <c r="A62" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B61" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="293.25">
-      <c r="A62" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B62" s="4">
         <v>45461</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B63" s="4">
         <v>45461</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="172.5">
+    <row r="64" spans="1:6" ht="409.5">
       <c r="A64" s="3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B64" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="155.25">
+    <row r="65" spans="1:6" ht="172.5">
       <c r="A65" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="4">
         <v>45460</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="409.5">
+    <row r="66" spans="1:6" ht="155.25">
       <c r="A66" s="3" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B66" s="4">
         <v>45460</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="207">
+    <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B67" s="4">
         <v>45460</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="409.5">
+    <row r="68" spans="1:6" ht="207">
       <c r="A68" s="3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B68" s="4">
         <v>45460</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="258.75">
+    <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B69" s="4">
         <v>45460</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="258.75">
+      <c r="A70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="138">
-      <c r="A70" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="409.5">
+    <row r="71" spans="1:6" ht="138">
       <c r="A71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="409.5">
+      <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B72" s="4">
         <v>45457</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="276">
-      <c r="A72" s="3" t="s">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="276">
+      <c r="A73" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B72" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="409.5">
-      <c r="A73" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B73" s="4">
         <v>45456</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="310.5">
+    <row r="74" spans="1:6" ht="409.5">
       <c r="A74" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B74" s="4">
         <v>45456</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="138">
+    <row r="75" spans="1:6" ht="310.5">
       <c r="A75" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B75" s="4">
         <v>45456</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="138">
+      <c r="A76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="409.5">
-      <c r="A76" s="3" t="s">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="409.5">
+      <c r="A77" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B76" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="310.5">
-      <c r="A77" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B77" s="4">
         <v>45455</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="409.5">
+    <row r="78" spans="1:6" ht="310.5">
       <c r="A78" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B78" s="4">
         <v>45455</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>9</v>
@@ -6072,16 +6122,16 @@
     </row>
     <row r="79" spans="1:6" ht="409.5">
       <c r="A79" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B79" s="4">
         <v>45455</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>9</v>
@@ -6090,187 +6140,187 @@
     </row>
     <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B80" s="4">
         <v>45455</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="310.5">
+    <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B81" s="4">
         <v>45455</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="409.5">
+    <row r="82" spans="1:6" ht="310.5">
       <c r="A82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" ht="409.5">
+      <c r="A83" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B82" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" ht="189.75">
-      <c r="A83" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B83" s="4">
         <v>45454</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="224.25">
+    <row r="84" spans="1:6" ht="189.75">
       <c r="A84" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B84" s="4">
         <v>45454</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="103.5">
+    <row r="85" spans="1:6" ht="224.25">
       <c r="A85" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B85" s="4">
         <v>45454</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="409.5">
+    <row r="86" spans="1:6" ht="103.5">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B86" s="4">
         <v>45454</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B87" s="4">
         <v>45454</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="241.5">
+    <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" ht="241.5">
+      <c r="A89" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B88" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6" ht="207">
-      <c r="A89" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B89" s="4">
         <v>45453</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="155.25">
+    <row r="90" spans="1:6" ht="207">
       <c r="A90" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B90" s="4">
         <v>45453</v>
@@ -6279,430 +6329,448 @@
         <v>76</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="207">
+    <row r="91" spans="1:6" ht="155.25">
       <c r="A91" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B91" s="4">
         <v>45453</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="120.75">
+    <row r="92" spans="1:6" ht="207">
       <c r="A92" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B92" s="4">
         <v>45453</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="276">
+    <row r="93" spans="1:6" ht="120.75">
       <c r="A93" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="409.5">
+    <row r="94" spans="1:6" ht="276">
       <c r="A94" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="396.75">
+    <row r="95" spans="1:6" ht="409.5">
       <c r="A95" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="409.5">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:6" ht="396.75">
+      <c r="A96" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" ht="409.5">
+      <c r="A97" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B96" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="10"/>
-    </row>
-    <row r="97" spans="1:6" ht="276">
-      <c r="A97" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="B97" s="4">
         <v>45452</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="86.25">
+    <row r="98" spans="1:6" ht="276">
       <c r="A98" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" ht="86.25">
+      <c r="A99" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B98" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="409.5">
-      <c r="A99" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="15"/>
-    </row>
-    <row r="100" spans="1:6" ht="69">
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" ht="409.5">
       <c r="A100" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F100" s="15"/>
     </row>
     <row r="101" spans="1:6" ht="69">
       <c r="A101" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" ht="224.25">
+    <row r="102" spans="1:6" ht="69">
       <c r="A102" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" ht="103.5">
+    <row r="103" spans="1:6" ht="224.25">
       <c r="A103" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" ht="51.75">
+    <row r="104" spans="1:6" ht="103.5">
       <c r="A104" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="409.5">
+    <row r="105" spans="1:6" ht="51.75">
       <c r="A105" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="51.75">
+    <row r="106" spans="1:6" ht="409.5">
       <c r="A106" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" ht="69">
+    <row r="107" spans="1:6" ht="51.75">
       <c r="A107" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6" ht="69">
       <c r="A108" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="103.5">
+    <row r="109" spans="1:6" ht="69">
       <c r="A109" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="86.25">
-      <c r="A110" s="3" t="s">
-        <v>143</v>
+    <row r="110" spans="1:6" ht="103.5">
+      <c r="A110" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="103.5">
-      <c r="A111" s="6" t="s">
-        <v>146</v>
+    <row r="111" spans="1:6" ht="86.25">
+      <c r="A111" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="86.25">
+    <row r="112" spans="1:6" ht="103.5">
       <c r="A112" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" ht="86.25">
       <c r="A113" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" ht="86.25">
+      <c r="A114" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B114" s="4">
         <v>45450</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E114" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="10"/>
+      <c r="F114" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F113">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F114">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>
@@ -6716,7 +6784,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L17"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE73BB-83D8-4C46-8E65-CF51EAFF2DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3762B5-4FDD-4BDB-B322-8EDBF6B30561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4170,50 +4170,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>파일럿 보조 시스템(Pilot Assist)은 편안함을 높이기 위한 기능으로, 운전자가 차량을 차선 안에 유지하고 앞차와 안전한 거리를 유지할 수 있도록 도움을 줄 수 있습니다. 차선유지 지원 시스템1은 일부 상황에서 유사한 방법으로 차량이 우발적으로 차선을 이탈하는 위험을 감소시킬 수 있도록 운전자를 지원하는 기능입니다.
-&lt;h4&gt;Pilot Assist&lt;/h4&gt;
-파일럿 보조 시스템(Pilot Assist)은 차량을 차선 표시 내에서 조향할 수 있도록 도움을 줄 수 있고 앞차와 사전 설정된 속도 및 시간 간격을 유지할 수 있도록 지원합니다. 이 기능은 또한 차선 표시를 사용하여 차선 내에서 유리한 위치를 유지하는 데 도움을 줄 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;파일럿 보조 시스템(Pilot Assist)은 무엇을 합니까?
-&lt;br&gt;
-&lt;br&gt;• 특정 경우에는 조향을 지원하여 차선을 유지하도록 도움을 줄 수 있습니다.
-&lt;br&gt;• 가속 또는 제동을 통해 사전 설정된 속도 또는 앞차와의 거리를 유지하는 데 도움을 줄 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 작동 중일 때를 어떻게 알 수 있나요?
-&lt;br&gt;
-&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 작동 중인 경우 심볼이 운전자 화면에 표시됩니다.
-&lt;br&gt;
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd279f6cc3bd65421c0a8015201aaf3a1_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;파일럿 보조 시스템(Adaptive Cruise Control)이 작동함.
-&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 선택되었으나 사용할 수 없습니다. 이 기능에 대한 기준이 충족되지 않았습니다.
-&lt;br&gt;
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgacc50b593bd648c7c0a801520833268b_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;파일럿 보조 시스템(Adaptive Cruise Control)이 작동함.
-&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 선택되었으나 사용할 수 없습니다. 이 기능에 대한 기준이 충족되지 않았습니다.
-&lt;br&gt;
-&lt;h3&gt;차선유지 지원 시스템&lt;/h3&gt;
-차선유지 지원 시스템은 차량이 우발적으로 차선을 이탈하려 할 때 운전자에게 조향 지원 또는 경고를 제공할 수 있습니다. 이 기능은 차선이 명확하게 보이는 도로 상에서 속도가 65-180 km/h (40-112 mph)일 때 활성화됩니다.
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;차선유지 지원 시스템의 기능은 무엇입니까?&lt;/strong&gt;
-&lt;br&gt;• 차선유지 지원 시스템은 운전자에게 조향 지원을 통해 차량을 차선 내에 유지하고 스티어링 휠 진동을 통해 경고를 제공할 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;차선유지 지원 시스템이 작동 중임을 어떻게 알 수 있나요?
-&lt;br&gt;차량의 운전자 화면에 있는 심볼이 이 기능의 상태를 표시합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img04b6af8245d63622c0a8015217aaa867_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 꺼진 심볼은 이 심볼이 작동 중이지만 LKA의 조건이 충족되지 않았다는 것을 의미합니다.
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgdbf1132c45d615e8c0a801523597fd26_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 흰색 기호는 LKA의 조건이 충족되었으며 이 기능을 이용할 수 있다는 것을 의미합니다.
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img9e60552a45d5f39ac0a801525cf5d9e4_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 주황색 심볼은 LKA가 차량을 차선 내에 유지하기 위한 조향 지원을 제공하며 스티어링 휠 진동을 통해 경고를 제공한다는 것을 의미합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-&lt;br&gt;운전자는 항상 차량을 안전하게 운전할 책임이 있습니다. 이 기능을 사용하기 전에 사용 설명서에서 이 기능에 대한 모든 섹션을 읽어볼 것을 권장합니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-&lt;br&gt;• 이 기능은 운전을 용이하게 해 주는 운전자 지원 시스템의 하나이지만 교통 상황, 날씨, 도로 상태에 관계 없이 모든 상황에서 기능을 발휘하는 것은 아닙니다.
-&lt;br&gt;• 운전자는 본 설명서에 나오는 시스템에 대한 정보(시스템의 한계, 시스템을 사용하기 전에 알아야 할 사항 등)를 모두 읽어 보는 것이 권장됩니다.
-&lt;br&gt;• 운전자 지원 기능은 운전자의 주의와 판단을 대체하는 것이 아닙니다. 운전자는 항상 적절한 속도로, 다른 차량과 적절한 간격을 유지하면서, 현행 교통 규칙 및 규정에 따라 차량을 안전하게 운전할 책임이 있습니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;Lane Keeping Aid(LKA)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>많은 휴대폰에는 장치 간의 데이터 전송을 가능하게 하는 무선 통신 기술 중 하나 인 NFC1가 장착되어 있습니다. NFC 지원 iPhone이 있는 경우 스마트폰 무선 충전기를 사용할 때 Apple Wallet이 자동으로 열릴 수 있습니다.
 &lt;br&gt;
 &lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
@@ -4274,6 +4230,49 @@
   </si>
   <si>
     <t>Park Assist Pilot을 통한 수직 주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 보조 시스템(Pilot Assist)은 편안함을 높이기 위한 기능으로, 운전자가 차량을 차선 안에 유지하고 앞차와 안전한 거리를 유지할 수 있도록 도움을 줄 수 있습니다. 차선유지 지원 시스템1은 일부 상황에서 유사한 방법으로 차량이 우발적으로 차선을 이탈하는 위험을 감소시킬 수 있도록 운전자를 지원하는 기능입니다.
+&lt;h4&gt;Pilot Assist&lt;/h4&gt;
+파일럿 보조 시스템(Pilot Assist)은 차량을 차선 표시 내에서 조향할 수 있도록 도움을 줄 수 있고 앞차와 사전 설정된 속도 및 시간 간격을 유지할 수 있도록 지원합니다. 이 기능은 또한 차선 표시를 사용하여 차선 내에서 유리한 위치를 유지하는 데 도움을 줄 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)은 무엇을 합니까?
+&lt;br&gt;
+&lt;br&gt;• 특정 경우에는 조향을 지원하여 차선을 유지하도록 도움을 줄 수 있습니다.
+&lt;br&gt;• 가속 또는 제동을 통해 사전 설정된 속도 또는 앞차와의 거리를 유지하는 데 도움을 줄 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 작동 중일 때를 어떻게 알 수 있나요?
+&lt;br&gt;
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 작동 중인 경우 심볼이 운전자 화면에 표시됩니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd279f6cc3bd65421c0a8015201aaf3a1_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;파일럿 보조 시스템(Adaptive Cruise Control)이 작동함.
+&lt;br&gt;파일럿 보조 시스템(Pilot Assist)이 선택되었으나 사용할 수 없습니다. 이 기능에 대한 기준이 충족되지 않았습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgacc50b593bd648c7c0a801520833268b_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;파일럿 보조 시스템(Adaptive Cruise Control)이 작동함.
+&lt;br&gt;
+&lt;h3&gt;차선유지 지원 시스템&lt;/h3&gt;
+차선유지 지원 시스템은 차량이 우발적으로 차선을 이탈하려 할 때 운전자에게 조향 지원 또는 경고를 제공할 수 있습니다. 이 기능은 차선이 명확하게 보이는 도로 상에서 속도가 65-180 km/h (40-112 mph)일 때 활성화됩니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;차선유지 지원 시스템의 기능은 무엇입니까?&lt;/strong&gt;
+&lt;br&gt;• 차선유지 지원 시스템은 운전자에게 조향 지원을 통해 차량을 차선 내에 유지하고 스티어링 휠 진동을 통해 경고를 제공할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;차선유지 지원 시스템이 작동 중임을 어떻게 알 수 있나요?
+&lt;br&gt;차량의 운전자 화면에 있는 심볼이 이 기능의 상태를 표시합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img04b6af8245d63622c0a8015217aaa867_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 꺼진 심볼은 이 심볼이 작동 중이지만 LKA의 조건이 충족되지 않았다는 것을 의미합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgdbf1132c45d615e8c0a801523597fd26_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 흰색 기호는 LKA의 조건이 충족되었으며 이 기능을 이용할 수 있다는 것을 의미합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img9e60552a45d5f39ac0a801525cf5d9e4_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 주황색 심볼은 LKA가 차량을 차선 내에 유지하기 위한 조향 지원을 제공하며 스티어링 휠 진동을 통해 경고를 제공한다는 것을 의미합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;운전자는 항상 차량을 안전하게 운전할 책임이 있습니다. 이 기능을 사용하기 전에 사용 설명서에서 이 기능에 대한 모든 섹션을 읽어볼 것을 권장합니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;• 이 기능은 운전을 용이하게 해 주는 운전자 지원 시스템의 하나이지만 교통 상황, 날씨, 도로 상태에 관계 없이 모든 상황에서 기능을 발휘하는 것은 아닙니다.
+&lt;br&gt;• 운전자는 본 설명서에 나오는 시스템에 대한 정보(시스템의 한계, 시스템을 사용하기 전에 알아야 할 사항 등)를 모두 읽어 보는 것이 권장됩니다.
+&lt;br&gt;• 운전자 지원 기능은 운전자의 주의와 판단을 대체하는 것이 아닙니다. 운전자는 항상 적절한 속도로, 다른 차량과 적절한 간격을 유지하면서, 현행 교통 규칙 및 규정에 따라 차량을 안전하게 운전할 책임이 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;Lane Keeping Aid(LKA)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4804,8 +4803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4957,7 +4956,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
@@ -4966,14 +4965,14 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>267</v>
@@ -4982,14 +4981,14 @@
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3762B5-4FDD-4BDB-B322-8EDBF6B30561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A16B6-B23A-4E8C-A3FD-2C25188AA6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4257,7 +4257,7 @@
 &lt;br&gt;&lt;strong&gt;차선유지 지원 시스템의 기능은 무엇입니까?&lt;/strong&gt;
 &lt;br&gt;• 차선유지 지원 시스템은 운전자에게 조향 지원을 통해 차량을 차선 내에 유지하고 스티어링 휠 진동을 통해 경고를 제공할 수 있습니다.
 &lt;br&gt;
-&lt;br&gt;차선유지 지원 시스템이 작동 중임을 어떻게 알 수 있나요?
+&lt;br&gt;&lt;strong&gt;차선유지 지원 시스템이 작동 중임을 어떻게 알 수 있나요?&lt;/strong&gt;
 &lt;br&gt;차량의 운전자 화면에 있는 심볼이 이 기능의 상태를 표시합니다.
 &lt;br&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img04b6af8245d63622c0a8015217aaa867_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 꺼진 심볼은 이 심볼이 작동 중이지만 LKA의 조건이 충족되지 않았다는 것을 의미합니다.

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A16B6-B23A-4E8C-A3FD-2C25188AA6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB55FC2-31DD-4BE3-8E50-77D4AB5C9082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4234,7 +4234,7 @@
   </si>
   <si>
     <t>파일럿 보조 시스템(Pilot Assist)은 편안함을 높이기 위한 기능으로, 운전자가 차량을 차선 안에 유지하고 앞차와 안전한 거리를 유지할 수 있도록 도움을 줄 수 있습니다. 차선유지 지원 시스템1은 일부 상황에서 유사한 방법으로 차량이 우발적으로 차선을 이탈하는 위험을 감소시킬 수 있도록 운전자를 지원하는 기능입니다.
-&lt;h4&gt;Pilot Assist&lt;/h4&gt;
+&lt;h3&gt;Pilot Assist&lt;/h3&gt;
 파일럿 보조 시스템(Pilot Assist)은 차량을 차선 표시 내에서 조향할 수 있도록 도움을 줄 수 있고 앞차와 사전 설정된 속도 및 시간 간격을 유지할 수 있도록 지원합니다. 이 기능은 또한 차선 표시를 사용하여 차선 내에서 유리한 위치를 유지하는 데 도움을 줄 수 있습니다.
 &lt;br&gt;
 &lt;br&gt;파일럿 보조 시스템(Pilot Assist)은 무엇을 합니까?

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB55FC2-31DD-4BE3-8E50-77D4AB5C9082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8097C05E-F590-450C-9470-483D5C2154DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -720,85 +720,6 @@
   </si>
   <si>
     <t>CP00003</t>
-  </si>
-  <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt; 전시장을 통해 문의가 필요한 경우 아래 주소를 참고합니다. 유선 컨택 포인트는 액셀 파일을 참고하십시오.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;에이치모터스&lt;/h3&gt;
-&lt;br&gt;&lt;string&gt;대표: 황호진&lt;/string&gt; ceo@hvolvo.com
-&lt;br&gt;&lt;string&gt;본부장: 예정규&lt;/string&gt; jkye@hvolvo.com
-&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
-&lt;br&gt;강남대치: 김길성 kskim@hvolvo.com
-&lt;br&gt;강남신사: 강은식 eunsik.kang@hvolvo.com
-&lt;br&gt;분당서현 양승혁:  shyang@hvolvo.com
-&lt;br&gt;수원 유상곤: sanggon.you@hvolvo.com
-&lt;br&gt;인천 홍동현: dhhong@hvolvo.com
-&lt;br&gt;대전 이상호: leesh@hvolvo.com
-&lt;br&gt;청주 윤상무: sangmoo.yun@hvolvo.com
-&lt;br&gt;SELEKT 수원 박시현: sihyun.park@hvolvo.com
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;아이비모터스&lt;/h3&gt;
-&lt;br&gt;&lt;string&gt;대표: 강병철&lt;/string&gt; byungcheol.kang@ivymotors.co.kr
-&lt;br&gt;&lt;string&gt;본부장: 배성일&lt;string&gt; sungil.bae@ivymotors.co.kr
-&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
-&lt;br&gt;광주 손영: young.son@ivymotors.co.kr
-&lt;br&gt;전주 임동진: hwanwook.shin@ivymotors.co.kr
-&lt;br&gt;순천 임동진: dongjin.lim@ivymotors.co.kr
-&lt;br&gt;제주 전명호: myeongho.cheon@ivymotors.co.kr
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;태영모터스&lt;/h3&gt;
-&lt;br&gt;&lt;string&gt;대표: 김용수&lt;/string&gt; ys_kim@volvoty.co.kr
-&lt;br&gt;&lt;string&gt;본부장: 김상원&lt;/string&gt; swkim@volvoty.co.kr
-&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
-&lt;br&gt;대구 신승욱: sw.shin72@volvoty.co.kr
-&lt;br&gt;포항 이경식: kslee_ty@volvoty.co.kr
-&lt;br&gt;서대구 황영상: votycar@volvoty.co.kr
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;천하자동차&lt;/h3&gt;
-&lt;br&gt;&lt;string&gt;대표: 윤인경&lt;/string&gt; jamescap2000@chvolvo.co.kr
-&lt;br&gt;&lt;string&gt;본부장: 장준원&lt;/string&gt; jwc@chvolvo.co.kr
-&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
-&lt;br&gt;동대문 허민철: mcheo@chvolvo.co.kr
-&lt;br&gt;의정부 김석영: ysk@chvolvo.co.kr
-&lt;br&gt;구리 임승현: shlim@chvolvo.co.kr
-&lt;br&gt;용산 강명윤: myungyun.kang@chvolvo.co.kr
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;아이언모터스&lt;/h3&gt;
-&lt;br&gt;&lt;string&gt;대표: 김민규&lt;/string&gt; minkyu.kim@ironmotors.co.kr
-&lt;br&gt;&lt;string&gt;본부장: 신홍섭&lt;/string&gt; hongsub.shin@ironmotors.co.kr
-&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
-&lt;br&gt;창원 김희종: heejong.kim@ironmotors.co.kr
-&lt;br&gt;광안 안위성: wiseong.ahn@ironmotors.co.kr
-&lt;br&gt;해운대 박성준: sungjun.park@ironmotors.co.kr
-&lt;br&gt;김해 최경철: gyeongchoel.choe@ironmotors.co.kr
-&lt;br&gt;진주 안정수: jeongsoo.ahn@ironmotors.co.kr
-&lt;br&gt;SELEKT 부산 김호영: hoyoung.kim@ironmotors.co.kr
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;아주오토리움&lt;/h3&gt;
-&lt;br&gt;&lt;string&gt;대표: 박영석&lt;/string&gt; andypark@aju.co.kr
-&lt;br&gt;&lt;string&gt;본부장: 한영수&lt;/string&gt; youngsoohan@aju.co.kr
-&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
-&lt;br&gt;목동 이상일: silee@aju.co.kr
-&lt;br&gt;일산 한택주: taek6664@aju.co.kr
-&lt;br&gt;안양 문상호: shmun@aju.co.kr
-&lt;br&gt;부천 박용호: yhpark05@aju.co.kr
-&lt;br&gt;고양 임지운: jwlim@aju.co.kr
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;코오롱 오토모티브&lt;/h3&gt;
-&lt;br&gt;&lt;string&gt;대표: 신진욱&lt;/string&gt; jinuk_shin@kolon.com
-&lt;br&gt;&lt;string&gt;본부장: 최형준&lt;/string&gt; hyungjun_choi@kolon.com
-&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
-&lt;br&gt;송파 유지훈: jihoon_yoo2@kolon.com
-&lt;br&gt;서초 홍영삼: cofficer@kolon.com
-&lt;br&gt;원주 박월준: woljun_park@kolon.com
-&lt;br&gt;천안 김영민: youngmin_kim1@kolon.com
-&lt;br&gt;울산 소상만: mynia@kolon.com
-&lt;br&gt;분당판교 김영선: youngsun_kim1@kolon.com
-&lt;br&gt;하남 김한묵: hanmook_kim@kolon.com
-&lt;br&gt;강릉 박월준: woljun_park@kolon.com
-&lt;br&gt;서산 김영민: youngmin_kim1@kolon.com
-&lt;br&gt;SELEKT 김포 황도훈 : hangcome@kolon.com</t>
   </si>
   <si>
     <t>차량의 오디오 연결 방식에 따른 음질의 차이</t>
@@ -2220,207 +2141,6 @@
 &lt;br&gt;차량이 시동되면 헤드업 디스플레이를 켜고 끌 수 있습니다.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0786f549ce529aabc0a8015216ec0ea9_1_--_--_VOICEpnghigh.png" width="80" height="80"&gt; 
 중앙 화면의 기능 보기에서 HUD 버튼을 누릅니다. 기능이 켜지면 버튼의 표시등이 점등됩니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
-&lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
-&lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;금융, 회계 문의
-&lt;br&gt;
-&lt;br&gt;- 국가지정통계 산업연관표(경비_서비스업)
-&lt;br&gt;- 한국은행 기업경영분석 조사
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;함종석&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('heejung.cho@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;DMS(IMS) 사이트 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, lje@comnarae.co.kr, sunyong.kim@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;헤이볼보 어플 고객 DATA 시스템과 연동된 내용.
-&lt;br&gt;
-&lt;br&gt;-가입 및 탈퇴, 고객 차량 정보 미노출 등
-&lt;br&gt;-e?b?bi?y?s@naver.com 이상한 아이디로 확인됨; 차량 확인안됨
-&lt;br&gt;해당 고객님 헤이 볼보 앱 내 차량정보 연동되어 있으나 앱에서 [실시간 예약; 카카오 상담] 등 메뉴를 누를 때마다 '볼보 고객만 가능한 서비스입니다.' 라는 메시지 팝업
-&lt;br&gt;-서비스 쿠폰 리스트 보이지 않음
-&lt;br&gt;헤이볼보 어플 실시간 정비 알림 메뉴가 정비 대기로 안바뀜
-&lt;br&gt;헤이볼보 회원가입시 비정상적인 등록메세지
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('cjy@comnarae.co.kr, kts@comnarae.co.kr, heejaekelly.byun@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 고객인데 DMS 조회 안 되는 경우; 볼보 자동차 소유(VCK 직원 차량)인데 DMS 조회 안 되는 경우
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com')"&gt;박나혜 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;공항으로 볼보 자동차 화물 도착했을 때 전달 담당자
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('boram.joo@volvocars.com')"&gt;주보람 과장&lt;/button&gt;| &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, juho.kim@volvocars.com, jangwook.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량 수급 현황(재고,물량), 출시 문의, 세일즈 관련 서류 발급 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com')"&gt;김주호 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;프로덕트(product(생산물, 상품, 제품), 차량의 기능 장착 여부; 흡음재가 원래 없는 것인지, 대시보드 재질이 어떻게 되는지 등
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('euijoon.lee@volvocars.com')"&gt;이의준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; daemyeong.kim@volvocars.com; jangwook.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;E/B 콜 장애, 문의 관련; 소비자원에서 VCK 담당자를 찾는 경우; 스웨덴에서 수신된 메일
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com')"&gt;이승진 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;송경란 전무&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;
-서비스센터 설문조사(컨슈머인사이트) 관련 문의/미스터리 쇼핑, 서비스센터 경험 설문조사 관련 문의 및 기프티콘 재발송 요청
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hankoo.lee@volvocars.com')"&gt;이한구 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; youngha.kim@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; junlee.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량 전반적 서비스 개선요청; 차량 용품 제안; 서비스바이볼보; 서비스 캠페인
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;개인정보위반/침해/한국인터넷 진흥원
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;부품, 서비스 쿠폰,액세서리 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;리콜, 무상수리, 리콜대상확인 인증 관련(KC) 업무, 첨단장치 장착에 따른 보험할인 미반영
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;김남태 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com; sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;구조변경/ 번호판 등록/차량 인증 관련;유로5 환경 문의 관련된 문의/저공해 차량
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungje.hong@volvocars.com')"&gt;홍성제 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; kyehyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;보증 정책, 위치정보사업 관련 자료 요청
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hanwool.kim.2@volvocars.com')"&gt;김한울 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee.2@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;고객지원센터 문의사항에 대한 서포트, VIDA 진단기, 정비매뉴얼 구입 관련 담당, 매뉴얼 상의 내용 관련 문의, 기술 관련 기능, 고장 문의, VOLVO CARS 앱, Spotify Errors, 커넥티비티/인포테이먼트 에러, 소프트웨어 업데이트 일정
-&lt;br&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com')"&gt;문형준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 어프렌티스(VCAT) 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('donghoon.han@volvocars.com')"&gt;한동훈 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; boogyu.kim@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;견인 현장 조치 불가 엔지니어 출동 요청 건
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장; 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량/서비스 관련 고객불만 
-&lt;br&gt;- 부품 수급, 서비스 캠페인, 수리 후 동일증상, 하자재발통보서, 소비자원 또는 소비자연맹 차량/서비스 불만접수건
-&lt;br&gt;- 불만접수 : 딜러사가 확인 되는 경우 &gt; 기존 불만 접수대로 딜러사 TO로 진행; 딜러사가 확인 안되는 경우 &gt; 최종 출고 서비스센터로 진행
-&lt;br&gt;부품과 관련된 불만은 김정민과장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt;
-&lt;br&gt;보증과 관련된 불만은 김한울과장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hanwool.kim.2@volvocars.com')"&gt;김한울 과장&lt;/button&gt;
-&lt;br&gt;서비스캠페인 관련불만은 이준이대리 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt;
-&lt;br&gt;수리후 동일증상,급발진, 화재, 첨단장치등과 같은 내용은 기술팀 모두 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com; seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com')"&gt;기술팀&lt;/button&gt;
-&lt;br&gt;언론,미디어 언급 시 남윤지차장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com')"&gt;남윤지 차장&lt;/button&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장, CR매니저, 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 세일즈 본부장; &lt;button class="contact-button" onclick="copyEmail('jisung.kim@volvocars.com; jangwook.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;기획사 PD 제안서, 신규 컨텐츠 제안서, 광고/홍보/마케팅/제휴/행사제안/PPL/이벤트/저작권/어린이/학생 관련 측 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('eunha.jung@volvocars.com')"&gt;장은하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;이승진 부장&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;- 시승신청,  이벤트 상품권 고객 기프티콘 미지급 문의 시
-&lt;br&gt;- 시승 프로세스 지연, 마케팅 수신거부; CRM E-뉴스레터, 고객 1주년 감사카드 담당/ 저작권, MMS, SMS; DMS 정보 삭제(고객 정보 완전 삭제)
-&lt;br&gt;- 1주년 콜랙션 감사 20% 할인 쿠폰 앱에 없음/ 복원
-&lt;br&gt;- 다이캐스트
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; dohyeon.kim@volvocars.com; sungin.paek@volvocars.com; cjy@comnarae.co.kr; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 팝업 스토어, 볼보 자동차 진행 이벤트 문의, 헤이 플로깅
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('woojae.kim@volvocars.com')"&gt;김우재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; heejaekelly.byun@volvocars.com; yihwa.lim@volvocars.com; woojae.kim@volvocars.com; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;- VCK 온라인 채널 (홈페이지,페이스북, 인스타그램. 디지털마케팅)
-&lt;br&gt;- Hej Volvo(헤이 볼보) 앱 전반적인 콘텐츠에서 발생하는 이벤트
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jungsoo.kim.2@volvocars.com')"&gt;김정수 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; yihwa.lim@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;EX30 온라인 예약 관련; 온라인 에디션판매(Volvo Digital Shop)
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;FLO 쿠폰관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('flo@music-flo.com; yuchae.jeon@sk.com; sungin.paek@volvocars.com; daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;대표님께 안내할 내용, VCK 입사 지원 , 잡지/신문 대금 관련해서 문의 등
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com')"&gt;신다희&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;규정 준수 관리자, 경력증명서, VCK 복지 지원 담당(장애어린이, 어린이 안전조끼등)
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;To: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com')"&gt;이정화 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;홍보(미디어 문의 포함), 언론, 기사, 취재 요청, 기자시승 
-&lt;br&gt;유튜버, 블로거 등 인플루언서 및 셀러브리티 등
-&lt;br&gt;
-&lt;br&gt;&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com; seungjun.lim@volvocars.com')"&gt;남윤지 차장, 임승준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;구입 고객 고객만족도 조사 관련 메일 발송
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('"hyungi.lee@volvocars.com; jisung.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;딜러 개설 담당자, 충전서비스인프라, 딜러사 네트워크 전기차 충전기, 전기차 충전쿠폰
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3350,174 +3070,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>고객이 서비스센터에 대한 불만이나 확인을 요청할 때 아래를 참조합니다.
-&lt;br&gt;
-&lt;h3&gt;서비스센터 및 딜러사 메일 양식
-&lt;br&gt;&lt;button class="logging-button" width="350" onclick="logging16()"&gt;[메일] 서비스센터 및 딜러사 전달 메일 양식&lt;/button&gt;
-&lt;button class="logging-button" onclick="logging17()"&gt;[메일] 서비스센터 출동 요청 메일 양식&lt;/button&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 대치&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; changseop.park@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 강남 삼성&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; hyunwoo.you@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 성수&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 분당 서현&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('ahn.jeongsik@hvolvo.com')"&gt;안정식&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; hwajeong.ko@hvolvo.com; yongcheol.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 강남 율현&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('euiseop.hwang@hvolvo.com')"&gt;황의섭&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; kyoungha.son@hvolvo.com; hyunseok.kim@hvolvo.com; jooyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 수원&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeongkyu.moon@hvolvo.com')"&gt;문정규&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; byeongwon.mun@hvolvo.com; kimoon.kim@hvolvo.com; yoonyoung.choi@hvolvo.com; hyunjoo.lee@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 인천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('chongjin.an@hvolvo.com')"&gt;안종진&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dongjun.choi@hvolvo.com; kangrae.cho@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 성수센터&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 대전&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yongil.jeon@hvolvo.com')"&gt;전용일&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; sungsik.kim@hvolvo.com; myungjin.oh@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 청주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeguk.ko@hvolvo.com')"&gt;고재국&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 군산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; jeonghun.song@ivymotors.co.kr; dongmyung.yi@ivymotors.co.kr; minsoo.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 광주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yokeun.jo@ivymotors.co.kr;')"&gt;조요근&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; inho.choi@ivymotors.co.kr; geunsik.lee@ivymotors.co.kr; byunghwa.lee@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 전주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr'; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 순천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyungchul.mun@ivymotors.co.kr')"&gt;문경철&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; mingyu.kim@ivymotors.co.kr; kyungchul.mun@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 제주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('daehwan.an@ivymotors.co.kr')"&gt;안대환&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; byunghee.choi@ivymotors.co.kr; bumseok.kang@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 대구&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; juyoung.yun@volvoty.co.kr;  bumseok.kang@ivymotors.co.kr; hyeonggeun.gil@volvoty.co.kr; yonghyeok.lee@volvoty.co.kr; rakmin.kim@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 서대구&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hoiyol.kwon@volvoty.co.kr')"&gt;권회열&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; jongwoon.yun@volvoty.co.kr; kyungkyu.song@volvoty.co.kr; jaewoo.lee@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 포항&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dogun.hwang@volvoty.co.kr; sungjun.lee@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 양평&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hakje.lee@chvolvo.co.kr')"&gt;이학제&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; jin.jeong@chvolvo.co.kr; jeongkuk.lee@chvolvo.co.kr; sungchul.kim@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 동대문&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('byungchang.kim@chvolvo.co.kr')"&gt;김병창&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr;  younghwan.kim@chvolvo.co.kr; jongbin.kim@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 의정부&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;팀장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hyuckjin.kim@chvolvo.co.kr')"&gt;김혁진&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; soonjik.kwon@chvolvo.co.kr; myoungjin.ko@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 구리&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;선임&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongmo.lee@chvolvo.co.kr')"&gt;이종모&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; subong.han@chvolvo.co.kr; jongmo.lee@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;&lt;hr&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 창원&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('myunguk.heo@ironmotors.co.kr')"&gt;허명욱&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; suho.park@ironmotors.co.kr; chungsuk.kim@ironmotors.co.kr; junwon.hwang@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 김해&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungyong.jang@ironmotors.co.kr')"&gt;장성용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; junewoo.heo@ironmotors.co.kr; hyunjin.park@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 광안&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaewoo.cho@ironmotors.co.kr')"&gt;조재우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; bongjun.kim@ironmotors.co.kr; dagyeong.yu@ironmotors.co.kr; hwaseop.song@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 해운대&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('younggon.kim@ironmotors.co.kr')"&gt;김영곤&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; byeongguen.song@ironmotors.co.kr; youbin.kim@ironmotors.co.kr; wonho.chae@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 진주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('dongkyu.kim@ironmotors.co.kr')"&gt;김동규&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; jaewon.jung@ironmotors.co.kr; balgeum.lee@ironmotors.co.kr; hyunseung.kim@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 일산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yghong@aju.co.kr')"&gt;홍영기&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; sjjung2@aju.co.kr; jsmo@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 안양&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jwlee8@aju.co.kr')"&gt;이조원&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; itkim@aju.co.kr; yopark@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 영등포 문래&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr')"&gt;서일선&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; jschoi@aju.co.kr; hschoi@aju.co.kr; icjoo@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 부천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('leejs@aju.co.kr')"&gt;이재석&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; dwlee@aju.co.kr; ghson@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 송파&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeonseong_jeong@kolon.com')"&gt;정전성&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; haneul_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 서초&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyoungmo_choi@kolon.com')"&gt;최경모&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; seungeun_jeoung@kolon.com; yunwoo_lee@kolon.com; yongsuk_park@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 원주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeseop_shim@kolon.com')"&gt;심재섭&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; sugeun_hwang@kolon.com; sunyoung_kwon@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 천안&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jungwoo_ma@kolon.com; wongyun_kil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 울산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kibum_lim@kolon.com')"&gt;임기범&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; minho_kim2@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 판교&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongho_kim@kolon.com')"&gt;김종호&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com;  youngdon_son@kolon.com; hyunmok_cho1@kolon.com; sunghan_im@kolon.com; baegil_jung1@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 강릉&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com')"&gt;김태길&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; bonggeun_seok@kolon.com; youngdon_son@kolon.com; juneyoung_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 서산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jonghwan_seol@kolon.com; donghyun_gil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>고객이 보험사의 커넥티드카 특약 할인에 대해서 문의할 수 있습니다.
 &lt;br&gt;
 &lt;br&gt;&lt;strong&gt;대부분 보험사의 할인 조건에 따르면, 볼보 자동차는 커넥티드카 특약 할인 대상이 아닙니다.&lt;/strong&gt;
@@ -4063,46 +3615,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Start/Stop 기능을 탑재하여, 신호등 대기 시 또는 차량 정체 시 차량이 정지할 때 엔진이 일시적으로 꺼졌다가 필요 시 다시 시동됩니다.
-&lt;br&gt;
-&lt;br&gt;Start/Stop 기능은 연료 소비를 줄이고 환경 친화적인 주행 스타일과 배출 가스 저감에 공헌할 수 있습니다.
-&lt;br&gt;
-&lt;h3&gt;Start/Stop 기능을 사용할 때 주의 사항&lt;/h3&gt;
-Start/Stop 기능이 작동하려면 여러 조건이 충족되어야 합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h4&gt;Start/Stop 기능이 켜지지 않음&lt;/h4&gt;
-&lt;br&gt;다음 중 하나 이상의 이유로 인해 엔진이 정지하지 않거나 기능이 작동하지 않을 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;• 시동 후 차량 속도가 약 10 km/h (6 mph)에 도달하지 않을 때, 또는 기능이 연속적으로 여러 번 작동 될 때
-&lt;br&gt;• 엔진이 정상 작동 온도에 도달하지 않은 경우
-&lt;br&gt;• 앞유리 열선이 작동한 경우
-&lt;br&gt;• 실내 환경이 설정값과 다를 경우
-&lt;br&gt;• 운전자가 스티어링 휠을 크게 돌리는 경우
-&lt;br&gt;• 도로가 매우 가파를 경우
-&lt;br&gt;• ABS 시스템이 작동한 경우
-&lt;br&gt;• 급제동한 경우(ABS 시스템이 작동하지 않은 상태에서도)
-&lt;br&gt;• 짧은 시간에 여러 번 출발하여 스타터 모터의 열 보호 기능이 작동한 경우
-&lt;br&gt;• 배기 시스템의 미립자 필터가 포화된 경우
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
-&lt;br&gt;고전류 인출을 실시하면 배터리 용량이 최저 허용 레벨 아래로 떨어질 수 있으며, 이로 인해 Start/Stop 기능이 일시적으로 제한될 수 있습니다. 그런 후에 엔진은 운전자가 브레이크 페달에서 발을 떼지 않은 상태에서 자동으로 시작됩니다.&lt;/div&gt;
-&lt;br&gt;&lt;h4&gt;Start/Stop 기능이 꺼지지 않음&lt;/h4&gt;
-&lt;br&gt;다음 중 하나 이상의 이유로 인해 엔진이 시동되지 않거나 기능이 해제되지 않을 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;• 운전자가 안전벨트를 착용하지 않은 경우
-&lt;br&gt;• 기어 실렉터 레버가 P 위치에서 보닛이 열려있을 때
-&lt;br&gt;&lt;h4&gt;브레이크 페달에서 발을 떼지 않았는데 Start/Stop 기능이 해제됨&lt;/h4&gt;
-&lt;br&gt;다음의 경우 운전자가 브레이크 페달에서 발을 떼지 않은 상태에서 기능이 꺼지고 엔진이 시동 될 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;• 실내 습도가 높아 윈도우에 김이 서린 경우
-&lt;br&gt;• 실내 환경이 설정값과 다를 경우
-&lt;br&gt;• 배터리의 잔량이 최소 허용치보다 낮을 경우
-&lt;br&gt;• 기어 선택 레버를 D에서 R 위치로 옮길 경우.
-&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-Start/Stop 기능이 켜져 있을 때는 보닛을 열지 마십시오. 엔진을 정상적으로 끄고 보닛을 엽니다.&lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;br&gt;변속기는 엔진과 구동 휠 사이에 있는 파워 트레인(동력 전달 장치)의 일부입니다. 변속기의 기능은 속도 및 출력 요건에 따라 기어비를 변경하는 것입니다.
 &lt;br&gt;
 &lt;br&gt;차량에는 7속 또는 8속 자동 변속기가 장착되어 있습니다. 기어 단수가 많다는 것은 엔진의 토크 및 출력 범위를 효과적으로 이용할 수 있다는 것을 의미합니다.
@@ -4275,6 +3787,540 @@
 &lt;br&gt;Lane Keeping Aid(LKA)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Start/Stop 기능을 탑재하여, 신호등 대기 시 또는 차량 정체 시 차량이 정지할 때 엔진이 일시적으로 꺼졌다가 필요 시 다시 시동됩니다.
+&lt;br&gt;
+&lt;br&gt;Start/Stop 기능은 연료 소비를 줄이고 환경 친화적인 주행 스타일과 배출 가스 저감에 공헌할 수 있습니다.
+&lt;br&gt;
+&lt;h3&gt;Start/Stop 기능을 사용할 때 주의 사항&lt;/h3&gt;
+Start/Stop 기능이 작동하려면 여러 조건이 충족되어야 합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h4&gt;Start/Stop 기능이 켜지지 않음&lt;/h4&gt;
+&lt;br&gt;다음 중 하나 이상의 이유로 인해 엔진이 정지하지 않거나 기능이 작동하지 않을 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 시동 후 차량 속도가 약 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>km/h (6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mph)에 도달하지 않을 때, 또는 기능이 연속적으로 여러 번 작동 될 때
+&lt;br&gt;• 엔진이 정상 작동 온도에 도달하지 않은 경우
+&lt;br&gt;• 앞유리 열선이 작동한 경우
+&lt;br&gt;• 실내 환경이 설정값과 다를 경우
+&lt;br&gt;• 운전자가 스티어링 휠을 크게 돌리는 경우
+&lt;br&gt;• 도로가 매우 가파를 경우
+&lt;br&gt;• ABS 시스템이 작동한 경우
+&lt;br&gt;• 급제동한 경우(ABS 시스템이 작동하지 않은 상태에서도)
+&lt;br&gt;• 짧은 시간에 여러 번 출발하여 스타터 모터의 열 보호 기능이 작동한 경우
+&lt;br&gt;• 배기 시스템의 미립자 필터가 포화된 경우
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;고전류 인출을 실시하면 배터리 용량이 최저 허용 레벨 아래로 떨어질 수 있으며, 이로 인해 Start/Stop 기능이 일시적으로 제한될 수 있습니다. 그런 후에 엔진은 운전자가 브레이크 페달에서 발을 떼지 않은 상태에서 자동으로 시작됩니다.&lt;/div&gt;
+&lt;br&gt;&lt;h4&gt;Start/Stop 기능이 꺼지지 않음&lt;/h4&gt;
+&lt;br&gt;다음 중 하나 이상의 이유로 인해 엔진이 시동되지 않거나 기능이 해제되지 않을 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 운전자가 안전벨트를 착용하지 않은 경우
+&lt;br&gt;• 기어 실렉터 레버가 P 위치에서 보닛이 열려있을 때
+&lt;br&gt;&lt;h4&gt;브레이크 페달에서 발을 떼지 않았는데 Start/Stop 기능이 해제됨&lt;/h4&gt;
+&lt;br&gt;다음의 경우 운전자가 브레이크 페달에서 발을 떼지 않은 상태에서 기능이 꺼지고 엔진이 시동 될 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 실내 습도가 높아 윈도우에 김이 서린 경우
+&lt;br&gt;• 실내 환경이 설정값과 다를 경우
+&lt;br&gt;• 배터리의 잔량이 최소 허용치보다 낮을 경우
+&lt;br&gt;• 기어 선택 레버를 D에서 R 위치로 옮길 경우.
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;Start/Stop 기능이 켜져 있을 때는 보닛을 열지 마십시오. 엔진을 정상적으로 끄고 보닛을 엽니다.&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 서비스센터에 대한 불만이나 확인을 요청할 때 아래를 참조합니다.
+&lt;br&gt;
+&lt;h3&gt;서비스센터 및 딜러사 메일 양식
+&lt;br&gt;&lt;button class="logging-button" width="350" onclick="logging16()"&gt;[메일] 서비스센터 및 딜러사 전달 메일 양식&lt;/button&gt;
+&lt;button class="logging-button" onclick="logging17()"&gt;[메일] 서비스센터 출동 요청 메일 양식&lt;/button&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 대치&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; changseop.park@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 강남 삼성&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; hyunwoo.you@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 성수&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 분당 서현&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('ahn.jeongsik@hvolvo.com')"&gt;안정식&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; hwajeong.ko@hvolvo.com; yongcheol.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 강남 율현&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('euiseop.hwang@hvolvo.com')"&gt;황의섭&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; kyoungha.son@hvolvo.com; hyunseok.kim@hvolvo.com; jooyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 수원&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeongkyu.moon@hvolvo.com')"&gt;문정규&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; byeongwon.mun@hvolvo.com; kimoon.kim@hvolvo.com; yoonyoung.choi@hvolvo.com; hyunjoo.lee@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 인천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('chongjin.an@hvolvo.com')"&gt;안종진&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dongjun.choi@hvolvo.com; kangrae.cho@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 성수센터&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 대전&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yongil.jeon@hvolvo.com')"&gt;전용일&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; sungsik.kim@hvolvo.com; myungjin.oh@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 청주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeguk.ko@hvolvo.com')"&gt;고재국&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 군산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; jeonghun.song@ivymotors.co.kr; dongmyung.yi@ivymotors.co.kr; minsoo.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 광주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yokeun.jo@ivymotors.co.kr;')"&gt;조요근&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; inho.choi@ivymotors.co.kr; geunsik.lee@ivymotors.co.kr; byunghwa.lee@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 전주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr'; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 순천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyungchul.mun@ivymotors.co.kr')"&gt;문경철&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; mingyu.kim@ivymotors.co.kr; kyungchul.mun@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 제주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('daehwan.an@ivymotors.co.kr')"&gt;안대환&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; byunghee.choi@ivymotors.co.kr; bumseok.kang@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 대구&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; juyoung.yun@volvoty.co.kr;  bumseok.kang@ivymotors.co.kr; hyeonggeun.gil@volvoty.co.kr; yonghyeok.lee@volvoty.co.kr; rakmin.kim@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 서대구&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hoiyol.kwon@volvoty.co.kr')"&gt;권회열&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; jongwoon.yun@volvoty.co.kr; kyungkyu.song@volvoty.co.kr; jaewoo.lee@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 포항&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dogun.hwang@volvoty.co.kr; sungjun.lee@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 양평&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hakje.lee@chvolvo.co.kr')"&gt;이학제&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; jin.jeong@chvolvo.co.kr; jeongkuk.lee@chvolvo.co.kr; sungchul.kim@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 동대문&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('byungchang.kim@chvolvo.co.kr')"&gt;김병창&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr;  younghwan.kim@chvolvo.co.kr; jongbin.kim@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 의정부&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;팀장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hyuckjin.kim@chvolvo.co.kr')"&gt;김혁진&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; soonjik.kwon@chvolvo.co.kr; myoungjin.ko@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 구리&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;선임&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongmo.lee@chvolvo.co.kr')"&gt;이종모&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; subong.han@chvolvo.co.kr; jongmo.lee@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;&lt;hr&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 창원&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('myunguk.heo@ironmotors.co.kr')"&gt;허명욱&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; suho.park@ironmotors.co.kr; chungsuk.kim@ironmotors.co.kr; junwon.hwang@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 김해&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungyong.jang@ironmotors.co.kr')"&gt;장성용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; junewoo.heo@ironmotors.co.kr; hyunjin.park@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 광안&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaewoo.cho@ironmotors.co.kr')"&gt;조재우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; bongjun.kim@ironmotors.co.kr; dagyeong.yu@ironmotors.co.kr; hwaseop.song@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 해운대&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('younggon.kim@ironmotors.co.kr')"&gt;김영곤&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; byeongguen.song@ironmotors.co.kr; youbin.kim@ironmotors.co.kr; wonho.chae@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 진주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('dongkyu.kim@ironmotors.co.kr')"&gt;김동규&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; jaewon.jung@ironmotors.co.kr; balgeum.lee@ironmotors.co.kr; hyunseung.kim@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 일산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yghong@aju.co.kr')"&gt;홍영기&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; sjjung2@aju.co.kr; jsmo@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 안양&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jwlee8@aju.co.kr')"&gt;이조원&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; itkim@aju.co.kr; yopark@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 영등포 문래&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr')"&gt;서일선&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; jschoi@aju.co.kr; hschoi@aju.co.kr; icjoo@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 부천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('leejs@aju.co.kr')"&gt;이재석&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; dwlee@aju.co.kr; ghson@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 송파&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeonseong_jeong@kolon.com')"&gt;정전성&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; haneul_jang@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 서초&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyoungmo_choi@kolon.com')"&gt;최경모&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; seungeun_jeoung@kolon.com; yunwoo_lee@kolon.com; yongsuk_park@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 원주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeseop_shim@kolon.com')"&gt;심재섭&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; sugeun_hwang@kolon.com; sunyoung_kwon@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 천안&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jungwoo_ma@kolon.com; wongyun_kil@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 울산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kibum_lim@kolon.com')"&gt;임기범&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; minho_kim2@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 판교&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongho_kim@kolon.com')"&gt;김종호&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com;  youngdon_son@kolon.com; hyunmok_cho1@kolon.com; sunghan_im@kolon.com; baegil_jung1@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 강릉&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com')"&gt;김태길&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; bonggeun_seok@kolon.com; youngdon_son@kolon.com; juneyoung_jang@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 서산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jonghwan_seol@kolon.com; donghyun_gil@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt; 전시장을 통해 문의가 필요한 경우 아래 주소를 참고합니다. 유선 컨택 포인트는 액셀 파일을 참고하십시오.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;에이치모터스&lt;/h3&gt;
+&lt;br&gt;&lt;string&gt;대표: 황호진&lt;/string&gt; ceo@hvolvo.com
+&lt;br&gt;&lt;string&gt;본부장: 예정규&lt;/string&gt; jkye@hvolvo.com
+&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
+&lt;br&gt;강남대치: 김길성 kskim@hvolvo.com
+&lt;br&gt;강남신사: 강은식 eunsik.kang@hvolvo.com
+&lt;br&gt;분당서현 양승혁:  shyang@hvolvo.com
+&lt;br&gt;수원 유상곤: sanggon.you@hvolvo.com
+&lt;br&gt;인천 홍동현: dhhong@hvolvo.com
+&lt;br&gt;대전 이상호: leesh@hvolvo.com
+&lt;br&gt;청주 윤상무: sangmoo.yun@hvolvo.com
+&lt;br&gt;SELEKT 수원 박시현: sihyun.park@hvolvo.com
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;아이비모터스&lt;/h3&gt;
+&lt;br&gt;&lt;string&gt;대표: 강병철&lt;/string&gt; byungcheol.kang@ivymotors.co.kr
+&lt;br&gt;&lt;string&gt;본부장: 배성일&lt;string&gt; sungil.bae@ivymotors.co.kr
+&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
+&lt;br&gt;광주 손영: young.son@ivymotors.co.kr
+&lt;br&gt;군산 신환욱: hwanwook.shin@ivymotors.co.kr
+&lt;br&gt;전주 신환욱: hwanwook.shin@ivymotors.co.kr
+&lt;br&gt;순천 임동진: dongjin.lim@ivymotors.co.kr
+&lt;br&gt;제주 전명호: myeongho.cheon@ivymotors.co.kr
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;태영모터스&lt;/h3&gt;
+&lt;br&gt;&lt;string&gt;대표: 김용수&lt;/string&gt; ys_kim@volvoty.co.kr
+&lt;br&gt;&lt;string&gt;본부장: 김상원&lt;/string&gt; swkim@volvoty.co.kr
+&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
+&lt;br&gt;대구 신승욱: sw.shin72@volvoty.co.kr
+&lt;br&gt;포항 이경식: kslee_ty@volvoty.co.kr
+&lt;br&gt;서대구 황영상: votycar@volvoty.co.kr
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;천하자동차&lt;/h3&gt;
+&lt;br&gt;&lt;string&gt;대표: 윤인경&lt;/string&gt; jamescap2000@chvolvo.co.kr
+&lt;br&gt;&lt;string&gt;본부장: 장준원&lt;/string&gt; jwc@chvolvo.co.kr
+&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
+&lt;br&gt;동대문 허민철: mcheo@chvolvo.co.kr
+&lt;br&gt;의정부 김석영: ysk@chvolvo.co.kr
+&lt;br&gt;구리 임승현: shlim@chvolvo.co.kr
+&lt;br&gt;용산 강명윤: myungyun.kang@chvolvo.co.kr
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;아이언모터스&lt;/h3&gt;
+&lt;br&gt;&lt;string&gt;대표: 김민규&lt;/string&gt; minkyu.kim@ironmotors.co.kr
+&lt;br&gt;&lt;string&gt;본부장: 신홍섭&lt;/string&gt; hongsub.shin@ironmotors.co.kr
+&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
+&lt;br&gt;창원 김희종: heejong.kim@ironmotors.co.kr
+&lt;br&gt;광안 안위성: wiseong.ahn@ironmotors.co.kr
+&lt;br&gt;해운대 박성준: sungjun.park@ironmotors.co.kr
+&lt;br&gt;김해 최경철: gyeongchoel.choe@ironmotors.co.kr
+&lt;br&gt;진주 안정수: jeongsoo.ahn@ironmotors.co.kr
+&lt;br&gt;SELEKT 부산 김호영: hoyoung.kim@ironmotors.co.kr
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;아주오토리움&lt;/h3&gt;
+&lt;br&gt;&lt;string&gt;대표: 박영석&lt;/string&gt; andypark@aju.co.kr
+&lt;br&gt;&lt;string&gt;본부장: 한영수&lt;/string&gt; youngsoohan@aju.co.kr
+&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
+&lt;br&gt;목동 이상일: silee@aju.co.kr
+&lt;br&gt;일산 한택주: taek6664@aju.co.kr
+&lt;br&gt;안양 문상호: shmun@aju.co.kr
+&lt;br&gt;부천 박용호: yhpark05@aju.co.kr
+&lt;br&gt;고양 임지운: jwlim@aju.co.kr
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;코오롱 오토모티브&lt;/h3&gt;
+&lt;br&gt;&lt;string&gt;대표: 신진욱&lt;/string&gt; jinuk_shin@kolon.com
+&lt;br&gt;&lt;string&gt;본부장: 최형준&lt;/string&gt; hyungjun_choi@kolon.com
+&lt;br&gt;&lt;string&gt;전시장 (지점장):&lt;/string&gt;
+&lt;br&gt;송파 유지훈: jihoon_yoo2@kolon.com
+&lt;br&gt;서초 홍영삼: cofficer@kolon.com
+&lt;br&gt;원주 박월준: woljun_park@kolon.com
+&lt;br&gt;천안 김영민: youngmin_kim1@kolon.com
+&lt;br&gt;울산 소상만: mynia@kolon.com
+&lt;br&gt;분당판교 김영선: youngsun_kim1@kolon.com
+&lt;br&gt;하남 김한묵: hanmook_kim@kolon.com
+&lt;br&gt;강릉 박월준: woljun_park@kolon.com
+&lt;br&gt;서산 김영민: youngmin_kim1@kolon.com
+&lt;br&gt;SELEKT 김포 황도훈 : hangcome@kolon.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
+&lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
+&lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;금융, 회계 문의
+&lt;br&gt;
+&lt;br&gt;- 국가지정통계 산업연관표(경비_서비스업)
+&lt;br&gt;- 한국은행 기업경영분석 조사
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;함종석&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('heejung.cho@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;DMS(IMS) 사이트 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, lje@comnarae.co.kr, sunyong.kim@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;헤이볼보 어플 고객 DATA 시스템과 연동된 내용.
+&lt;br&gt;
+&lt;br&gt;-가입 및 탈퇴, 고객 차량 정보 미노출 등
+&lt;br&gt;-e?b?bi?y?s@naver.com 이상한 아이디로 확인됨; 차량 확인안됨
+&lt;br&gt;해당 고객님 헤이 볼보 앱 내 차량정보 연동되어 있으나 앱에서 [실시간 예약; 카카오 상담] 등 메뉴를 누를 때마다 '볼보 고객만 가능한 서비스입니다.' 라는 메시지 팝업
+&lt;br&gt;-서비스 쿠폰 리스트 보이지 않음
+&lt;br&gt;헤이볼보 어플 실시간 정비 알림 메뉴가 정비 대기로 안바뀜
+&lt;br&gt;헤이볼보 회원가입시 비정상적인 등록메세지
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, cjy@comnarae.co.kr, kts@comnarae.co.kr, heejaekelly.byun@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 고객인데 DMS 조회 안 되는 경우; 볼보 자동차 소유(VCK 직원 차량)인데 DMS 조회 안 되는 경우
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com')"&gt;박나혜 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;공항으로 볼보 자동차 화물 도착했을 때 전달 담당자
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('boram.joo@volvocars.com')"&gt;주보람 과장&lt;/button&gt;| &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, juho.kim@volvocars.com, jangwook.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량 수급 현황(재고,물량), 출시 문의, 세일즈 관련 서류 발급 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com')"&gt;김주호 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;프로덕트(product(생산물, 상품, 제품), 차량의 기능 장착 여부; 흡음재가 원래 없는 것인지, 대시보드 재질이 어떻게 되는지 등
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('euijoon.lee@volvocars.com')"&gt;이의준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; daemyeong.kim@volvocars.com; jangwook.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;E/B 콜 장애, 문의 관련; 소비자원에서 VCK 담당자를 찾는 경우; 스웨덴에서 수신된 메일
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com')"&gt;이승진 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;송경란 전무&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;
+서비스센터 설문조사(컨슈머인사이트) 관련 문의/미스터리 쇼핑, 서비스센터 경험 설문조사 관련 문의 및 기프티콘 재발송 요청
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hankoo.lee@volvocars.com')"&gt;이한구 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; junlee.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량 전반적 서비스 개선요청; 차량 용품 제안; 서비스바이볼보; 서비스 캠페인
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;개인정보위반/침해/한국인터넷 진흥원
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;부품, 서비스 쿠폰,액세서리 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;리콜, 무상수리, 리콜대상확인 인증 관련(KC) 업무, 첨단장치 장착에 따른 보험할인 미반영
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com')"&gt;이계현 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com; sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;구조변경/ 번호판 등록/차량 인증 관련;유로5 환경 문의 관련된 문의/저공해 차량
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungje.hong@volvocars.com')"&gt;홍성제 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; kyehyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;보증 정책, 위치정보사업 관련 자료 요청
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;고객지원센터 문의사항에 대한 서포트, VIDA 진단기, 정비매뉴얼 구입 관련 담당, 매뉴얼 상의 내용 관련 문의, 기술 관련 기능, 고장 문의, VOLVO CARS 앱, Spotify Errors, 커넥티비티/인포테이먼트 에러, 소프트웨어 업데이트 일정
+&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com')"&gt;문형준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 어프렌티스(VCAT) 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('donghoon.han@volvocars.com')"&gt;한동훈 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; jueun.kang@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;견인 현장 조치 불가 엔지니어 출동 요청 건
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장; 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량/서비스 관련 고객불만 
+&lt;br&gt;- 부품 수급, 서비스 캠페인, 수리 후 동일증상, 하자재발통보서, 소비자원 또는 소비자연맹 차량/서비스 불만접수건
+&lt;br&gt;- 불만접수 : 딜러사가 확인 되는 경우 &gt; 기존 불만 접수대로 딜러사 TO로 진행; 딜러사가 확인 안되는 경우 &gt; 최종 출고 서비스센터로 진행
+&lt;br&gt;부품과 관련된 불만은 김정민과장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt;
+&lt;br&gt;보증과 관련된 불만은 김영하 부장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt;
+&lt;br&gt;서비스캠페인 관련불만은 이준이대리 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt;
+&lt;br&gt;수리후 동일증상,급발진, 화재, 첨단장치등과 같은 내용은 기술팀 모두 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com; seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; jueun.kang@volvocars.com; boogyu.kim@volvocars.com')"&gt;기술팀&lt;/button&gt;
+&lt;br&gt;언론,미디어 언급 시 남윤지차장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com')"&gt;남윤지 차장&lt;/button&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장, CR매니저, 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 세일즈 본부장; &lt;button class="contact-button" onclick="copyEmail('jisung.kim@volvocars.com; juho.kim@volvocars.com; jangwook.lee@volvocars.com; namtae.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;기획사 PD 제안서, 신규 컨텐츠 제안서, 광고/홍보/마케팅/제휴/행사제안/PPL/이벤트/저작권/어린이/학생 관련 측 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('eunha.jung@volvocars.com')"&gt;장은하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;이승진 부장&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;- 시승신청,  이벤트 상품권 고객 기프티콘 미지급 문의 시
+&lt;br&gt;- 시승 프로세스 지연, 마케팅 수신거부; CRM E-뉴스레터, 고객 1주년 감사카드 담당/ 저작권, MMS, SMS; DMS 정보 삭제(고객 정보 완전 삭제)
+&lt;br&gt;- 1주년 콜랙션 감사 20% 할인 쿠폰 앱에 없음/ 복원
+&lt;br&gt;- 다이캐스트
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 팝업 스토어, 볼보 자동차 진행 이벤트 문의, 헤이 플로깅
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('woojae.kim@volvocars.com')"&gt;김우재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; heejaekelly.byun@volvocars.com; yihwa.lim@volvocars.com; woojae.kim@volvocars.com; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;- VCK 온라인 채널 (홈페이지,페이스북, 인스타그램. 디지털마케팅)
+&lt;br&gt;- Hej Volvo(헤이 볼보) 앱 전반적인 콘텐츠에서 발생하는 이벤트
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jungsoo.kim.2@volvocars.com')"&gt;김정수 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; yihwa.lim@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;EX30 온라인 예약 관련; 온라인 에디션판매(Volvo Digital Shop)
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;FLO 쿠폰관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('flo@music-flo.com; yuchae.jeon@sk.com; sungin.paek@volvocars.com; daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;대표님께 안내할 내용, VCK 입사 지원 , 잡지/신문 대금 관련해서 문의 등
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com')"&gt;신다희&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;규정 준수 관리자, 경력증명서, VCK 복지 지원 담당(장애어린이, 어린이 안전조끼등)
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;To: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com')"&gt;이정화 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;홍보(미디어 문의 포함), 언론, 기사, 취재 요청, 기자시승 
+&lt;br&gt;유튜버, 블로거 등 인플루언서 및 셀러브리티 등
+&lt;br&gt;
+&lt;br&gt;&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com; seungjun.lim@volvocars.com')"&gt;남윤지 차장, 임승준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;구입 고객 고객만족도 조사 관련 메일 발송
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('"hyungi.lee@volvocars.com; jisung.kim@volvocars.com;  juho.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;딜러 개설 담당자, 충전서비스인프라, 딜러사 네트워크 전기차 충전기, 전기차 충전쿠폰
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4283,7 +4329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4347,6 +4393,21 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4803,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4837,14 +4898,14 @@
     </row>
     <row r="2" spans="1:6" ht="86.25">
       <c r="A2" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B2" s="4">
         <v>45471</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -4853,14 +4914,14 @@
     </row>
     <row r="3" spans="1:6" ht="189.75">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B3" s="4">
         <v>45471</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -4869,14 +4930,14 @@
     </row>
     <row r="4" spans="1:6" ht="409.5">
       <c r="A4" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B4" s="4">
         <v>45471</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
@@ -4885,14 +4946,14 @@
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B5" s="4">
         <v>45471</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -4901,14 +4962,14 @@
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B6" s="4">
         <v>45471</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
@@ -4917,14 +4978,14 @@
     </row>
     <row r="7" spans="1:6" ht="120.75">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B7" s="4">
         <v>45471</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
@@ -4933,14 +4994,14 @@
     </row>
     <row r="8" spans="1:6" ht="241.5">
       <c r="A8" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B8" s="4">
         <v>45471</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
@@ -4949,14 +5010,14 @@
     </row>
     <row r="9" spans="1:6" ht="409.5">
       <c r="A9" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B9" s="4">
         <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
@@ -4965,126 +5026,130 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="379.5">
+    <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B12" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>45471</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="409.5">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="379.5">
-      <c r="A14" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="409.5">
+    <row r="15" spans="1:6" ht="379.5">
       <c r="A15" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B15" s="4">
         <v>45470</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B16" s="4">
         <v>45470</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="103.5">
+    <row r="17" spans="1:6" ht="379.5">
       <c r="A17" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B17" s="4">
         <v>45470</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>9</v>
@@ -5093,14 +5158,14 @@
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B18" s="4">
         <v>45470</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>9</v>
@@ -5109,278 +5174,278 @@
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B19" s="4">
         <v>45470</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="409.5">
+    <row r="20" spans="1:6" ht="103.5">
       <c r="A20" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B20" s="4">
         <v>45470</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="69">
+    <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B21" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="293.25">
+    <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="B22" s="4">
-        <v>45469</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>45470</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>66</v>
+        <v>279</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="241.5">
+    <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="B23" s="4">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="409.5">
+    <row r="24" spans="1:6" ht="69">
       <c r="A24" s="3" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="B24" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>45469</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E24" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="103.5">
+    <row r="25" spans="1:6" ht="293.25">
       <c r="A25" s="3" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>45469</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D25" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="86.25">
+    <row r="26" spans="1:6" ht="241.5">
       <c r="A26" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B26" s="4">
         <v>45468</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="207">
+    <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="B27" s="4">
         <v>45468</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="409.5">
+    <row r="28" spans="1:6" ht="103.5">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="B28" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>45468</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>9</v>
+        <v>252</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="327.75">
+    <row r="29" spans="1:6" ht="86.25">
       <c r="A29" s="3" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B29" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="138">
+    <row r="30" spans="1:6" ht="207">
       <c r="A30" s="3" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>45468</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D30" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>9</v>
+        <v>257</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="293.25">
+    <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="B31" s="4">
         <v>45467</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="D31" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>173</v>
+        <v>229</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="396.75">
+    <row r="32" spans="1:6" ht="327.75">
       <c r="A32" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B32" s="4">
         <v>45467</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="409.5">
+    <row r="33" spans="1:6" ht="138">
       <c r="A33" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B33" s="4">
         <v>45467</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="172.5">
+    <row r="34" spans="1:6" ht="293.25">
       <c r="A34" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B34" s="4">
         <v>45467</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="409.5">
+    <row r="35" spans="1:6" ht="396.75">
       <c r="A35" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B35" s="4">
         <v>45467</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
@@ -5389,192 +5454,192 @@
     </row>
     <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B36" s="4">
         <v>45467</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="409.5">
-      <c r="A37" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37" s="14">
+    <row r="37" spans="1:6" ht="172.5">
+      <c r="A37" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="4">
         <v>45467</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B38" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="172.5">
-      <c r="A39" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="8">
-        <v>45463</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>212</v>
+    <row r="39" spans="1:6" ht="409.5">
+      <c r="A39" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" s="14">
+        <v>45467</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="B40" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="86.25">
-      <c r="A41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="4">
+    <row r="41" spans="1:6" ht="172.5">
+      <c r="A41" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="8">
         <v>45463</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5" t="s">
-        <v>194</v>
+      <c r="C41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="379.5">
+    <row r="42" spans="1:6" ht="409.5">
       <c r="A42" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="327.75">
+    <row r="43" spans="1:6" ht="86.25">
       <c r="A43" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="189.75">
+    <row r="44" spans="1:6" ht="379.5">
       <c r="A44" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="103.5">
+    <row r="45" spans="1:6" ht="327.75">
       <c r="A45" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="409.5">
+    <row r="46" spans="1:6" ht="189.75">
       <c r="A46" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="409.5">
+    <row r="47" spans="1:6" ht="103.5">
       <c r="A47" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>9</v>
@@ -5583,94 +5648,94 @@
     </row>
     <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="345">
+    <row r="49" spans="1:6" ht="409.5">
       <c r="A49" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="327.75">
+    <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="241.5">
+    <row r="51" spans="1:6" ht="345">
       <c r="A51" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="409.5">
+    <row r="52" spans="1:6" ht="327.75">
       <c r="A52" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="409.5">
+    <row r="53" spans="1:6" ht="241.5">
       <c r="A53" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
@@ -5679,14 +5744,14 @@
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
@@ -5695,30 +5760,30 @@
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="276">
+    <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
@@ -5727,410 +5792,406 @@
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="409.5">
+    <row r="58" spans="1:6" ht="276">
       <c r="A58" s="3" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="B58" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>13</v>
+        <v>225</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="B59" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="224.25">
-      <c r="A60" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="8">
+    <row r="60" spans="1:6" ht="409.5">
+      <c r="A60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="4">
         <v>45461</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>183</v>
+      <c r="C60" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="120.75">
+    <row r="61" spans="1:6" ht="224.25">
       <c r="A61" s="6" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="B61" s="8">
         <v>45461</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="120.75">
+      <c r="A62" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="409.5">
-      <c r="A62" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B62" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B63" s="4">
         <v>45461</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="409.5">
+    <row r="64" spans="1:6" ht="293.25">
       <c r="A64" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B64" s="4">
         <v>45461</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="172.5">
+    <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B65" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="155.25">
+    <row r="66" spans="1:6" ht="172.5">
       <c r="A66" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B66" s="4">
         <v>45460</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="409.5">
+    <row r="67" spans="1:6" ht="155.25">
       <c r="A67" s="3" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="B67" s="4">
         <v>45460</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="207">
+    <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B68" s="4">
         <v>45460</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="409.5">
+    <row r="69" spans="1:6" ht="207">
       <c r="A69" s="3" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="B69" s="4">
         <v>45460</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>25</v>
+        <v>161</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="258.75">
+    <row r="70" spans="1:6" ht="409.5">
       <c r="A70" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B70" s="4">
         <v>45460</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="258.75">
+      <c r="A71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="138">
-      <c r="A71" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="409.5">
+    <row r="72" spans="1:6" ht="138">
       <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="409.5">
+      <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B73" s="4">
         <v>45457</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="276">
-      <c r="A73" s="3" t="s">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="276">
+      <c r="A74" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B73" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="409.5">
-      <c r="A74" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B74" s="4">
         <v>45456</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="310.5">
+    <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B75" s="4">
         <v>45456</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="138">
+    <row r="76" spans="1:6" ht="310.5">
       <c r="A76" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B76" s="4">
         <v>45456</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="138">
+      <c r="A77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="409.5">
-      <c r="A77" s="3" t="s">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="409.5">
+      <c r="A78" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B77" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="310.5">
-      <c r="A78" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B78" s="4">
         <v>45455</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="409.5">
+    <row r="79" spans="1:6" ht="310.5">
       <c r="A79" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B79" s="4">
         <v>45455</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>9</v>
@@ -6139,13 +6200,13 @@
     </row>
     <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B80" s="4">
         <v>45455</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>179</v>
@@ -6157,187 +6218,187 @@
     </row>
     <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B81" s="4">
         <v>45455</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="310.5">
+    <row r="82" spans="1:6" ht="409.5">
       <c r="A82" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B82" s="4">
         <v>45455</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="409.5">
+    <row r="83" spans="1:6" ht="310.5">
       <c r="A83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="409.5">
+      <c r="A84" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B83" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="189.75">
-      <c r="A84" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B84" s="4">
         <v>45454</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="224.25">
+    <row r="85" spans="1:6" ht="189.75">
       <c r="A85" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B85" s="4">
         <v>45454</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="103.5">
+    <row r="86" spans="1:6" ht="224.25">
       <c r="A86" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B86" s="4">
         <v>45454</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="409.5">
+    <row r="87" spans="1:6" ht="103.5">
       <c r="A87" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B87" s="4">
         <v>45454</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B88" s="4">
         <v>45454</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="241.5">
+    <row r="89" spans="1:6" ht="409.5">
       <c r="A89" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="241.5">
+      <c r="A90" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B89" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="207">
-      <c r="A90" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B90" s="4">
         <v>45453</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="155.25">
+    <row r="91" spans="1:6" ht="207">
       <c r="A91" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B91" s="4">
         <v>45453</v>
@@ -6346,97 +6407,97 @@
         <v>76</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="207">
+    <row r="92" spans="1:6" ht="155.25">
       <c r="A92" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B92" s="4">
         <v>45453</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="120.75">
+    <row r="93" spans="1:6" ht="207">
       <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="276">
+    <row r="94" spans="1:6" ht="120.75">
       <c r="A94" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="409.5">
+    <row r="95" spans="1:6" ht="276">
       <c r="A95" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:6" ht="396.75">
       <c r="A96" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="4">
         <v>45453</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>9</v>
@@ -6445,16 +6506,16 @@
     </row>
     <row r="97" spans="1:6" ht="409.5">
       <c r="A97" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4">
         <v>45452</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>9</v>
@@ -6463,16 +6524,16 @@
     </row>
     <row r="98" spans="1:6" ht="276">
       <c r="A98" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4">
         <v>45452</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>9</v>
@@ -6481,16 +6542,16 @@
     </row>
     <row r="99" spans="1:6" ht="86.25">
       <c r="A99" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>13</v>
@@ -6499,16 +6560,16 @@
     </row>
     <row r="100" spans="1:6" ht="409.5">
       <c r="A100" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
@@ -6517,16 +6578,16 @@
     </row>
     <row r="101" spans="1:6" ht="69">
       <c r="A101" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
@@ -6535,16 +6596,16 @@
     </row>
     <row r="102" spans="1:6" ht="69">
       <c r="A102" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>13</v>
@@ -6553,16 +6614,16 @@
     </row>
     <row r="103" spans="1:6" ht="224.25">
       <c r="A103" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>13</v>
@@ -6571,16 +6632,16 @@
     </row>
     <row r="104" spans="1:6" ht="103.5">
       <c r="A104" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>66</v>
@@ -6589,16 +6650,16 @@
     </row>
     <row r="105" spans="1:6" ht="51.75">
       <c r="A105" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>13</v>
@@ -6607,52 +6668,52 @@
     </row>
     <row r="106" spans="1:6" ht="409.5">
       <c r="A106" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="E106" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" ht="51.75">
       <c r="A107" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="E107" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6" ht="69">
       <c r="A108" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>13</v>
@@ -6661,52 +6722,52 @@
     </row>
     <row r="109" spans="1:6" ht="69">
       <c r="A109" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="E109" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" ht="103.5">
       <c r="A110" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="E110" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6" ht="86.25">
       <c r="A111" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>13</v>
@@ -6715,16 +6776,16 @@
     </row>
     <row r="112" spans="1:6" ht="103.5">
       <c r="A112" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>66</v>
@@ -6733,16 +6794,16 @@
     </row>
     <row r="113" spans="1:6" ht="86.25">
       <c r="A113" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>13</v>
@@ -6751,16 +6812,16 @@
     </row>
     <row r="114" spans="1:6" ht="86.25">
       <c r="A114" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B114" s="4">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>9</v>
@@ -6790,7 +6851,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8097C05E-F590-450C-9470-483D5C2154DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB3A38-40CE-4187-961C-9134D7EDCE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -18,9 +18,10 @@
     <sheet name="추가 요청 건" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="307">
   <si>
     <t>Title</t>
   </si>
@@ -353,25 +354,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>이 문서는 iCUP을 지원하는 차량에서 앱이 동작하지 않는 경우 수행 단계에 대해 설명합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;string&gt;고객에게 모든 앱이 동작하지 않는지, 특정 앱이 동작하지 않는지 식별합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;모든 앱이 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 차량의 중앙 화면 밑 홈 버튼을 20초 이상 길게 누릅니다.
-&lt;br&gt;2. 스크링 클리닝 화면이 나온 후 Volvo 로고가 나올 때까지 누른 후 로고가 나오면 손을 뗍니다.
-&lt;br&gt;3. 그래도 동일한 경우 Hej Volvo 앱을 통해 서비스 센터를 예약한 후 방문하도록 안내 합니다.
-&lt;br&gt;&lt;h3&gt;특정 앱이 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 중앙 화면 우측 하단 설정을 누릅니다.
-&lt;br&gt;2. 설정 &gt; 애플리케이션 &gt; 모든 앱 표시 &gt; 문제가 발생한 앱을 선택 &gt; 저장공간 및 캐시 &gt; 우측 하단 &gt; 저장공간 제거 or 캐시 제거 선택합니다. &lt;em&gt;&lt;a style="color: red;"&gt;(이 단계를 수행하는 경우 앱 데이터가 유실됩니다.)&lt;/a&gt;&lt;/em&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;네트워크 문제로 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 차량의 좌측 상단 안테나 아이콘의 상태를 확인하여 x 표시가 보이는지 확인합니다.
-&lt;br&gt;2. x 표시가 보이는 경우 차량의 비상등 오른쪽 성애 제거 버튼을 20초 이상 누르도록 안내 합니다.
-&lt;br&gt;3. 루프(천장)의 SOS 버튼이 깜빡이는 경우 손을 뗀 후 증상이 동일한지 확인합니다. &lt;em&gt;고객이 B-Call이나, E-Call로 인입한 경우 전화가 끊깁니다.&lt;/em&gt;
-&lt;br&gt;4. 증상이 동일한 경우 48시간 이후 재시도 하도록 안내합니다.</t>
-  </si>
-  <si>
     <t>표시등 및 경고등</t>
   </si>
   <si>
@@ -484,19 +466,6 @@
   </si>
   <si>
     <t>HT203027</t>
-  </si>
-  <si>
-    <t>지원 모델: iCUP 지원 차량
-&lt;br&gt;
-&lt;br&gt;고객은 차량에 블루투스로 연결하면 음악이나 기타 미디어 사운드가 재생되지 않는다고 보고할 수 있습니다.
-&lt;br&gt;홈 보기 또는 앱 보기&lt;img src="https://www.volvocars.com/images/support/img7a8807df5cacedebc0a801525a46ef6f_2_--_--_VOICEpnghigh.png" width="20" height="20"&gt;에서 블루투스 미디어 플레이어 앱&lt;img src="https://www.volvocars.com/images/support/img963609385e11fb97c0a801525c7b6fab_3_--_--_VOICEpnghigh.png" width="20" height="20"&gt;을 시작합니다.
-&lt;br&gt; 앱 사용 시 홈 보기에서 단축 명령을 사용하여 앱을 제어할 수도 있습니다.
-&lt;br&gt;
-&lt;br&gt;&lt;em&gt;참고
-&lt;br&gt;Bluetooth를 통해 전화에서 미디어를 스트리밍하려면 먼저 블루투스 미디어 플레이어를 시작해야 합니다.&lt;/em&gt;
-&lt;br&gt;
-&lt;br&gt;음성 컨트롤을 사용하여 미디어 플레이어를 제어할 수도 있습니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>경보 레벨 낮추기</t>
@@ -2914,10 +2883,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>마케팅 수신 거부 요청하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="topic"&gt;로깅 템플릿&lt;/div&gt;
 &lt;div style="text-align: center;"&gt;
 &lt;button class="logging-button" onclick="logging2()" style="border: 2px solid red; color: red;"&gt;E Call&lt;/button&gt;
@@ -2971,13 +2936,6 @@
 &lt;br&gt;대기 배터리의 사용 수명은 제한되어 있습니다. 배터리 서비스나 교체가 필요하면 운전자 화면에 SOS 서비스 요망 또는 eCall 서비스 요망 메시지가 표시되며, SOS 버튼이 깜빡거립니다.
 &lt;br&gt;
 &lt;br&gt;메시지가 지속적으로 표시되는 경우에는 볼보 공식 서비스 센터에 연락하십시오.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 마케팅 문자 수신 거부를 요청하는 경우 아래 양식을 통해 접수합니다.
-&lt;br&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;iframe width="1000px" height="700px" src="https://forms.office.com/Pages/ResponsePage.aspx?id=6WF08iqfUUuAQaTaqBMv9LOtc019w79BsgmzxwDIFwVUNFlEM1MyMTZMNUdPWTRCSlFZVUlXMEk1QS4u&amp;embed=true" frameborder="0" marginwidth="0" marginheight="0" style="border: none; max-width:100%; max-height:100vh" allowfullscreen webkitallowfullscreen mozallowfullscreen msallowfullscreen&gt; &lt;/iframe&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4319,6 +4277,53 @@
 &lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
 &lt;br&gt;
 &lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 문서는 iCUP을 지원하는 차량에서 앱이 동작하지 않는 경우 수행 단계에 대해 설명합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;string&gt;고객에게 모든 앱이 동작하지 않는지, 특정 앱이 동작하지 않는지 식별합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;모든 앱이 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 차량의 중앙 화면 밑 홈 버튼을 20초 이상 길게 누릅니다.
+&lt;br&gt;2. 스크링 클리닝 화면이 나온 후 Volvo 로고가 나올 때까지 누른 후 로고가 나오면 손을 뗍니다.
+&lt;br&gt;3. 그래도 동일한 경우 Hej Volvo 앱을 통해 서비스 센터를 예약한 후 방문하도록 안내 합니다.
+&lt;br&gt;&lt;h3&gt;특정 앱이 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 중앙 화면 우측 하단 설정을 누릅니다.
+&lt;br&gt;2. 설정 &gt; 개인 정보 보호 &gt; 모든 앱 표시 &gt; 문제가 발생한 앱을 선택 &gt; 저장공간 및 캐시 &gt; 우측 하단 &gt; 저장공간 제거 or 캐시 제거 선택합니다. &lt;em&gt;&lt;a style="color: red;"&gt;(이 단계를 수행하는 경우 앱 데이터가 유실됩니다.)&lt;/a&gt;&lt;/em&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;네트워크 문제로 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 차량의 좌측 상단 안테나 아이콘의 상태를 확인하여 x 표시가 보이는지 확인합니다.
+&lt;br&gt;2. x 표시가 보이는 경우 차량의 비상등 오른쪽 성애 제거 버튼을 20초 이상 누르도록 안내 합니다.
+&lt;br&gt;3. 루프(천장)의 SOS 버튼이 깜빡이는 경우 손을 뗀 후 증상이 동일한지 확인합니다. &lt;em&gt;고객이 B-Call이나, E-Call로 인입한 경우 전화가 끊깁니다.&lt;/em&gt;
+&lt;br&gt;4. 증상이 동일한 경우 48시간 이후 재시도 하도록 안내합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 모델: iCUP 지원 차량
+&lt;br&gt;
+&lt;br&gt;고객은 차량에 블루투스로 연결하면 음악이나 기타 미디어 사운드가 재생되지 않는다고 보고할 수 있습니다.
+&lt;br&gt;홈 보기 또는 앱 보기&lt;img src="https://www.volvocars.com/images/support/img7a8807df5cacedebc0a801525a46ef6f_2_--_--_VOICEpnghigh.png" width="20" height="20"&gt;에서 블루투스 미디어 플레이어 앱&lt;img src="https://www.volvocars.com/images/support/img963609385e11fb97c0a801525c7b6fab_3_--_--_VOICEpnghigh.png" width="20" height="20"&gt;을 시작합니다.
+&lt;br&gt; 앱 사용 시 홈 보기에서 단축 명령을 사용하여 앱을 제어할 수도 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;em&gt;참고
+&lt;br&gt;Bluetooth를 통해 전화에서 미디어를 스트리밍하려면 먼저 블루투스 미디어 플레이어를 시작해야 합니다.&lt;/em&gt;
+&lt;br&gt;
+&lt;br&gt;음성 컨트롤을 사용하여 미디어 플레이어를 제어할 수도 있습니다.
+&lt;br&gt;
+&lt;br&gt;만약, 블루투스 미디어 플레이어앱을 실행하고도 동일하다고 하는 경우, 홈 버튼을 길게 20초간 눌러 강제 재시작을 합니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4489,7 +4494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4543,9 +4548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4862,10 +4864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4898,14 +4900,14 @@
     </row>
     <row r="2" spans="1:6" ht="86.25">
       <c r="A2" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B2" s="4">
         <v>45471</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -4914,30 +4916,30 @@
     </row>
     <row r="3" spans="1:6" ht="189.75">
       <c r="A3" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B3" s="4">
         <v>45471</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="409.5">
       <c r="A4" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B4" s="4">
         <v>45471</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
@@ -4946,14 +4948,14 @@
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B5" s="4">
         <v>45471</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -4962,30 +4964,30 @@
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B6" s="4">
         <v>45471</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="120.75">
       <c r="A7" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B7" s="4">
         <v>45471</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
@@ -4994,81 +4996,81 @@
     </row>
     <row r="8" spans="1:6" ht="241.5">
       <c r="A8" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B8" s="4">
         <v>45471</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="409.5">
+    <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B9" s="4">
         <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="87.75" customHeight="1">
+    <row r="10" spans="1:6" ht="86.25">
       <c r="A10" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>264</v>
+        <v>293</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -5083,137 +5085,137 @@
         <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>9</v>
+        <v>303</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="379.5">
       <c r="A15" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B15" s="4">
         <v>45470</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B16" s="4">
         <v>45470</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="379.5">
       <c r="A17" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B17" s="4">
         <v>45470</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B18" s="4">
         <v>45470</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B19" s="4">
         <v>45470</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="103.5">
       <c r="A20" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B20" s="4">
         <v>45470</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B21" s="4">
         <v>45470</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
@@ -5222,14 +5224,14 @@
     </row>
     <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B22" s="4">
         <v>45470</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>9</v>
@@ -5238,30 +5240,30 @@
     </row>
     <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B23" s="4">
         <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="69">
       <c r="A24" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B24" s="4">
         <v>45469</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
@@ -5270,125 +5272,125 @@
     </row>
     <row r="25" spans="1:6" ht="293.25">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4">
         <v>45469</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="241.5">
       <c r="A26" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B26" s="4">
         <v>45468</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="4">
         <v>45468</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="103.5">
+    <row r="28" spans="1:6" ht="86.25">
       <c r="A28" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="4">
         <v>45468</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="86.25">
+    <row r="29" spans="1:6" ht="207">
       <c r="A29" s="3" t="s">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4">
         <v>45468</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D29" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>9</v>
+        <v>253</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="207">
+    <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="409.5">
+    <row r="31" spans="1:6" ht="327.75">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="B31" s="4">
         <v>45467</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>230</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="327.75">
+    <row r="32" spans="1:6" ht="138">
       <c r="A32" s="3" t="s">
         <v>232</v>
       </c>
@@ -5397,14 +5399,14 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="138">
+    <row r="33" spans="1:6" ht="293.25">
       <c r="A33" s="3" t="s">
         <v>234</v>
       </c>
@@ -5413,30 +5415,30 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="396.75">
+      <c r="A34" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="293.25">
-      <c r="A34" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="B34" s="4">
         <v>45467</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="396.75">
+    <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
         <v>237</v>
       </c>
@@ -5445,30 +5447,30 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="409.5">
+    <row r="36" spans="1:6" ht="172.5">
       <c r="A36" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B36" s="4">
         <v>45467</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="172.5">
+    <row r="37" spans="1:6" ht="409.5">
       <c r="A37" s="3" t="s">
         <v>240</v>
       </c>
@@ -5480,77 +5482,77 @@
         <v>241</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="409.5">
-      <c r="A38" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" s="4">
+      <c r="A38" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="14">
         <v>45467</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="409.5">
-      <c r="A39" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B39" s="14">
-        <v>45467</v>
+      <c r="A39" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="4">
+        <v>45464</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="409.5">
-      <c r="A40" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" s="4">
-        <v>45464</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5" t="s">
-        <v>255</v>
+    <row r="40" spans="1:6" ht="172.5">
+      <c r="A40" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45463</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="172.5">
-      <c r="A41" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="8">
+    <row r="41" spans="1:6" ht="409.5">
+      <c r="A41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="4">
         <v>45463</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>210</v>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="409.5">
+    <row r="42" spans="1:6" ht="86.25">
       <c r="A42" s="3" t="s">
         <v>190</v>
       </c>
@@ -5559,14 +5561,14 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="86.25">
+    <row r="43" spans="1:6" ht="379.5">
       <c r="A43" s="3" t="s">
         <v>192</v>
       </c>
@@ -5575,16 +5577,16 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="379.5">
+    <row r="44" spans="1:6" ht="327.75">
       <c r="A44" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
@@ -5594,11 +5596,11 @@
         <v>196</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="327.75">
+    <row r="45" spans="1:6" ht="189.75">
       <c r="A45" s="3" t="s">
         <v>197</v>
       </c>
@@ -5607,94 +5609,94 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="103.5">
+      <c r="A46" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="189.75">
-      <c r="A46" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="103.5">
+    <row r="47" spans="1:6" ht="409.5">
       <c r="A47" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="409.5">
       <c r="A49" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="409.5">
+    <row r="50" spans="1:6" ht="345">
       <c r="A50" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="345">
+    <row r="51" spans="1:6" ht="327.75">
       <c r="A51" s="3" t="s">
         <v>212</v>
       </c>
@@ -5703,39 +5705,39 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="327.75">
+    <row r="52" spans="1:6" ht="241.5">
       <c r="A52" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="241.5">
+    <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
@@ -5744,14 +5746,14 @@
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
@@ -5760,14 +5762,14 @@
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
@@ -5786,11 +5788,11 @@
         <v>221</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="409.5">
+    <row r="57" spans="1:6" ht="276">
       <c r="A57" s="3" t="s">
         <v>222</v>
       </c>
@@ -5802,396 +5804,398 @@
         <v>223</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="276">
+    <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="B59" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>45461</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D59" s="5" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="409.5">
-      <c r="A60" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="4">
+    <row r="60" spans="1:6" ht="224.25">
+      <c r="A60" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="8">
         <v>45461</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>166</v>
+      <c r="C60" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="224.25">
+    <row r="61" spans="1:6" ht="57.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B61" s="8">
         <v>45461</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="120.75">
-      <c r="A62" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="8">
+    <row r="62" spans="1:6" ht="409.5">
+      <c r="A62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="4">
         <v>45461</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>175</v>
+      <c r="C62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="57.75" customHeight="1">
+    <row r="63" spans="1:6" ht="293.25">
       <c r="A63" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B63" s="4">
         <v>45461</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="293.25">
+    <row r="64" spans="1:6" ht="409.5">
       <c r="A64" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B64" s="4">
         <v>45461</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="172.5">
+      <c r="A65" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="409.5">
-      <c r="A65" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="172.5">
+    <row r="66" spans="1:6" ht="155.25">
       <c r="A66" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="4">
         <v>45460</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="155.25">
+    <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="B67" s="4">
         <v>45460</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="207">
+      <c r="A68" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="409.5">
-      <c r="A68" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="B68" s="4">
         <v>45460</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="207">
+    <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="B69" s="4">
         <v>45460</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="409.5">
+    <row r="70" spans="1:6" ht="258.75">
       <c r="A70" s="3" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="B70" s="4">
         <v>45460</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="258.75">
+    <row r="71" spans="1:6" ht="138">
       <c r="A71" s="3" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="B71" s="4">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="138">
+    <row r="72" spans="1:6" ht="409.5">
       <c r="A72" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B72" s="4">
-        <v>45459</v>
+        <v>45457</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="409.5">
+    <row r="73" spans="1:6" ht="276">
       <c r="A73" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B73" s="4">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="276">
+    <row r="74" spans="1:6" ht="409.5">
       <c r="A74" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B74" s="4">
         <v>45456</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="409.5">
+    <row r="75" spans="1:6" ht="310.5">
       <c r="A75" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B75" s="4">
         <v>45456</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="310.5">
+    <row r="76" spans="1:6" ht="138">
       <c r="A76" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B76" s="4">
         <v>45456</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="138">
+    <row r="77" spans="1:6" ht="409.5">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B77" s="4">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="409.5">
+    <row r="78" spans="1:6" ht="310.5">
       <c r="A78" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B78" s="4">
         <v>45455</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="310.5">
+    <row r="79" spans="1:6" ht="409.5">
       <c r="A79" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B79" s="4">
         <v>45455</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>9</v>
@@ -6200,16 +6204,16 @@
     </row>
     <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B80" s="4">
         <v>45455</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>9</v>
@@ -6218,127 +6222,127 @@
     </row>
     <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B81" s="4">
         <v>45455</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="409.5">
+    <row r="82" spans="1:6" ht="310.5">
       <c r="A82" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B82" s="4">
         <v>45455</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="310.5">
+    <row r="83" spans="1:6" ht="409.5">
       <c r="A83" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B83" s="4">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="409.5">
+    <row r="84" spans="1:6" ht="224.25">
       <c r="A84" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B84" s="4">
-        <v>45454</v>
+        <v>45474</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="189.75">
+    <row r="85" spans="1:6" ht="224.25">
       <c r="A85" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" s="4">
         <v>45454</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="224.25">
+    <row r="86" spans="1:6" ht="103.5">
       <c r="A86" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" s="4">
         <v>45454</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="103.5">
+    <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B87" s="4">
         <v>45454</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F87" s="10"/>
     </row>
@@ -6352,51 +6356,51 @@
       <c r="C88" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>168</v>
+      <c r="D88" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="409.5">
+    <row r="89" spans="1:6" ht="241.5">
       <c r="A89" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B89" s="4">
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="D89" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E89" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="241.5">
+    <row r="90" spans="1:6" ht="207">
       <c r="A90" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B90" s="4">
         <v>45453</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="207">
+    <row r="91" spans="1:6" ht="155.25">
       <c r="A91" s="3" t="s">
         <v>75</v>
       </c>
@@ -6404,17 +6408,17 @@
         <v>45453</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="E91" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="155.25">
+    <row r="92" spans="1:6" ht="207">
       <c r="A92" s="3" t="s">
         <v>77</v>
       </c>
@@ -6422,233 +6426,233 @@
         <v>45453</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="207">
+    <row r="93" spans="1:6" ht="120.75">
       <c r="A93" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="120.75">
+    <row r="94" spans="1:6" ht="276">
       <c r="A94" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="276">
+    <row r="95" spans="1:6" ht="396.75">
       <c r="A95" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="396.75">
-      <c r="A96" s="3" t="s">
-        <v>90</v>
+    <row r="96" spans="1:6" ht="409.5">
+      <c r="A96" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B96" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="5" t="s">
+        <v>45452</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="D96" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="409.5">
+    <row r="97" spans="1:6" ht="276">
       <c r="A97" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" s="4">
         <v>45452</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="9" t="s">
         <v>95</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="276">
+    <row r="98" spans="1:6" ht="86.25">
       <c r="A98" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="4">
-        <v>45452</v>
+        <v>97</v>
+      </c>
+      <c r="B98" s="8">
+        <v>45450</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="D98" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="E98" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="86.25">
+    <row r="99" spans="1:6" ht="409.5">
       <c r="A99" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" ht="409.5">
+      <c r="F99" s="15"/>
+    </row>
+    <row r="100" spans="1:6" ht="69">
       <c r="A100" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="15"/>
+      <c r="F100" s="10"/>
     </row>
     <row r="101" spans="1:6" ht="69">
       <c r="A101" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" ht="69">
+    <row r="102" spans="1:6" ht="224.25">
       <c r="A102" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" ht="224.25">
+    <row r="103" spans="1:6" ht="103.5">
       <c r="A103" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" ht="103.5">
+    <row r="104" spans="1:6" ht="51.75">
       <c r="A104" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="51.75">
+    <row r="105" spans="1:6" ht="409.5">
       <c r="A105" s="6" t="s">
         <v>120</v>
       </c>
@@ -6658,137 +6662,137 @@
       <c r="C105" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>184</v>
+      <c r="D105" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="409.5">
+    <row r="106" spans="1:6" ht="51.75">
       <c r="A106" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" ht="51.75">
+    <row r="107" spans="1:6" ht="69">
       <c r="A107" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6" ht="69">
       <c r="A108" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="69">
+    <row r="109" spans="1:6" ht="103.5">
       <c r="A109" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="103.5">
-      <c r="A110" s="6" t="s">
-        <v>136</v>
+    <row r="110" spans="1:6" ht="86.25">
+      <c r="A110" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="86.25">
-      <c r="A111" s="3" t="s">
-        <v>142</v>
+    <row r="111" spans="1:6" ht="103.5">
+      <c r="A111" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D111" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="D111" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="E111" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="103.5">
+    <row r="112" spans="1:6" ht="86.25">
       <c r="A112" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F112" s="10"/>
     </row>
@@ -6796,42 +6800,24 @@
       <c r="A113" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="4">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>191</v>
+      <c r="D113" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" ht="86.25">
-      <c r="A114" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B114" s="4">
-        <v>45450</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F114">
-      <sortCondition descending="1" ref="B1:B52"/>
+  <autoFilter ref="A1:F50" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F113">
+      <sortCondition descending="1" ref="B1:B50"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6851,7 +6837,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB3A38-40CE-4187-961C-9134D7EDCE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA62FD2-ED2D-45C0-A4B4-467A2BAD41A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -2821,65 +2821,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>8월 부산 Hey Family FAQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Marketing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월 Hej Family 이벤트 FAQ 입니다.
-&lt;h3&gt;&lt;strong&gt;1. 숙소 홈페이지를 확인해보니 4명까지 투숙 가능하다는데, 왜 인원을 추가할 수 없나요?&amp;nbsp; Cabin B : 기준인원(최대): 2인(4인)&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;이번 저희 행사는 최대 2인(+영유아 1인)이 참여하실 수 있습니다.&amp;nbsp;&lt;br /&gt;안전한 행사를 위하여 볼보가 숙소측과 함께 패키지를 별도로 협의하여 인원 추가가 어려운 점&lt;br /&gt;양해 부탁드리며, 많은 고객분들께 원활한 서비스를 제공하기 위하여&amp;nbsp;&lt;br /&gt;인원수를 최대 2인(+영유아 1인)으로 한정하고 있습니다.&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;이는 모두에게 동일하게 적용되는 조건이며,&amp;nbsp;&lt;br /&gt;신청 인원 외 추가 인원을 동반하실 경우,&amp;nbsp;&lt;br /&gt;다른 가족과의 형평성 문제로 현장에서 행사 참여가 불가합니다.&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;이 경우 도착하신 전체 가족 모두 체크인이 거부되며,&amp;nbsp;&lt;br /&gt;현장에서 추가비용을 내고 인원을 추가하시는 것 또한 불가능합니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;형평성 및 원활한 서비스 제공을 위한 지침인 점, 양해 부탁드립니다."&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;2. 얼리 체크인 / 레이트 체크아웃 문의 &lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Q. 얼리 체크인 / 레이트 체크아웃 가능한가요?&lt;br /&gt;A. 죄송합니다. 객실 정비 시간이 필요하여, 얼리 체크인 / 레이트 체크아웃 은 불가능 하십니다.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;3. 주차는 몇 대 가능한가요?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;객실당 최대 1대만 무료주차 가능하고 추가차량 1일 9만원입니다.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;4. 객실 관련 이용 문의 "Q. 체크인은 어디서 하나요?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;A. 1층 로비에서 체크인이 가능합니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 체크인 전에 먼저 들어가서 단지를 둘러보고 있어도 되나요?&lt;br /&gt;A. 네, 가능하십니다. 무료시설인경우 이용가능하십니다.&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 반려동물과 같이 입장 가능한가요?&lt;br /&gt;A. 호텔 건물 내 반려동물은 입장 불가입니다. 위반 시 관리비 청구될 수 있습니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 유아용품 대여 가능한가요?&lt;br /&gt;A. 체크인시 유아차 대여, 침대 가드 신청이 가능하나, 이용하는 고객이 많을시 이용이 불가할 수도 있습니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 흡연 가능한가요?&lt;br /&gt;A. 호텔 건물 내 금연입니다.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;5. 조식 이용 문의 &lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Q. 조식이용은 어디서 하나요?&lt;/p&gt;
-&lt;p&gt;A. 조식은 엘.피.크리스탈 2층, 르블랑에서 이용 가능합니다.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&amp;middot; 운영시간: 주중(화~금) 08:00~13:30(L.O 12:30)&lt;br /&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 주말(토~월) 07:30~13:30(L.O 12:30)&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;6. 에이 스피릿 오브 저니 클럽 OUTDOOR POOL 이용문의&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Q. OUTDOOR POOL 위치와 운영시간이 어떻게 되나요?&lt;br /&gt;&amp;nbsp;A. 아난티 앳 부산 빌라쥬 야외 1층에 위치하고 운영시간은 09:00~21:00 입니다. 총 3부로 나눠 운영이 되어 12시, 17시에 각각 1시간씩 브레이크 타임이 있으니,&amp;nbsp; 이용시 참고 부탁드립니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;&amp;nbsp;* &amp;nbsp;1부 9:00 ~ 12:00&lt;br /&gt;&amp;nbsp; &amp;nbsp; 2부 13:00 ~ 17:00&lt;br /&gt;&amp;nbsp; &amp;nbsp; 3부 18:00 ~ 21:00&lt;br /&gt;&amp;nbsp;*브레이크 타임: 12:00~13:00, 17:00~18:00&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 수심은 어떻게 되나요?&lt;br /&gt;A. 메인풀(원형) 수심 1.2m, 서브풀(마름모형) 수심 0.6m 입니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;메인풀(원형) - 반지름 11.3m / 수심 1.2m&lt;br /&gt;서브풀(마름모형) - 17.5m x 9m / 수심 0.6m&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 야외수영장은 어떻게 이용하나요?&lt;br /&gt;A. 야외수영장은 숙박 기간동안 1회 무료 이용 가능합니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q.야외수영장에서 튜브 사용 가능한가요?&lt;br /&gt;- 착용형 구명조끼, 암링을 제외한 모든 구명용품(스윔비 튜브, 보행기 튜브, 스노쿨장비, 오리발, 물총, 킥판 등) 사용과 외부 음식물 반입을&amp;nbsp;&lt;br /&gt;제한하고 있으니 이용시 참고 바랍니다.&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 야외 수영장 이용시 환복은 어디서 하나요?&lt;br /&gt;- 객실 내 환복 후 이용 가능합니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 아이도 이용 가능한가요? (아이용 구명조끼 구비/ 방수 기저귀는 준비해와야함)&lt;br /&gt;A. 13세 이하 어린이는 보호자 동반 시 이용이 가능하고 신장 120cm 미만 어린이는 구명조끼를 필수로 착용해야합니다. 또한 36개월 미만의 어린이는 방수 기저귀 착용 후 이용이 가능합니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 수영복을 꼭 입어야만 하나요?&lt;br /&gt;A. &amp;nbsp;수영장 입수 시에는 수영복 착용 후 이용 가능합니다. (수영장 전용 외 의류 착용 제한)&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;7. 에이 스피릿 오브 저니 클럽 INDOOR POOL이용 문의&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Q. INDOOR POOL 위치와 운영시간이 어떻게 되나요?&lt;br /&gt;&amp;nbsp;A. 12층에 위치하고 운영시간은 09:00~21:00 입니다. 총 5부로 나눠 운영이 됩니다. 5부는 성인전용이며, 각 부가 끝나면 브레이크 타임이 있으니 이용시 참고 부탁드립니다.&lt;br /&gt;&amp;nbsp;&lt;br /&gt;- 운영시간 : 09:00~21:00&lt;br /&gt;1부: 09:00~11:00&lt;br /&gt;2부: 12:00~14:30&lt;br /&gt;3부: 15:00~16:50&lt;br /&gt;4부: 17:10~19:00&lt;br /&gt;5부: 19:20~21:00 *5부 성인 전용&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 수심은 어떻게 되나요?&lt;br /&gt;A. 메인풀은 수심 1.2m, 자쿠지는 수심 0.5m입니다&lt;br /&gt;&amp;nbsp;&lt;br /&gt;- 크기&lt;br /&gt;메인풀 - 19.4m x 4.5m / 수심 1.2m&lt;br /&gt;자쿠지 - 반지름 1.8m / 수심 0.5m&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 실내수영장은 어떻게 이용하나요?&lt;br /&gt;A. 실내수영장은 숙박 기간동안 1회 무료 이용 가능합니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 실내수영장에서 튜브 사용 가능한가요?&lt;br /&gt;- 착용형 구명조끼, 암링을 제외한 모든 구명용품(스윔비 튜브, 보행기 튜브, 스노쿨장비, 오리발, 물총, 킥판 등) 사용과 외부 음식물 반입을 제한하고 있으니 이용시 참고 바랍니다.&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 실내 수영장 이용시 환복은 어디서 하나요?&lt;br /&gt;- 객실 내 환복 후 이용 또는 12F 락커룸 이용 후 엘레베이터를 이용하여 이동하여 주시기 바랍니다.&lt;br /&gt;락커 이용시, &amp;nbsp;48개월 이상 아동은 이성 락커 출입이 불가 합니다.&lt;br /&gt;&amp;nbsp;&lt;br /&gt;Q. 아이도 이용 가능한가요? (아이용 구명조끼 구비/ 방수 기저귀는 준비해와야함)&lt;br /&gt;A. 13세 이하 어린이는 보호자 동반 시 이용이 가능하고 신장 120cm 미만 어린이는 구명조끼를 필수로 착용해야합니다. 또한 36개월 미만의 어린이는 방수 기저귀 착용 후 이용이 가능합니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 수영복을 꼭 입어야만 하나요?&lt;br /&gt;A. &amp;nbsp;수영장 입수 시에는 수영복 착용 후 이용 가능합니다. (수영장 전용 외 의류 착용 제한)&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;8. 스프링 팰리스 이용 문의 "Q.SPRING PALACE 위치와 운영시간이 어떻게 되나요?&lt;/h3&gt;
-&lt;p&gt;A. L.P Crystal 1층에 위치하고 운영시간은 &amp;nbsp;실내 09:00~20:30, 야외 10:00~20:30 입니다. 야외 인피니티풀은 온수로 이용되지 않으며, 자쿠지 제외매시간 정각부터 10분간 브레이크타임이 있으니 이용시 참고 부탁드립니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;- 운영시간&amp;nbsp;&lt;br /&gt;[실내] 09:00~20:30&lt;br /&gt;[야외] 10:00~20:30&lt;br /&gt;* 야외 인피니티풀은 온수로 이용되지 않습니다.&lt;br /&gt;* 브레이크 타임: 매 시간 정각부터 10분간(자쿠지 제외)&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 수심은 어떻게 되나요?&lt;br /&gt;A. 메인풀&lt;br /&gt;- 실내외 메인풀, 야외 인피니티풀은 수심 1.2m, 실내 키즈풀은 수심 0.3~0.6m입니다&lt;br /&gt;&amp;nbsp;&amp;nbsp;&lt;br /&gt;[실내]&lt;br /&gt;- 메인풀 : 24.3m x 4.8m / 수심 1.2m&lt;br /&gt;- 키즈풀 : 17.5m x 17m / 수심 0.3~0.6m&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;[야외]&lt;br /&gt;- 메인풀 : 26.8m x 7.3m / 수심 1.2m&lt;br /&gt;- 인피니티풀 : 34.8m x 18.7m / 수심 1.2m&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. SPRING PALACE은 어떻게 이용하나요?&lt;br /&gt;A. SPRING PALACE은 숙박 기간동안 1회 무료 이용 가능합니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 튜브 사용 가능한가요?&lt;br /&gt;- 착용형 구명조끼, 암링을 제외한 모든 구명용품(스윔비 튜브, 보행기 튜브, 스노쿨장비, 오리발, 물총, 킥판 등) 사용과 외부 음식물 반입을 제한하고 있으니 이용시 참고 바랍니다.&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 아이도 이용 가능한가요? (아이용 구명조끼 구비/ 방수 기저귀는 준비해와야함)&lt;br /&gt;A. 13세 이하 어린이는 보호자 동반 시 이용이 가능하고 신장 120cm 미만 어린이는 구명조끼를 필수로 착용해야합니다. 또한 36개월 미만의 어린이는 방수 기저귀 착용 후 이용이 가능합니다&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Q. 수영복을 꼭 입어야만 하나요?&lt;br /&gt;A. &amp;nbsp;수영장 입수 시에는 수영복 착용 후 이용 가능합니다. (수영장 전용 외 의류 착용 제한)&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;- 이용문의 : 051-662-7032 / 051-662-7033"&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;9. 유아용품 신청 관련&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Q. 유아용품은 어디서 신청하면 되나요?&amp;nbsp;&lt;br /&gt;A. 네, 필요하신 유아용품 말씀 주시면 호텔 재고 상황 확인 후 연락드리겠습니다&lt;br /&gt;&amp;nbsp;&lt;br /&gt;* 신청 가능한 아기용품 문의 시&lt;br /&gt;젖병소독기, 아기침대, 아기욕조, 아기 식탁의자, 침대가드, 유모차가 구비 각 객실별 1개씩 세팅 가능&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;10. 부대시설 관련&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Q. 다른 이용 시설이 있나요?&lt;br /&gt;A.&amp;nbsp;&lt;br /&gt;1. 호텔내 베이커리, 레스토랑, 이자카야, 고깃집, 중식당, 샤브샤브, 일식 선술집 등 다양한 식당&lt;br /&gt;2. 호텔내 도서, 문구, 리빙, 그로서리, 와인, 푸드, 와인, 사퀴테리, 생활용품 등 구매가능한 마켓&lt;br /&gt;3. 고급 식료품, 음료, 맥주, 스낵, 와인, 간식, 여행 필수품, 부산, 남해, 가평의 지역 상품 등을 판매하는 무인 편의점&lt;br /&gt;4. 엘피크리스탈에서 다양한 의류, 장난감, 반려동물 편집숍, 서점, 베이커리, 갤러리, 카페등 이용가능&lt;br /&gt;5. 수변공원등도 이용가능합니다.&lt;/p&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4324,6 +4266,66 @@
 &lt;br&gt;음성 컨트롤을 사용하여 미디어 플레이어를 제어할 수도 있습니다.
 &lt;br&gt;
 &lt;br&gt;만약, 블루투스 미디어 플레이어앱을 실행하고도 동일하다고 하는 경우, 홈 버튼을 길게 20초간 눌러 강제 재시작을 합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 부산 Hey Familj FAQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 Hej Family 이벤트 FAQ 입니다.
+&lt;br&gt;
+행사 개요 등 자세한 내용은&lt;a href="https://teledirectasia-my.sharepoint.com/:x:/g/personal/igyeol_choi_tdcx_com/EUnXVlbuQLxGmA8XwGnRpWUBLZJY0lc5sPjgMJYvQfczFQ?wdOrigin=TEAMS-MAGLEV.undefined_ns.rwc&amp;wdExp=TEAMS-TREATMENT&amp;wdhostclicktime=1719799839692&amp;web=1" target="_blank"&gt;여기&lt;/a&gt;를 눌러 확인하십시오.
+&lt;h3&gt;&lt;strong&gt;1. 숙소 홈페이지를 확인해보니 4명까지 투숙 가능하다는데, 왜 인원을 추가할 수 없나요?&amp;nbsp; Cabin B : 기준인원(최대): 2인(4인)&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;이번 저희 행사는 최대 2인(+영유아 1인)이 참여하실 수 있습니다.&amp;nbsp;&lt;br /&gt;안전한 행사를 위하여 볼보가 숙소측과 함께 패키지를 별도로 협의하여 인원 추가가 어려운 점&lt;br /&gt;양해 부탁드리며, 많은 고객분들께 원활한 서비스를 제공하기 위하여&amp;nbsp;&lt;br /&gt;인원수를 최대 2인(+영유아 1인)으로 한정하고 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;이는 모두에게 동일하게 적용되는 조건이며,&amp;nbsp;&lt;br /&gt;신청 인원 외 추가 인원을 동반하실 경우,&amp;nbsp;&lt;br /&gt;다른 가족과의 형평성 문제로 현장에서 행사 참여가 불가합니다.&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;이 경우 도착하신 전체 가족 모두 체크인이 거부되며,&amp;nbsp;&lt;br /&gt;현장에서 추가비용을 내고 인원을 추가하시는 것 또한 불가능합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;형평성 및 원활한 서비스 제공을 위한 지침인 점, 양해 부탁드립니다."&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;2. 얼리 체크인 / 레이트 체크아웃 문의 &lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Q. 얼리 체크인 / 레이트 체크아웃 가능한가요?&lt;br /&gt;A. 죄송합니다. 객실 정비 시간이 필요하여, 얼리 체크인 / 레이트 체크아웃 은 불가능 하십니다.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;3. 주차는 몇 대 가능한가요?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;객실당 최대 1대만 무료주차 가능하고 추가차량 1일 9만원입니다.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;4. 객실 관련 이용 문의 "Q. 체크인은 어디서 하나요?&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;A. 1층 로비에서 체크인이 가능합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 체크인 전에 먼저 들어가서 단지를 둘러보고 있어도 되나요?&lt;br /&gt;A. 네, 가능하십니다. 무료시설인경우 이용가능하십니다.&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 반려동물과 같이 입장 가능한가요?&lt;br /&gt;A. 호텔 건물 내 반려동물은 입장 불가입니다. 위반 시 관리비 청구될 수 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 유아용품 대여 가능한가요?&lt;br /&gt;A. 체크인시 유아차 대여, 침대 가드 신청이 가능하나, 이용하는 고객이 많을시 이용이 불가할 수도 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 흡연 가능한가요?&lt;br /&gt;A. 호텔 건물 내 금연입니다.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;5. 조식 이용 문의 &lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Q. 조식이용은 어디서 하나요?&lt;/p&gt;
+&lt;p&gt;A. 조식은 엘.피.크리스탈 2층, 르블랑에서 이용 가능합니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;middot; 운영시간: 주중(화~금) 08:00~13:30(L.O 12:30)&lt;br /&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 주말(토~월) 07:30~13:30(L.O 12:30)&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;6. 에이 스피릿 오브 저니 클럽 OUTDOOR POOL 이용문의&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Q. OUTDOOR POOL 위치와 운영시간이 어떻게 되나요?&lt;br /&gt;&amp;nbsp;A. 아난티 앳 부산 빌라쥬 야외 1층에 위치하고 운영시간은 09:00~21:00 입니다. 총 3부로 나눠 운영이 되어 12시, 17시에 각각 1시간씩 브레이크 타임이 있으니,&amp;nbsp; 이용시 참고 부탁드립니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;&amp;nbsp;* &amp;nbsp;1부 9:00 ~ 12:00&lt;br /&gt;&amp;nbsp; &amp;nbsp; 2부 13:00 ~ 17:00&lt;br /&gt;&amp;nbsp; &amp;nbsp; 3부 18:00 ~ 21:00&lt;br /&gt;&amp;nbsp;*브레이크 타임: 12:00~13:00, 17:00~18:00&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 수심은 어떻게 되나요?&lt;br /&gt;A. 메인풀(원형) 수심 1.2m, 서브풀(마름모형) 수심 0.6m 입니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;메인풀(원형) - 반지름 11.3m / 수심 1.2m&lt;br /&gt;서브풀(마름모형) - 17.5m x 9m / 수심 0.6m&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 야외수영장은 어떻게 이용하나요?&lt;br /&gt;A. 야외수영장은 숙박 기간동안 1회 무료 이용 가능합니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q.야외수영장에서 튜브 사용 가능한가요?&lt;br /&gt;- 착용형 구명조끼, 암링을 제외한 모든 구명용품(스윔비 튜브, 보행기 튜브, 스노쿨장비, 오리발, 물총, 킥판 등) 사용과 외부 음식물 반입을&amp;nbsp;&lt;br /&gt;제한하고 있으니 이용시 참고 바랍니다.&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 야외 수영장 이용시 환복은 어디서 하나요?&lt;br /&gt;- 객실 내 환복 후 이용 가능합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 아이도 이용 가능한가요? (아이용 구명조끼 구비/ 방수 기저귀는 준비해와야함)&lt;br /&gt;A. 13세 이하 어린이는 보호자 동반 시 이용이 가능하고 신장 120cm 미만 어린이는 구명조끼를 필수로 착용해야합니다. 또한 36개월 미만의 어린이는 방수 기저귀 착용 후 이용이 가능합니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 수영복을 꼭 입어야만 하나요?&lt;br /&gt;A. &amp;nbsp;수영장 입수 시에는 수영복 착용 후 이용 가능합니다. (수영장 전용 외 의류 착용 제한)&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;7. 에이 스피릿 오브 저니 클럽 INDOOR POOL이용 문의&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Q. INDOOR POOL 위치와 운영시간이 어떻게 되나요?&lt;br /&gt;&amp;nbsp;A. 12층에 위치하고 운영시간은 09:00~21:00 입니다. 총 5부로 나눠 운영이 됩니다. 5부는 성인전용이며, 각 부가 끝나면 브레이크 타임이 있으니 이용시 참고 부탁드립니다.&lt;br /&gt;&amp;nbsp;&lt;br /&gt;- 운영시간 : 09:00~21:00&lt;br /&gt;1부: 09:00~11:00&lt;br /&gt;2부: 12:00~14:30&lt;br /&gt;3부: 15:00~16:50&lt;br /&gt;4부: 17:10~19:00&lt;br /&gt;5부: 19:20~21:00 *5부 성인 전용&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 수심은 어떻게 되나요?&lt;br /&gt;A. 메인풀은 수심 1.2m, 자쿠지는 수심 0.5m입니다&lt;br /&gt;&amp;nbsp;&lt;br /&gt;- 크기&lt;br /&gt;메인풀 - 19.4m x 4.5m / 수심 1.2m&lt;br /&gt;자쿠지 - 반지름 1.8m / 수심 0.5m&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 실내수영장은 어떻게 이용하나요?&lt;br /&gt;A. 실내수영장은 숙박 기간동안 1회 무료 이용 가능합니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 실내수영장에서 튜브 사용 가능한가요?&lt;br /&gt;- 착용형 구명조끼, 암링을 제외한 모든 구명용품(스윔비 튜브, 보행기 튜브, 스노쿨장비, 오리발, 물총, 킥판 등) 사용과 외부 음식물 반입을 제한하고 있으니 이용시 참고 바랍니다.&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 실내 수영장 이용시 환복은 어디서 하나요?&lt;br /&gt;- 객실 내 환복 후 이용 또는 12F 락커룸 이용 후 엘레베이터를 이용하여 이동하여 주시기 바랍니다.&lt;br /&gt;락커 이용시, &amp;nbsp;48개월 이상 아동은 이성 락커 출입이 불가 합니다.&lt;br /&gt;&amp;nbsp;&lt;br /&gt;Q. 아이도 이용 가능한가요? (아이용 구명조끼 구비/ 방수 기저귀는 준비해와야함)&lt;br /&gt;A. 13세 이하 어린이는 보호자 동반 시 이용이 가능하고 신장 120cm 미만 어린이는 구명조끼를 필수로 착용해야합니다. 또한 36개월 미만의 어린이는 방수 기저귀 착용 후 이용이 가능합니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 수영복을 꼭 입어야만 하나요?&lt;br /&gt;A. &amp;nbsp;수영장 입수 시에는 수영복 착용 후 이용 가능합니다. (수영장 전용 외 의류 착용 제한)&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;8. 스프링 팰리스 이용 문의 "Q.SPRING PALACE 위치와 운영시간이 어떻게 되나요?&lt;/h3&gt;
+&lt;p&gt;A. L.P Crystal 1층에 위치하고 운영시간은 &amp;nbsp;실내 09:00~20:30, 야외 10:00~20:30 입니다. 야외 인피니티풀은 온수로 이용되지 않으며, 자쿠지 제외매시간 정각부터 10분간 브레이크타임이 있으니 이용시 참고 부탁드립니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;- 운영시간&amp;nbsp;&lt;br /&gt;[실내] 09:00~20:30&lt;br /&gt;[야외] 10:00~20:30&lt;br /&gt;* 야외 인피니티풀은 온수로 이용되지 않습니다.&lt;br /&gt;* 브레이크 타임: 매 시간 정각부터 10분간(자쿠지 제외)&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 수심은 어떻게 되나요?&lt;br /&gt;A. 메인풀&lt;br /&gt;- 실내외 메인풀, 야외 인피니티풀은 수심 1.2m, 실내 키즈풀은 수심 0.3~0.6m입니다&lt;br /&gt;&amp;nbsp;&amp;nbsp;&lt;br /&gt;[실내]&lt;br /&gt;- 메인풀 : 24.3m x 4.8m / 수심 1.2m&lt;br /&gt;- 키즈풀 : 17.5m x 17m / 수심 0.3~0.6m&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;[야외]&lt;br /&gt;- 메인풀 : 26.8m x 7.3m / 수심 1.2m&lt;br /&gt;- 인피니티풀 : 34.8m x 18.7m / 수심 1.2m&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. SPRING PALACE은 어떻게 이용하나요?&lt;br /&gt;A. SPRING PALACE은 숙박 기간동안 1회 무료 이용 가능합니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 튜브 사용 가능한가요?&lt;br /&gt;- 착용형 구명조끼, 암링을 제외한 모든 구명용품(스윔비 튜브, 보행기 튜브, 스노쿨장비, 오리발, 물총, 킥판 등) 사용과 외부 음식물 반입을 제한하고 있으니 이용시 참고 바랍니다.&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 아이도 이용 가능한가요? (아이용 구명조끼 구비/ 방수 기저귀는 준비해와야함)&lt;br /&gt;A. 13세 이하 어린이는 보호자 동반 시 이용이 가능하고 신장 120cm 미만 어린이는 구명조끼를 필수로 착용해야합니다. 또한 36개월 미만의 어린이는 방수 기저귀 착용 후 이용이 가능합니다&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Q. 수영복을 꼭 입어야만 하나요?&lt;br /&gt;A. &amp;nbsp;수영장 입수 시에는 수영복 착용 후 이용 가능합니다. (수영장 전용 외 의류 착용 제한)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;- 이용문의 : 051-662-7032 / 051-662-7033"&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;9. 유아용품 신청 관련&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Q. 유아용품은 어디서 신청하면 되나요?&amp;nbsp;&lt;br /&gt;A. 네, 필요하신 유아용품 말씀 주시면 호텔 재고 상황 확인 후 연락드리겠습니다&lt;br /&gt;&amp;nbsp;&lt;br /&gt;* 신청 가능한 아기용품 문의 시&lt;br /&gt;젖병소독기, 아기침대, 아기욕조, 아기 식탁의자, 침대가드, 유모차가 구비 각 객실별 1개씩 세팅 가능&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;10. 부대시설 관련&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Q. 다른 이용 시설이 있나요?&lt;br /&gt;A.&amp;nbsp;&lt;br /&gt;1. 호텔내 베이커리, 레스토랑, 이자카야, 고깃집, 중식당, 샤브샤브, 일식 선술집 등 다양한 식당&lt;br /&gt;2. 호텔내 도서, 문구, 리빙, 그로서리, 와인, 푸드, 와인, 사퀴테리, 생활용품 등 구매가능한 마켓&lt;br /&gt;3. 고급 식료품, 음료, 맥주, 스낵, 와인, 간식, 여행 필수품, 부산, 남해, 가평의 지역 상품 등을 판매하는 무인 편의점&lt;br /&gt;4. 엘피크리스탈에서 다양한 의류, 장난감, 반려동물 편집숍, 서점, 베이커리, 갤러리, 카페등 이용가능&lt;br /&gt;5. 수변공원등도 이용가능합니다.&lt;/p&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4866,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4898,153 +4900,155 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25">
-      <c r="A2" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45471</v>
+    <row r="2" spans="1:6" ht="409.5">
+      <c r="A2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45474</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="189.75">
+    <row r="3" spans="1:6" ht="224.25">
       <c r="A3" s="3" t="s">
-        <v>288</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4">
-        <v>45471</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>45474</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>302</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:6" ht="86.25">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B4" s="4">
         <v>45471</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="409.5">
+    <row r="5" spans="1:6" ht="189.75">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B5" s="4">
         <v>45471</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B6" s="4">
         <v>45471</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="120.75">
+    <row r="7" spans="1:6" ht="409.5">
       <c r="A7" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B7" s="4">
         <v>45471</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="241.5">
+    <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B8" s="4">
         <v>45471</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B9" s="4">
         <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="86.25">
+    <row r="10" spans="1:6" ht="241.5">
       <c r="A10" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
@@ -5054,690 +5058,690 @@
         <v>295</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="409.5">
+    <row r="12" spans="1:6" ht="86.25">
       <c r="A12" s="3" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="379.5">
+    <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>45471</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="B16" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>45471</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="379.5">
       <c r="A17" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B17" s="4">
         <v>45470</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B18" s="4">
         <v>45470</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="409.5">
+    <row r="19" spans="1:6" ht="379.5">
       <c r="A19" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B19" s="4">
         <v>45470</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="103.5">
+    <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B20" s="4">
         <v>45470</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B21" s="4">
         <v>45470</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="409.5">
+    <row r="22" spans="1:6" ht="103.5">
       <c r="A22" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B22" s="4">
         <v>45470</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B23" s="4">
         <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="69">
+    <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B24" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="293.25">
+    <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="B25" s="4">
+        <v>45470</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="69">
+      <c r="A26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="4">
         <v>45469</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="241.5">
-      <c r="A26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="4">
-        <v>45468</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="409.5">
+    <row r="27" spans="1:6" ht="293.25">
       <c r="A27" s="3" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="86.25">
+    <row r="28" spans="1:6" ht="241.5">
       <c r="A28" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B28" s="4">
         <v>45468</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="207">
+    <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="B29" s="4">
         <v>45468</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="86.25">
+      <c r="A30" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="207">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D31" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="409.5">
-      <c r="A30" s="3" t="s">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="409.5">
+      <c r="A32" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="327.75">
-      <c r="A31" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="138">
-      <c r="A32" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="B32" s="4">
         <v>45467</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="D32" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>302</v>
+        <v>227</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="293.25">
+    <row r="33" spans="1:6" ht="327.75">
       <c r="A33" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B33" s="4">
         <v>45467</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="396.75">
+    <row r="34" spans="1:6" ht="138">
       <c r="A34" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B34" s="4">
         <v>45467</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="409.5">
+    <row r="35" spans="1:6" ht="293.25">
       <c r="A35" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B35" s="4">
         <v>45467</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="172.5">
+    <row r="36" spans="1:6" ht="396.75">
       <c r="A36" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B36" s="4">
         <v>45467</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="409.5">
       <c r="A37" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B37" s="4">
         <v>45467</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="409.5">
-      <c r="A38" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" s="14">
+    <row r="38" spans="1:6" ht="172.5">
+      <c r="A38" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="4">
         <v>45467</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B39" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="409.5">
+      <c r="A40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="172.5">
-      <c r="A40" s="6" t="s">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="172.5">
+      <c r="A41" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B41" s="8">
         <v>45463</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="409.5">
-      <c r="A41" s="3" t="s">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="409.5">
+      <c r="A42" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B41" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="86.25">
-      <c r="A42" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="B42" s="4">
         <v>45463</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="379.5">
+    <row r="43" spans="1:6" ht="86.25">
       <c r="A43" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="327.75">
+    <row r="44" spans="1:6" ht="379.5">
       <c r="A44" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="189.75">
+    <row r="45" spans="1:6" ht="327.75">
       <c r="A45" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="103.5">
+    <row r="46" spans="1:6" ht="189.75">
       <c r="A46" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="409.5">
+    <row r="47" spans="1:6" ht="103.5">
       <c r="A47" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="409.5">
       <c r="A49" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="345">
+    <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="327.75">
+    <row r="51" spans="1:6" ht="345">
       <c r="A51" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="241.5">
+    <row r="52" spans="1:6" ht="327.75">
       <c r="A52" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="409.5">
+    <row r="53" spans="1:6" ht="241.5">
       <c r="A53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
@@ -5746,14 +5750,14 @@
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
@@ -5762,14 +5766,14 @@
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
@@ -5778,442 +5782,440 @@
     </row>
     <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>304</v>
+        <v>9</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="276">
+    <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="409.5">
+    <row r="58" spans="1:6" ht="276">
       <c r="A58" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="409.5">
+      <c r="A60" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B60" s="4">
         <v>45461</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="224.25">
-      <c r="A60" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" ht="57.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B61" s="8">
         <v>45461</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="120.75">
+      <c r="A62" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="409.5">
-      <c r="A62" s="3" t="s">
+      <c r="E62" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" ht="409.5">
+      <c r="A63" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B62" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" ht="293.25">
-      <c r="A63" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="B63" s="4">
         <v>45461</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="409.5">
+    <row r="64" spans="1:6" ht="293.25">
       <c r="A64" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B64" s="4">
         <v>45461</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="409.5">
+      <c r="A65" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="172.5">
-      <c r="A65" s="3" t="s">
+      <c r="E65" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="172.5">
+      <c r="A66" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B65" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="155.25">
-      <c r="A66" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="B66" s="4">
         <v>45460</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="409.5">
+    <row r="67" spans="1:6" ht="155.25">
       <c r="A67" s="3" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B67" s="4">
         <v>45460</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="207">
+    <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B68" s="4">
         <v>45460</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="409.5">
+    <row r="69" spans="1:6" ht="207">
       <c r="A69" s="3" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B69" s="4">
         <v>45460</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>25</v>
+        <v>159</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="258.75">
+    <row r="70" spans="1:6" ht="409.5">
       <c r="A70" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="B70" s="4">
         <v>45460</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="258.75">
+      <c r="A71" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="138">
-      <c r="A71" s="3" t="s">
+      <c r="E71" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="138">
+      <c r="A72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B72" s="4">
         <v>45459</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="409.5">
-      <c r="A72" s="3" t="s">
+      <c r="E72" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="409.5">
+      <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B73" s="4">
         <v>45457</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="276">
-      <c r="A73" s="3" t="s">
+      <c r="E73" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="276">
+      <c r="A74" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B73" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="409.5">
-      <c r="A74" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B74" s="4">
         <v>45456</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="310.5">
+    <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B75" s="4">
         <v>45456</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="138">
+    <row r="76" spans="1:6" ht="310.5">
       <c r="A76" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B76" s="4">
         <v>45456</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="138">
+      <c r="A77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="409.5">
-      <c r="A77" s="3" t="s">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="409.5">
+      <c r="A78" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B77" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="310.5">
-      <c r="A78" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B78" s="4">
         <v>45455</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="409.5">
+    <row r="79" spans="1:6" ht="310.5">
       <c r="A79" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B79" s="4">
         <v>45455</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>177</v>
+        <v>303</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B80" s="4">
         <v>45455</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>9</v>
@@ -6222,73 +6224,73 @@
     </row>
     <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" s="4">
         <v>45455</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="310.5">
+    <row r="82" spans="1:6" ht="409.5">
       <c r="A82" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B82" s="4">
         <v>45455</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" ht="310.5">
+      <c r="A83" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E83" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" ht="409.5">
-      <c r="A83" s="3" t="s">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="409.5">
+      <c r="A84" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B84" s="4">
         <v>45454</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="224.25">
-      <c r="A84" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="E84" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F84" s="10"/>
     </row>
@@ -6306,7 +6308,7 @@
         <v>57</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -6486,7 +6488,7 @@
         <v>90</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F95" s="10"/>
     </row>
@@ -6612,7 +6614,7 @@
         <v>112</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F102" s="10"/>
     </row>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA62FD2-ED2D-45C0-A4B4-467A2BAD41A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DBDE4F-B88A-4EFA-9955-745156A82891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4021,207 +4021,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
-&lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
-&lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;금융, 회계 문의
-&lt;br&gt;
-&lt;br&gt;- 국가지정통계 산업연관표(경비_서비스업)
-&lt;br&gt;- 한국은행 기업경영분석 조사
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;함종석&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('heejung.cho@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;DMS(IMS) 사이트 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, lje@comnarae.co.kr, sunyong.kim@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;헤이볼보 어플 고객 DATA 시스템과 연동된 내용.
-&lt;br&gt;
-&lt;br&gt;-가입 및 탈퇴, 고객 차량 정보 미노출 등
-&lt;br&gt;-e?b?bi?y?s@naver.com 이상한 아이디로 확인됨; 차량 확인안됨
-&lt;br&gt;해당 고객님 헤이 볼보 앱 내 차량정보 연동되어 있으나 앱에서 [실시간 예약; 카카오 상담] 등 메뉴를 누를 때마다 '볼보 고객만 가능한 서비스입니다.' 라는 메시지 팝업
-&lt;br&gt;-서비스 쿠폰 리스트 보이지 않음
-&lt;br&gt;헤이볼보 어플 실시간 정비 알림 메뉴가 정비 대기로 안바뀜
-&lt;br&gt;헤이볼보 회원가입시 비정상적인 등록메세지
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, cjy@comnarae.co.kr, kts@comnarae.co.kr, heejaekelly.byun@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 고객인데 DMS 조회 안 되는 경우; 볼보 자동차 소유(VCK 직원 차량)인데 DMS 조회 안 되는 경우
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com')"&gt;박나혜 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;공항으로 볼보 자동차 화물 도착했을 때 전달 담당자
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('boram.joo@volvocars.com')"&gt;주보람 과장&lt;/button&gt;| &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, juho.kim@volvocars.com, jangwook.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량 수급 현황(재고,물량), 출시 문의, 세일즈 관련 서류 발급 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com')"&gt;김주호 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;프로덕트(product(생산물, 상품, 제품), 차량의 기능 장착 여부; 흡음재가 원래 없는 것인지, 대시보드 재질이 어떻게 되는지 등
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('euijoon.lee@volvocars.com')"&gt;이의준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; daemyeong.kim@volvocars.com; jangwook.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;E/B 콜 장애, 문의 관련; 소비자원에서 VCK 담당자를 찾는 경우; 스웨덴에서 수신된 메일
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com')"&gt;이승진 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;송경란 전무&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;
-서비스센터 설문조사(컨슈머인사이트) 관련 문의/미스터리 쇼핑, 서비스센터 경험 설문조사 관련 문의 및 기프티콘 재발송 요청
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hankoo.lee@volvocars.com')"&gt;이한구 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; junlee.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량 전반적 서비스 개선요청; 차량 용품 제안; 서비스바이볼보; 서비스 캠페인
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;개인정보위반/침해/한국인터넷 진흥원
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;부품, 서비스 쿠폰,액세서리 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;리콜, 무상수리, 리콜대상확인 인증 관련(KC) 업무, 첨단장치 장착에 따른 보험할인 미반영
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com')"&gt;이계현 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com; sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;구조변경/ 번호판 등록/차량 인증 관련;유로5 환경 문의 관련된 문의/저공해 차량
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungje.hong@volvocars.com')"&gt;홍성제 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; kyehyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;보증 정책, 위치정보사업 관련 자료 요청
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;고객지원센터 문의사항에 대한 서포트, VIDA 진단기, 정비매뉴얼 구입 관련 담당, 매뉴얼 상의 내용 관련 문의, 기술 관련 기능, 고장 문의, VOLVO CARS 앱, Spotify Errors, 커넥티비티/인포테이먼트 에러, 소프트웨어 업데이트 일정
-&lt;br&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com')"&gt;문형준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 어프렌티스(VCAT) 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('donghoon.han@volvocars.com')"&gt;한동훈 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; jueun.kang@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;견인 현장 조치 불가 엔지니어 출동 요청 건
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장; 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량/서비스 관련 고객불만 
-&lt;br&gt;- 부품 수급, 서비스 캠페인, 수리 후 동일증상, 하자재발통보서, 소비자원 또는 소비자연맹 차량/서비스 불만접수건
-&lt;br&gt;- 불만접수 : 딜러사가 확인 되는 경우 &gt; 기존 불만 접수대로 딜러사 TO로 진행; 딜러사가 확인 안되는 경우 &gt; 최종 출고 서비스센터로 진행
-&lt;br&gt;부품과 관련된 불만은 김정민과장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt;
-&lt;br&gt;보증과 관련된 불만은 김영하 부장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt;
-&lt;br&gt;서비스캠페인 관련불만은 이준이대리 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt;
-&lt;br&gt;수리후 동일증상,급발진, 화재, 첨단장치등과 같은 내용은 기술팀 모두 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com; seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; jueun.kang@volvocars.com; boogyu.kim@volvocars.com')"&gt;기술팀&lt;/button&gt;
-&lt;br&gt;언론,미디어 언급 시 남윤지차장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com')"&gt;남윤지 차장&lt;/button&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장, CR매니저, 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 세일즈 본부장; &lt;button class="contact-button" onclick="copyEmail('jisung.kim@volvocars.com; juho.kim@volvocars.com; jangwook.lee@volvocars.com; namtae.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;기획사 PD 제안서, 신규 컨텐츠 제안서, 광고/홍보/마케팅/제휴/행사제안/PPL/이벤트/저작권/어린이/학생 관련 측 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('eunha.jung@volvocars.com')"&gt;장은하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;이승진 부장&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;- 시승신청,  이벤트 상품권 고객 기프티콘 미지급 문의 시
-&lt;br&gt;- 시승 프로세스 지연, 마케팅 수신거부; CRM E-뉴스레터, 고객 1주년 감사카드 담당/ 저작권, MMS, SMS; DMS 정보 삭제(고객 정보 완전 삭제)
-&lt;br&gt;- 1주년 콜랙션 감사 20% 할인 쿠폰 앱에 없음/ 복원
-&lt;br&gt;- 다이캐스트
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 팝업 스토어, 볼보 자동차 진행 이벤트 문의, 헤이 플로깅
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('woojae.kim@volvocars.com')"&gt;김우재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; heejaekelly.byun@volvocars.com; yihwa.lim@volvocars.com; woojae.kim@volvocars.com; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;- VCK 온라인 채널 (홈페이지,페이스북, 인스타그램. 디지털마케팅)
-&lt;br&gt;- Hej Volvo(헤이 볼보) 앱 전반적인 콘텐츠에서 발생하는 이벤트
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jungsoo.kim.2@volvocars.com')"&gt;김정수 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; yihwa.lim@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;EX30 온라인 예약 관련; 온라인 에디션판매(Volvo Digital Shop)
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;FLO 쿠폰관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('flo@music-flo.com; yuchae.jeon@sk.com; sungin.paek@volvocars.com; daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;대표님께 안내할 내용, VCK 입사 지원 , 잡지/신문 대금 관련해서 문의 등
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com')"&gt;신다희&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;규정 준수 관리자, 경력증명서, VCK 복지 지원 담당(장애어린이, 어린이 안전조끼등)
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;To: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com')"&gt;이정화 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;홍보(미디어 문의 포함), 언론, 기사, 취재 요청, 기자시승 
-&lt;br&gt;유튜버, 블로거 등 인플루언서 및 셀러브리티 등
-&lt;br&gt;
-&lt;br&gt;&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com; seungjun.lim@volvocars.com')"&gt;남윤지 차장, 임승준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;구입 고객 고객만족도 조사 관련 메일 발송
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('"hyungi.lee@volvocars.com; jisung.kim@volvocars.com;  juho.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;딜러 개설 담당자, 충전서비스인프라, 딜러사 네트워크 전기차 충전기, 전기차 충전쿠폰
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Android</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4326,6 +4125,207 @@
 &lt;p&gt;Q. 유아용품은 어디서 신청하면 되나요?&amp;nbsp;&lt;br /&gt;A. 네, 필요하신 유아용품 말씀 주시면 호텔 재고 상황 확인 후 연락드리겠습니다&lt;br /&gt;&amp;nbsp;&lt;br /&gt;* 신청 가능한 아기용품 문의 시&lt;br /&gt;젖병소독기, 아기침대, 아기욕조, 아기 식탁의자, 침대가드, 유모차가 구비 각 객실별 1개씩 세팅 가능&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;&lt;strong&gt;10. 부대시설 관련&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;Q. 다른 이용 시설이 있나요?&lt;br /&gt;A.&amp;nbsp;&lt;br /&gt;1. 호텔내 베이커리, 레스토랑, 이자카야, 고깃집, 중식당, 샤브샤브, 일식 선술집 등 다양한 식당&lt;br /&gt;2. 호텔내 도서, 문구, 리빙, 그로서리, 와인, 푸드, 와인, 사퀴테리, 생활용품 등 구매가능한 마켓&lt;br /&gt;3. 고급 식료품, 음료, 맥주, 스낵, 와인, 간식, 여행 필수품, 부산, 남해, 가평의 지역 상품 등을 판매하는 무인 편의점&lt;br /&gt;4. 엘피크리스탈에서 다양한 의류, 장난감, 반려동물 편집숍, 서점, 베이커리, 갤러리, 카페등 이용가능&lt;br /&gt;5. 수변공원등도 이용가능합니다.&lt;/p&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
+&lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
+&lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;금융, 회계 문의
+&lt;br&gt;
+&lt;br&gt;- 국가지정통계 산업연관표(경비_서비스업)
+&lt;br&gt;- 한국은행 기업경영분석 조사
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;함종석&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('heejung.cho@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;DMS(IMS) 사이트 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, lje@comnarae.co.kr, sunyong.kim@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;헤이볼보 어플 고객 DATA 시스템과 연동된 내용.
+&lt;br&gt;
+&lt;br&gt;-가입 및 탈퇴, 고객 차량 정보 미노출 등
+&lt;br&gt;-e?b?bi?y?s@naver.com 이상한 아이디로 확인됨; 차량 확인안됨
+&lt;br&gt;해당 고객님 헤이 볼보 앱 내 차량정보 연동되어 있으나 앱에서 [실시간 예약; 카카오 상담] 등 메뉴를 누를 때마다 '볼보 고객만 가능한 서비스입니다.' 라는 메시지 팝업
+&lt;br&gt;-서비스 쿠폰 리스트 보이지 않음
+&lt;br&gt;헤이볼보 어플 실시간 정비 알림 메뉴가 정비 대기로 안바뀜
+&lt;br&gt;헤이볼보 회원가입시 비정상적인 등록메세지
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, cjy@comnarae.co.kr, kts@comnarae.co.kr, heejaekelly.byun@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 고객인데 DMS 조회 안 되는 경우; 볼보 자동차 소유(VCK 직원 차량)인데 DMS 조회 안 되는 경우
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com')"&gt;박나혜 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;공항으로 볼보 자동차 화물 도착했을 때 전달 담당자
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('boram.joo@volvocars.com')"&gt;주보람 과장&lt;/button&gt;| &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, juho.kim@volvocars.com, jangwook.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량 수급 현황(재고,물량), 출시 문의, 세일즈 관련 서류 발급 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com')"&gt;김주호 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;프로덕트(product(생산물, 상품, 제품), 차량의 기능 장착 여부; 흡음재가 원래 없는 것인지, 대시보드 재질이 어떻게 되는지 등
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('euijoon.lee@volvocars.com')"&gt;이의준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; daemyeong.kim@volvocars.com; jangwook.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;E/B 콜 장애, 문의 관련; 소비자원에서 VCK 담당자를 찾는 경우; 스웨덴에서 수신된 메일
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com')"&gt;이승진 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;송경란 전무&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;
+서비스센터 설문조사(컨슈머인사이트) 관련 문의/미스터리 쇼핑, 서비스센터 경험 설문조사 관련 문의 및 기프티콘 재발송 요청
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hankoo.lee@volvocars.com')"&gt;이한구 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; junlee.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량 전반적 서비스 개선요청; 차량 용품 제안; 서비스바이볼보; 서비스 캠페인
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;개인정보위반/침해/한국인터넷 진흥원
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;부품, 서비스 쿠폰,액세서리 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;리콜, 무상수리, 리콜대상확인 인증 관련(KC) 업무, 첨단장치 장착에 따른 보험할인 미반영
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com')"&gt;이계현 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com; sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;구조변경/ 번호판 등록/차량 인증 관련;유로5 환경 문의 관련된 문의/저공해 차량
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungje.hong@volvocars.com')"&gt;홍성제 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; kyehyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;보증 정책, 위치정보사업 관련 자료 요청
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;고객지원센터 문의사항에 대한 서포트, VIDA 진단기, 정비매뉴얼 구입 관련 담당, 매뉴얼 상의 내용 관련 문의, 기술 관련 기능, 고장 문의, VOLVO CARS 앱, Spotify Errors, 커넥티비티/인포테이먼트 에러, 소프트웨어 업데이트 일정
+&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com')"&gt;문형준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; jueun.kang@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 어프렌티스(VCAT) 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('donghoon.han@volvocars.com')"&gt;한동훈 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; jueun.kang@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;견인 현장 조치 불가 엔지니어 출동 요청 건
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장; 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량/서비스 관련 고객불만 
+&lt;br&gt;- 부품 수급, 서비스 캠페인, 수리 후 동일증상, 하자재발통보서, 소비자원 또는 소비자연맹 차량/서비스 불만접수건
+&lt;br&gt;- 불만접수 : 딜러사가 확인 되는 경우 &gt; 기존 불만 접수대로 딜러사 TO로 진행; 딜러사가 확인 안되는 경우 &gt; 최종 출고 서비스센터로 진행
+&lt;br&gt;부품과 관련된 불만은 김정민과장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt;
+&lt;br&gt;보증과 관련된 불만은 김영하 부장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt;
+&lt;br&gt;서비스캠페인 관련불만은 이준이대리 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt;
+&lt;br&gt;수리후 동일증상,급발진, 화재, 첨단장치등과 같은 내용은 기술팀 모두 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com; seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; jueun.kang@volvocars.com; boogyu.kim@volvocars.com')"&gt;기술팀&lt;/button&gt;
+&lt;br&gt;언론,미디어 언급 시 남윤지차장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com')"&gt;남윤지 차장&lt;/button&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장, CR매니저, 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 세일즈 본부장; &lt;button class="contact-button" onclick="copyEmail('jisung.kim@volvocars.com; juho.kim@volvocars.com; jangwook.lee@volvocars.com; namtae.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;기획사 PD 제안서, 신규 컨텐츠 제안서, 광고/홍보/마케팅/제휴/행사제안/PPL/이벤트/저작권/어린이/학생 관련 측 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('eunha.jung@volvocars.com')"&gt;장은하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;이승진 부장&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;- 시승신청,  이벤트 상품권 고객 기프티콘 미지급 문의 시
+&lt;br&gt;- 시승 프로세스 지연, 마케팅 수신거부; CRM E-뉴스레터, 고객 1주년 감사카드 담당/ 저작권, MMS, SMS; DMS 정보 삭제(고객 정보 완전 삭제)
+&lt;br&gt;- 1주년 콜랙션 감사 20% 할인 쿠폰 앱에 없음/ 복원
+&lt;br&gt;- 다이캐스트
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 팝업 스토어, 볼보 자동차 진행 이벤트 문의, 헤이 플로깅
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('woojae.kim@volvocars.com')"&gt;김우재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; heejaekelly.byun@volvocars.com; yihwa.lim@volvocars.com; woojae.kim@volvocars.com; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;- VCK 온라인 채널 (홈페이지,페이스북, 인스타그램. 디지털마케팅)
+&lt;br&gt;- Hej Volvo(헤이 볼보) 앱 전반적인 콘텐츠에서 발생하는 이벤트
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jungsoo.kim.2@volvocars.com')"&gt;김정수 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; yihwa.lim@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;EX30 온라인 예약 관련; 온라인 에디션판매(Volvo Digital Shop)
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;FLO 쿠폰관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('flo@music-flo.com; yuchae.jeon@sk.com; sungin.paek@volvocars.com; daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;대표님께 안내할 내용, VCK 입사 지원 , 잡지/신문 대금 관련해서 문의 등
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com')"&gt;신다희&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;규정 준수 관리자, 경력증명서, VCK 복지 지원 담당(장애어린이, 어린이 안전조끼등)
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;To: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com')"&gt;이정화 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;홍보(미디어 문의 포함), 언론, 기사, 취재 요청, 기자시승 
+&lt;br&gt;유튜버, 블로거 등 인플루언서 및 셀러브리티 등
+&lt;br&gt;
+&lt;br&gt;&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com; seungjun.lim@volvocars.com')"&gt;남윤지 차장, 임승준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;구입 고객 고객만족도 조사 관련 메일 발송
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('"hyungi.lee@volvocars.com; jisung.kim@volvocars.com;  juho.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;딜러 개설 담당자, 충전서비스인프라, 딜러사 네트워크 전기차 충전기, 전기차 충전쿠폰
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4868,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4902,14 +4902,14 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2" s="14">
         <v>45474</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>243</v>
@@ -4927,10 +4927,10 @@
         <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -4962,7 +4962,7 @@
         <v>284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -5010,7 +5010,7 @@
         <v>296</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -5042,7 +5042,7 @@
         <v>288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -5058,7 +5058,7 @@
         <v>295</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -5090,7 +5090,7 @@
         <v>293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -5106,7 +5106,7 @@
         <v>297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -5121,10 +5121,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -5142,7 +5142,7 @@
         <v>298</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -5174,7 +5174,7 @@
         <v>270</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -5190,7 +5190,7 @@
         <v>261</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -5206,7 +5206,7 @@
         <v>263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -5222,7 +5222,7 @@
         <v>265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -5238,7 +5238,7 @@
         <v>267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -5286,7 +5286,7 @@
         <v>276</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -5370,7 +5370,7 @@
         <v>246</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F30" s="10"/>
     </row>
@@ -5406,7 +5406,7 @@
         <v>227</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F32" s="10"/>
     </row>
@@ -5438,7 +5438,7 @@
         <v>233</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F34" s="10"/>
     </row>
@@ -5470,7 +5470,7 @@
         <v>247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F36" s="10"/>
     </row>
@@ -5486,7 +5486,7 @@
         <v>236</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F37" s="10"/>
     </row>
@@ -5518,7 +5518,7 @@
         <v>241</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F39" s="10"/>
     </row>
@@ -5568,7 +5568,7 @@
         <v>205</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F42" s="10"/>
     </row>
@@ -5616,7 +5616,7 @@
         <v>196</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -5632,7 +5632,7 @@
         <v>199</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F46" s="10"/>
     </row>
@@ -5648,7 +5648,7 @@
         <v>200</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F47" s="10"/>
     </row>
@@ -5664,7 +5664,7 @@
         <v>201</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F48" s="10"/>
     </row>
@@ -5680,7 +5680,7 @@
         <v>204</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F49" s="10"/>
     </row>
@@ -5808,7 +5808,7 @@
         <v>221</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F57" s="10"/>
     </row>
@@ -5824,7 +5824,7 @@
         <v>223</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F58" s="10"/>
     </row>
@@ -5840,7 +5840,7 @@
         <v>224</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F59" s="10"/>
     </row>
@@ -5894,7 +5894,7 @@
         <v>173</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F62" s="10"/>
     </row>
@@ -5948,7 +5948,7 @@
         <v>185</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F65" s="10"/>
     </row>
@@ -6056,7 +6056,7 @@
         <v>162</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F71" s="10"/>
     </row>
@@ -6074,7 +6074,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F72" s="10"/>
     </row>
@@ -6092,7 +6092,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F73" s="10"/>
     </row>
@@ -6197,10 +6197,10 @@
         <v>39</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F79" s="10"/>
     </row>
@@ -6254,7 +6254,7 @@
         <v>47</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F82" s="10"/>
     </row>
@@ -6290,7 +6290,7 @@
         <v>52</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F84" s="10"/>
     </row>
@@ -6308,7 +6308,7 @@
         <v>57</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -6488,7 +6488,7 @@
         <v>90</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F95" s="10"/>
     </row>
@@ -6614,7 +6614,7 @@
         <v>112</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F102" s="10"/>
     </row>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DBDE4F-B88A-4EFA-9955-745156A82891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B23663-DA2F-41F1-A0DB-18A4AD846BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4068,15 +4068,217 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>8월 부산 Hey Familj FAQ</t>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
+&lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
+&lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;금융, 회계 문의
+&lt;br&gt;
+&lt;br&gt;- 국가지정통계 산업연관표(경비_서비스업)
+&lt;br&gt;- 한국은행 기업경영분석 조사
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;함종석&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('heejung.cho@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;DMS(IMS) 사이트 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, lje@comnarae.co.kr, sunyong.kim@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;헤이볼보 어플 고객 DATA 시스템과 연동된 내용.
+&lt;br&gt;
+&lt;br&gt;-가입 및 탈퇴, 고객 차량 정보 미노출 등
+&lt;br&gt;-e?b?bi?y?s@naver.com 이상한 아이디로 확인됨; 차량 확인안됨
+&lt;br&gt;해당 고객님 헤이 볼보 앱 내 차량정보 연동되어 있으나 앱에서 [실시간 예약; 카카오 상담] 등 메뉴를 누를 때마다 '볼보 고객만 가능한 서비스입니다.' 라는 메시지 팝업
+&lt;br&gt;-서비스 쿠폰 리스트 보이지 않음
+&lt;br&gt;헤이볼보 어플 실시간 정비 알림 메뉴가 정비 대기로 안바뀜
+&lt;br&gt;헤이볼보 회원가입시 비정상적인 등록메세지
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, cjy@comnarae.co.kr, kts@comnarae.co.kr, heejaekelly.byun@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 고객인데 DMS 조회 안 되는 경우; 볼보 자동차 소유(VCK 직원 차량)인데 DMS 조회 안 되는 경우
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com')"&gt;박나혜 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;공항으로 볼보 자동차 화물 도착했을 때 전달 담당자
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('boram.joo@volvocars.com')"&gt;주보람 과장&lt;/button&gt;| &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, juho.kim@volvocars.com, jangwook.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량 수급 현황(재고,물량), 출시 문의, 세일즈 관련 서류 발급 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com')"&gt;김주호 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;프로덕트(product(생산물, 상품, 제품), 차량의 기능 장착 여부; 흡음재가 원래 없는 것인지, 대시보드 재질이 어떻게 되는지 등
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('euijoon.lee@volvocars.com')"&gt;이의준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; daemyeong.kim@volvocars.com; jangwook.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;E/B 콜 장애, 문의 관련; 소비자원에서 VCK 담당자를 찾는 경우; 스웨덴에서 수신된 메일
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com')"&gt;이승진 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;송경란 전무&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;
+서비스센터 설문조사(컨슈머인사이트) 관련 문의/미스터리 쇼핑, 서비스센터 경험 설문조사 관련 문의 및 기프티콘 재발송 요청
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hankoo.lee@volvocars.com')"&gt;이한구 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; junlee.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량 전반적 서비스 개선요청; 차량 용품 제안; 서비스바이볼보; 서비스 캠페인
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;개인정보위반/침해/한국인터넷 진흥원
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;부품, 서비스 쿠폰,액세서리 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;리콜, 무상수리, 리콜대상확인 인증 관련(KC) 업무, 첨단장치 장착에 따른 보험할인 미반영
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com')"&gt;이계현 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com; sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;구조변경/ 번호판 등록/차량 인증 관련;유로5 환경 문의 관련된 문의/저공해 차량
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungje.hong@volvocars.com')"&gt;홍성제 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; kyehyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;보증 정책, 위치정보사업 관련 자료 요청
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;고객지원센터 문의사항에 대한 서포트, VIDA 진단기, 정비매뉴얼 구입 관련 담당, 매뉴얼 상의 내용 관련 문의, 기술 관련 기능, 고장 문의, VOLVO CARS 앱, Spotify Errors, 커넥티비티/인포테이먼트 에러, 소프트웨어 업데이트 일정
+&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com')"&gt;문형준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; jueun.kang@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 어프렌티스(VCAT) 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('donghoon.han@volvocars.com')"&gt;한동훈 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; jueun.kang@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;견인 현장 조치 불가 엔지니어 출동 요청 건
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장; 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량/서비스 관련 고객불만 
+&lt;br&gt;- 부품 수급, 서비스 캠페인, 수리 후 동일증상, 하자재발통보서, 소비자원 또는 소비자연맹 차량/서비스 불만접수건
+&lt;br&gt;- 불만접수 : 딜러사가 확인 되는 경우 &gt; 기존 불만 접수대로 딜러사 TO로 진행; 딜러사가 확인 안되는 경우 &gt; 최종 출고 서비스센터로 진행
+&lt;br&gt;부품과 관련된 불만은 김정민과장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt;
+&lt;br&gt;보증과 관련된 불만은 김영하 부장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt;
+&lt;br&gt;서비스캠페인 관련불만은 이준이대리 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt;
+&lt;br&gt;수리후 동일증상,급발진, 화재, 첨단장치등과 같은 내용은 기술팀 모두 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com; seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; jueun.kang@volvocars.com; boogyu.kim@volvocars.com')"&gt;기술팀&lt;/button&gt;
+&lt;br&gt;언론,미디어 언급 시 남윤지차장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com')"&gt;남윤지 차장&lt;/button&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장, CR매니저, 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 세일즈 본부장; &lt;button class="contact-button" onclick="copyEmail('jisung.kim@volvocars.com; juho.kim@volvocars.com; jangwook.lee@volvocars.com; namtae.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;기획사 PD 제안서, 신규 컨텐츠 제안서, 광고/홍보/마케팅/제휴/행사제안/PPL/이벤트/저작권/어린이/학생 관련 측 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('eunha.jung@volvocars.com')"&gt;장은하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;이승진 부장&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;- 시승신청,  이벤트 상품권 고객 기프티콘 미지급 문의 시
+&lt;br&gt;- 시승 프로세스 지연, 마케팅 수신거부; CRM E-뉴스레터, 고객 1주년 감사카드 담당/ 저작권, MMS, SMS; DMS 정보 삭제(고객 정보 완전 삭제)
+&lt;br&gt;- 1주년 콜랙션 감사 20% 할인 쿠폰 앱에 없음/ 복원
+&lt;br&gt;- 다이캐스트
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 팝업 스토어, 볼보 자동차 진행 이벤트 문의, 헤이 플로깅
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('woojae.kim@volvocars.com')"&gt;김우재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; heejaekelly.byun@volvocars.com; yihwa.lim@volvocars.com; woojae.kim@volvocars.com; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;- VCK 온라인 채널 (홈페이지,페이스북, 인스타그램. 디지털마케팅)
+&lt;br&gt;- Hej Volvo(헤이 볼보) 앱 전반적인 콘텐츠에서 발생하는 이벤트
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jungsoo.kim.2@volvocars.com')"&gt;김정수 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; yihwa.lim@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;EX30 온라인 예약 관련; 온라인 에디션판매(Volvo Digital Shop)
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;FLO 쿠폰관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('flo@music-flo.com; yuchae.jeon@sk.com; sungin.paek@volvocars.com; daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;대표님께 안내할 내용, VCK 입사 지원 , 잡지/신문 대금 관련해서 문의 등
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com')"&gt;신다희&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;규정 준수 관리자, 경력증명서, VCK 복지 지원 담당(장애어린이, 어린이 안전조끼등)
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;To: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com')"&gt;이정화 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;홍보(미디어 문의 포함), 언론, 기사, 취재 요청, 기자시승 
+&lt;br&gt;유튜버, 블로거 등 인플루언서 및 셀러브리티 등
+&lt;br&gt;
+&lt;br&gt;&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com; seungjun.lim@volvocars.com')"&gt;남윤지 차장, 임승준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;구입 고객 고객만족도 조사 관련 메일 발송
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('"hyungi.lee@volvocars.com; jisung.kim@volvocars.com;  juho.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;딜러 개설 담당자, 충전서비스인프라, 딜러사 네트워크 전기차 충전기, 전기차 충전쿠폰
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 부산 Hej Familj FAQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>8월 Hej Family 이벤트 FAQ 입니다.
 &lt;br&gt;
-행사 개요 등 자세한 내용은&lt;a href="https://teledirectasia-my.sharepoint.com/:x:/g/personal/igyeol_choi_tdcx_com/EUnXVlbuQLxGmA8XwGnRpWUBLZJY0lc5sPjgMJYvQfczFQ?wdOrigin=TEAMS-MAGLEV.undefined_ns.rwc&amp;wdExp=TEAMS-TREATMENT&amp;wdhostclicktime=1719799839692&amp;web=1" target="_blank"&gt;여기&lt;/a&gt;를 눌러 확인하십시오.
+행사 개요 등 자세한 내용은 &lt;a href="https://teledirectasia-my.sharepoint.com/:x:/g/personal/igyeol_choi_tdcx_com/EUnXVlbuQLxGmA8XwGnRpWUBLZJY0lc5sPjgMJYvQfczFQ?wdOrigin=TEAMS-MAGLEV.undefined_ns.rwc&amp;wdExp=TEAMS-TREATMENT&amp;wdhostclicktime=1719799839692&amp;web=1" target="_blank"&gt;여기&lt;/a&gt;를 눌러 확인하십시오.
 &lt;h3&gt;&lt;strong&gt;1. 숙소 홈페이지를 확인해보니 4명까지 투숙 가능하다는데, 왜 인원을 추가할 수 없나요?&amp;nbsp; Cabin B : 기준인원(최대): 2인(4인)&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;이번 저희 행사는 최대 2인(+영유아 1인)이 참여하실 수 있습니다.&amp;nbsp;&lt;br /&gt;안전한 행사를 위하여 볼보가 숙소측과 함께 패키지를 별도로 협의하여 인원 추가가 어려운 점&lt;br /&gt;양해 부탁드리며, 많은 고객분들께 원활한 서비스를 제공하기 위하여&amp;nbsp;&lt;br /&gt;인원수를 최대 2인(+영유아 1인)으로 한정하고 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;a style="color: red;"&gt;영유아 기준: 입실일 기준 36개월 미만&lt;/a&gt;&lt;/strong&gt;
 &lt;p&gt;&lt;br /&gt;이는 모두에게 동일하게 적용되는 조건이며,&amp;nbsp;&lt;br /&gt;신청 인원 외 추가 인원을 동반하실 경우,&amp;nbsp;&lt;br /&gt;다른 가족과의 형평성 문제로 현장에서 행사 참여가 불가합니다.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;이 경우 도착하신 전체 가족 모두 체크인이 거부되며,&amp;nbsp;&lt;br /&gt;현장에서 추가비용을 내고 인원을 추가하시는 것 또한 불가능합니다.&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;형평성 및 원활한 서비스 제공을 위한 지침인 점, 양해 부탁드립니다."&lt;/p&gt;
@@ -4125,207 +4327,6 @@
 &lt;p&gt;Q. 유아용품은 어디서 신청하면 되나요?&amp;nbsp;&lt;br /&gt;A. 네, 필요하신 유아용품 말씀 주시면 호텔 재고 상황 확인 후 연락드리겠습니다&lt;br /&gt;&amp;nbsp;&lt;br /&gt;* 신청 가능한 아기용품 문의 시&lt;br /&gt;젖병소독기, 아기침대, 아기욕조, 아기 식탁의자, 침대가드, 유모차가 구비 각 객실별 1개씩 세팅 가능&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;&lt;strong&gt;10. 부대시설 관련&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;Q. 다른 이용 시설이 있나요?&lt;br /&gt;A.&amp;nbsp;&lt;br /&gt;1. 호텔내 베이커리, 레스토랑, 이자카야, 고깃집, 중식당, 샤브샤브, 일식 선술집 등 다양한 식당&lt;br /&gt;2. 호텔내 도서, 문구, 리빙, 그로서리, 와인, 푸드, 와인, 사퀴테리, 생활용품 등 구매가능한 마켓&lt;br /&gt;3. 고급 식료품, 음료, 맥주, 스낵, 와인, 간식, 여행 필수품, 부산, 남해, 가평의 지역 상품 등을 판매하는 무인 편의점&lt;br /&gt;4. 엘피크리스탈에서 다양한 의류, 장난감, 반려동물 편집숍, 서점, 베이커리, 갤러리, 카페등 이용가능&lt;br /&gt;5. 수변공원등도 이용가능합니다.&lt;/p&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
-&lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
-&lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;금융, 회계 문의
-&lt;br&gt;
-&lt;br&gt;- 국가지정통계 산업연관표(경비_서비스업)
-&lt;br&gt;- 한국은행 기업경영분석 조사
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;함종석&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('heejung.cho@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;DMS(IMS) 사이트 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, lje@comnarae.co.kr, sunyong.kim@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;헤이볼보 어플 고객 DATA 시스템과 연동된 내용.
-&lt;br&gt;
-&lt;br&gt;-가입 및 탈퇴, 고객 차량 정보 미노출 등
-&lt;br&gt;-e?b?bi?y?s@naver.com 이상한 아이디로 확인됨; 차량 확인안됨
-&lt;br&gt;해당 고객님 헤이 볼보 앱 내 차량정보 연동되어 있으나 앱에서 [실시간 예약; 카카오 상담] 등 메뉴를 누를 때마다 '볼보 고객만 가능한 서비스입니다.' 라는 메시지 팝업
-&lt;br&gt;-서비스 쿠폰 리스트 보이지 않음
-&lt;br&gt;헤이볼보 어플 실시간 정비 알림 메뉴가 정비 대기로 안바뀜
-&lt;br&gt;헤이볼보 회원가입시 비정상적인 등록메세지
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, cjy@comnarae.co.kr, kts@comnarae.co.kr, heejaekelly.byun@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 고객인데 DMS 조회 안 되는 경우; 볼보 자동차 소유(VCK 직원 차량)인데 DMS 조회 안 되는 경우
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com')"&gt;박나혜 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;공항으로 볼보 자동차 화물 도착했을 때 전달 담당자
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('boram.joo@volvocars.com')"&gt;주보람 과장&lt;/button&gt;| &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, juho.kim@volvocars.com, jangwook.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량 수급 현황(재고,물량), 출시 문의, 세일즈 관련 서류 발급 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com')"&gt;김주호 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;프로덕트(product(생산물, 상품, 제품), 차량의 기능 장착 여부; 흡음재가 원래 없는 것인지, 대시보드 재질이 어떻게 되는지 등
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('euijoon.lee@volvocars.com')"&gt;이의준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; daemyeong.kim@volvocars.com; jangwook.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;E/B 콜 장애, 문의 관련; 소비자원에서 VCK 담당자를 찾는 경우; 스웨덴에서 수신된 메일
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com')"&gt;이승진 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;송경란 전무&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;
-서비스센터 설문조사(컨슈머인사이트) 관련 문의/미스터리 쇼핑, 서비스센터 경험 설문조사 관련 문의 및 기프티콘 재발송 요청
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hankoo.lee@volvocars.com')"&gt;이한구 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; junlee.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량 전반적 서비스 개선요청; 차량 용품 제안; 서비스바이볼보; 서비스 캠페인
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;개인정보위반/침해/한국인터넷 진흥원
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;부품, 서비스 쿠폰,액세서리 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;리콜, 무상수리, 리콜대상확인 인증 관련(KC) 업무, 첨단장치 장착에 따른 보험할인 미반영
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com')"&gt;이계현 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com; sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;구조변경/ 번호판 등록/차량 인증 관련;유로5 환경 문의 관련된 문의/저공해 차량
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungje.hong@volvocars.com')"&gt;홍성제 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; kyehyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;보증 정책, 위치정보사업 관련 자료 요청
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;고객지원센터 문의사항에 대한 서포트, VIDA 진단기, 정비매뉴얼 구입 관련 담당, 매뉴얼 상의 내용 관련 문의, 기술 관련 기능, 고장 문의, VOLVO CARS 앱, Spotify Errors, 커넥티비티/인포테이먼트 에러, 소프트웨어 업데이트 일정
-&lt;br&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com')"&gt;문형준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; jueun.kang@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 어프렌티스(VCAT) 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('donghoon.han@volvocars.com')"&gt;한동훈 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; jueun.kang@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;견인 현장 조치 불가 엔지니어 출동 요청 건
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장; 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량/서비스 관련 고객불만 
-&lt;br&gt;- 부품 수급, 서비스 캠페인, 수리 후 동일증상, 하자재발통보서, 소비자원 또는 소비자연맹 차량/서비스 불만접수건
-&lt;br&gt;- 불만접수 : 딜러사가 확인 되는 경우 &gt; 기존 불만 접수대로 딜러사 TO로 진행; 딜러사가 확인 안되는 경우 &gt; 최종 출고 서비스센터로 진행
-&lt;br&gt;부품과 관련된 불만은 김정민과장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt;
-&lt;br&gt;보증과 관련된 불만은 김영하 부장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt;
-&lt;br&gt;서비스캠페인 관련불만은 이준이대리 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt;
-&lt;br&gt;수리후 동일증상,급발진, 화재, 첨단장치등과 같은 내용은 기술팀 모두 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com; seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; jueun.kang@volvocars.com; boogyu.kim@volvocars.com')"&gt;기술팀&lt;/button&gt;
-&lt;br&gt;언론,미디어 언급 시 남윤지차장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com')"&gt;남윤지 차장&lt;/button&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장, CR매니저, 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 세일즈 본부장; &lt;button class="contact-button" onclick="copyEmail('jisung.kim@volvocars.com; juho.kim@volvocars.com; jangwook.lee@volvocars.com; namtae.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;기획사 PD 제안서, 신규 컨텐츠 제안서, 광고/홍보/마케팅/제휴/행사제안/PPL/이벤트/저작권/어린이/학생 관련 측 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('eunha.jung@volvocars.com')"&gt;장은하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;이승진 부장&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;- 시승신청,  이벤트 상품권 고객 기프티콘 미지급 문의 시
-&lt;br&gt;- 시승 프로세스 지연, 마케팅 수신거부; CRM E-뉴스레터, 고객 1주년 감사카드 담당/ 저작권, MMS, SMS; DMS 정보 삭제(고객 정보 완전 삭제)
-&lt;br&gt;- 1주년 콜랙션 감사 20% 할인 쿠폰 앱에 없음/ 복원
-&lt;br&gt;- 다이캐스트
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 팝업 스토어, 볼보 자동차 진행 이벤트 문의, 헤이 플로깅
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('woojae.kim@volvocars.com')"&gt;김우재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; heejaekelly.byun@volvocars.com; yihwa.lim@volvocars.com; woojae.kim@volvocars.com; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;- VCK 온라인 채널 (홈페이지,페이스북, 인스타그램. 디지털마케팅)
-&lt;br&gt;- Hej Volvo(헤이 볼보) 앱 전반적인 콘텐츠에서 발생하는 이벤트
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jungsoo.kim.2@volvocars.com')"&gt;김정수 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; yihwa.lim@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;EX30 온라인 예약 관련; 온라인 에디션판매(Volvo Digital Shop)
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;FLO 쿠폰관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('flo@music-flo.com; yuchae.jeon@sk.com; sungin.paek@volvocars.com; daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;대표님께 안내할 내용, VCK 입사 지원 , 잡지/신문 대금 관련해서 문의 등
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com')"&gt;신다희&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;규정 준수 관리자, 경력증명서, VCK 복지 지원 담당(장애어린이, 어린이 안전조끼등)
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;To: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com')"&gt;이정화 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;홍보(미디어 문의 포함), 언론, 기사, 취재 요청, 기자시승 
-&lt;br&gt;유튜버, 블로거 등 인플루언서 및 셀러브리티 등
-&lt;br&gt;
-&lt;br&gt;&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com; seungjun.lim@volvocars.com')"&gt;남윤지 차장, 임승준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;구입 고객 고객만족도 조사 관련 메일 발송
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('"hyungi.lee@volvocars.com; jisung.kim@volvocars.com;  juho.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;딜러 개설 담당자, 충전서비스인프라, 딜러사 네트워크 전기차 충전기, 전기차 충전쿠폰
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4868,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4902,14 +4903,14 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B2" s="14">
         <v>45474</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>243</v>
@@ -5121,7 +5122,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>300</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B23663-DA2F-41F1-A0DB-18A4AD846BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A119A073-9A7E-4D38-B3EC-A5B96C08D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4275,18 +4275,19 @@
   <si>
     <t>8월 Hej Family 이벤트 FAQ 입니다.
 &lt;br&gt;
-행사 개요 등 자세한 내용은 &lt;a href="https://teledirectasia-my.sharepoint.com/:x:/g/personal/igyeol_choi_tdcx_com/EUnXVlbuQLxGmA8XwGnRpWUBLZJY0lc5sPjgMJYvQfczFQ?wdOrigin=TEAMS-MAGLEV.undefined_ns.rwc&amp;wdExp=TEAMS-TREATMENT&amp;wdhostclicktime=1719799839692&amp;web=1" target="_blank"&gt;여기&lt;/a&gt;를 눌러 확인하십시오.
+&lt;br&gt;행사 개요 등 자세한 내용은 &lt;a href="https://teledirectasia-my.sharepoint.com/:x:/g/personal/igyeol_choi_tdcx_com/EUnXVlbuQLxGmA8XwGnRpWUBLZJY0lc5sPjgMJYvQfczFQ?wdOrigin=TEAMS-MAGLEV.undefined_ns.rwc&amp;wdExp=TEAMS-TREATMENT&amp;wdhostclicktime=1719799839692&amp;web=1" target="_blank"&gt;여기&lt;/a&gt;를 눌러 확인하십시오.
 &lt;h3&gt;&lt;strong&gt;1. 숙소 홈페이지를 확인해보니 4명까지 투숙 가능하다는데, 왜 인원을 추가할 수 없나요?&amp;nbsp; Cabin B : 기준인원(최대): 2인(4인)&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;이번 저희 행사는 최대 2인(+영유아 1인)이 참여하실 수 있습니다.&amp;nbsp;&lt;br /&gt;안전한 행사를 위하여 볼보가 숙소측과 함께 패키지를 별도로 협의하여 인원 추가가 어려운 점&lt;br /&gt;양해 부탁드리며, 많은 고객분들께 원활한 서비스를 제공하기 위하여&amp;nbsp;&lt;br /&gt;인원수를 최대 2인(+영유아 1인)으로 한정하고 있습니다.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;a style="color: red;"&gt;영유아 기준: 입실일 기준 36개월 미만&lt;/a&gt;&lt;/strong&gt;
 &lt;p&gt;&lt;br /&gt;이는 모두에게 동일하게 적용되는 조건이며,&amp;nbsp;&lt;br /&gt;신청 인원 외 추가 인원을 동반하실 경우,&amp;nbsp;&lt;br /&gt;다른 가족과의 형평성 문제로 현장에서 행사 참여가 불가합니다.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;이 경우 도착하신 전체 가족 모두 체크인이 거부되며,&amp;nbsp;&lt;br /&gt;현장에서 추가비용을 내고 인원을 추가하시는 것 또한 불가능합니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;형평성 및 원활한 서비스 제공을 위한 지침인 점, 양해 부탁드립니다."&lt;/p&gt;
+&lt;p&gt;형평성 및 원활한 서비스 제공을 위한 지침인 점, 양해 부탁드립니다.&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;&lt;strong&gt;2. 얼리 체크인 / 레이트 체크아웃 문의 &lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;Q. 얼리 체크인 / 레이트 체크아웃 가능한가요?&lt;br /&gt;A. 죄송합니다. 객실 정비 시간이 필요하여, 얼리 체크인 / 레이트 체크아웃 은 불가능 하십니다.&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;&lt;strong&gt;3. 주차는 몇 대 가능한가요?&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;객실당 최대 1대만 무료주차 가능하고 추가차량 1일 9만원입니다.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;4. 객실 관련 이용 문의 "Q. 체크인은 어디서 하나요?&lt;/strong&gt;&lt;/h3&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;strong&gt;4. 객실 관련 이용 문의&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;Q. 체크인은 어디서 하나요?&lt;/p&gt;
 &lt;p&gt;A. 1층 로비에서 체크인이 가능합니다.&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;Q. 체크인 전에 먼저 들어가서 단지를 둘러보고 있어도 되나요?&lt;br /&gt;A. 네, 가능하십니다. 무료시설인경우 이용가능하십니다.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;Q. 반려동물과 같이 입장 가능한가요?&lt;br /&gt;A. 호텔 건물 내 반려동물은 입장 불가입니다. 위반 시 관리비 청구될 수 있습니다.&amp;nbsp;&lt;/p&gt;
@@ -4313,7 +4314,8 @@
 &lt;p&gt;&lt;br /&gt;Q. 실내수영장에서 튜브 사용 가능한가요?&lt;br /&gt;- 착용형 구명조끼, 암링을 제외한 모든 구명용품(스윔비 튜브, 보행기 튜브, 스노쿨장비, 오리발, 물총, 킥판 등) 사용과 외부 음식물 반입을 제한하고 있으니 이용시 참고 바랍니다.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;Q. 실내 수영장 이용시 환복은 어디서 하나요?&lt;br /&gt;- 객실 내 환복 후 이용 또는 12F 락커룸 이용 후 엘레베이터를 이용하여 이동하여 주시기 바랍니다.&lt;br /&gt;락커 이용시, &amp;nbsp;48개월 이상 아동은 이성 락커 출입이 불가 합니다.&lt;br /&gt;&amp;nbsp;&lt;br /&gt;Q. 아이도 이용 가능한가요? (아이용 구명조끼 구비/ 방수 기저귀는 준비해와야함)&lt;br /&gt;A. 13세 이하 어린이는 보호자 동반 시 이용이 가능하고 신장 120cm 미만 어린이는 구명조끼를 필수로 착용해야합니다. 또한 36개월 미만의 어린이는 방수 기저귀 착용 후 이용이 가능합니다&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;Q. 수영복을 꼭 입어야만 하나요?&lt;br /&gt;A. &amp;nbsp;수영장 입수 시에는 수영복 착용 후 이용 가능합니다. (수영장 전용 외 의류 착용 제한)&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;8. 스프링 팰리스 이용 문의 "Q.SPRING PALACE 위치와 운영시간이 어떻게 되나요?&lt;/h3&gt;
+&lt;h3&gt;8. 스프링 팰리스 이용 문의&lt;/h3&gt;
+&lt;p&gt;Q.SPRING PALACE 위치와 운영시간이 어떻게 되나요?&lt;/p&gt;
 &lt;p&gt;A. L.P Crystal 1층에 위치하고 운영시간은 &amp;nbsp;실내 09:00~20:30, 야외 10:00~20:30 입니다. 야외 인피니티풀은 온수로 이용되지 않으며, 자쿠지 제외매시간 정각부터 10분간 브레이크타임이 있으니 이용시 참고 부탁드립니다&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;- 운영시간&amp;nbsp;&lt;br /&gt;[실내] 09:00~20:30&lt;br /&gt;[야외] 10:00~20:30&lt;br /&gt;* 야외 인피니티풀은 온수로 이용되지 않습니다.&lt;br /&gt;* 브레이크 타임: 매 시간 정각부터 10분간(자쿠지 제외)&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;Q. 수심은 어떻게 되나요?&lt;br /&gt;A. 메인풀&lt;br /&gt;- 실내외 메인풀, 야외 인피니티풀은 수심 1.2m, 실내 키즈풀은 수심 0.3~0.6m입니다&lt;br /&gt;&amp;nbsp;&amp;nbsp;&lt;br /&gt;[실내]&lt;br /&gt;- 메인풀 : 24.3m x 4.8m / 수심 1.2m&lt;br /&gt;- 키즈풀 : 17.5m x 17m / 수심 0.3~0.6m&lt;/p&gt;
@@ -4322,7 +4324,7 @@
 &lt;p&gt;&lt;br /&gt;Q. 튜브 사용 가능한가요?&lt;br /&gt;- 착용형 구명조끼, 암링을 제외한 모든 구명용품(스윔비 튜브, 보행기 튜브, 스노쿨장비, 오리발, 물총, 킥판 등) 사용과 외부 음식물 반입을 제한하고 있으니 이용시 참고 바랍니다.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;Q. 아이도 이용 가능한가요? (아이용 구명조끼 구비/ 방수 기저귀는 준비해와야함)&lt;br /&gt;A. 13세 이하 어린이는 보호자 동반 시 이용이 가능하고 신장 120cm 미만 어린이는 구명조끼를 필수로 착용해야합니다. 또한 36개월 미만의 어린이는 방수 기저귀 착용 후 이용이 가능합니다&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;Q. 수영복을 꼭 입어야만 하나요?&lt;br /&gt;A. &amp;nbsp;수영장 입수 시에는 수영복 착용 후 이용 가능합니다. (수영장 전용 외 의류 착용 제한)&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;- 이용문의 : 051-662-7032 / 051-662-7033"&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;- 이용문의 : 051-662-7032 / 051-662-7033&lt;br/&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;&lt;strong&gt;9. 유아용품 신청 관련&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;Q. 유아용품은 어디서 신청하면 되나요?&amp;nbsp;&lt;br /&gt;A. 네, 필요하신 유아용품 말씀 주시면 호텔 재고 상황 확인 후 연락드리겠습니다&lt;br /&gt;&amp;nbsp;&lt;br /&gt;* 신청 가능한 아기용품 문의 시&lt;br /&gt;젖병소독기, 아기침대, 아기욕조, 아기 식탁의자, 침대가드, 유모차가 구비 각 객실별 1개씩 세팅 가능&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;&lt;strong&gt;10. 부대시설 관련&lt;/strong&gt;&lt;/h3&gt;
@@ -4870,7 +4872,7 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -6833,7 +6835,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection sqref="A1:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A119A073-9A7E-4D38-B3EC-A5B96C08D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C2A4B-98D0-48E5-BC3D-D7DB36C4C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4872,7 +4872,7 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4933,7 +4933,7 @@
         <v>303</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F3" s="10"/>
     </row>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C2A4B-98D0-48E5-BC3D-D7DB36C4C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E26C69-C12A-4FB5-84A5-F2EDE2BB330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -1825,21 +1825,6 @@
 &lt;br&gt;입구에 블레이드 키를 삽입합니다. 블레이드 키를 최대한 아래로 누르고 누른 상태를 유지합니다.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img85069ba6f64d4890c0a801e700773e60_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
 &lt;br&gt;기어 셀렉터를 P 위치에서 이동합니다. 키 블레이드에 대한 자세한 내용은 &lt;a href="https://www.volvocars.com/en-ca/support/car/s60-cross-country/article/0661f8c8b9de4e66c0a801e80034a8f1" target="_blank"&gt;Detachable key blade – general information&lt;/a&gt;를 참조하세요.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 마케팅 수신 거부를 요청하거나, 정보 제거를 원하는 경우 아래 단계에 따라 진행합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;마케팅 수신 거부를 요청하는 경우&lt;/h3&gt;
-&lt;br&gt;&lt;strong&gt;1.&lt;/strong&gt; DMS에서 고객 전화번호+이름을 조회 후 수정을 누릅니다.
-&lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; 고객 마케팅 동의여부 수정에서 거부로 변경합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;정보 제거를 원하는 경우&lt;/h3&gt;
-&lt;br&gt;&lt;strong&gt;1.&lt;/strong&gt; 고객명과 전화번호를 수집합니다.
-&lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; 아래 메일 주소로 수신 거부 요청을 발송합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO:&lt;/strong&gt; heejaekelly.byun@volvocars.com
-&lt;br&gt;&lt;strong&gt;CC:&lt;/strong&gt; yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; dohyeon.kim@volvocars.com; sungin.paek@volvocars.com; cjy@comnarae.co.kr; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4329,6 +4314,20 @@
 &lt;p&gt;Q. 유아용품은 어디서 신청하면 되나요?&amp;nbsp;&lt;br /&gt;A. 네, 필요하신 유아용품 말씀 주시면 호텔 재고 상황 확인 후 연락드리겠습니다&lt;br /&gt;&amp;nbsp;&lt;br /&gt;* 신청 가능한 아기용품 문의 시&lt;br /&gt;젖병소독기, 아기침대, 아기욕조, 아기 식탁의자, 침대가드, 유모차가 구비 각 객실별 1개씩 세팅 가능&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;&lt;strong&gt;10. 부대시설 관련&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;Q. 다른 이용 시설이 있나요?&lt;br /&gt;A.&amp;nbsp;&lt;br /&gt;1. 호텔내 베이커리, 레스토랑, 이자카야, 고깃집, 중식당, 샤브샤브, 일식 선술집 등 다양한 식당&lt;br /&gt;2. 호텔내 도서, 문구, 리빙, 그로서리, 와인, 푸드, 와인, 사퀴테리, 생활용품 등 구매가능한 마켓&lt;br /&gt;3. 고급 식료품, 음료, 맥주, 스낵, 와인, 간식, 여행 필수품, 부산, 남해, 가평의 지역 상품 등을 판매하는 무인 편의점&lt;br /&gt;4. 엘피크리스탈에서 다양한 의류, 장난감, 반려동물 편집숍, 서점, 베이커리, 갤러리, 카페등 이용가능&lt;br /&gt;5. 수변공원등도 이용가능합니다.&lt;/p&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 마케팅 수신 거부를 요청하거나, 정보 제거를 원하는 경우 아래 단계에 따라 진행합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;마케팅 수신 거부를 요청하는 경우&lt;/h3&gt;
+&lt;br&gt;&lt;strong&gt;1.&lt;/strong&gt; DMS에서 고객 전화번호+이름을 조회 후 수정을 누릅니다.
+&lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; 고객 마케팅 동의여부 수정에서 거부로 변경합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;정보 제거를 원하는 경우&lt;/h3&gt;
+&lt;br&gt;&lt;strong&gt;1.&lt;/strong&gt; 고객명과 전화번호를 수집합니다.
+&lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; 아래 메일 주소로 수신 거부 요청을 발송합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4871,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4905,17 +4904,17 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2" s="14">
         <v>45474</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -4930,71 +4929,73 @@
         <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="86.25">
-      <c r="A4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45471</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:6" ht="224.25">
+      <c r="A4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45474</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="86.25">
+      <c r="A5" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="189.75">
-      <c r="A5" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="B5" s="4">
         <v>45471</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="409.5">
+    <row r="6" spans="1:6" ht="189.75">
       <c r="A6" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B6" s="4">
         <v>45471</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="409.5">
       <c r="A7" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B7" s="4">
         <v>45471</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
@@ -5003,274 +5004,274 @@
     </row>
     <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B8" s="4">
         <v>45471</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B9" s="4">
         <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="241.5">
+    <row r="10" spans="1:6" ht="120.75">
       <c r="A10" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="241.5">
+      <c r="A11" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="409.5">
-      <c r="A11" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="86.25">
+    <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="86.25">
+      <c r="A13" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="409.5">
-      <c r="A13" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="409.5">
+      <c r="A17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="379.5">
-      <c r="A17" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="409.5">
+    <row r="18" spans="1:6" ht="379.5">
       <c r="A18" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B18" s="4">
         <v>45470</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="379.5">
+    <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B19" s="4">
         <v>45470</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="379.5">
+      <c r="A20" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="409.5">
-      <c r="A20" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="B20" s="4">
         <v>45470</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B21" s="4">
         <v>45470</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="409.5">
+      <c r="A22" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="103.5">
-      <c r="A22" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="B22" s="4">
         <v>45470</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="103.5">
+      <c r="A23" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="409.5">
-      <c r="A23" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="B23" s="4">
         <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B24" s="4">
         <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
@@ -5279,191 +5280,191 @@
     </row>
     <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="69">
+    <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B26" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="69">
+      <c r="A27" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="293.25">
-      <c r="A27" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B27" s="4">
         <v>45469</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="293.25">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D28" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="241.5">
-      <c r="A28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="409.5">
+    <row r="29" spans="1:6" ht="241.5">
       <c r="A29" s="3" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="B29" s="4">
         <v>45468</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>9</v>
+        <v>255</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="86.25">
+    <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B30" s="4">
         <v>45468</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D30" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>299</v>
+        <v>243</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="207">
+    <row r="31" spans="1:6" ht="86.25">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B31" s="4">
         <v>45468</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="207">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D32" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="409.5">
-      <c r="A32" s="3" t="s">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="409.5">
+      <c r="A33" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B32" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="327.75">
-      <c r="A33" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="B33" s="4">
         <v>45467</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="D33" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="327.75">
+      <c r="A34" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="138">
-      <c r="A34" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="B34" s="4">
         <v>45467</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="293.25">
+    <row r="35" spans="1:6" ht="138">
       <c r="A35" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B35" s="4">
         <v>45467</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="396.75">
+    <row r="36" spans="1:6" ht="293.25">
       <c r="A36" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B36" s="4">
         <v>45467</v>
@@ -5473,294 +5474,294 @@
         <v>247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="409.5">
+    <row r="37" spans="1:6" ht="396.75">
       <c r="A37" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B37" s="4">
         <v>45467</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="409.5">
+      <c r="A38" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="172.5">
-      <c r="A38" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="B38" s="4">
         <v>45467</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="409.5">
+    <row r="39" spans="1:6" ht="172.5">
       <c r="A39" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B39" s="4">
         <v>45467</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B40" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="409.5">
+      <c r="A41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="172.5">
-      <c r="A41" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="172.5">
+      <c r="A42" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="8">
         <v>45463</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D42" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="409.5">
-      <c r="A42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="86.25">
+    <row r="43" spans="1:6" ht="409.5">
       <c r="A43" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" s="4">
         <v>45463</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="379.5">
+    <row r="44" spans="1:6" ht="86.25">
       <c r="A44" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="327.75">
+    <row r="45" spans="1:6" ht="379.5">
       <c r="A45" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="189.75">
+    <row r="46" spans="1:6" ht="327.75">
       <c r="A46" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="103.5">
+    <row r="47" spans="1:6" ht="189.75">
       <c r="A47" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="409.5">
+    <row r="48" spans="1:6" ht="103.5">
       <c r="A48" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="409.5">
       <c r="A49" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="345">
+    <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="327.75">
+    <row r="52" spans="1:6" ht="345">
       <c r="A52" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="241.5">
+    <row r="53" spans="1:6" ht="327.75">
       <c r="A53" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="409.5">
+    <row r="54" spans="1:6" ht="241.5">
       <c r="A54" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
@@ -5769,14 +5770,14 @@
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
@@ -5785,14 +5786,14 @@
     </row>
     <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
@@ -5801,85 +5802,83 @@
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="276">
+    <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="409.5">
+    <row r="59" spans="1:6" ht="276">
       <c r="A59" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="57.75" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B61" s="4">
         <v>45461</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" ht="57.75" customHeight="1">
-      <c r="A61" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="F61" s="10"/>
     </row>
@@ -5897,7 +5896,7 @@
         <v>173</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F62" s="10"/>
     </row>
@@ -5939,19 +5938,19 @@
     </row>
     <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" s="4">
         <v>45461</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="E65" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F65" s="10"/>
     </row>
@@ -5966,7 +5965,7 @@
         <v>27</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>9</v>
@@ -6059,7 +6058,7 @@
         <v>162</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F71" s="10"/>
     </row>
@@ -6077,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F72" s="10"/>
     </row>
@@ -6095,7 +6094,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F73" s="10"/>
     </row>
@@ -6200,10 +6199,10 @@
         <v>39</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F79" s="10"/>
     </row>
@@ -6257,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F82" s="10"/>
     </row>
@@ -6293,7 +6292,7 @@
         <v>52</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F84" s="10"/>
     </row>
@@ -6311,7 +6310,7 @@
         <v>57</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -6491,7 +6490,7 @@
         <v>90</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F95" s="10"/>
     </row>
@@ -6617,7 +6616,7 @@
         <v>112</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F102" s="10"/>
     </row>
@@ -6650,7 +6649,7 @@
         <v>119</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>13</v>
@@ -6794,7 +6793,7 @@
         <v>147</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>13</v>
@@ -6812,7 +6811,7 @@
         <v>149</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>9</v>
@@ -6842,7 +6841,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E26C69-C12A-4FB5-84A5-F2EDE2BB330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460FE669-08F4-40BB-A2A6-B57CF4588EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="309">
   <si>
     <t>Title</t>
   </si>
@@ -4328,6 +4328,42 @@
 &lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; 아래 메일 주소로 수신 거부 요청을 발송합니다.
 &lt;br&gt;
 &lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전자 화면 설정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 모드를 변경하거나 운전자 화면에 무엇을 표시해야 할지를 설정합니다.
+&lt;br&gt;
+&lt;h3&gt;앱 메뉴&lt;/h3&gt;
+&lt;img src="https://www.volvocars.com/images/support/img2f64287d10bd0dbfc0a8015269c35e03_1_--_--_VOICEpnghigh.png" width="354" height="244"&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd0c4b2cb990f1184c0a801520b84ce66_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;- 구간 거리계 및 주행 거리계 등에 대한 정보
+&lt;h4&gt;앱 메뉴 관리하기&lt;/h4&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd771932df6fdfb4bc0a801526edcd829_1_--_--_VOICEpnghigh.png" width="354" height="244"&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png"&gt; width="19" height="19"&gt; 메뉴 닫기/화면 모드 변경
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png"&gt; width="19" height="19"&gt; 좌측/우측
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png"&gt; width="19" height="19"&gt; 위로/아래로
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png"&gt; width="19" height="19"&gt; 메뉴 열기/확인
+&lt;br&gt;
+&lt;br&gt;한동안 사용하지 않거나 특정 옵션을 선택한 후에는 앱 메뉴가 닫힙니다.
+&lt;h3&gt;화면 모드&lt;/h3&gt;
+운전자 화면에는 스티어링 휠의 우측 &lt;img src="https://www.volvocars.com/images/support/img6d494619f7874ec3c0a80152460119ee_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 버튼을 사용해 변경할 수 있는 2개의 서로 다른 화면 모드가 있습니다.
+&lt;br&gt;
+&lt;br&gt;• 진정 화면(Calm) - 운전자 화면 중앙에서 표시 정보가 사라집니다.
+&lt;br&gt;• 내비게이션(Navigation*) - 운전자 화면 전체에 지도가 표시됩니다.
+&lt;h3&gt;중앙 화면의 설정&lt;/h3&gt;
+중앙 화면 설정은 중앙 화면을 통해 실시할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;1. &lt;img src="https://www.volvocars.com/images/support/imgf1c5d0bf5cacf617c0a801521667c9fa_2_--_--_VOICEpnghigh.png" width="19" height="19"&gt;
+&lt;br&gt;2. 컨트롤 선택.
+&lt;br&gt;3. 원하는 설정을 변경합니다.
+&lt;br&gt;
+&lt;br&gt;이러한 설정은 개인적인 것으로서 활성 상태의 사용자 프로필에 저장됩니다.
+&lt;br&gt;
+&lt;br&gt;* 옵션/액세서리.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4498,7 +4534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4552,6 +4588,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4868,10 +4907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4954,64 +4993,64 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="86.25">
+    <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B5" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>308</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="189.75">
+    <row r="6" spans="1:6" ht="86.25">
       <c r="A6" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B6" s="4">
         <v>45471</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
+    <row r="7" spans="1:6" ht="189.75">
       <c r="A7" s="3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B7" s="4">
         <v>45471</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="4">
         <v>45471</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
@@ -5020,210 +5059,210 @@
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="4">
         <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="120.75">
+    <row r="10" spans="1:6" ht="409.5">
       <c r="A10" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="241.5">
+    <row r="11" spans="1:6" ht="120.75">
       <c r="A11" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="409.5">
+    <row r="12" spans="1:6" ht="241.5">
       <c r="A12" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="86.25">
+    <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="409.5">
+    <row r="14" spans="1:6" ht="86.25">
       <c r="A14" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="379.5">
+    <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="379.5">
+      <c r="A19" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B18" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="409.5">
-      <c r="A19" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="B19" s="4">
         <v>45470</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="379.5">
+    <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B20" s="4">
         <v>45470</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="409.5">
+    <row r="21" spans="1:6" ht="379.5">
       <c r="A21" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B21" s="4">
         <v>45470</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>298</v>
@@ -5232,62 +5271,62 @@
     </row>
     <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B22" s="4">
         <v>45470</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="103.5">
+    <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B23" s="4">
         <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="409.5">
+    <row r="24" spans="1:6" ht="103.5">
       <c r="A24" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B24" s="4">
         <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>9</v>
@@ -5296,392 +5335,392 @@
     </row>
     <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="69">
+    <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B27" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="293.25">
+    <row r="28" spans="1:6" ht="69">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="B28" s="4">
         <v>45469</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="293.25">
+      <c r="A29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="241.5">
-      <c r="A29" s="3" t="s">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="241.5">
+      <c r="A30" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B29" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="409.5">
-      <c r="A30" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="B30" s="4">
         <v>45468</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>9</v>
+        <v>255</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="86.25">
+    <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4">
         <v>45468</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D31" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>298</v>
+        <v>243</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="207">
+    <row r="32" spans="1:6" ht="86.25">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B32" s="4">
         <v>45468</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="207">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="409.5">
-      <c r="A33" s="3" t="s">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="409.5">
+      <c r="A34" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B33" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="327.75">
-      <c r="A34" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="B34" s="4">
         <v>45467</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="D34" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>9</v>
+        <v>226</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="138">
+    <row r="35" spans="1:6" ht="327.75">
       <c r="A35" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="4">
         <v>45467</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="293.25">
+    <row r="36" spans="1:6" ht="138">
       <c r="A36" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B36" s="4">
         <v>45467</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="396.75">
+    <row r="37" spans="1:6" ht="293.25">
       <c r="A37" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" s="4">
         <v>45467</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>298</v>
+        <v>170</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="409.5">
+    <row r="38" spans="1:6" ht="396.75">
       <c r="A38" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B38" s="4">
         <v>45467</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="172.5">
+    <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="4">
         <v>45467</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="409.5">
+    <row r="40" spans="1:6" ht="172.5">
       <c r="A40" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B40" s="4">
         <v>45467</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="409.5">
       <c r="A41" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B41" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="409.5">
+      <c r="A42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="172.5">
-      <c r="A42" s="6" t="s">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="172.5">
+      <c r="A43" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B43" s="8">
         <v>45463</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="409.5">
-      <c r="A43" s="3" t="s">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="409.5">
+      <c r="A44" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B43" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="86.25">
-      <c r="A44" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B44" s="4">
         <v>45463</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="379.5">
+    <row r="45" spans="1:6" ht="86.25">
       <c r="A45" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="327.75">
+    <row r="46" spans="1:6" ht="379.5">
       <c r="A46" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="189.75">
+    <row r="47" spans="1:6" ht="327.75">
       <c r="A47" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="103.5">
+    <row r="48" spans="1:6" ht="189.75">
       <c r="A48" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="409.5">
+    <row r="49" spans="1:6" ht="103.5">
       <c r="A49" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>298</v>
@@ -5690,94 +5729,94 @@
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="345">
+    <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="327.75">
+    <row r="53" spans="1:6" ht="345">
       <c r="A53" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="241.5">
+    <row r="54" spans="1:6" ht="327.75">
       <c r="A54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="409.5">
+    <row r="55" spans="1:6" ht="241.5">
       <c r="A55" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
@@ -5786,14 +5825,14 @@
     </row>
     <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
@@ -5802,14 +5841,14 @@
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
@@ -5818,46 +5857,46 @@
     </row>
     <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="276">
+    <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="409.5">
+    <row r="60" spans="1:6" ht="276">
       <c r="A60" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>300</v>
@@ -5866,376 +5905,374 @@
     </row>
     <row r="61" spans="1:6" ht="57.75" customHeight="1">
       <c r="A61" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="409.5">
+      <c r="A62" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B62" s="4">
         <v>45461</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="120.75">
-      <c r="A62" s="6" t="s">
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" ht="120.75">
+      <c r="A63" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B63" s="8">
         <v>45461</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" ht="409.5">
-      <c r="A63" s="3" t="s">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="409.5">
+      <c r="A64" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B63" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="293.25">
-      <c r="A64" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="B64" s="4">
         <v>45461</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="409.5">
+    <row r="65" spans="1:6" ht="293.25">
       <c r="A65" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B65" s="4">
         <v>45461</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="409.5">
+      <c r="A66" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="172.5">
-      <c r="A66" s="3" t="s">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="172.5">
+      <c r="A67" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B66" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="155.25">
-      <c r="A67" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="B67" s="4">
         <v>45460</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="409.5">
+    <row r="68" spans="1:6" ht="155.25">
       <c r="A68" s="3" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B68" s="4">
         <v>45460</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="207">
+    <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B69" s="4">
         <v>45460</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="409.5">
+    <row r="70" spans="1:6" ht="207">
       <c r="A70" s="3" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B70" s="4">
         <v>45460</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>25</v>
+        <v>159</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="258.75">
+    <row r="71" spans="1:6" ht="409.5">
       <c r="A71" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="B71" s="4">
         <v>45460</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="258.75">
+      <c r="A72" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="138">
-      <c r="A72" s="3" t="s">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="138">
+      <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B73" s="4">
         <v>45459</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="409.5">
-      <c r="A73" s="3" t="s">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="409.5">
+      <c r="A74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B74" s="4">
         <v>45457</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="276">
-      <c r="A74" s="3" t="s">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="276">
+      <c r="A75" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B74" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="409.5">
-      <c r="A75" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B75" s="4">
         <v>45456</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="310.5">
+    <row r="76" spans="1:6" ht="409.5">
       <c r="A76" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B76" s="4">
         <v>45456</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="138">
+    <row r="77" spans="1:6" ht="310.5">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B77" s="4">
         <v>45456</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="138">
+      <c r="A78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="409.5">
-      <c r="A78" s="3" t="s">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="409.5">
+      <c r="A79" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B78" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="310.5">
-      <c r="A79" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B79" s="4">
         <v>45455</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="409.5">
+    <row r="80" spans="1:6" ht="310.5">
       <c r="A80" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B80" s="4">
         <v>45455</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B81" s="4">
         <v>45455</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>9</v>
@@ -6244,169 +6281,169 @@
     </row>
     <row r="82" spans="1:6" ht="409.5">
       <c r="A82" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82" s="4">
         <v>45455</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="310.5">
+    <row r="83" spans="1:6" ht="409.5">
       <c r="A83" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B83" s="4">
         <v>45455</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="310.5">
+      <c r="A84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E84" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="409.5">
-      <c r="A84" s="3" t="s">
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="409.5">
+      <c r="A85" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B84" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="224.25">
-      <c r="A85" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="B85" s="4">
         <v>45454</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="103.5">
+    <row r="86" spans="1:6" ht="224.25">
       <c r="A86" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B86" s="4">
         <v>45454</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="409.5">
+    <row r="87" spans="1:6" ht="103.5">
       <c r="A87" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B87" s="4">
         <v>45454</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B88" s="4">
         <v>45454</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="241.5">
+    <row r="89" spans="1:6" ht="409.5">
       <c r="A89" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="241.5">
+      <c r="A90" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B89" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="207">
-      <c r="A90" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B90" s="4">
         <v>45453</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="155.25">
+    <row r="91" spans="1:6" ht="207">
       <c r="A91" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B91" s="4">
         <v>45453</v>
@@ -6415,412 +6452,430 @@
         <v>74</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="207">
+    <row r="92" spans="1:6" ht="155.25">
       <c r="A92" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B92" s="4">
         <v>45453</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="120.75">
+    <row r="93" spans="1:6" ht="207">
       <c r="A93" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="276">
+    <row r="94" spans="1:6" ht="120.75">
       <c r="A94" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="396.75">
+    <row r="95" spans="1:6" ht="276">
       <c r="A95" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" ht="396.75">
+      <c r="A96" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E96" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6" ht="409.5">
-      <c r="A96" s="6" t="s">
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" ht="409.5">
+      <c r="A97" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B96" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="10"/>
-    </row>
-    <row r="97" spans="1:6" ht="276">
-      <c r="A97" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="B97" s="4">
         <v>45452</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="86.25">
+    <row r="98" spans="1:6" ht="276">
       <c r="A98" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" ht="86.25">
+      <c r="A99" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B98" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="409.5">
-      <c r="A99" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B99" s="8">
         <v>45450</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="15"/>
-    </row>
-    <row r="100" spans="1:6" ht="69">
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" ht="409.5">
       <c r="A100" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F100" s="15"/>
     </row>
     <row r="101" spans="1:6" ht="69">
       <c r="A101" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" ht="224.25">
+    <row r="102" spans="1:6" ht="69">
       <c r="A102" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" ht="103.5">
+    <row r="103" spans="1:6" ht="224.25">
       <c r="A103" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" ht="51.75">
+    <row r="104" spans="1:6" ht="103.5">
       <c r="A104" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="409.5">
+    <row r="105" spans="1:6" ht="51.75">
       <c r="A105" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="51.75">
+    <row r="106" spans="1:6" ht="409.5">
       <c r="A106" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" ht="69">
+    <row r="107" spans="1:6" ht="51.75">
       <c r="A107" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6" ht="69">
       <c r="A108" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="103.5">
+    <row r="109" spans="1:6" ht="69">
       <c r="A109" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="86.25">
-      <c r="A110" s="3" t="s">
-        <v>140</v>
+    <row r="110" spans="1:6" ht="103.5">
+      <c r="A110" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="103.5">
-      <c r="A111" s="6" t="s">
-        <v>143</v>
+    <row r="111" spans="1:6" ht="86.25">
+      <c r="A111" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="86.25">
+    <row r="112" spans="1:6" ht="103.5">
       <c r="A112" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" ht="86.25">
       <c r="A113" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" ht="86.25">
+      <c r="A114" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B114" s="4">
         <v>45450</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E114" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="10"/>
+      <c r="F114" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F50" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F113">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F114">
       <sortCondition descending="1" ref="B1:B50"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460FE669-08F4-40BB-A2A6-B57CF4588EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673EF940-D097-494E-8274-A512E3075F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4343,10 +4343,10 @@
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd0c4b2cb990f1184c0a801520b84ce66_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;- 구간 거리계 및 주행 거리계 등에 대한 정보
 &lt;h4&gt;앱 메뉴 관리하기&lt;/h4&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd771932df6fdfb4bc0a801526edcd829_1_--_--_VOICEpnghigh.png" width="354" height="244"&gt;
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png"&gt; width="19" height="19"&gt; 메뉴 닫기/화면 모드 변경
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png"&gt; width="19" height="19"&gt; 좌측/우측
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png"&gt; width="19" height="19"&gt; 위로/아래로
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png"&gt; width="19" height="19"&gt; 메뉴 열기/확인
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png width="19" height="19"&gt; 메뉴 닫기/화면 모드 변경
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png width="19" height="19"&gt; 좌측/우측
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png width="19" height="19"&gt; 위로/아래로
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png width="19" height="19"&gt; 메뉴 열기/확인
 &lt;br&gt;
 &lt;br&gt;한동안 사용하지 않거나 특정 옵션을 선택한 후에는 앱 메뉴가 닫힙니다.
 &lt;h3&gt;화면 모드&lt;/h3&gt;
@@ -4909,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673EF940-D097-494E-8274-A512E3075F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39ACBC0-2E71-4BE1-89F3-7D0C99347FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39ACBC0-2E71-4BE1-89F3-7D0C99347FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE96B75A-4399-4A3E-8FA0-A7343AF0BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4343,10 +4343,10 @@
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd0c4b2cb990f1184c0a801520b84ce66_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;- 구간 거리계 및 주행 거리계 등에 대한 정보
 &lt;h4&gt;앱 메뉴 관리하기&lt;/h4&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd771932df6fdfb4bc0a801526edcd829_1_--_--_VOICEpnghigh.png" width="354" height="244"&gt;
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png width="19" height="19"&gt; 메뉴 닫기/화면 모드 변경
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png width="19" height="19"&gt; 좌측/우측
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png width="19" height="19"&gt; 위로/아래로
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png width="19" height="19"&gt; 메뉴 열기/확인
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 메뉴 닫기/화면 모드 변경
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 좌측/우측
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4fb3580a66931339c0a801523fc8b2d6_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 위로/아래로
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 메뉴 열기/확인
 &lt;br&gt;
 &lt;br&gt;한동안 사용하지 않거나 특정 옵션을 선택한 후에는 앱 메뉴가 닫힙니다.
 &lt;h3&gt;화면 모드&lt;/h3&gt;
@@ -4910,7 +4910,7 @@
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE96B75A-4399-4A3E-8FA0-A7343AF0BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BB0297-97B7-46FD-881D-EDC5397626C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="311">
   <si>
     <t>Title</t>
   </si>
@@ -4364,6 +4364,51 @@
 &lt;br&gt;이러한 설정은 개인적인 것으로서 활성 상태의 사용자 프로필에 저장됩니다.
 &lt;br&gt;
 &lt;br&gt;* 옵션/액세서리.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 조명 컨트롤이 외부 및 내부 조명 모두를 제어하는 데 사용됩니다. 좌측 레버 스위치는 외부 조명을 작동하고 조정합니다. 중앙 화면을 사용하면 외관 램프와 룸 램프를 모두 켜고 조정할 수 있습니다.
+&lt;h3&gt;외부 조명&lt;/h3&gt;
+&lt;img src="https://www.volvocars.com/images/support/img939a8fca09beae8ec0a801524b9fac29_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;좌측 레버 스위치의 회전 링.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;시동 스위치가 II 위치에 있을 때나 차가 움직일 때는 스티어링휠 좌측 레버의 링으로 다음 기능을 선택할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgc8d32ec115bd5c3bc0a801525260fb82_1_--_--_VOICEpnghigh.png" width="64" height="31"&gt;
+&lt;br&gt;주간 주행등이 켜집니다.
+&lt;br&gt;상향등 점멸을 사용할 수 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img04377c5715c712d2c0a801520f72699a_1_--_--_VOICEpnghigh.png" width="64" height="31"&gt;
+&lt;br&gt;주간 주행등과 차폭등이 켜집니다.
+&lt;br&gt;차량 주차 시의 차폭등이 켜집니다.
+&lt;br&gt;상향등 점멸을 사용할 수 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imga0d864ed15c73f2fc0a8015252ee73db_1_--_--_VOICEpnghigh.png" width="64" height="31"&gt;
+&lt;br&gt;하향등과 차폭등이 켜집니다.
+&lt;br&gt;상향등을 켤 수 있습니다.
+&lt;br&gt;상향등 점멸을 사용할 수 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img83edf39f15c69a29c0a8015246cde91b_1_--_--_VOICEpnghigh.png" width="64" height="31"&gt;
+&lt;br&gt;주간에 앞쪽 주간 주행등과 뒤쪽 차폭등.
+&lt;br&gt;날이 흐리거나 어두울 때, 또는 전방 안개등* 및/또는 후방 안개등이 켜졌을 때의 하향등과 차폭등.
+&lt;br&gt;액티브 메인 빔 기능을 켤 수 있습니다.
+&lt;br&gt;하향등이 켜져 있을 때에는 상향등을 켤 수 있습니다.
+&lt;br&gt;상향등 점멸을 사용할 수 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img5277eee010bba8d0c0a8015203d263e4_1_--_--_VOICEpnghigh.png" width="64" height="31"&gt;
+&lt;br&gt;자동 상향등 켜짐/꺼짐
+&lt;br&gt;
+&lt;br&gt;볼보는 차량 주행 시 &lt;img src="https://www.volvocars.com/images/support/img7aa3f38c15868344c0a8015230cfc557_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt; 모드를 사용할 것을 권장합니다.
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;차량의 조명 시스템은 안개나 비와 같은 상황에서 주간 조도가 충분히 약하거나 강한지를 항상 정확하게 판단할 수 없습니다.
+&lt;br&gt;운전자는 항상 교통 상황에 적합한 빔 패턴으로 차량을 운전하고 관련 교통 규정을 준수할 책임이 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;전조등이나 후방등과 같은 실외등의 렌즈 안쪽에 일시적으로 습기가 찰 수 있습니다. 이는 정상적인 것이며 모든 외부 조명은 이를 견딜 수 있도록 설계되었습니다. 램프가 한동안 켜지면 응결은 램프 하우징 밖으로 배출됩니다.&lt;/div&gt;
+&lt;h3&gt;외부 및 내부 조명&lt;/h3&gt;
+&lt;br&gt;외부 및 내부 램프는 중앙 화면에서 조절할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;차량이 정지 상태이지만 작동 중인 경우에 회전 링을 다른 위치에서 P5-1507 Symbol position light 위치로 움직여 다른 조명 대신 차폭등만 켤 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명 제어</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4907,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5009,64 +5054,64 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="86.25">
+    <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="B6" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>309</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="189.75">
+    <row r="7" spans="1:6" ht="86.25">
       <c r="A7" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B7" s="4">
         <v>45471</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="409.5">
+    <row r="8" spans="1:6" ht="189.75">
       <c r="A8" s="3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B8" s="4">
         <v>45471</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="4">
         <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
@@ -5075,210 +5120,210 @@
     </row>
     <row r="10" spans="1:6" ht="409.5">
       <c r="A10" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="120.75">
+    <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="241.5">
+    <row r="12" spans="1:6" ht="120.75">
       <c r="A12" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="409.5">
+    <row r="13" spans="1:6" ht="241.5">
       <c r="A13" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="86.25">
+    <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="409.5">
+    <row r="15" spans="1:6" ht="86.25">
       <c r="A15" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E17" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="379.5">
+    <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="379.5">
+      <c r="A20" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B19" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="409.5">
-      <c r="A20" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="B20" s="4">
         <v>45470</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="379.5">
+    <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B21" s="4">
         <v>45470</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="409.5">
+    <row r="22" spans="1:6" ht="379.5">
       <c r="A22" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B22" s="4">
         <v>45470</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>298</v>
@@ -5287,62 +5332,62 @@
     </row>
     <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B23" s="4">
         <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="103.5">
+    <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B24" s="4">
         <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="409.5">
+    <row r="25" spans="1:6" ht="103.5">
       <c r="A25" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
@@ -5351,392 +5396,392 @@
     </row>
     <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="69">
+    <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B28" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="293.25">
+    <row r="29" spans="1:6" ht="69">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="B29" s="4">
         <v>45469</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="293.25">
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="241.5">
-      <c r="A30" s="3" t="s">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="241.5">
+      <c r="A31" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B30" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="409.5">
-      <c r="A31" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="B31" s="4">
         <v>45468</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>9</v>
+        <v>255</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="86.25">
+    <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B32" s="4">
         <v>45468</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D32" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>298</v>
+        <v>243</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="207">
+    <row r="33" spans="1:6" ht="86.25">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B33" s="4">
         <v>45468</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="207">
+      <c r="A34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="409.5">
-      <c r="A34" s="3" t="s">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="409.5">
+      <c r="A35" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B34" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="327.75">
-      <c r="A35" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="B35" s="4">
         <v>45467</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="D35" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>9</v>
+        <v>226</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="138">
+    <row r="36" spans="1:6" ht="327.75">
       <c r="A36" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B36" s="4">
         <v>45467</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="293.25">
+    <row r="37" spans="1:6" ht="138">
       <c r="A37" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B37" s="4">
         <v>45467</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="396.75">
+    <row r="38" spans="1:6" ht="293.25">
       <c r="A38" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="4">
         <v>45467</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>298</v>
+        <v>170</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="409.5">
+    <row r="39" spans="1:6" ht="396.75">
       <c r="A39" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B39" s="4">
         <v>45467</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="172.5">
+    <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="4">
         <v>45467</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="409.5">
+    <row r="41" spans="1:6" ht="172.5">
       <c r="A41" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B41" s="4">
         <v>45467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="409.5">
       <c r="A42" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B42" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="409.5">
+      <c r="A43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="172.5">
-      <c r="A43" s="6" t="s">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="172.5">
+      <c r="A44" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B44" s="8">
         <v>45463</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="409.5">
-      <c r="A44" s="3" t="s">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="409.5">
+      <c r="A45" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B44" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="86.25">
-      <c r="A45" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B45" s="4">
         <v>45463</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="379.5">
+    <row r="46" spans="1:6" ht="86.25">
       <c r="A46" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="327.75">
+    <row r="47" spans="1:6" ht="379.5">
       <c r="A47" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="189.75">
+    <row r="48" spans="1:6" ht="327.75">
       <c r="A48" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="103.5">
+    <row r="49" spans="1:6" ht="189.75">
       <c r="A49" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="409.5">
+    <row r="50" spans="1:6" ht="103.5">
       <c r="A50" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>298</v>
@@ -5745,94 +5790,94 @@
     </row>
     <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="345">
+    <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="327.75">
+    <row r="54" spans="1:6" ht="345">
       <c r="A54" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="241.5">
+    <row r="55" spans="1:6" ht="327.75">
       <c r="A55" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="409.5">
+    <row r="56" spans="1:6" ht="241.5">
       <c r="A56" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
@@ -5841,14 +5886,14 @@
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
@@ -5857,14 +5902,14 @@
     </row>
     <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
@@ -5873,30 +5918,30 @@
     </row>
     <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="276">
+    <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>300</v>
@@ -5905,14 +5950,14 @@
     </row>
     <row r="61" spans="1:6" ht="57.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>300</v>
@@ -5921,376 +5966,374 @@
     </row>
     <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" ht="409.5">
+      <c r="A63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B63" s="4">
         <v>45461</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" ht="120.75">
-      <c r="A63" s="6" t="s">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="120.75">
+      <c r="A64" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B64" s="8">
         <v>45461</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="409.5">
-      <c r="A64" s="3" t="s">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="409.5">
+      <c r="A65" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B64" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="293.25">
-      <c r="A65" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="B65" s="4">
         <v>45461</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="409.5">
+    <row r="66" spans="1:6" ht="293.25">
       <c r="A66" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B66" s="4">
         <v>45461</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="409.5">
+      <c r="A67" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="172.5">
-      <c r="A67" s="3" t="s">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="172.5">
+      <c r="A68" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B67" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="155.25">
-      <c r="A68" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="B68" s="4">
         <v>45460</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="409.5">
+    <row r="69" spans="1:6" ht="155.25">
       <c r="A69" s="3" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B69" s="4">
         <v>45460</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="207">
+    <row r="70" spans="1:6" ht="409.5">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B70" s="4">
         <v>45460</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="409.5">
+    <row r="71" spans="1:6" ht="207">
       <c r="A71" s="3" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B71" s="4">
         <v>45460</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>25</v>
+        <v>159</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="258.75">
+    <row r="72" spans="1:6" ht="409.5">
       <c r="A72" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="B72" s="4">
         <v>45460</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="258.75">
+      <c r="A73" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="138">
-      <c r="A73" s="3" t="s">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="138">
+      <c r="A74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B74" s="4">
         <v>45459</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="409.5">
-      <c r="A74" s="3" t="s">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="409.5">
+      <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B75" s="4">
         <v>45457</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E75" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="276">
-      <c r="A75" s="3" t="s">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="276">
+      <c r="A76" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B75" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="409.5">
-      <c r="A76" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B76" s="4">
         <v>45456</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="310.5">
+    <row r="77" spans="1:6" ht="409.5">
       <c r="A77" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B77" s="4">
         <v>45456</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="138">
+    <row r="78" spans="1:6" ht="310.5">
       <c r="A78" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B78" s="4">
         <v>45456</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="138">
+      <c r="A79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E79" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="409.5">
-      <c r="A79" s="3" t="s">
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="409.5">
+      <c r="A80" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B79" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="310.5">
-      <c r="A80" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B80" s="4">
         <v>45455</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="409.5">
+    <row r="81" spans="1:6" ht="310.5">
       <c r="A81" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B81" s="4">
         <v>45455</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" ht="409.5">
       <c r="A82" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82" s="4">
         <v>45455</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>9</v>
@@ -6299,169 +6342,169 @@
     </row>
     <row r="83" spans="1:6" ht="409.5">
       <c r="A83" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B83" s="4">
         <v>45455</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="310.5">
+    <row r="84" spans="1:6" ht="409.5">
       <c r="A84" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B84" s="4">
         <v>45455</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="310.5">
+      <c r="A85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="409.5">
-      <c r="A85" s="3" t="s">
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" ht="409.5">
+      <c r="A86" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B85" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" ht="224.25">
-      <c r="A86" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="B86" s="4">
         <v>45454</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="103.5">
+    <row r="87" spans="1:6" ht="224.25">
       <c r="A87" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B87" s="4">
         <v>45454</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="409.5">
+    <row r="88" spans="1:6" ht="103.5">
       <c r="A88" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B88" s="4">
         <v>45454</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" ht="409.5">
       <c r="A89" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B89" s="4">
         <v>45454</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="241.5">
+    <row r="90" spans="1:6" ht="409.5">
       <c r="A90" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="241.5">
+      <c r="A91" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B90" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" ht="207">
-      <c r="A91" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B91" s="4">
         <v>45453</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="155.25">
+    <row r="92" spans="1:6" ht="207">
       <c r="A92" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B92" s="4">
         <v>45453</v>
@@ -6470,412 +6513,430 @@
         <v>74</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="207">
+    <row r="93" spans="1:6" ht="155.25">
       <c r="A93" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="120.75">
+    <row r="94" spans="1:6" ht="207">
       <c r="A94" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="276">
+    <row r="95" spans="1:6" ht="120.75">
       <c r="A95" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="396.75">
+    <row r="96" spans="1:6" ht="276">
       <c r="A96" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B96" s="4">
         <v>45453</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" ht="396.75">
+      <c r="A97" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E97" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F96" s="10"/>
-    </row>
-    <row r="97" spans="1:6" ht="409.5">
-      <c r="A97" s="6" t="s">
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" ht="409.5">
+      <c r="A98" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B97" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6" ht="276">
-      <c r="A98" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="B98" s="4">
         <v>45452</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="86.25">
+    <row r="99" spans="1:6" ht="276">
       <c r="A99" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" ht="86.25">
+      <c r="A100" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B99" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" ht="409.5">
-      <c r="A100" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B100" s="8">
         <v>45450</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="15"/>
-    </row>
-    <row r="101" spans="1:6" ht="69">
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" ht="409.5">
       <c r="A101" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="10"/>
+      <c r="F101" s="15"/>
     </row>
     <row r="102" spans="1:6" ht="69">
       <c r="A102" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" ht="224.25">
+    <row r="103" spans="1:6" ht="69">
       <c r="A103" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" ht="103.5">
+    <row r="104" spans="1:6" ht="224.25">
       <c r="A104" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="51.75">
+    <row r="105" spans="1:6" ht="103.5">
       <c r="A105" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="409.5">
+    <row r="106" spans="1:6" ht="51.75">
       <c r="A106" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" ht="51.75">
+    <row r="107" spans="1:6" ht="409.5">
       <c r="A107" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" ht="69">
+    <row r="108" spans="1:6" ht="51.75">
       <c r="A108" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="1:6" ht="69">
       <c r="A109" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="103.5">
+    <row r="110" spans="1:6" ht="69">
       <c r="A110" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="86.25">
-      <c r="A111" s="3" t="s">
-        <v>140</v>
+    <row r="111" spans="1:6" ht="103.5">
+      <c r="A111" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="103.5">
-      <c r="A112" s="6" t="s">
-        <v>143</v>
+    <row r="112" spans="1:6" ht="86.25">
+      <c r="A112" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="86.25">
+    <row r="113" spans="1:6" ht="103.5">
       <c r="A113" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6" ht="86.25">
       <c r="A114" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" ht="86.25">
+      <c r="A115" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B115" s="4">
         <v>45450</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C115" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="10"/>
+      <c r="F115" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F50" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F114">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F115">
       <sortCondition descending="1" ref="B1:B50"/>
     </sortState>
   </autoFilter>
@@ -6888,7 +6949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA47ABE8-A0DB-496C-8080-33CAD593BD66}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:L17"/>
     </sheetView>
   </sheetViews>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BB0297-97B7-46FD-881D-EDC5397626C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9B4DBB-9319-4607-8DCF-1BA14D66DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4018,26 +4018,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>이 문서는 iCUP을 지원하는 차량에서 앱이 동작하지 않는 경우 수행 단계에 대해 설명합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;string&gt;고객에게 모든 앱이 동작하지 않는지, 특정 앱이 동작하지 않는지 식별합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;모든 앱이 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 차량의 중앙 화면 밑 홈 버튼을 20초 이상 길게 누릅니다.
-&lt;br&gt;2. 스크링 클리닝 화면이 나온 후 Volvo 로고가 나올 때까지 누른 후 로고가 나오면 손을 뗍니다.
-&lt;br&gt;3. 그래도 동일한 경우 Hej Volvo 앱을 통해 서비스 센터를 예약한 후 방문하도록 안내 합니다.
-&lt;br&gt;&lt;h3&gt;특정 앱이 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 중앙 화면 우측 하단 설정을 누릅니다.
-&lt;br&gt;2. 설정 &gt; 개인 정보 보호 &gt; 모든 앱 표시 &gt; 문제가 발생한 앱을 선택 &gt; 저장공간 및 캐시 &gt; 우측 하단 &gt; 저장공간 제거 or 캐시 제거 선택합니다. &lt;em&gt;&lt;a style="color: red;"&gt;(이 단계를 수행하는 경우 앱 데이터가 유실됩니다.)&lt;/a&gt;&lt;/em&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;네트워크 문제로 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 차량의 좌측 상단 안테나 아이콘의 상태를 확인하여 x 표시가 보이는지 확인합니다.
-&lt;br&gt;2. x 표시가 보이는 경우 차량의 비상등 오른쪽 성애 제거 버튼을 20초 이상 누르도록 안내 합니다.
-&lt;br&gt;3. 루프(천장)의 SOS 버튼이 깜빡이는 경우 손을 뗀 후 증상이 동일한지 확인합니다. &lt;em&gt;고객이 B-Call이나, E-Call로 인입한 경우 전화가 끊깁니다.&lt;/em&gt;
-&lt;br&gt;4. 증상이 동일한 경우 48시간 이후 재시도 하도록 안내합니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>지원 모델: iCUP 지원 차량
 &lt;br&gt;
 &lt;br&gt;고객은 차량에 블루투스로 연결하면 음악이나 기타 미디어 사운드가 재생되지 않는다고 보고할 수 있습니다.
@@ -4409,6 +4389,26 @@
   </si>
   <si>
     <t>조명 제어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 문서는 Android Automotive를 지원하는 차량에서 앱이 동작하지 않는 경우 수행 단계에 대해 설명합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;string&gt;고객에게 모든 앱이 동작하지 않는지, 특정 앱이 동작하지 않는지 식별합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;모든 앱이 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 차량의 중앙 화면 밑 홈 버튼을 20초 이상 길게 누릅니다.
+&lt;br&gt;2. 스크링 클리닝 화면이 나온 후 Volvo 로고가 나올 때까지 누른 후 로고가 나오면 손을 뗍니다.
+&lt;br&gt;3. 그래도 동일한 경우 Hej Volvo 앱을 통해 서비스 센터를 예약한 후 방문하도록 안내 합니다.
+&lt;br&gt;&lt;h3&gt;특정 앱이 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 중앙 화면 우측 하단 설정을 누릅니다.
+&lt;br&gt;2. 설정 &gt; 개인정보 보호 &gt; 모든 앱 표시 &gt; 문제가 발생한 앱을 선택 &gt; 저장용량 및 캐시 &gt; 캐시 지우기 우선 진행 후 동일 시 저장용량 비우기 진행 &lt;em&gt;&lt;a style="color: red;"&gt;(이 단계를 수행하는 경우 앱 데이터가 유실됩니다.)&lt;/a&gt;&lt;/em&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;네트워크 문제로 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 차량의 좌측 상단 안테나 아이콘의 상태를 확인하여 x 표시가 보이는지 확인합니다.
+&lt;br&gt;2. x 표시가 보이는 경우 차량의 비상등 오른쪽 성애 제거 버튼을 20초 이상 누르도록 안내 합니다.
+&lt;br&gt;3. 루프(천장)의 SOS 버튼이 깜빡이는 경우 손을 뗀 후 증상이 동일한지 확인합니다. &lt;em&gt;고객이 B-Call이나, E-Call로 인입한 경우 전화가 끊깁니다.&lt;/em&gt;
+&lt;br&gt;4. 증상이 동일한 경우 48시간 이후 재시도 하도록 안내합니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4954,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4988,14 +4988,14 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="14">
         <v>45474</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>242</v>
@@ -5013,7 +5013,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>298</v>
@@ -5031,7 +5031,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>25</v>
@@ -5040,14 +5040,14 @@
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="4">
         <v>45474</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>298</v>
@@ -5056,78 +5056,80 @@
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="4">
         <v>45474</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>298</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="86.25">
+    <row r="7" spans="1:6" ht="310.5">
       <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45474</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="86.25">
+      <c r="A8" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45471</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="189.75">
-      <c r="A8" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="B8" s="4">
         <v>45471</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B9" s="4">
         <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="409.5">
       <c r="A10" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
@@ -5136,210 +5138,210 @@
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="120.75">
+    <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="241.5">
+    <row r="13" spans="1:6" ht="120.75">
       <c r="A13" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="409.5">
+    <row r="14" spans="1:6" ht="241.5">
       <c r="A14" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="86.25">
+    <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="409.5">
+    <row r="16" spans="1:6" ht="86.25">
       <c r="A16" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E18" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="379.5">
+    <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="379.5">
+      <c r="A21" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B20" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="409.5">
-      <c r="A21" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="B21" s="4">
         <v>45470</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="379.5">
+    <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B22" s="4">
         <v>45470</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="409.5">
+    <row r="23" spans="1:6" ht="379.5">
       <c r="A23" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B23" s="4">
         <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>298</v>
@@ -5348,62 +5350,62 @@
     </row>
     <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B24" s="4">
         <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="103.5">
+    <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="409.5">
+    <row r="26" spans="1:6" ht="103.5">
       <c r="A26" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>9</v>
@@ -5412,392 +5414,392 @@
     </row>
     <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="69">
+    <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B29" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="293.25">
+    <row r="30" spans="1:6" ht="69">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="B30" s="4">
         <v>45469</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="293.25">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="241.5">
-      <c r="A31" s="3" t="s">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="241.5">
+      <c r="A32" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B31" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="409.5">
-      <c r="A32" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="B32" s="4">
         <v>45468</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>9</v>
+        <v>255</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="86.25">
+    <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B33" s="4">
         <v>45468</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>298</v>
+        <v>243</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="207">
+    <row r="34" spans="1:6" ht="86.25">
       <c r="A34" s="3" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B34" s="4">
         <v>45468</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="207">
+      <c r="A35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="409.5">
-      <c r="A35" s="3" t="s">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="409.5">
+      <c r="A36" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B35" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="327.75">
-      <c r="A36" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="B36" s="4">
         <v>45467</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="D36" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>9</v>
+        <v>226</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="138">
+    <row r="37" spans="1:6" ht="327.75">
       <c r="A37" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B37" s="4">
         <v>45467</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="293.25">
+    <row r="38" spans="1:6" ht="138">
       <c r="A38" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B38" s="4">
         <v>45467</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="396.75">
+    <row r="39" spans="1:6" ht="293.25">
       <c r="A39" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" s="4">
         <v>45467</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>298</v>
+        <v>170</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="409.5">
+    <row r="40" spans="1:6" ht="396.75">
       <c r="A40" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B40" s="4">
         <v>45467</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="172.5">
+    <row r="41" spans="1:6" ht="409.5">
       <c r="A41" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" s="4">
         <v>45467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="409.5">
+    <row r="42" spans="1:6" ht="172.5">
       <c r="A42" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B42" s="4">
         <v>45467</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="409.5">
       <c r="A43" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B43" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="409.5">
+      <c r="A44" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="172.5">
-      <c r="A44" s="6" t="s">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="172.5">
+      <c r="A45" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B45" s="8">
         <v>45463</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="409.5">
-      <c r="A45" s="3" t="s">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="409.5">
+      <c r="A46" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B45" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="86.25">
-      <c r="A46" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B46" s="4">
         <v>45463</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="379.5">
+    <row r="47" spans="1:6" ht="86.25">
       <c r="A47" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="327.75">
+    <row r="48" spans="1:6" ht="379.5">
       <c r="A48" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="189.75">
+    <row r="49" spans="1:6" ht="327.75">
       <c r="A49" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="103.5">
+    <row r="50" spans="1:6" ht="189.75">
       <c r="A50" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="409.5">
+    <row r="51" spans="1:6" ht="103.5">
       <c r="A51" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>298</v>
@@ -5806,94 +5808,94 @@
     </row>
     <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="345">
+    <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="327.75">
+    <row r="55" spans="1:6" ht="345">
       <c r="A55" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="241.5">
+    <row r="56" spans="1:6" ht="327.75">
       <c r="A56" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="409.5">
+    <row r="57" spans="1:6" ht="241.5">
       <c r="A57" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
@@ -5902,14 +5904,14 @@
     </row>
     <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
@@ -5918,14 +5920,14 @@
     </row>
     <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
@@ -5934,46 +5936,46 @@
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" ht="57.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="409.5">
+    <row r="62" spans="1:6" ht="276">
       <c r="A62" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>300</v>
@@ -5982,343 +5984,341 @@
     </row>
     <row r="63" spans="1:6" ht="409.5">
       <c r="A63" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="409.5">
+      <c r="A64" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B64" s="4">
         <v>45461</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="120.75">
-      <c r="A64" s="6" t="s">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="120.75">
+      <c r="A65" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B65" s="8">
         <v>45461</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D65" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="409.5">
-      <c r="A65" s="3" t="s">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="409.5">
+      <c r="A66" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B65" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="293.25">
-      <c r="A66" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="B66" s="4">
         <v>45461</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="409.5">
+    <row r="67" spans="1:6" ht="293.25">
       <c r="A67" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4">
         <v>45461</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="409.5">
+      <c r="A68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="172.5">
-      <c r="A68" s="3" t="s">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" ht="172.5">
+      <c r="A69" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B68" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="155.25">
-      <c r="A69" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="B69" s="4">
         <v>45460</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="409.5">
+    <row r="70" spans="1:6" ht="155.25">
       <c r="A70" s="3" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B70" s="4">
         <v>45460</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="207">
+    <row r="71" spans="1:6" ht="409.5">
       <c r="A71" s="3" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B71" s="4">
         <v>45460</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="409.5">
+    <row r="72" spans="1:6" ht="207">
       <c r="A72" s="3" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B72" s="4">
         <v>45460</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>25</v>
+        <v>159</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="258.75">
+    <row r="73" spans="1:6" ht="409.5">
       <c r="A73" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="B73" s="4">
         <v>45460</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="258.75">
+      <c r="A74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="138">
-      <c r="A74" s="3" t="s">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="138">
+      <c r="A75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B75" s="4">
         <v>45459</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="409.5">
-      <c r="A75" s="3" t="s">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="409.5">
+      <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B76" s="4">
         <v>45457</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E76" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="276">
-      <c r="A76" s="3" t="s">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="276">
+      <c r="A77" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B76" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="409.5">
-      <c r="A77" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B77" s="4">
         <v>45456</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="310.5">
+    <row r="78" spans="1:6" ht="409.5">
       <c r="A78" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B78" s="4">
         <v>45456</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="138">
+    <row r="79" spans="1:6" ht="310.5">
       <c r="A79" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B79" s="4">
         <v>45456</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="138">
+      <c r="A80" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E80" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="409.5">
-      <c r="A80" s="3" t="s">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="409.5">
+      <c r="A81" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B80" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="310.5">
-      <c r="A81" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B81" s="4">
         <v>45455</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="F81" s="10"/>
     </row>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9B4DBB-9319-4607-8DCF-1BA14D66DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD81803-FE92-4496-AF04-547C6499372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="313">
   <si>
     <t>Title</t>
   </si>
@@ -4409,6 +4409,34 @@
 &lt;br&gt;2. x 표시가 보이는 경우 차량의 비상등 오른쪽 성애 제거 버튼을 20초 이상 누르도록 안내 합니다.
 &lt;br&gt;3. 루프(천장)의 SOS 버튼이 깜빡이는 경우 손을 뗀 후 증상이 동일한지 확인합니다. &lt;em&gt;고객이 B-Call이나, E-Call로 인입한 경우 전화가 끊깁니다.&lt;/em&gt;
 &lt;br&gt;4. 증상이 동일한 경우 48시간 이후 재시도 하도록 안내합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가파른 지형과 더운 기후 등의 가혹한 환경에서 하는 운전 등의 특별한 조건이나 특히 부하가 큰 경우에 엔진 및 구동 시스템이 과열될 위험이 높아집니다.
+&lt;ul&gt;
+&lt;li&gt; 과열이 발생하는 경우에는 엔진 출력이 일시적으로 제한될 수 있습니다.&lt;/li&gt;
+&lt;li&gt; 기온이 높을 때는 그릴 앞의 보조 램프(장착시)를 제거하고 운전하십시오.&lt;/li&gt;
+&lt;li&gt; 엔진의 냉각 시스템 온도가 너무 높아지는 경우에는 경고등이 점등되며 운전자 화면에 안전하게 정지 엔진 온도 높음 라는 메시지가 표시됩니다. 차량을 안전한 방식으로 세운 후 엔진이 몇 분 동안 공회전 속도로 작동하도록 하여 식도록 합니다.&lt;/li&gt;
+&lt;li&gt; 엔진 시동을 끄십시오. 엔진 온도 높음 또는 엔진 시동을 끄십시오. 냉각수 레벨 낮음 라는 메시지가 표시되는 경우에는 차량을 세우고 엔진을 끕니다.&lt;/li&gt;
+&lt;li&gt; 변속기가 과열되면 내장된 보호 기능이 작동합니다. 경고등이 켜지고 운전자 화면에 속도를 줄여 온도를 낮추십시오. 변속기 따뜻함 또는 안전하게 정지 변속기 뜨거움 냉각될 때까지 기다리십시오. 메시지가 표시됩니다. 제공된 권장 사항을 따르고, 속도를 줄이거나 안전한 방식으로 차량을 세우고 몇 분 동안 공회전 속도로 엔진이 작동하도록 하여 변속기가 식도록 합니다.&lt;/li&gt;
+&lt;li&gt; 차가 과열되면 에어컨이 꺼질 수도 있습니다.&lt;/li&gt;
+&lt;li&gt; 험한 운전 후에는 엔진을 즉시 끄지 마십시오.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;엔진이 꺼진 후 한동안 엔진 냉각 팬이 작동하는 것은 정상입니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;h3&gt;운전자 화면의 심볼&lt;/h3&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img153a35cf2efe74c4c0a801522efb7b35_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
+엔진 과열. 주어진 권고 사항을 따르십시오.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd472ed102f078e72c0a8015209fdd3d8_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
+냉각수 레벨 낮음. 주어진 권고 사항을 따르십시오.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img6cef6bdd2ee2ec31c0a80152146d14e4_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
+변속기 고온/과열/냉각됨. 주어진 권고 사항을 따르십시오.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 및 구동 시스템의 과열</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4952,10 +4980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5088,64 +5116,64 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="86.25">
+    <row r="8" spans="1:6" ht="396.75">
       <c r="A8" s="3" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="B8" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4">
         <v>45471</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="409.5">
+    <row r="10" spans="1:6" ht="189.75">
       <c r="A10" s="3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -5154,210 +5182,210 @@
     </row>
     <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="120.75">
+    <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="241.5">
+    <row r="14" spans="1:6" ht="120.75">
       <c r="A14" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="409.5">
+    <row r="15" spans="1:6" ht="241.5">
       <c r="A15" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="86.25">
+    <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="409.5">
+    <row r="17" spans="1:6" ht="86.25">
       <c r="A17" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="379.5">
+    <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="379.5">
+      <c r="A22" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="409.5">
-      <c r="A22" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="B22" s="4">
         <v>45470</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="379.5">
+    <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B23" s="4">
         <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="409.5">
+    <row r="24" spans="1:6" ht="379.5">
       <c r="A24" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B24" s="4">
         <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>298</v>
@@ -5366,62 +5394,62 @@
     </row>
     <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="103.5">
+    <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="409.5">
+    <row r="27" spans="1:6" ht="103.5">
       <c r="A27" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>9</v>
@@ -5430,392 +5458,392 @@
     </row>
     <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="4">
         <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="69">
+    <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B30" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="293.25">
+    <row r="31" spans="1:6" ht="69">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="B31" s="4">
         <v>45469</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="293.25">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="241.5">
-      <c r="A32" s="3" t="s">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="241.5">
+      <c r="A33" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B32" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="409.5">
-      <c r="A33" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="B33" s="4">
         <v>45468</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>9</v>
+        <v>255</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="86.25">
+    <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B34" s="4">
         <v>45468</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D34" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>298</v>
+        <v>243</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="207">
+    <row r="35" spans="1:6" ht="86.25">
       <c r="A35" s="3" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B35" s="4">
         <v>45468</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="207">
+      <c r="A36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="409.5">
-      <c r="A36" s="3" t="s">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="409.5">
+      <c r="A37" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B36" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="327.75">
-      <c r="A37" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="B37" s="4">
         <v>45467</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="D37" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>9</v>
+        <v>226</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="138">
+    <row r="38" spans="1:6" ht="327.75">
       <c r="A38" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B38" s="4">
         <v>45467</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="293.25">
+    <row r="39" spans="1:6" ht="138">
       <c r="A39" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B39" s="4">
         <v>45467</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="396.75">
+    <row r="40" spans="1:6" ht="293.25">
       <c r="A40" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="4">
         <v>45467</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>298</v>
+        <v>170</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="409.5">
+    <row r="41" spans="1:6" ht="396.75">
       <c r="A41" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B41" s="4">
         <v>45467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="172.5">
+    <row r="42" spans="1:6" ht="409.5">
       <c r="A42" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42" s="4">
         <v>45467</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="409.5">
+    <row r="43" spans="1:6" ht="172.5">
       <c r="A43" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B43" s="4">
         <v>45467</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="409.5">
       <c r="A44" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B44" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="409.5">
+      <c r="A45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="172.5">
-      <c r="A45" s="6" t="s">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="172.5">
+      <c r="A46" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B46" s="8">
         <v>45463</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="409.5">
-      <c r="A46" s="3" t="s">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="409.5">
+      <c r="A47" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B46" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="86.25">
-      <c r="A47" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B47" s="4">
         <v>45463</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="379.5">
+    <row r="48" spans="1:6" ht="86.25">
       <c r="A48" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="327.75">
+    <row r="49" spans="1:6" ht="379.5">
       <c r="A49" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="189.75">
+    <row r="50" spans="1:6" ht="327.75">
       <c r="A50" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="103.5">
+    <row r="51" spans="1:6" ht="189.75">
       <c r="A51" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="409.5">
+    <row r="52" spans="1:6" ht="103.5">
       <c r="A52" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>298</v>
@@ -5824,94 +5852,94 @@
     </row>
     <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="345">
+    <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="327.75">
+    <row r="56" spans="1:6" ht="345">
       <c r="A56" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="241.5">
+    <row r="57" spans="1:6" ht="327.75">
       <c r="A57" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="409.5">
+    <row r="58" spans="1:6" ht="241.5">
       <c r="A58" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
@@ -5920,14 +5948,14 @@
     </row>
     <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
@@ -5936,14 +5964,14 @@
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
@@ -5952,46 +5980,46 @@
     </row>
     <row r="61" spans="1:6" ht="57.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="276">
+    <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="409.5">
+    <row r="63" spans="1:6" ht="276">
       <c r="A63" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>300</v>
@@ -6000,358 +6028,356 @@
     </row>
     <row r="64" spans="1:6" ht="409.5">
       <c r="A64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="409.5">
+      <c r="A65" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B65" s="4">
         <v>45461</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="120.75">
-      <c r="A65" s="6" t="s">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="120.75">
+      <c r="A66" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B66" s="8">
         <v>45461</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="409.5">
-      <c r="A66" s="3" t="s">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="409.5">
+      <c r="A67" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B66" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="293.25">
-      <c r="A67" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="B67" s="4">
         <v>45461</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="409.5">
+    <row r="68" spans="1:6" ht="293.25">
       <c r="A68" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B68" s="4">
         <v>45461</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" ht="409.5">
+      <c r="A69" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="172.5">
-      <c r="A69" s="3" t="s">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="172.5">
+      <c r="A70" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B69" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="155.25">
-      <c r="A70" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="B70" s="4">
         <v>45460</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="409.5">
+    <row r="71" spans="1:6" ht="155.25">
       <c r="A71" s="3" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B71" s="4">
         <v>45460</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="207">
+    <row r="72" spans="1:6" ht="409.5">
       <c r="A72" s="3" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B72" s="4">
         <v>45460</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="409.5">
+    <row r="73" spans="1:6" ht="207">
       <c r="A73" s="3" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B73" s="4">
         <v>45460</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>25</v>
+        <v>159</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="258.75">
+    <row r="74" spans="1:6" ht="409.5">
       <c r="A74" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="B74" s="4">
         <v>45460</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="258.75">
+      <c r="A75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="138">
-      <c r="A75" s="3" t="s">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="138">
+      <c r="A76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B76" s="4">
         <v>45459</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="409.5">
-      <c r="A76" s="3" t="s">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="409.5">
+      <c r="A77" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B77" s="4">
         <v>45457</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="276">
-      <c r="A77" s="3" t="s">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="276">
+      <c r="A78" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B77" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="409.5">
-      <c r="A78" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B78" s="4">
         <v>45456</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="310.5">
+    <row r="79" spans="1:6" ht="409.5">
       <c r="A79" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B79" s="4">
         <v>45456</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="138">
+    <row r="80" spans="1:6" ht="310.5">
       <c r="A80" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B80" s="4">
         <v>45456</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="138">
+      <c r="A81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E81" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="409.5">
-      <c r="A81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" ht="409.5">
       <c r="A82" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B82" s="4">
         <v>45455</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" ht="409.5">
       <c r="A83" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B83" s="4">
         <v>45455</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>9</v>
@@ -6360,169 +6386,169 @@
     </row>
     <row r="84" spans="1:6" ht="409.5">
       <c r="A84" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" s="4">
         <v>45455</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="310.5">
+    <row r="85" spans="1:6" ht="409.5">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B85" s="4">
         <v>45455</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" ht="310.5">
+      <c r="A86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" ht="409.5">
-      <c r="A86" s="3" t="s">
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" ht="409.5">
+      <c r="A87" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B86" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:6" ht="224.25">
-      <c r="A87" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="B87" s="4">
         <v>45454</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="103.5">
+    <row r="88" spans="1:6" ht="224.25">
       <c r="A88" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B88" s="4">
         <v>45454</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="409.5">
+    <row r="89" spans="1:6" ht="103.5">
       <c r="A89" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B89" s="4">
         <v>45454</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="1:6" ht="409.5">
       <c r="A90" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B90" s="4">
         <v>45454</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="241.5">
+    <row r="91" spans="1:6" ht="409.5">
       <c r="A91" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" ht="241.5">
+      <c r="A92" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B91" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" ht="207">
-      <c r="A92" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B92" s="4">
         <v>45453</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="155.25">
+    <row r="93" spans="1:6" ht="207">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
@@ -6531,412 +6557,430 @@
         <v>74</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="207">
+    <row r="94" spans="1:6" ht="155.25">
       <c r="A94" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="120.75">
+    <row r="95" spans="1:6" ht="207">
       <c r="A95" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="276">
+    <row r="96" spans="1:6" ht="120.75">
       <c r="A96" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B96" s="4">
         <v>45453</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="396.75">
+    <row r="97" spans="1:6" ht="276">
       <c r="A97" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B97" s="4">
         <v>45453</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" ht="396.75">
+      <c r="A98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6" ht="409.5">
-      <c r="A98" s="6" t="s">
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" ht="409.5">
+      <c r="A99" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B98" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="276">
-      <c r="A99" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="B99" s="4">
         <v>45452</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="86.25">
+    <row r="100" spans="1:6" ht="276">
       <c r="A100" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" ht="86.25">
+      <c r="A101" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B100" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="10"/>
-    </row>
-    <row r="101" spans="1:6" ht="409.5">
-      <c r="A101" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B101" s="8">
         <v>45450</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102" spans="1:6" ht="69">
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" ht="409.5">
       <c r="A102" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="10"/>
+      <c r="F102" s="15"/>
     </row>
     <row r="103" spans="1:6" ht="69">
       <c r="A103" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" ht="224.25">
+    <row r="104" spans="1:6" ht="69">
       <c r="A104" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="103.5">
+    <row r="105" spans="1:6" ht="224.25">
       <c r="A105" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="51.75">
+    <row r="106" spans="1:6" ht="103.5">
       <c r="A106" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" ht="409.5">
+    <row r="107" spans="1:6" ht="51.75">
       <c r="A107" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" ht="51.75">
+    <row r="108" spans="1:6" ht="409.5">
       <c r="A108" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="69">
+    <row r="109" spans="1:6" ht="51.75">
       <c r="A109" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" ht="69">
       <c r="A110" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="103.5">
+    <row r="111" spans="1:6" ht="69">
       <c r="A111" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="86.25">
-      <c r="A112" s="3" t="s">
-        <v>140</v>
+    <row r="112" spans="1:6" ht="103.5">
+      <c r="A112" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="103.5">
-      <c r="A113" s="6" t="s">
-        <v>143</v>
+    <row r="113" spans="1:6" ht="86.25">
+      <c r="A113" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" ht="86.25">
+    <row r="114" spans="1:6" ht="103.5">
       <c r="A114" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B114" s="8">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:6" ht="86.25">
       <c r="A115" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" ht="86.25">
+      <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B116" s="4">
         <v>45450</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E116" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="10"/>
+      <c r="F116" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F50" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F115">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
       <sortCondition descending="1" ref="B1:B50"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD81803-FE92-4496-AF04-547C6499372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55D69D-18CC-4674-8889-6B1F44D60723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4347,6 +4347,58 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>조명 제어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 문서는 Android Automotive를 지원하는 차량에서 앱이 동작하지 않는 경우 수행 단계에 대해 설명합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;string&gt;고객에게 모든 앱이 동작하지 않는지, 특정 앱이 동작하지 않는지 식별합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;모든 앱이 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 차량의 중앙 화면 밑 홈 버튼을 20초 이상 길게 누릅니다.
+&lt;br&gt;2. 스크링 클리닝 화면이 나온 후 Volvo 로고가 나올 때까지 누른 후 로고가 나오면 손을 뗍니다.
+&lt;br&gt;3. 그래도 동일한 경우 Hej Volvo 앱을 통해 서비스 센터를 예약한 후 방문하도록 안내 합니다.
+&lt;br&gt;&lt;h3&gt;특정 앱이 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 중앙 화면 우측 하단 설정을 누릅니다.
+&lt;br&gt;2. 설정 &gt; 개인정보 보호 &gt; 모든 앱 표시 &gt; 문제가 발생한 앱을 선택 &gt; 저장용량 및 캐시 &gt; 캐시 지우기 우선 진행 후 동일 시 저장용량 비우기 진행 &lt;em&gt;&lt;a style="color: red;"&gt;(이 단계를 수행하는 경우 앱 데이터가 유실됩니다.)&lt;/a&gt;&lt;/em&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;네트워크 문제로 동작하지 않는 경우&lt;/h3&gt;
+&lt;br&gt;1. 차량의 좌측 상단 안테나 아이콘의 상태를 확인하여 x 표시가 보이는지 확인합니다.
+&lt;br&gt;2. x 표시가 보이는 경우 차량의 비상등 오른쪽 성애 제거 버튼을 20초 이상 누르도록 안내 합니다.
+&lt;br&gt;3. 루프(천장)의 SOS 버튼이 깜빡이는 경우 손을 뗀 후 증상이 동일한지 확인합니다. &lt;em&gt;고객이 B-Call이나, E-Call로 인입한 경우 전화가 끊깁니다.&lt;/em&gt;
+&lt;br&gt;4. 증상이 동일한 경우 48시간 이후 재시도 하도록 안내합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가파른 지형과 더운 기후 등의 가혹한 환경에서 하는 운전 등의 특별한 조건이나 특히 부하가 큰 경우에 엔진 및 구동 시스템이 과열될 위험이 높아집니다.
+&lt;ul&gt;
+&lt;li&gt; 과열이 발생하는 경우에는 엔진 출력이 일시적으로 제한될 수 있습니다.&lt;/li&gt;
+&lt;li&gt; 기온이 높을 때는 그릴 앞의 보조 램프(장착시)를 제거하고 운전하십시오.&lt;/li&gt;
+&lt;li&gt; 엔진의 냉각 시스템 온도가 너무 높아지는 경우에는 경고등이 점등되며 운전자 화면에 안전하게 정지 엔진 온도 높음 라는 메시지가 표시됩니다. 차량을 안전한 방식으로 세운 후 엔진이 몇 분 동안 공회전 속도로 작동하도록 하여 식도록 합니다.&lt;/li&gt;
+&lt;li&gt; 엔진 시동을 끄십시오. 엔진 온도 높음 또는 엔진 시동을 끄십시오. 냉각수 레벨 낮음 라는 메시지가 표시되는 경우에는 차량을 세우고 엔진을 끕니다.&lt;/li&gt;
+&lt;li&gt; 변속기가 과열되면 내장된 보호 기능이 작동합니다. 경고등이 켜지고 운전자 화면에 속도를 줄여 온도를 낮추십시오. 변속기 따뜻함 또는 안전하게 정지 변속기 뜨거움 냉각될 때까지 기다리십시오. 메시지가 표시됩니다. 제공된 권장 사항을 따르고, 속도를 줄이거나 안전한 방식으로 차량을 세우고 몇 분 동안 공회전 속도로 엔진이 작동하도록 하여 변속기가 식도록 합니다.&lt;/li&gt;
+&lt;li&gt; 차가 과열되면 에어컨이 꺼질 수도 있습니다.&lt;/li&gt;
+&lt;li&gt; 험한 운전 후에는 엔진을 즉시 끄지 마십시오.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;엔진이 꺼진 후 한동안 엔진 냉각 팬이 작동하는 것은 정상입니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;h3&gt;운전자 화면의 심볼&lt;/h3&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img153a35cf2efe74c4c0a801522efb7b35_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
+엔진 과열. 주어진 권고 사항을 따르십시오.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd472ed102f078e72c0a8015209fdd3d8_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
+냉각수 레벨 낮음. 주어진 권고 사항을 따르십시오.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img6cef6bdd2ee2ec31c0a80152146d14e4_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
+변속기 고온/과열/냉각됨. 주어진 권고 사항을 따르십시오.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 및 구동 시스템의 과열</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>여러 조명 컨트롤이 외부 및 내부 조명 모두를 제어하는 데 사용됩니다. 좌측 레버 스위치는 외부 조명을 작동하고 조정합니다. 중앙 화면을 사용하면 외관 램프와 룸 램프를 모두 켜고 조정할 수 있습니다.
 &lt;h3&gt;외부 조명&lt;/h3&gt;
 &lt;img src="https://www.volvocars.com/images/support/img939a8fca09beae8ec0a801524b9fac29_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
@@ -4384,59 +4436,7 @@
 &lt;h3&gt;외부 및 내부 조명&lt;/h3&gt;
 &lt;br&gt;외부 및 내부 램프는 중앙 화면에서 조절할 수 있습니다.
 &lt;br&gt;
-&lt;br&gt;차량이 정지 상태이지만 작동 중인 경우에 회전 링을 다른 위치에서 P5-1507 Symbol position light 위치로 움직여 다른 조명 대신 차폭등만 켤 수 있습니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>조명 제어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 문서는 Android Automotive를 지원하는 차량에서 앱이 동작하지 않는 경우 수행 단계에 대해 설명합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;string&gt;고객에게 모든 앱이 동작하지 않는지, 특정 앱이 동작하지 않는지 식별합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;모든 앱이 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 차량의 중앙 화면 밑 홈 버튼을 20초 이상 길게 누릅니다.
-&lt;br&gt;2. 스크링 클리닝 화면이 나온 후 Volvo 로고가 나올 때까지 누른 후 로고가 나오면 손을 뗍니다.
-&lt;br&gt;3. 그래도 동일한 경우 Hej Volvo 앱을 통해 서비스 센터를 예약한 후 방문하도록 안내 합니다.
-&lt;br&gt;&lt;h3&gt;특정 앱이 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 중앙 화면 우측 하단 설정을 누릅니다.
-&lt;br&gt;2. 설정 &gt; 개인정보 보호 &gt; 모든 앱 표시 &gt; 문제가 발생한 앱을 선택 &gt; 저장용량 및 캐시 &gt; 캐시 지우기 우선 진행 후 동일 시 저장용량 비우기 진행 &lt;em&gt;&lt;a style="color: red;"&gt;(이 단계를 수행하는 경우 앱 데이터가 유실됩니다.)&lt;/a&gt;&lt;/em&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;네트워크 문제로 동작하지 않는 경우&lt;/h3&gt;
-&lt;br&gt;1. 차량의 좌측 상단 안테나 아이콘의 상태를 확인하여 x 표시가 보이는지 확인합니다.
-&lt;br&gt;2. x 표시가 보이는 경우 차량의 비상등 오른쪽 성애 제거 버튼을 20초 이상 누르도록 안내 합니다.
-&lt;br&gt;3. 루프(천장)의 SOS 버튼이 깜빡이는 경우 손을 뗀 후 증상이 동일한지 확인합니다. &lt;em&gt;고객이 B-Call이나, E-Call로 인입한 경우 전화가 끊깁니다.&lt;/em&gt;
-&lt;br&gt;4. 증상이 동일한 경우 48시간 이후 재시도 하도록 안내합니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>가파른 지형과 더운 기후 등의 가혹한 환경에서 하는 운전 등의 특별한 조건이나 특히 부하가 큰 경우에 엔진 및 구동 시스템이 과열될 위험이 높아집니다.
-&lt;ul&gt;
-&lt;li&gt; 과열이 발생하는 경우에는 엔진 출력이 일시적으로 제한될 수 있습니다.&lt;/li&gt;
-&lt;li&gt; 기온이 높을 때는 그릴 앞의 보조 램프(장착시)를 제거하고 운전하십시오.&lt;/li&gt;
-&lt;li&gt; 엔진의 냉각 시스템 온도가 너무 높아지는 경우에는 경고등이 점등되며 운전자 화면에 안전하게 정지 엔진 온도 높음 라는 메시지가 표시됩니다. 차량을 안전한 방식으로 세운 후 엔진이 몇 분 동안 공회전 속도로 작동하도록 하여 식도록 합니다.&lt;/li&gt;
-&lt;li&gt; 엔진 시동을 끄십시오. 엔진 온도 높음 또는 엔진 시동을 끄십시오. 냉각수 레벨 낮음 라는 메시지가 표시되는 경우에는 차량을 세우고 엔진을 끕니다.&lt;/li&gt;
-&lt;li&gt; 변속기가 과열되면 내장된 보호 기능이 작동합니다. 경고등이 켜지고 운전자 화면에 속도를 줄여 온도를 낮추십시오. 변속기 따뜻함 또는 안전하게 정지 변속기 뜨거움 냉각될 때까지 기다리십시오. 메시지가 표시됩니다. 제공된 권장 사항을 따르고, 속도를 줄이거나 안전한 방식으로 차량을 세우고 몇 분 동안 공회전 속도로 엔진이 작동하도록 하여 변속기가 식도록 합니다.&lt;/li&gt;
-&lt;li&gt; 차가 과열되면 에어컨이 꺼질 수도 있습니다.&lt;/li&gt;
-&lt;li&gt; 험한 운전 후에는 엔진을 즉시 끄지 마십시오.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
-&lt;br&gt;엔진이 꺼진 후 한동안 엔진 냉각 팬이 작동하는 것은 정상입니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;h3&gt;운전자 화면의 심볼&lt;/h3&gt;
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img153a35cf2efe74c4c0a801522efb7b35_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
-엔진 과열. 주어진 권고 사항을 따르십시오.
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd472ed102f078e72c0a8015209fdd3d8_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
-냉각수 레벨 낮음. 주어진 권고 사항을 따르십시오.
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img6cef6bdd2ee2ec31c0a80152146d14e4_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt; 
-변속기 고온/과열/냉각됨. 주어진 권고 사항을 따르십시오.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔진 및 구동 시스템의 과열</t>
+&lt;br&gt;차량이 정지 상태이지만 작동 중인 경우에 회전 링을 다른 위치에서 &lt;img src="https://www.volvocars.com/images/support/img5b7608d715b543bac0a8015251883c60_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt; 위치로 움직여 다른 조명 대신 차폭등만 켤 수 있습니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4982,8 +4982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5084,14 +5084,14 @@
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="4">
         <v>45474</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>298</v>
@@ -5109,7 +5109,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>298</v>
@@ -5118,14 +5118,14 @@
     </row>
     <row r="8" spans="1:6" ht="396.75">
       <c r="A8" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4">
         <v>45474</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>9</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55D69D-18CC-4674-8889-6B1F44D60723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56342BAA-C3FD-4DBE-8941-94C08DA5C002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="315">
   <si>
     <t>Title</t>
   </si>
@@ -4437,6 +4437,25 @@
 &lt;br&gt;외부 및 내부 램프는 중앙 화면에서 조절할 수 있습니다.
 &lt;br&gt;
 &lt;br&gt;차량이 정지 상태이지만 작동 중인 경우에 회전 링을 다른 위치에서 &lt;img src="https://www.volvocars.com/images/support/img5b7608d715b543bac0a8015251883c60_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt; 위치로 움직여 다른 조명 대신 차폭등만 켤 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌이 발생할 경우, 차량은 Volvo Assistance 또는 긴급 콜 센터에 자동으로 보고하며, 이를 통해 긴급 지원팀이 파견될 수 있습니다.
+&lt;h3&gt;Volvo Assistance&lt;/h3&gt;
+차량의 안전 시스템이 트리거되면(예: 안전벨트 프리텐셔너 또는 에어백 작동 레벨의 사고) 차량은 자동으로 Volvo Assistance에 전화하고 차량의 위치 등이 포함된 메시지가 전송됩니다.
+&lt;br&gt;1. Volvo Assistance는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 시도합니다.
+&lt;br&gt;2. 그런 다음 Volvo Assistance는 필요한 지원(경찰, 구급차, 차량 구조 등)을 받기 위해 연락합니다.
+&lt;br&gt;
+통화를 할 수 없는 경우에 Volvo Assistance는 적절한 조치를 통해 지원을 제공하는 관련 당국에 연락합니다.
+&lt;h3&gt;응급 콜센터&lt;/h3&gt;&lt;sub&gt;대한민국은 대상 아님&lt;sub&gt;
+차량의 안전 시스템이 트리거되면(예를 들어 안전벨트 프리텐셔너 또는 에어백이 활성화되는 수준의 사고가 발생하면) 신호가 응급 콜센터로 직접 자동 전송됩니다.
+&lt;br&gt;
+&lt;br&gt;1. 긴급 전화 센터는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 합니다.
+&lt;br&gt;2. 긴급 전화 센터는 필요한 지원팀을 보냅니다(경찰, 구급차, 견인차 등).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volvo Assistance을 통한 자동 충돌 경보</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4980,10 +4999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5134,62 +5153,62 @@
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B9" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>313</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="189.75">
+    <row r="10" spans="1:6" ht="86.25">
       <c r="A10" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:6" ht="189.75">
       <c r="A11" s="3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>
@@ -5198,210 +5217,210 @@
     </row>
     <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="120.75">
+    <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="241.5">
+    <row r="15" spans="1:6" ht="120.75">
       <c r="A15" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="409.5">
+    <row r="16" spans="1:6" ht="241.5">
       <c r="A16" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="86.25">
+    <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="409.5">
+    <row r="18" spans="1:6" ht="86.25">
       <c r="A18" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="379.5">
+    <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="379.5">
+      <c r="A23" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B22" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="409.5">
-      <c r="A23" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="B23" s="4">
         <v>45470</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="379.5">
+    <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B24" s="4">
         <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="409.5">
+    <row r="25" spans="1:6" ht="379.5">
       <c r="A25" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>298</v>
@@ -5410,62 +5429,62 @@
     </row>
     <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="103.5">
+    <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="409.5">
+    <row r="28" spans="1:6" ht="103.5">
       <c r="A28" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B29" s="4">
         <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>9</v>
@@ -5474,392 +5493,392 @@
     </row>
     <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="69">
+    <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B31" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="293.25">
+    <row r="32" spans="1:6" ht="69">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="B32" s="4">
         <v>45469</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="293.25">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="241.5">
-      <c r="A33" s="3" t="s">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="241.5">
+      <c r="A34" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B33" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="409.5">
-      <c r="A34" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="B34" s="4">
         <v>45468</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>9</v>
+        <v>255</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="86.25">
+    <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B35" s="4">
         <v>45468</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D35" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>298</v>
+        <v>243</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="207">
+    <row r="36" spans="1:6" ht="86.25">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B36" s="4">
         <v>45468</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="207">
+      <c r="A37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="409.5">
-      <c r="A37" s="3" t="s">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="409.5">
+      <c r="A38" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B37" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="327.75">
-      <c r="A38" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="B38" s="4">
         <v>45467</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="D38" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
+        <v>226</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="138">
+    <row r="39" spans="1:6" ht="327.75">
       <c r="A39" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B39" s="4">
         <v>45467</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="293.25">
+    <row r="40" spans="1:6" ht="138">
       <c r="A40" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B40" s="4">
         <v>45467</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="396.75">
+    <row r="41" spans="1:6" ht="293.25">
       <c r="A41" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" s="4">
         <v>45467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>298</v>
+        <v>170</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="409.5">
+    <row r="42" spans="1:6" ht="396.75">
       <c r="A42" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B42" s="4">
         <v>45467</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="172.5">
+    <row r="43" spans="1:6" ht="409.5">
       <c r="A43" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" s="4">
         <v>45467</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="409.5">
+    <row r="44" spans="1:6" ht="172.5">
       <c r="A44" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B44" s="4">
         <v>45467</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B45" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="409.5">
+      <c r="A46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="172.5">
-      <c r="A46" s="6" t="s">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="172.5">
+      <c r="A47" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B47" s="8">
         <v>45463</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="409.5">
-      <c r="A47" s="3" t="s">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="409.5">
+      <c r="A48" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B47" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="86.25">
-      <c r="A48" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="379.5">
+    <row r="49" spans="1:6" ht="86.25">
       <c r="A49" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="327.75">
+    <row r="50" spans="1:6" ht="379.5">
       <c r="A50" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="189.75">
+    <row r="51" spans="1:6" ht="327.75">
       <c r="A51" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="103.5">
+    <row r="52" spans="1:6" ht="189.75">
       <c r="A52" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="409.5">
+    <row r="53" spans="1:6" ht="103.5">
       <c r="A53" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>298</v>
@@ -5868,94 +5887,94 @@
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="345">
+    <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="327.75">
+    <row r="57" spans="1:6" ht="345">
       <c r="A57" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="241.5">
+    <row r="58" spans="1:6" ht="327.75">
       <c r="A58" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="409.5">
+    <row r="59" spans="1:6" ht="241.5">
       <c r="A59" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
@@ -5964,14 +5983,14 @@
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
@@ -5980,14 +5999,14 @@
     </row>
     <row r="61" spans="1:6" ht="57.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>9</v>
@@ -5996,46 +6015,46 @@
     </row>
     <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="276">
+    <row r="63" spans="1:6" ht="409.5">
       <c r="A63" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="409.5">
+    <row r="64" spans="1:6" ht="276">
       <c r="A64" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>300</v>
@@ -6044,358 +6063,356 @@
     </row>
     <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="409.5">
+      <c r="A66" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B66" s="4">
         <v>45461</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="120.75">
-      <c r="A66" s="6" t="s">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="120.75">
+      <c r="A67" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B67" s="8">
         <v>45461</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="409.5">
-      <c r="A67" s="3" t="s">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="409.5">
+      <c r="A68" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B67" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="293.25">
-      <c r="A68" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="B68" s="4">
         <v>45461</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="409.5">
+    <row r="69" spans="1:6" ht="293.25">
       <c r="A69" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B69" s="4">
         <v>45461</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="409.5">
+      <c r="A70" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="172.5">
-      <c r="A70" s="3" t="s">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="172.5">
+      <c r="A71" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B70" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="155.25">
-      <c r="A71" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="B71" s="4">
         <v>45460</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="409.5">
+    <row r="72" spans="1:6" ht="155.25">
       <c r="A72" s="3" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B72" s="4">
         <v>45460</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="207">
+    <row r="73" spans="1:6" ht="409.5">
       <c r="A73" s="3" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B73" s="4">
         <v>45460</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="409.5">
+    <row r="74" spans="1:6" ht="207">
       <c r="A74" s="3" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B74" s="4">
         <v>45460</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>25</v>
+        <v>159</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="258.75">
+    <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="B75" s="4">
         <v>45460</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="258.75">
+      <c r="A76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="138">
-      <c r="A76" s="3" t="s">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="138">
+      <c r="A77" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B77" s="4">
         <v>45459</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="409.5">
-      <c r="A77" s="3" t="s">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="409.5">
+      <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B78" s="4">
         <v>45457</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E78" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="276">
-      <c r="A78" s="3" t="s">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="276">
+      <c r="A79" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B78" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="409.5">
-      <c r="A79" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B79" s="4">
         <v>45456</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="310.5">
+    <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B80" s="4">
         <v>45456</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="138">
+    <row r="81" spans="1:6" ht="310.5">
       <c r="A81" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B81" s="4">
         <v>45456</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" ht="138">
+      <c r="A82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E82" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="409.5">
-      <c r="A82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" ht="409.5">
       <c r="A83" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B83" s="4">
         <v>45455</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" ht="409.5">
       <c r="A84" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B84" s="4">
         <v>45455</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>9</v>
@@ -6404,169 +6421,169 @@
     </row>
     <row r="85" spans="1:6" ht="409.5">
       <c r="A85" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B85" s="4">
         <v>45455</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="310.5">
+    <row r="86" spans="1:6" ht="409.5">
       <c r="A86" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B86" s="4">
         <v>45455</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" ht="310.5">
+      <c r="A87" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E87" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:6" ht="409.5">
-      <c r="A87" s="3" t="s">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="409.5">
+      <c r="A88" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B87" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="224.25">
-      <c r="A88" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="B88" s="4">
         <v>45454</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" ht="103.5">
+    <row r="89" spans="1:6" ht="224.25">
       <c r="A89" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B89" s="4">
         <v>45454</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="409.5">
+    <row r="90" spans="1:6" ht="103.5">
       <c r="A90" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B90" s="4">
         <v>45454</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="1:6" ht="409.5">
       <c r="A91" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B91" s="4">
         <v>45454</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="241.5">
+    <row r="92" spans="1:6" ht="409.5">
       <c r="A92" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="241.5">
+      <c r="A93" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B92" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" ht="207">
-      <c r="A93" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="155.25">
+    <row r="94" spans="1:6" ht="207">
       <c r="A94" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
@@ -6575,412 +6592,430 @@
         <v>74</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="207">
+    <row r="95" spans="1:6" ht="155.25">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="120.75">
+    <row r="96" spans="1:6" ht="207">
       <c r="A96" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B96" s="4">
         <v>45453</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="276">
+    <row r="97" spans="1:6" ht="120.75">
       <c r="A97" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B97" s="4">
         <v>45453</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="396.75">
+    <row r="98" spans="1:6" ht="276">
       <c r="A98" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B98" s="4">
         <v>45453</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" ht="396.75">
+      <c r="A99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E99" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="409.5">
-      <c r="A99" s="6" t="s">
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" ht="409.5">
+      <c r="A100" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B99" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" ht="276">
-      <c r="A100" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="B100" s="4">
         <v>45452</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" ht="86.25">
+    <row r="101" spans="1:6" ht="276">
       <c r="A101" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" ht="86.25">
+      <c r="A102" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B101" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6" ht="409.5">
-      <c r="A102" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="15"/>
-    </row>
-    <row r="103" spans="1:6" ht="69">
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" ht="409.5">
       <c r="A103" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="10"/>
+      <c r="F103" s="15"/>
     </row>
     <row r="104" spans="1:6" ht="69">
       <c r="A104" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="224.25">
+    <row r="105" spans="1:6" ht="69">
       <c r="A105" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="103.5">
+    <row r="106" spans="1:6" ht="224.25">
       <c r="A106" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" ht="51.75">
+    <row r="107" spans="1:6" ht="103.5">
       <c r="A107" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" ht="409.5">
+    <row r="108" spans="1:6" ht="51.75">
       <c r="A108" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="51.75">
+    <row r="109" spans="1:6" ht="409.5">
       <c r="A109" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="69">
+    <row r="110" spans="1:6" ht="51.75">
       <c r="A110" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6" ht="69">
       <c r="A111" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="103.5">
+    <row r="112" spans="1:6" ht="69">
       <c r="A112" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="86.25">
-      <c r="A113" s="3" t="s">
-        <v>140</v>
+    <row r="113" spans="1:6" ht="103.5">
+      <c r="A113" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" ht="103.5">
-      <c r="A114" s="6" t="s">
-        <v>143</v>
+    <row r="114" spans="1:6" ht="86.25">
+      <c r="A114" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B114" s="8">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" ht="86.25">
+    <row r="115" spans="1:6" ht="103.5">
       <c r="A115" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B115" s="8">
         <v>45450</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="1:6" ht="86.25">
       <c r="A116" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" ht="86.25">
+      <c r="A117" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B117" s="4">
         <v>45450</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E117" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="10"/>
+      <c r="F117" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F50" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
       <sortCondition descending="1" ref="B1:B50"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56342BAA-C3FD-4DBE-8941-94C08DA5C002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E5445-7E55-48E4-B259-04865C780666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4440,6 +4440,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Volvo Assistance을 통한 자동 충돌 경보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>충돌이 발생할 경우, 차량은 Volvo Assistance 또는 긴급 콜 센터에 자동으로 보고하며, 이를 통해 긴급 지원팀이 파견될 수 있습니다.
 &lt;h3&gt;Volvo Assistance&lt;/h3&gt;
 차량의 안전 시스템이 트리거되면(예: 안전벨트 프리텐셔너 또는 에어백 작동 레벨의 사고) 차량은 자동으로 Volvo Assistance에 전화하고 차량의 위치 등이 포함된 메시지가 전송됩니다.
@@ -4447,15 +4451,11 @@
 &lt;br&gt;2. 그런 다음 Volvo Assistance는 필요한 지원(경찰, 구급차, 차량 구조 등)을 받기 위해 연락합니다.
 &lt;br&gt;
 통화를 할 수 없는 경우에 Volvo Assistance는 적절한 조치를 통해 지원을 제공하는 관련 당국에 연락합니다.
-&lt;h3&gt;응급 콜센터&lt;/h3&gt;&lt;sub&gt;대한민국은 대상 아님&lt;sub&gt;
+&lt;h3&gt;응급 콜센터&lt;sub&gt;대한민국은 대상 아님&lt;/sub&gt;&lt;/h3&gt;&lt;sub&gt;대한민국은 대상 아님&lt;/sub&gt;
 차량의 안전 시스템이 트리거되면(예를 들어 안전벨트 프리텐셔너 또는 에어백이 활성화되는 수준의 사고가 발생하면) 신호가 응급 콜센터로 직접 자동 전송됩니다.
 &lt;br&gt;
 &lt;br&gt;1. 긴급 전화 센터는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 합니다.
 &lt;br&gt;2. 긴급 전화 센터는 필요한 지원팀을 보냅니다(경찰, 구급차, 견인차 등).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volvo Assistance을 통한 자동 충돌 경보</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5001,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5153,14 +5153,14 @@
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>298</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E5445-7E55-48E4-B259-04865C780666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8B5C08-7F57-4F3F-85E2-282A29233E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4297,20 +4297,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>고객이 마케팅 수신 거부를 요청하거나, 정보 제거를 원하는 경우 아래 단계에 따라 진행합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;마케팅 수신 거부를 요청하는 경우&lt;/h3&gt;
-&lt;br&gt;&lt;strong&gt;1.&lt;/strong&gt; DMS에서 고객 전화번호+이름을 조회 후 수정을 누릅니다.
-&lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; 고객 마케팅 동의여부 수정에서 거부로 변경합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;정보 제거를 원하는 경우&lt;/h3&gt;
-&lt;br&gt;&lt;strong&gt;1.&lt;/strong&gt; 고객명과 전화번호를 수집합니다.
-&lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; 아래 메일 주소로 수신 거부 요청을 발송합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>운전자 화면 설정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4456,6 +4442,23 @@
 &lt;br&gt;
 &lt;br&gt;1. 긴급 전화 센터는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 합니다.
 &lt;br&gt;2. 긴급 전화 센터는 필요한 지원팀을 보냅니다(경찰, 구급차, 견인차 등).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 마케팅 수신 거부를 요청하거나, 정보 제거를 원하는 경우 아래 단계에 따라 진행합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;마케팅 수신 거부를 요청하는 경우&lt;/h3&gt;
+&lt;br&gt;&lt;strong&gt;1.&lt;/strong&gt; DMS에서 고객 전화번호+이름을 조회 후 
+&lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; SMS수신동의일과 마케팅 활용동의일이 비어있는지 확인합니다.
+&lt;br&gt;&lt;strong&gt;3.&lt;/strong&gt; 비어있지 않는 경우 아래 양식을 참고 후 메일로 발송합니다.
+&lt;br&gt;&lt;button class="logging-button" onclick="declinemarketing()"&gt;[메일] 마케팅 문자 수신 거부&lt;/button&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;정보 제거를 원하는 경우 (선언급만)&lt;/h3&gt;
+&lt;br&gt;&lt;strong&gt;1.&lt;/strong&gt; 고객명과 전화번호를 수집합니다.
+&lt;br&gt;&lt;strong&gt;2.&lt;/strong&gt; 아래 메일 주소로 수신 거부 요청을 발송합니다.
+&lt;br&gt;&lt;button class="logging-button" onclick="removedata()"&gt;[메일] 고객 정보 삭제 요청&lt;/button&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5001,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5067,7 +5070,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="224.25">
+    <row r="4" spans="1:6" ht="276">
       <c r="A4" s="6" t="s">
         <v>168</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>25</v>
@@ -5087,14 +5090,14 @@
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="4">
         <v>45474</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>298</v>
@@ -5103,14 +5106,14 @@
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" s="4">
         <v>45474</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>298</v>
@@ -5128,7 +5131,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>298</v>
@@ -5137,14 +5140,14 @@
     </row>
     <row r="8" spans="1:6" ht="396.75">
       <c r="A8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="4">
         <v>45474</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>9</v>
@@ -5153,14 +5156,14 @@
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>298</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8B5C08-7F57-4F3F-85E2-282A29233E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CFF4B0-A8A7-4AAA-BA21-A28534E66B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -3273,30 +3273,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>레인 센서는 앞유리에서 감지되는 물의 양에 따라 자동으로 와이퍼를 작동시킵니다. 레인 센서의 감도는 우측 레버 스위치의 썸휠로 조절할 수 있습니다.
-&lt;img src="https://www.volvocars.com/images/support/imgde98691ef9f7c8a4c0a801522bce2626_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
-&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;우측 레버 스위치&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 레인 센서 버튼
-&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 썸휠 감도/빈도
-&lt;br&gt;
-&lt;br&gt;레인 센서가 작동하면 운전자 화면에 레인 센서 심벌 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;가 표시됩니다.
-&lt;br&gt;레인 센서는 엔진을 끌 때 설정되어 있던 레인 센서 모드에 따라 엔진 시동시 자동으로 켜거나 끌 수 있습니다.
-&lt;h3&gt;레인 센서 켜기&lt;/h3&gt;
-&lt;br&gt;레인 센서를 켜려면 앞유리 와이퍼가 0 위치 또는 와이퍼 한 번 작동 위치에 있어야 합니다.
-&lt;br&gt;레인 센서 버튼 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;을 누르면 레인 센서가 켜집니다.
-&lt;br&gt;레버를 아래로 눌러 와이퍼가 작동하도록 합니다
-&lt;br&gt;썸휠을 위쪽으로 돌리면 감도가 높아지고 아래쪽으로 돌리면 감도가 낮아집니다. 썸휠을 위쪽으로 돌리면 와이퍼가 한 번 더 작동합니다.
-&lt;h3&gt;레인 센서 끄기&lt;/h3&gt;
-레인 센서 버튼 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;을 누르거나 레버 스위치를 다른 와이퍼 프로그램으로 움직이면 레인 센서가 꺼집니다.
-&lt;br&gt;차량을 끄면 레인 센서가 자동으로 꺼집니다.
-&lt;br&gt;와이퍼 블레이드를 서비스 위치에 놓으면 레인 센서가 꺼집니다. 서비스 위치를 취소하면 레인 센서가 다시 켜집니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;자동 세차장에 들어가면 앞유리 와이퍼가 작동하여 손상될 수 있습니다. 세차 전에 레인 센서를 끄십시오. 운전자 화면의 심벌이 꺼집니다.&lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>레인 센서 사용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4459,6 +4435,30 @@
 &lt;br&gt;&lt;button class="logging-button" onclick="removedata()"&gt;[메일] 고객 정보 삭제 요청&lt;/button&gt;
 &lt;br&gt;
 &lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>레인 센서는 앞유리에서 감지되는 물의 양에 따라 자동으로 와이퍼를 작동시킵니다. 레인 센서의 감도는 우측 레버 스위치의 썸휠로 조절할 수 있습니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgde98691ef9f7c8a4c0a801522bce2626_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt;"&gt;우측 레버 스위치&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 레인 센서 버튼
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 썸휠 감도/빈도
+&lt;br&gt;
+&lt;br&gt;레인 센서가 작동하면 운전자 화면에 레인 센서 심벌 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;가 표시됩니다.
+&lt;br&gt;레인 센서는 엔진을 끌 때 설정되어 있던 레인 센서 모드에 따라 엔진 시동시 자동으로 켜거나 끌 수 있습니다.
+&lt;h3&gt;레인 센서 켜기&lt;/h3&gt;
+&lt;br&gt;레인 센서를 켜려면 앞유리 와이퍼가 0 위치 또는 와이퍼 한 번 작동 위치에 있어야 합니다.
+&lt;br&gt;레인 센서 버튼 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;을 누르면 레인 센서가 켜집니다.
+&lt;br&gt;레버를 아래로 눌러 와이퍼가 작동하도록 합니다
+&lt;br&gt;썸휠을 위쪽으로 돌리면 감도가 높아지고 아래쪽으로 돌리면 감도가 낮아집니다. 썸휠을 위쪽으로 돌리면 와이퍼가 한 번 더 작동합니다.
+&lt;h3&gt;레인 센서 끄기&lt;/h3&gt;
+레인 센서 버튼 &lt;img src="https://www.volvocars.com/images/support/imgcc3771aecccaf322c0a801525e8d5978_1_--_--_VOICEpnghigh.png" width="27" height="19"&gt;을 누르거나 레버 스위치를 다른 와이퍼 프로그램으로 움직이면 레인 센서가 꺼집니다.
+&lt;br&gt;차량을 끄면 레인 센서가 자동으로 꺼집니다.
+&lt;br&gt;와이퍼 블레이드를 서비스 위치에 놓으면 레인 센서가 꺼집니다. 서비스 위치를 취소하면 레인 센서가 다시 켜집니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;자동 세차장에 들어가면 앞유리 와이퍼가 작동하여 손상될 수 있습니다. 세차 전에 레인 센서를 끄십시오. 운전자 화면의 심벌이 꺼집니다.&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5004,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5038,14 +5038,14 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="14">
         <v>45474</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>242</v>
@@ -5063,10 +5063,10 @@
         <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -5081,7 +5081,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>25</v>
@@ -5090,33 +5090,33 @@
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="4">
         <v>45474</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B6" s="4">
         <v>45474</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F6" s="10"/>
     </row>
@@ -5131,23 +5131,23 @@
         <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="396.75">
       <c r="A8" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="4">
         <v>45474</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>9</v>
@@ -5156,30 +5156,30 @@
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="86.25">
       <c r="A10" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="4">
         <v>45471</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
@@ -5188,30 +5188,30 @@
     </row>
     <row r="11" spans="1:6" ht="189.75">
       <c r="A11" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>
@@ -5220,14 +5220,14 @@
     </row>
     <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
@@ -5236,30 +5236,30 @@
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="120.75">
       <c r="A15" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
@@ -5268,46 +5268,46 @@
     </row>
     <row r="16" spans="1:6" ht="241.5">
       <c r="A16" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="86.25">
       <c r="A18" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>257</v>
@@ -5316,17 +5316,17 @@
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -5339,10 +5339,10 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -5357,10 +5357,10 @@
         <v>34</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -5375,10 +5375,10 @@
         <v>87</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -5410,7 +5410,7 @@
         <v>269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -5426,7 +5426,7 @@
         <v>260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -5442,7 +5442,7 @@
         <v>262</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -5458,7 +5458,7 @@
         <v>264</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F27" s="10"/>
     </row>
@@ -5474,7 +5474,7 @@
         <v>266</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -5496,14 +5496,14 @@
     </row>
     <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
@@ -5512,17 +5512,17 @@
     </row>
     <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F31" s="10"/>
     </row>
@@ -5606,7 +5606,7 @@
         <v>245</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F36" s="10"/>
     </row>
@@ -5642,7 +5642,7 @@
         <v>226</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F38" s="10"/>
     </row>
@@ -5674,7 +5674,7 @@
         <v>232</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F40" s="10"/>
     </row>
@@ -5706,7 +5706,7 @@
         <v>246</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F42" s="10"/>
     </row>
@@ -5722,7 +5722,7 @@
         <v>235</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F43" s="10"/>
     </row>
@@ -5754,7 +5754,7 @@
         <v>240</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -5804,7 +5804,7 @@
         <v>204</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F48" s="10"/>
     </row>
@@ -5852,7 +5852,7 @@
         <v>195</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F51" s="10"/>
     </row>
@@ -5868,7 +5868,7 @@
         <v>198</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F52" s="10"/>
     </row>
@@ -5884,7 +5884,7 @@
         <v>199</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F53" s="10"/>
     </row>
@@ -5900,7 +5900,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F54" s="10"/>
     </row>
@@ -5916,7 +5916,7 @@
         <v>203</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F55" s="10"/>
     </row>
@@ -6044,7 +6044,7 @@
         <v>220</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F63" s="10"/>
     </row>
@@ -6060,7 +6060,7 @@
         <v>222</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F64" s="10"/>
     </row>
@@ -6076,7 +6076,7 @@
         <v>223</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F65" s="10"/>
     </row>
@@ -6112,7 +6112,7 @@
         <v>173</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F67" s="10"/>
     </row>
@@ -6166,7 +6166,7 @@
         <v>184</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F70" s="10"/>
     </row>
@@ -6274,7 +6274,7 @@
         <v>162</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F76" s="10"/>
     </row>
@@ -6292,7 +6292,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F77" s="10"/>
     </row>
@@ -6310,7 +6310,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -6454,7 +6454,7 @@
         <v>47</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -6490,7 +6490,7 @@
         <v>52</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -6508,7 +6508,7 @@
         <v>57</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F89" s="10"/>
     </row>
@@ -6688,7 +6688,7 @@
         <v>90</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -6814,7 +6814,7 @@
         <v>112</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F106" s="10"/>
     </row>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CFF4B0-A8A7-4AAA-BA21-A28534E66B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB357D-F6F8-488E-A671-C586ADD66B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -974,9 +974,6 @@
   </si>
   <si>
     <t>EM30001</t>
-  </si>
-  <si>
-    <t>EM</t>
   </si>
   <si>
     <t>Hej Volvo 앱에서 빈 화면만 보이는 경우</t>
@@ -4459,6 +4456,10 @@
 &lt;br&gt;
 &lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
 &lt;br&gt;자동 세차장에 들어가면 앞유리 와이퍼가 작동하여 손상될 수 있습니다. 세차 전에 레인 센서를 끄십시오. 운전자 화면의 심벌이 꺼집니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM, Android</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5004,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5038,17 +5039,17 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="14">
         <v>45474</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -5063,16 +5064,16 @@
         <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="276">
       <c r="A4" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="8">
         <v>45474</v>
@@ -5081,7 +5082,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>25</v>
@@ -5090,33 +5091,33 @@
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="4">
         <v>45474</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="4">
         <v>45474</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F6" s="10"/>
     </row>
@@ -5131,23 +5132,23 @@
         <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="396.75">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="4">
         <v>45474</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>9</v>
@@ -5156,78 +5157,80 @@
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="86.25">
-      <c r="A10" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45471</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="1:6" ht="172.5">
+      <c r="A10" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45474</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="86.25">
+      <c r="A11" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="189.75">
-      <c r="A11" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="409.5">
+    <row r="12" spans="1:6" ht="189.75">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
@@ -5236,274 +5239,274 @@
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="120.75">
+    <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="241.5">
+    <row r="16" spans="1:6" ht="120.75">
       <c r="A16" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="241.5">
+      <c r="A17" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="409.5">
-      <c r="A17" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="86.25">
+    <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="86.25">
+      <c r="A19" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="409.5">
-      <c r="A19" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4">
         <v>45471</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="409.5">
+      <c r="A23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="379.5">
-      <c r="A23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>295</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="409.5">
+    <row r="24" spans="1:6" ht="379.5">
       <c r="A24" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B24" s="4">
         <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="379.5">
+    <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="379.5">
+      <c r="A26" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="409.5">
-      <c r="A26" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="409.5">
+      <c r="A28" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="103.5">
-      <c r="A28" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="103.5">
+      <c r="A29" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="409.5">
-      <c r="A29" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="B29" s="4">
         <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
@@ -5512,191 +5515,191 @@
     </row>
     <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="69">
+    <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B32" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="69">
+      <c r="A33" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="293.25">
-      <c r="A33" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B33" s="4">
         <v>45469</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="293.25">
+      <c r="A34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D34" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="241.5">
-      <c r="A34" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="409.5">
+    <row r="35" spans="1:6" ht="241.5">
       <c r="A35" s="3" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="B35" s="4">
         <v>45468</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>9</v>
+        <v>254</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="86.25">
+    <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="B36" s="4">
         <v>45468</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D36" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>297</v>
+        <v>242</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="207">
+    <row r="37" spans="1:6" ht="86.25">
       <c r="A37" s="3" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="B37" s="4">
         <v>45468</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="207">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D38" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="409.5">
-      <c r="A38" s="3" t="s">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="409.5">
+      <c r="A39" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B38" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="327.75">
-      <c r="A39" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="B39" s="4">
         <v>45467</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="D39" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="327.75">
+      <c r="A40" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="B40" s="4">
         <v>45467</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="293.25">
+    <row r="41" spans="1:6" ht="138">
       <c r="A41" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B41" s="4">
         <v>45467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>170</v>
+        <v>296</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="396.75">
+    <row r="42" spans="1:6" ht="293.25">
       <c r="A42" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B42" s="4">
         <v>45467</v>
@@ -5706,230 +5709,228 @@
         <v>246</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="409.5">
+    <row r="43" spans="1:6" ht="396.75">
       <c r="A43" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B43" s="4">
         <v>45467</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="409.5">
+      <c r="A44" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="172.5">
-      <c r="A44" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="B44" s="4">
         <v>45467</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="409.5">
+    <row r="45" spans="1:6" ht="172.5">
       <c r="A45" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B45" s="4">
         <v>45467</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B46" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="409.5">
+      <c r="A47" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="172.5">
-      <c r="A47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="8">
-        <v>45463</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="86.25">
       <c r="A49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="379.5">
       <c r="A50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="327.75">
       <c r="A51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" ht="189.75">
       <c r="A52" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="103.5">
       <c r="A53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
@@ -5938,14 +5939,14 @@
     </row>
     <row r="57" spans="1:6" ht="345">
       <c r="A57" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
@@ -5954,14 +5955,14 @@
     </row>
     <row r="58" spans="1:6" ht="327.75">
       <c r="A58" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
@@ -5970,14 +5971,14 @@
     </row>
     <row r="59" spans="1:6" ht="241.5">
       <c r="A59" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
@@ -5986,14 +5987,14 @@
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
@@ -6002,14 +6003,14 @@
     </row>
     <row r="61" spans="1:6" ht="57.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>9</v>
@@ -6018,14 +6019,14 @@
     </row>
     <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
@@ -6034,64 +6035,64 @@
     </row>
     <row r="63" spans="1:6" ht="409.5">
       <c r="A63" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" ht="276">
       <c r="A64" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B65" s="4">
         <v>45463</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="4">
         <v>45461</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>9</v>
@@ -6100,52 +6101,52 @@
     </row>
     <row r="67" spans="1:6" ht="120.75">
       <c r="A67" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="8">
         <v>45461</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" s="4">
         <v>45461</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="293.25">
       <c r="A69" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B69" s="4">
         <v>45461</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>9</v>
@@ -6154,25 +6155,25 @@
     </row>
     <row r="70" spans="1:6" ht="409.5">
       <c r="A70" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="4">
         <v>45461</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="E70" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F70" s="10"/>
     </row>
     <row r="71" spans="1:6" ht="172.5">
       <c r="A71" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B71" s="4">
         <v>45460</v>
@@ -6181,7 +6182,7 @@
         <v>27</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>9</v>
@@ -6190,16 +6191,16 @@
     </row>
     <row r="72" spans="1:6" ht="155.25">
       <c r="A72" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72" s="4">
         <v>45460</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>9</v>
@@ -6217,7 +6218,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>16</v>
@@ -6226,19 +6227,19 @@
     </row>
     <row r="74" spans="1:6" ht="207">
       <c r="A74" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74" s="4">
         <v>45460</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="F74" s="10"/>
     </row>
@@ -6253,7 +6254,7 @@
         <v>24</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>25</v>
@@ -6262,19 +6263,19 @@
     </row>
     <row r="76" spans="1:6" ht="258.75">
       <c r="A76" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B76" s="4">
         <v>45460</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="E76" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F76" s="10"/>
     </row>
@@ -6292,7 +6293,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F77" s="10"/>
     </row>
@@ -6310,7 +6311,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -6325,7 +6326,7 @@
         <v>18</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>19</v>
@@ -6415,7 +6416,7 @@
         <v>42</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>9</v>
@@ -6433,7 +6434,7 @@
         <v>44</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>9</v>
@@ -6454,7 +6455,7 @@
         <v>47</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -6469,7 +6470,7 @@
         <v>49</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>9</v>
@@ -6490,7 +6491,7 @@
         <v>52</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -6508,7 +6509,7 @@
         <v>57</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F89" s="10"/>
     </row>
@@ -6541,7 +6542,7 @@
         <v>66</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>9</v>
@@ -6595,7 +6596,7 @@
         <v>74</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>29</v>
@@ -6688,7 +6689,7 @@
         <v>90</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -6814,22 +6815,22 @@
         <v>112</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" ht="103.5">
       <c r="A107" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>64</v>
@@ -6838,16 +6839,16 @@
     </row>
     <row r="108" spans="1:6" ht="51.75">
       <c r="A108" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>13</v>
@@ -6856,52 +6857,52 @@
     </row>
     <row r="109" spans="1:6" ht="409.5">
       <c r="A109" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" ht="51.75">
       <c r="A110" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="E110" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6" ht="69">
       <c r="A111" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>13</v>
@@ -6910,52 +6911,52 @@
     </row>
     <row r="112" spans="1:6" ht="69">
       <c r="A112" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="E112" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" ht="103.5">
       <c r="A113" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="E113" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6" ht="86.25">
       <c r="A114" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B114" s="8">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>13</v>
@@ -6964,16 +6965,16 @@
     </row>
     <row r="115" spans="1:6" ht="103.5">
       <c r="A115" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115" s="8">
         <v>45450</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>64</v>
@@ -6982,16 +6983,16 @@
     </row>
     <row r="116" spans="1:6" ht="86.25">
       <c r="A116" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B116" s="8">
         <v>45450</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>13</v>
@@ -7000,16 +7001,16 @@
     </row>
     <row r="117" spans="1:6" ht="86.25">
       <c r="A117" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B117" s="4">
         <v>45450</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>9</v>
@@ -7039,7 +7040,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB357D-F6F8-488E-A671-C586ADD66B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC95992-B710-4A57-ACD5-DB934583004D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="314">
   <si>
     <t>Title</t>
   </si>
@@ -4456,10 +4456,6 @@
 &lt;br&gt;
 &lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
 &lt;br&gt;자동 세차장에 들어가면 앞유리 와이퍼가 작동하여 손상될 수 있습니다. 세차 전에 레인 센서를 끄십시오. 운전자 화면의 심벌이 꺼집니다.&lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EM, Android</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5005,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5185,7 +5181,7 @@
         <v>206</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="F10" s="10"/>
     </row>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC95992-B710-4A57-ACD5-DB934583004D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E8D634-0631-4DB2-B102-614B6D0F7CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="추가 요청 건" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="313">
   <si>
     <t>Title</t>
   </si>
@@ -971,9 +971,6 @@
 &lt;br&gt;
 &lt;br&gt;주차 보조 카메라는 후진 기어를 선택하면 자동으로 켜지고 중앙 화면에서 수동으로 켤 수도 있습니다.
 &lt;br&gt;&lt;em&gt;* 고객은 해당 문의를 서라운드 뷰 또는 어라운드 뷰라고 표현할 수 있습니다.&lt;/em&gt;</t>
-  </si>
-  <si>
-    <t>EM30001</t>
   </si>
   <si>
     <t>Hej Volvo 앱에서 빈 화면만 보이는 경우</t>
@@ -2212,23 +2209,6 @@
 전동 윈도우, 도어 미러 및 어린이 보호용 잠금장치
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2e171f2d66927c84c0a80152217536c8_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 
 앞좌석 조절 스위치</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>iCUP 시스템을 3.0.3으로 업데이트한 경우 일부 고객은 아래와 같은 문제를 경험할 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;1. 후방 카메라가 나오지 않음
-&lt;br&gt;2. 예기치 않게 중앙화면이 재시동되거나 꺼짐
-&lt;br&gt;3. 차량의 시동을 끄기 전 에어컨을 껐으나, 시동 후 자동으로 켜짐 등
-&lt;br&gt;
-&lt;br&gt;이 문제는 볼보 자동차에서 인지하고 있다고 안내 합니다.
-&lt;br&gt;자세한 일정은 서비스센터를 통해 정확한 확인이 가능하다 안내합니다.
-&lt;br&gt;
-&lt;br&gt;이 문제를 임시로 해결하기 위해 중앙 화면의 홈 버튼을 20초 이상 길게 눌러 Volvo 로고가 나오면 떼도록 안내합니다. (강제 리셋)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0.3 소프트웨어 이슈</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4456,6 +4436,27 @@
 &lt;br&gt;
 &lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
 &lt;br&gt;자동 세차장에 들어가면 앞유리 와이퍼가 작동하여 손상될 수 있습니다. 세차 전에 레인 센서를 끄십시오. 운전자 화면의 심벌이 꺼집니다.&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 시스템 업데이트 릴리즈노트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량의 소프트웨어를 업데이트하면 최신 기능과 개선 사항이 적용되어 최신 상태를 유지할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;소프트웨어 업데이트는 주로 무선(OTA)으로 이루어지며 설치할 때 이전의 모든 업데이트가 포함됩니다. 설치가 수리 또는 서비스 계약에 포함되어 있지 않으면 볼보 딜러에서 소프트웨어 업데이트를 설치하는 데 요금이 부과될 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;새 업데이트가 있으면 중앙 화면과 볼보 자동차 앱에 알림이 표시되어 설치에 소요되는 예상 시간과 업데이트 내용이 표시됩니다.
+&lt;br&gt;
+&lt;br&gt;업데이트 후 기능은 마켓, 모델, 연식 및 옵션에 따라 다를 수 있습니다.
+&lt;br&gt;
+&lt;h3&gt;소프트웨어 3.1.9 업데이트&lt;/h3&gt;
+&lt;br&gt;소프트웨어 배포일: 2024년 7월 1일. 일반적으로 소프트웨어 배포일로부터 3주 이내에 이 소프트웨어 업데이트를 설치할 수 있는 시점에 대한 알림을 받게 됩니다.
+&lt;br&gt;
+&lt;br&gt;인포테인먼트 시스템의 안정성이 몇 가지 개선되었습니다. 따라서 후진 기어(R)로 변속할 때 운전자 화면에 지도가 더 이상 표시되지 않는 것을 확인할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;이 업데이트에는 성능 및 기타 인증 속성에 영향을 미치지 않는 몇 가지 버그 수정도 포함되어 있습니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5001,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5033,168 +5034,166 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5">
-      <c r="A2" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="14">
+    <row r="2" spans="1:6" ht="258.75">
+      <c r="A2" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="4">
         <v>45474</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>241</v>
+        <v>312</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="224.25">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:6" ht="409.5">
+      <c r="A3" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="14">
         <v>45474</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="224.25">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45474</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="276">
-      <c r="A4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="E4" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="276">
+      <c r="A5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="8">
         <v>45474</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D5" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="409.5">
-      <c r="A5" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>296</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="409.5">
       <c r="A6" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B6" s="4">
         <v>45474</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="310.5">
+    <row r="7" spans="1:6" ht="409.5">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="B7" s="4">
         <v>45474</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>296</v>
+      <c r="E7" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="396.75">
+    <row r="8" spans="1:6" ht="310.5">
       <c r="A8" s="3" t="s">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4">
         <v>45474</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>9</v>
+        <v>303</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>296</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="172.5">
-      <c r="A10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" spans="1:6" ht="207">
+      <c r="A10" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="4">
         <v>45474</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>155</v>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="86.25">
       <c r="A11" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B11" s="4">
         <v>45471</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -5203,30 +5202,30 @@
     </row>
     <row r="12" spans="1:6" ht="189.75">
       <c r="A12" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
@@ -5235,14 +5234,14 @@
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
@@ -5251,30 +5250,30 @@
     </row>
     <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="120.75">
       <c r="A16" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
@@ -5283,81 +5282,81 @@
     </row>
     <row r="17" spans="1:6" ht="241.5">
       <c r="A17" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="86.25">
       <c r="A19" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -5372,10 +5371,10 @@
         <v>34</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -5390,119 +5389,119 @@
         <v>87</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="379.5">
       <c r="A24" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B24" s="4">
         <v>45470</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="379.5">
       <c r="A26" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="103.5">
       <c r="A29" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B29" s="4">
         <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
@@ -5511,14 +5510,14 @@
     </row>
     <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
@@ -5527,30 +5526,30 @@
     </row>
     <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B32" s="4">
         <v>45470</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="69">
       <c r="A33" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B33" s="4">
         <v>45469</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -5568,7 +5567,7 @@
         <v>63</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>64</v>
@@ -5577,32 +5576,32 @@
     </row>
     <row r="35" spans="1:6" ht="241.5">
       <c r="A35" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B35" s="4">
         <v>45468</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="4">
         <v>45468</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>9</v>
@@ -5611,17 +5610,17 @@
     </row>
     <row r="37" spans="1:6" ht="86.25">
       <c r="A37" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B37" s="4">
         <v>45468</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F37" s="10"/>
     </row>
@@ -5636,7 +5635,7 @@
         <v>59</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
@@ -5651,26 +5650,26 @@
         <v>45467</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="327.75">
       <c r="A40" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B40" s="4">
         <v>45467</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>9</v>
@@ -5679,78 +5678,78 @@
     </row>
     <row r="41" spans="1:6" ht="138">
       <c r="A41" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B41" s="4">
         <v>45467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="293.25">
       <c r="A42" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B42" s="4">
         <v>45467</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="396.75">
       <c r="A43" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B43" s="4">
         <v>45467</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="409.5">
       <c r="A44" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B44" s="4">
         <v>45467</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="172.5">
       <c r="A45" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B45" s="4">
         <v>45467</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
@@ -5759,30 +5758,30 @@
     </row>
     <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B46" s="4">
         <v>45467</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" ht="409.5">
       <c r="A47" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B47" s="4">
         <v>45464</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>9</v>
@@ -5791,142 +5790,142 @@
     </row>
     <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="4">
         <v>45463</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="86.25">
       <c r="A49" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="379.5">
       <c r="A50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="327.75">
       <c r="A51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" ht="189.75">
       <c r="A52" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="103.5">
       <c r="A53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>9</v>
@@ -5935,14 +5934,14 @@
     </row>
     <row r="57" spans="1:6" ht="345">
       <c r="A57" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
@@ -5951,30 +5950,30 @@
     </row>
     <row r="58" spans="1:6" ht="327.75">
       <c r="A58" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="241.5">
+    <row r="59" spans="1:6" ht="57.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
@@ -5983,30 +5982,30 @@
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="57.75" customHeight="1">
+    <row r="61" spans="1:6" ht="409.5">
       <c r="A61" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>9</v>
@@ -6015,14 +6014,14 @@
     </row>
     <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
@@ -6031,64 +6030,64 @@
     </row>
     <row r="63" spans="1:6" ht="409.5">
       <c r="A63" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" ht="276">
       <c r="A64" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B65" s="4">
         <v>45463</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="4">
         <v>45461</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>9</v>
@@ -6097,52 +6096,52 @@
     </row>
     <row r="67" spans="1:6" ht="120.75">
       <c r="A67" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B67" s="8">
         <v>45461</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B68" s="4">
         <v>45461</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="293.25">
       <c r="A69" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" s="4">
         <v>45461</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>9</v>
@@ -6151,25 +6150,25 @@
     </row>
     <row r="70" spans="1:6" ht="409.5">
       <c r="A70" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="4">
         <v>45461</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E70" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F70" s="10"/>
     </row>
     <row r="71" spans="1:6" ht="172.5">
       <c r="A71" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="4">
         <v>45460</v>
@@ -6178,7 +6177,7 @@
         <v>27</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>9</v>
@@ -6187,16 +6186,16 @@
     </row>
     <row r="72" spans="1:6" ht="155.25">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="4">
         <v>45460</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>9</v>
@@ -6214,7 +6213,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>16</v>
@@ -6223,19 +6222,19 @@
     </row>
     <row r="74" spans="1:6" ht="207">
       <c r="A74" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4">
         <v>45460</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="F74" s="10"/>
     </row>
@@ -6250,7 +6249,7 @@
         <v>24</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>25</v>
@@ -6259,19 +6258,19 @@
     </row>
     <row r="76" spans="1:6" ht="258.75">
       <c r="A76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76" s="4">
         <v>45460</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="E76" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F76" s="10"/>
     </row>
@@ -6289,7 +6288,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F77" s="10"/>
     </row>
@@ -6307,7 +6306,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -6322,7 +6321,7 @@
         <v>18</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>19</v>
@@ -6412,7 +6411,7 @@
         <v>42</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>9</v>
@@ -6430,7 +6429,7 @@
         <v>44</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>9</v>
@@ -6451,7 +6450,7 @@
         <v>47</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -6466,7 +6465,7 @@
         <v>49</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>9</v>
@@ -6487,7 +6486,7 @@
         <v>52</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -6505,7 +6504,7 @@
         <v>57</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F89" s="10"/>
     </row>
@@ -6538,7 +6537,7 @@
         <v>66</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>9</v>
@@ -6592,7 +6591,7 @@
         <v>74</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>29</v>
@@ -6685,7 +6684,7 @@
         <v>90</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -6811,22 +6810,22 @@
         <v>112</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" ht="103.5">
       <c r="A107" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>64</v>
@@ -6835,16 +6834,16 @@
     </row>
     <row r="108" spans="1:6" ht="51.75">
       <c r="A108" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>13</v>
@@ -6853,52 +6852,52 @@
     </row>
     <row r="109" spans="1:6" ht="409.5">
       <c r="A109" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" ht="51.75">
       <c r="A110" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="E110" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6" ht="69">
       <c r="A111" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>13</v>
@@ -6907,52 +6906,52 @@
     </row>
     <row r="112" spans="1:6" ht="69">
       <c r="A112" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="E112" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" ht="103.5">
       <c r="A113" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="E113" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6" ht="86.25">
       <c r="A114" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="8">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>13</v>
@@ -6961,16 +6960,16 @@
     </row>
     <row r="115" spans="1:6" ht="103.5">
       <c r="A115" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B115" s="8">
         <v>45450</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>64</v>
@@ -6979,16 +6978,16 @@
     </row>
     <row r="116" spans="1:6" ht="86.25">
       <c r="A116" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" s="8">
         <v>45450</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>13</v>
@@ -6997,16 +6996,16 @@
     </row>
     <row r="117" spans="1:6" ht="86.25">
       <c r="A117" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B117" s="4">
         <v>45450</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>9</v>
@@ -7014,9 +7013,9 @@
       <c r="F117" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F50" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
-      <sortCondition descending="1" ref="B1:B50"/>
+  <autoFilter ref="A1:F48" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
+      <sortCondition descending="1" ref="B1:B48"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7036,7 +7035,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E8D634-0631-4DB2-B102-614B6D0F7CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BBB58F-699E-498F-BAED-5E93B99626F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -1721,85 +1721,6 @@
     &lt;tbody&gt;&lt;/tbody&gt;
 &lt;/table&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 Volvo Cars앱에 대해 자주 묻는 질문들을 확인합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
-&lt;br&gt;Volvo Cars 앱에서 사용할 수 있는 기능은 차량 모델, 연식, 지역에 따라 다를 수 있습니다. 시간의 경과에 따라 제공되는 기능이 다를 수도 있습니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;페어링 후 모바일 앱에 정보가 표시되지 않습니다.&lt;/h3&gt;
-&lt;br&gt;모바일 앱을 다시 시작합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱을 삭제하기 전에 염두에 두어야 할 사항&lt;/h3&gt;
-&lt;br&gt;휴대폰에서 Volvo Cars앱을 삭제하기 전에 항상 차량의 페어링을 해제하십시오. 다음 항목에서는 유용한 지침을 확인할 수 있습니다.
-&lt;br&gt;&lt;a href="https://www.volvocars.com/kr/support/topic/081757d5ef6ccf12c0a8015150732a6a" target="_blank"&gt;Volvo Cars 앱과 차량의 페어링&lt;/a&gt;
-&lt;br&gt;&lt;a href="https://www.volvocars.com/kr/support/topic/a6228d0cf69703a3c0a801513c08ff7c" target="_blank"&gt;Volvo Cars 앱 페어링 해제&lt;/a&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱에서 배터리의 충전 레벨을 볼 수 있나요?&lt;/h3&gt;
-&lt;br&gt;충전 레벨은 앱의 홈 보기와 충전 메뉴에 표시됩니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱에서 충전을 예약할 수 있나요?&lt;/h3&gt;
-&lt;br&gt;네. 현재 충전 타이머는 2023년도식 또는 이후 연식의 모든 완전 전기차와 플러그인 하이브리드용으로 사용할 수 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;휴대폰에서 차량으로 목적지를 보낼 수 있는 방법은 무엇인가요?&lt;/h3&gt;
-&lt;br&gt;차량에 볼보의 내비게이션 시스템 Sensus Navigation이 장착되어 있는 경우에는 Volvo Cars앱을 사용하여 목적지(예: 호텔, 매장, 영화관, 레스토랑)를 차량에 전송하여 내비게이션 시스템이 이 목저지를 사용할 수 있도록 할 수 있습니다. &lt;img src="https://www.volvocars.com/images/support/img66a5501d0e688e64c0a80152356d4e94_1_--_--_VOICEpnghigh.png" width= "19" height= "19"&gt; 탭에서 목적지를 검색한 후 '차량에 보내기'버튼을 선택합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;모바일 앱에서 도어 상태, 배터리 상태를 확인할 수 없거나 에어컨을 시작할 수 없습니다.&lt;/h3&gt;
-&lt;br&gt;• 모바일 앱을 다시 시작한 후 차량이 인터넷에 연결되어있는지 확인하세요.
-&lt;br&gt;• 통신 조건이 나쁜 지역에 차량이 주차되어 있는 경우, 차량의 Bluetooth 거리에서만 앱이 제대로 작동할 수 있습니다.
-&lt;br&gt;• 데이터 공유를 활성화해야 합니다. 사용된 프로필이 관리자 프로필인지 또는 소유자 프로필인지 확인하여 시작합니다. 이는 기어 휠 아이콘을 클릭한 후 프로필 항목을 선택하여 실시합니다. 그런 다음 Volvo ID가 프로필에 연결되도록 하세요. 톱니바퀴 아이콘을 클릭하고 프로필 &gt; 계정을 선택합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;새로운 소프트웨어에 차량을 업데이트하고 앱으로 차량 상태를 확인할 수 없습니다.&lt;/h3&gt;
-&lt;br&gt;새 소프트웨어로 차량을 업데이트한 경우에 모바일 연결을 다시 활성화하려면 차량을 한 번 시동 및 운행해야 합니다. 모바일 앱을 지원하는 소프트웨어로 차량을 최초로 업데이트한 경우에는 24-36시간이 지나여 차량과 클라우드 간의 동기화가 완료될 수 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;페어링 시 차량의 중앙 화면에 PIN 코드가 표시되지 않습니다&lt;/h3&gt;
-&lt;br&gt;서리 제거 버튼을 20-30초 동안 누르세요.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;장치 관리가 무엇인가요?&lt;/h3&gt;
-&lt;br&gt;장치 관리는 차량과 페어링된 휴대폰의 목록을 볼 수 있다는 것을 의미합니다. 관리자 권한이 있는 사용자는 페어링된 휴대폰을 삭제할 수도 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱의 관리자와 비관리자 간 차이점은 무엇인가요?&lt;/h3&gt;
-&lt;br&gt;다른 프로필에 대해 페어링을 수행하려면 먼저 차량 소유자 프로필 앱과 페어링되어 있어야 합니다.
-&lt;br&gt;차량 내에 모든 키가 있을 때 자신의 휴대폰과 차량의 페어링을 실시하는 최초 사용자가 관리자입니다.
-&lt;br&gt;앱에서 관리자인 사용자는 다음을 수행할 수 있습니다.
-&lt;br&gt;• 어떤 휴대 전화 또는 기타 장치가 차량과 페어링되어 있는지 확인
-&lt;br&gt;• 자신과 다른 사람의 페어링 된 휴대 전화/장치를 차량에서 제거
-&lt;br&gt;앱에서 관리자가 아닌 사용자는 다음을 수행할 수 있습니다.
-&lt;br&gt;• 자신의 휴대 전화/장치가 차량과 페어링되어 있는지 확인하기
-&lt;br&gt;• 차량에서 자신의 휴대 전화/장치 제거
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;휴대 전화 및 기타 장치의 페어링을 해제하는 방법은 무엇인가요??&lt;/h3&gt;
-&lt;br&gt;휴대 전화와 차량 간의 페어링 연결을 해제하려면 반드시 모바일 앱을 사용합니다.
-&lt;br&gt;휴대 전화가 제거되면 차량의 중앙 화면에 상태가 동기화될 때까지 몇 분 정도 걸립니다.
-&lt;br&gt;차량에서 사용자 프로필이 삭제되었다고 해서 페어링된 장치가 삭제되는 것은 아닙니다.
-&lt;br&gt;페어링 된 휴대 전화 앱의 프로필 탭에서 삭제할 수 있습니다. iPhone 사용자의 경우 iPhone의 설정으로 이동하여 그곳에서 휴대폰을 제거해야 합니다.
-&lt;br&gt;Google built-in 내장 차량을 소프트웨어 2.5로 업데이트한 경우, 차량 중앙 화면에서 장치를 페어링 해제할 수 있는 옵션이 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱을 차량과 페어링하면 차량의 소유자를 먼저 해야 합니까? 아니면 게스트 사용자가 먼저 페어링할 수 있나요?&lt;/h3&gt;
-&lt;br&gt;소유자를 먼저 페어링해야 합니다. 휴대폰을 관리자 권한이 있는 소유자 프로필 또는 기타 프로필에 연결할 때 모든 키가 차량 내부에 있어야 합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;소유자 프로필만 차량에서 관리자 권한을 가지고 있었지만, 소유자 프로필과 페어링하고 있던 휴대 전화를 사용할 수 없게 되었습니다. 차량에서 휴대폰을 삭제하려면 어떻게 해야 하나요?&lt;/h3&gt;
-&lt;br&gt;새 프로필을 만들고 이 새 프로필에 관리자 권한을 부옇바니다. 그런 다음에 모든 키가 차량 내부에 있는 상태에서 새 프로필과 새 휴대폰의 페어링을 실시하세요. 이제 앱에서 이전 모바일을 확인할 수 있으며 삭제할 수 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;여러 모바일 장치를 소유자 프로필과 페어링 할 수 있습니까?&lt;/h3&gt;
-&lt;br&gt;한 장치만 차량 프로필과 페어링할 수 있습니다. 소유자 프로필에 장치가 하나 연결되면 나중에 프로필에 연결된 모든 장치는 일반 사용자 입니다. 일반 사용자를 차량 프로필의 관리자로 변경할 수 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;모바일 장치가 관리자가 아닌 차량 프로필과 이미 페어링되어 있습니다. 그 차량의 사용자 프로필에 관리자 권한을 부여 할 경우 앱의 사용자 프로필도 관리자가 되나요?&lt;/h3&gt;
-&lt;br&gt;안 됩니다. 휴대전화와 페어링 된 자동차 프로필에 관리자 권한을 부여하더라도 그 모바일 앱의 사용자 프로필이 자동으로 관리자가 되는 것은 아닙니다. 차량 프로필이 관리자로 변경되면 모바일 장치에 대한 연결을 삭제해야 합니다. 그런 후에 모든 키가 차량 안에 있는 상태에서 해당 모바일 장치를 다시 페어링합니다. 그리고 모바일 앱의 사용자 프로필이 관리자입니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;페어링은 Bluetooth가 필요하나요?&lt;/h3&gt;
-&lt;br&gt;네, 페어링은 Bluetooth가 필요합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;차량에 가까이 있을 때 모바일 앱의 원격 기능만 사용할 수 있습니다. 무엇 때문인가요?&lt;/h3&gt;
-&lt;br&gt;모바일 앱, 차량, 또는 둘 모두가 클라우드와의 연결이 되지 않는 상황입니다. 이 문제가 발생하면 휴대폰의 Bluetooth 거리에서만 원격 기능이 작동합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱에서 배터리 상태 또는 온도 조절장치 기능을 확인할 수 없습니다.&lt;/h3&gt;
-&lt;br&gt;활성상태의 자동차 프로필에 연결된 Volvo ID가 있는지 확인하세요. 없는 경우에 Volvo ID를 사용해 앱에 로그인하세요.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;자신은 차량의 게스트 사용자이며, 앱의 원격 기능을 사용하고 싶으나 자신의 휴대 전화를 페어링 할 수 없습니다.&lt;/h3&gt;
-&lt;br&gt;사용하는 휴대 전화의 Bluetooth가 켜져 있는지 확인합니다. 근처에 차량과 페어링된 다른 휴대 전화가 있는 경우, 해당 휴대 전화의 Bluetooth를 꺼야 합니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3710,174 +3631,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>고객이 서비스센터에 대한 불만이나 확인을 요청할 때 아래를 참조합니다.
-&lt;br&gt;
-&lt;h3&gt;서비스센터 및 딜러사 메일 양식
-&lt;br&gt;&lt;button class="logging-button" width="350" onclick="logging16()"&gt;[메일] 서비스센터 및 딜러사 전달 메일 양식&lt;/button&gt;
-&lt;button class="logging-button" onclick="logging17()"&gt;[메일] 서비스센터 출동 요청 메일 양식&lt;/button&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 대치&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; changseop.park@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 강남 삼성&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; hyunwoo.you@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 성수&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 분당 서현&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('ahn.jeongsik@hvolvo.com')"&gt;안정식&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; hwajeong.ko@hvolvo.com; yongcheol.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 강남 율현&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('euiseop.hwang@hvolvo.com')"&gt;황의섭&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; kyoungha.son@hvolvo.com; hyunseok.kim@hvolvo.com; jooyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 수원&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeongkyu.moon@hvolvo.com')"&gt;문정규&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; byeongwon.mun@hvolvo.com; kimoon.kim@hvolvo.com; yoonyoung.choi@hvolvo.com; hyunjoo.lee@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 인천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('chongjin.an@hvolvo.com')"&gt;안종진&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dongjun.choi@hvolvo.com; kangrae.cho@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 성수센터&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 대전&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yongil.jeon@hvolvo.com')"&gt;전용일&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; sungsik.kim@hvolvo.com; myungjin.oh@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 청주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeguk.ko@hvolvo.com')"&gt;고재국&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 군산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; jeonghun.song@ivymotors.co.kr; dongmyung.yi@ivymotors.co.kr; minsoo.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 광주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yokeun.jo@ivymotors.co.kr;')"&gt;조요근&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; inho.choi@ivymotors.co.kr; geunsik.lee@ivymotors.co.kr; byunghwa.lee@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 전주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr'; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 순천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyungchul.mun@ivymotors.co.kr')"&gt;문경철&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; mingyu.kim@ivymotors.co.kr; kyungchul.mun@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 제주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('daehwan.an@ivymotors.co.kr')"&gt;안대환&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; byunghee.choi@ivymotors.co.kr; bumseok.kang@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 대구&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; juyoung.yun@volvoty.co.kr;  bumseok.kang@ivymotors.co.kr; hyeonggeun.gil@volvoty.co.kr; yonghyeok.lee@volvoty.co.kr; rakmin.kim@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 서대구&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hoiyol.kwon@volvoty.co.kr')"&gt;권회열&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; jongwoon.yun@volvoty.co.kr; kyungkyu.song@volvoty.co.kr; jaewoo.lee@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 포항&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dogun.hwang@volvoty.co.kr; sungjun.lee@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 양평&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hakje.lee@chvolvo.co.kr')"&gt;이학제&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; jin.jeong@chvolvo.co.kr; jeongkuk.lee@chvolvo.co.kr; sungchul.kim@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 동대문&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('byungchang.kim@chvolvo.co.kr')"&gt;김병창&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr;  younghwan.kim@chvolvo.co.kr; jongbin.kim@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 의정부&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;팀장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hyuckjin.kim@chvolvo.co.kr')"&gt;김혁진&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; soonjik.kwon@chvolvo.co.kr; myoungjin.ko@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 구리&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;선임&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongmo.lee@chvolvo.co.kr')"&gt;이종모&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; subong.han@chvolvo.co.kr; jongmo.lee@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;&lt;hr&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 창원&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('myunguk.heo@ironmotors.co.kr')"&gt;허명욱&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; suho.park@ironmotors.co.kr; chungsuk.kim@ironmotors.co.kr; junwon.hwang@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 김해&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungyong.jang@ironmotors.co.kr')"&gt;장성용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; junewoo.heo@ironmotors.co.kr; hyunjin.park@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 광안&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaewoo.cho@ironmotors.co.kr')"&gt;조재우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; bongjun.kim@ironmotors.co.kr; dagyeong.yu@ironmotors.co.kr; hwaseop.song@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 해운대&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('younggon.kim@ironmotors.co.kr')"&gt;김영곤&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; byeongguen.song@ironmotors.co.kr; youbin.kim@ironmotors.co.kr; wonho.chae@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 진주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('dongkyu.kim@ironmotors.co.kr')"&gt;김동규&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; jaewon.jung@ironmotors.co.kr; balgeum.lee@ironmotors.co.kr; hyunseung.kim@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 일산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yghong@aju.co.kr')"&gt;홍영기&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; sjjung2@aju.co.kr; jsmo@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 안양&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jwlee8@aju.co.kr')"&gt;이조원&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; itkim@aju.co.kr; yopark@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 영등포 문래&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr')"&gt;서일선&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; jschoi@aju.co.kr; hschoi@aju.co.kr; icjoo@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 부천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('leejs@aju.co.kr')"&gt;이재석&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; dwlee@aju.co.kr; ghson@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 송파&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeonseong_jeong@kolon.com')"&gt;정전성&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; haneul_jang@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 서초&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyoungmo_choi@kolon.com')"&gt;최경모&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; seungeun_jeoung@kolon.com; yunwoo_lee@kolon.com; yongsuk_park@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 원주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeseop_shim@kolon.com')"&gt;심재섭&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; sugeun_hwang@kolon.com; sunyoung_kwon@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 천안&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jungwoo_ma@kolon.com; wongyun_kil@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 울산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kibum_lim@kolon.com')"&gt;임기범&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; minho_kim2@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 판교&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongho_kim@kolon.com')"&gt;김종호&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com;  youngdon_son@kolon.com; hyunmok_cho1@kolon.com; sunghan_im@kolon.com; baegil_jung1@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 강릉&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com')"&gt;김태길&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; bonggeun_seok@kolon.com; youngdon_son@kolon.com; juneyoung_jang@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 서산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jonghwan_seol@kolon.com; donghyun_gil@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
 &lt;br&gt; 전시장을 통해 문의가 필요한 경우 아래 주소를 참고합니다. 유선 컨택 포인트는 액셀 파일을 참고하십시오.
 &lt;br&gt;
@@ -4457,6 +4210,254 @@
 &lt;br&gt;인포테인먼트 시스템의 안정성이 몇 가지 개선되었습니다. 따라서 후진 기어(R)로 변속할 때 운전자 화면에 지도가 더 이상 표시되지 않는 것을 확인할 수 있습니다.
 &lt;br&gt;
 &lt;br&gt;이 업데이트에는 성능 및 기타 인증 속성에 영향을 미치지 않는 몇 가지 버그 수정도 포함되어 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 서비스센터에 대한 불만이나 확인을 요청할 때 아래를 참조합니다.
+&lt;br&gt;
+&lt;h3&gt;서비스센터 및 딜러사 메일 양식
+&lt;br&gt;&lt;button class="logging-button" width="350" onclick="logging16()"&gt;[메일] 서비스센터 및 딜러사 전달 메일 양식&lt;/button&gt;
+&lt;button class="logging-button" onclick="logging17()"&gt;[메일] 서비스센터 출동 요청 메일 양식&lt;/button&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 대치&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; changseop.park@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 강남 삼성&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; hyunwoo.you@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 성수&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 분당 서현&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('ahn.jeongsik@hvolvo.com')"&gt;안정식&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; hwajeong.ko@hvolvo.com; yongcheol.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 강남 율현&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('euiseop.hwang@hvolvo.com')"&gt;황의섭&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; kyoungha.son@hvolvo.com; hyunseok.kim@hvolvo.com; jooyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 수원&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeongkyu.moon@hvolvo.com')"&gt;문정규&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; byeongwon.mun@hvolvo.com; kimoon.kim@hvolvo.com; yoonyoung.choi@hvolvo.com; hyunjoo.lee@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 인천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('chongjin.an@hvolvo.com')"&gt;안종진&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dongjun.choi@hvolvo.com; kangrae.cho@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 성수센터&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 대전&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yongil.jeon@hvolvo.com')"&gt;전용일&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; sungsik.kim@hvolvo.com; myungjin.oh@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 청주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeguk.ko@hvolvo.com')"&gt;고재국&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 군산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; jeonghun.song@ivymotors.co.kr; dongmyung.yi@ivymotors.co.kr; minsoo.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 광주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yokeun.jo@ivymotors.co.kr;')"&gt;조요근&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; inho.choi@ivymotors.co.kr; geunsik.lee@ivymotors.co.kr; byunghwa.lee@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 전주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr'; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 순천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyungchul.mun@ivymotors.co.kr')"&gt;문경철&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; mingyu.kim@ivymotors.co.kr; kyungchul.mun@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 제주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('daehwan.an@ivymotors.co.kr')"&gt;안대환&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; byunghee.choi@ivymotors.co.kr; bumseok.kang@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 대구&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; juyoung.yun@volvoty.co.kr;  hyeonggeun.gil@volvoty.co.kr; yonghyeok.lee@volvoty.co.kr; rakmin.kim@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 서대구&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hoiyol.kwon@volvoty.co.kr')"&gt;권회열&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; jongwoon.yun@volvoty.co.kr; kyungkyu.song@volvoty.co.kr; jaewoo.lee@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 포항&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dogun.hwang@volvoty.co.kr; sungjun.lee@volvoty.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 양평&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hakje.lee@chvolvo.co.kr')"&gt;이학제&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; jin.jeong@chvolvo.co.kr; jeongkuk.lee@chvolvo.co.kr; sungchul.kim@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 동대문&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('byungchang.kim@chvolvo.co.kr')"&gt;김병창&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr;  younghwan.kim@chvolvo.co.kr; jongbin.kim@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 의정부&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;팀장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hyuckjin.kim@chvolvo.co.kr')"&gt;김혁진&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; soonjik.kwon@chvolvo.co.kr; myoungjin.ko@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 구리&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;선임&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongmo.lee@chvolvo.co.kr')"&gt;이종모&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; subong.han@chvolvo.co.kr; jongmo.lee@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;&lt;hr&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 창원&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('myunguk.heo@ironmotors.co.kr')"&gt;허명욱&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; suho.park@ironmotors.co.kr; chungsuk.kim@ironmotors.co.kr; junwon.hwang@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 김해&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungyong.jang@ironmotors.co.kr')"&gt;장성용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; junewoo.heo@ironmotors.co.kr; hyunjin.park@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 광안&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaewoo.cho@ironmotors.co.kr')"&gt;조재우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; bongjun.kim@ironmotors.co.kr; dagyeong.yu@ironmotors.co.kr; hwaseop.song@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 해운대&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('younggon.kim@ironmotors.co.kr')"&gt;김영곤&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; byeongguen.song@ironmotors.co.kr; youbin.kim@ironmotors.co.kr; wonho.chae@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 진주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('dongkyu.kim@ironmotors.co.kr')"&gt;김동규&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; jaewon.jung@ironmotors.co.kr; balgeum.lee@ironmotors.co.kr; hyunseung.kim@ironmotors.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 일산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yghong@aju.co.kr')"&gt;홍영기&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; sjjung2@aju.co.kr; jsmo@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 안양&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jwlee8@aju.co.kr')"&gt;이조원&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; itkim@aju.co.kr; yopark@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 영등포 문래&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr')"&gt;서일선&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; jschoi@aju.co.kr; hschoi@aju.co.kr; icjoo@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 부천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('leejs@aju.co.kr')"&gt;이재석&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; dwlee@aju.co.kr; ghson@aju.co.kr; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 송파&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeonseong_jeong@kolon.com')"&gt;정전성&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; haneul_jang@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 서초&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyoungmo_choi@kolon.com')"&gt;최경모&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; seungeun_jeoung@kolon.com; yunwoo_lee@kolon.com; yongsuk_park@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 원주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeseop_shim@kolon.com')"&gt;심재섭&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; sugeun_hwang@kolon.com; sunyoung_kwon@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 천안&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jungwoo_ma@kolon.com; wongyun_kil@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 울산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kibum_lim@kolon.com')"&gt;임기범&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; minho_kim2@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 판교&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongho_kim@kolon.com')"&gt;김종호&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com;  youngdon_son@kolon.com; hyunmok_cho1@kolon.com; sunghan_im@kolon.com; baegil_jung1@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 강릉&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com')"&gt;김태길&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; bonggeun_seok@kolon.com; youngdon_son@kolon.com; juneyoung_jang@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 서산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jonghwan_seol@kolon.com; donghyun_gil@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 Volvo Cars앱에 대해 자주 묻는 질문들을 확인합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;Volvo Cars 앱에서 사용할 수 있는 기능은 차량 모델, 연식, 지역에 따라 다를 수 있습니다. 시간의 경과에 따라 제공되는 기능이 다를 수도 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;페어링 후 모바일 앱에 정보가 표시되지 않습니다.&lt;/h3&gt;
+&lt;br&gt;모바일 앱을 다시 시작합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱을 삭제하기 전에 염두에 두어야 할 사항&lt;/h3&gt;
+&lt;br&gt;휴대폰에서 Volvo Cars앱을 삭제하기 전에 항상 차량의 페어링을 해제하십시오. 다음 항목에서는 유용한 지침을 확인할 수 있습니다.
+&lt;br&gt;&lt;a href="https://www.volvocars.com/kr/support/topic/081757d5ef6ccf12c0a8015150732a6a" target="_blank"&gt;Volvo Cars 앱과 차량의 페어링&lt;/a&gt;
+&lt;br&gt;&lt;a href="https://www.volvocars.com/kr/support/topic/a6228d0cf69703a3c0a801513c08ff7c" target="_blank"&gt;Volvo Cars 앱 페어링 해제&lt;/a&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱에서 배터리의 충전 레벨을 볼 수 있나요?&lt;/h3&gt;
+&lt;br&gt;충전 레벨은 앱의 홈 보기와 충전 메뉴에 표시됩니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱에서 충전을 예약할 수 있나요?&lt;/h3&gt;
+&lt;br&gt;네. 현재 충전 타이머는 2023년도식 또는 이후 연식의 모든 완전 전기차와 플러그인 하이브리드용으로 사용할 수 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;휴대폰에서 차량으로 목적지를 보낼 수 있는 방법은 무엇인가요?&lt;/h3&gt;
+&lt;br&gt;차량에 볼보의 내비게이션 시스템 Sensus Navigation이 장착되어 있는 경우에는 Volvo Cars앱을 사용하여 목적지(예: 호텔, 매장, 영화관, 레스토랑)를 차량에 전송하여 내비게이션 시스템이 이 목저지를 사용할 수 있도록 할 수 있습니다. &lt;img src="https://www.volvocars.com/images/support/img66a5501d0e688e64c0a80152356d4e94_1_--_--_VOICEpnghigh.png" width= "19" height= "19"&gt; 탭에서 목적지를 검색한 후 '차량에 보내기'버튼을 선택합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;모바일 앱에서 도어 상태, 배터리 상태를 확인할 수 없거나 에어컨을 시작할 수 없습니다.&lt;/h3&gt;
+&lt;br&gt;• 모바일 앱을 다시 시작한 후 차량이 인터넷에 연결되어있는지 확인하세요.
+&lt;br&gt;• 통신 조건이 나쁜 지역에 차량이 주차되어 있는 경우, 차량의 Bluetooth 거리에서만 앱이 제대로 작동할 수 있습니다.
+&lt;br&gt;• 데이터 공유를 활성화해야 합니다. 사용된 프로필이 관리자 프로필인지 또는 소유자 프로필인지 확인하여 시작합니다. 이는 기어 휠 아이콘을 클릭한 후 프로필 항목을 선택하여 실시합니다. 그런 다음 Volvo ID가 프로필에 연결되도록 하세요. 톱니바퀴 아이콘을 클릭하고 프로필 &gt; 계정을 선택합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;새로운 소프트웨어에 차량을 업데이트하고 앱으로 차량 상태를 확인할 수 없습니다.&lt;/h3&gt;
+&lt;br&gt;새 소프트웨어로 차량을 업데이트한 경우에 모바일 연결을 다시 활성화하려면 차량을 한 번 시동 및 운행해야 합니다. 모바일 앱을 지원하는 소프트웨어로 차량을 최초로 업데이트한 경우에는 24-36시간이 지나여 차량과 클라우드 간의 동기화가 완료될 수 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;페어링 시 차량의 중앙 화면에 PIN 코드가 표시되지 않습니다&lt;/h3&gt;
+&lt;br&gt;서리 제거 버튼을 20-30초 동안 누르세요.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;장치 관리가 무엇인가요?&lt;/h3&gt;
+&lt;br&gt;장치 관리는 차량과 페어링된 휴대폰의 목록을 볼 수 있다는 것을 의미합니다. 관리자 권한이 있는 사용자는 페어링된 휴대폰을 삭제할 수도 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱의 관리자와 비관리자 간 차이점은 무엇인가요?&lt;/h3&gt;
+&lt;br&gt;다른 프로필에 대해 페어링을 수행하려면 먼저 차량 소유자 프로필 앱과 페어링되어 있어야 합니다.
+&lt;br&gt;차량 내에 모든 키가 있을 때 자신의 휴대폰과 차량의 페어링을 실시하는 최초 사용자가 관리자입니다.
+&lt;br&gt;앱에서 관리자인 사용자는 다음을 수행할 수 있습니다.
+&lt;br&gt;• 어떤 휴대 전화 또는 기타 장치가 차량과 페어링되어 있는지 확인
+&lt;br&gt;• 자신과 다른 사람의 페어링 된 휴대 전화/장치를 차량에서 제거
+&lt;br&gt;앱에서 관리자가 아닌 사용자는 다음을 수행할 수 있습니다.
+&lt;br&gt;• 자신의 휴대 전화/장치가 차량과 페어링되어 있는지 확인하기
+&lt;br&gt;• 차량에서 자신의 휴대 전화/장치 제거
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;휴대 전화 및 기타 장치의 페어링을 해제하는 방법은 무엇인가요?&lt;/h3&gt;
+&lt;br&gt;휴대 전화와 차량 간의 페어링 연결을 해제하려면 반드시 모바일 앱을 사용합니다.
+&lt;br&gt;휴대 전화가 제거되면 차량의 중앙 화면에 상태가 동기화될 때까지 몇 분 정도 걸립니다.
+&lt;br&gt;차량에서 사용자 프로필이 삭제되었다고 해서 페어링된 장치가 삭제되는 것은 아닙니다.
+&lt;br&gt;페어링 된 휴대 전화 앱의 프로필 탭에서 삭제할 수 있습니다. iPhone 사용자의 경우 iPhone의 설정으로 이동하여 그곳에서 휴대폰을 제거해야 합니다.
+&lt;br&gt;Google built-in 내장 차량을 소프트웨어 2.5로 업데이트한 경우, 차량 중앙 화면에서 장치를 페어링 해제할 수 있는 옵션이 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱을 차량과 페어링하면 차량의 소유자를 먼저 해야 합니까? 아니면 게스트 사용자가 먼저 페어링할 수 있나요?&lt;/h3&gt;
+&lt;br&gt;소유자를 먼저 페어링해야 합니다. 휴대폰을 관리자 권한이 있는 소유자 프로필 또는 기타 프로필에 연결할 때 모든 키가 차량 내부에 있어야 합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;소유자 프로필만 차량에서 관리자 권한을 가지고 있었지만, 소유자 프로필과 페어링하고 있던 휴대 전화를 사용할 수 없게 되었습니다. 차량에서 휴대폰을 삭제하려면 어떻게 해야 하나요?&lt;/h3&gt;
+&lt;br&gt;새 프로필을 만들고 이 새 프로필에 관리자 권한을 부옇바니다. 그런 다음에 모든 키가 차량 내부에 있는 상태에서 새 프로필과 새 휴대폰의 페어링을 실시하세요. 이제 앱에서 이전 모바일을 확인할 수 있으며 삭제할 수 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;여러 모바일 장치를 소유자 프로필과 페어링 할 수 있습니까?&lt;/h3&gt;
+&lt;br&gt;한 장치만 차량 프로필과 페어링할 수 있습니다. 소유자 프로필에 장치가 하나 연결되면 나중에 프로필에 연결된 모든 장치는 일반 사용자 입니다. 일반 사용자를 차량 프로필의 관리자로 변경할 수 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;모바일 장치가 관리자가 아닌 차량 프로필과 이미 페어링되어 있습니다. 그 차량의 사용자 프로필에 관리자 권한을 부여 할 경우 앱의 사용자 프로필도 관리자가 되나요?&lt;/h3&gt;
+&lt;br&gt;안 됩니다. 휴대전화와 페어링 된 자동차 프로필에 관리자 권한을 부여하더라도 그 모바일 앱의 사용자 프로필이 자동으로 관리자가 되는 것은 아닙니다. 차량 프로필이 관리자로 변경되면 모바일 장치에 대한 연결을 삭제해야 합니다. 그런 후에 모든 키가 차량 안에 있는 상태에서 해당 모바일 장치를 다시 페어링합니다. 그리고 모바일 앱의 사용자 프로필이 관리자입니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;페어링은 Bluetooth가 필요하나요?&lt;/h3&gt;
+&lt;br&gt;네, 페어링은 Bluetooth가 필요합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;차량에 가까이 있을 때 모바일 앱의 원격 기능만 사용할 수 있습니다. 무엇 때문인가요?&lt;/h3&gt;
+&lt;br&gt;모바일 앱, 차량, 또는 둘 모두가 클라우드와의 연결이 되지 않는 상황입니다. 이 문제가 발생하면 휴대폰의 Bluetooth 거리에서만 원격 기능이 작동합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱에서 배터리 상태 또는 온도 조절장치 기능을 확인할 수 없습니다.&lt;/h3&gt;
+&lt;br&gt;앱 버전이 낮은 경우 이러한 문제를 경험할 수 있습니다. Google Play에서 업데이트가 있는지 식별한 후 업데이트를 우선 진행합니다.
+&lt;br&gt;활성상태의 자동차 프로필에 연결된 Volvo ID가 있는지 확인하세요. 없는 경우에 Volvo ID를 사용해 앱에 로그인하세요.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;자신은 차량의 게스트 사용자이며, 앱의 원격 기능을 사용하고 싶으나 자신의 휴대 전화를 페어링 할 수 없습니다.&lt;/h3&gt;
+&lt;br&gt;사용하는 휴대 전화의 Bluetooth가 켜져 있는지 확인합니다. 근처에 차량과 페어링된 다른 휴대 전화가 있는 경우, 해당 휴대 전화의 Bluetooth를 꺼야 합니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5002,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5034,214 +5035,216 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="258.75">
+    <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>45475</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>293</v>
+      <c r="E2" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="409.5">
-      <c r="A3" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="14">
+    <row r="3" spans="1:6" ht="258.75">
+      <c r="A3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="4">
         <v>45474</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>238</v>
+        <v>310</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="224.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="409.5">
+      <c r="A4" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="14">
+        <v>45474</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="224.25">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4">
         <v>45474</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="276">
-      <c r="A5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="276">
+      <c r="A6" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B6" s="8">
         <v>45474</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D6" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="409.5">
-      <c r="A6" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="409.5">
       <c r="A7" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B7" s="4">
         <v>45474</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="310.5">
+    <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="B8" s="4">
         <v>45474</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>293</v>
+        <v>304</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>9</v>
+        <v>301</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="207">
+    <row r="10" spans="1:6" ht="396.75">
       <c r="A10" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B10" s="4">
         <v>45474</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="86.25">
+    <row r="11" spans="1:6" ht="207">
       <c r="A11" s="3" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="B11" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="86.25">
+      <c r="A12" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="189.75">
-      <c r="A12" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="B12" s="4">
         <v>45471</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="409.5">
+    <row r="13" spans="1:6" ht="189.75">
       <c r="A13" s="3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
@@ -5250,274 +5253,274 @@
     </row>
     <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="120.75">
+    <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="241.5">
+    <row r="17" spans="1:6" ht="120.75">
       <c r="A17" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="241.5">
+      <c r="A18" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="409.5">
-      <c r="A18" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="86.25">
+    <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="86.25">
+      <c r="A20" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="409.5">
-      <c r="A20" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B22" s="4">
         <v>45471</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>294</v>
+        <v>311</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4">
         <v>45471</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="409.5">
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="379.5">
-      <c r="A24" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="409.5">
+    <row r="25" spans="1:6" ht="379.5">
       <c r="A25" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B25" s="4">
         <v>45470</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="379.5">
+    <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="379.5">
+      <c r="A27" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="409.5">
-      <c r="A27" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="409.5">
+      <c r="A29" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="103.5">
-      <c r="A29" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="B29" s="4">
         <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="103.5">
+      <c r="A30" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="409.5">
-      <c r="A30" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
@@ -5526,191 +5529,191 @@
     </row>
     <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B32" s="4">
         <v>45470</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="69">
+    <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B33" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="69">
+      <c r="A34" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="293.25">
-      <c r="A34" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B34" s="4">
         <v>45469</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="293.25">
+      <c r="A35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D35" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="241.5">
-      <c r="A35" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="409.5">
+    <row r="36" spans="1:6" ht="241.5">
       <c r="A36" s="3" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B36" s="4">
         <v>45468</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>9</v>
+        <v>250</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="86.25">
+    <row r="37" spans="1:6" ht="409.5">
       <c r="A37" s="3" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="B37" s="4">
         <v>45468</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="D37" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>293</v>
+        <v>238</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="207">
+    <row r="38" spans="1:6" ht="86.25">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="B38" s="4">
         <v>45468</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="207">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="D39" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="409.5">
-      <c r="A39" s="3" t="s">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="409.5">
+      <c r="A40" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B39" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="327.75">
-      <c r="A40" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="B40" s="4">
         <v>45467</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="D40" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="327.75">
+      <c r="A41" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="138">
-      <c r="A41" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="B41" s="4">
         <v>45467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="293.25">
+    <row r="42" spans="1:6" ht="138">
       <c r="A42" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B42" s="4">
         <v>45467</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="396.75">
+    <row r="43" spans="1:6" ht="293.25">
       <c r="A43" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B43" s="4">
         <v>45467</v>
@@ -5720,244 +5723,244 @@
         <v>242</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>293</v>
+        <v>168</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="409.5">
+    <row r="44" spans="1:6" ht="396.75">
       <c r="A44" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B44" s="4">
         <v>45467</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="409.5">
+      <c r="A45" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="172.5">
-      <c r="A45" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="B45" s="4">
         <v>45467</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="409.5">
+    <row r="46" spans="1:6" ht="172.5">
       <c r="A46" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B46" s="4">
         <v>45467</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" ht="409.5">
       <c r="A47" s="3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B47" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="B48" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="86.25">
+    <row r="49" spans="1:6" ht="409.5">
       <c r="A49" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B49" s="4">
         <v>45463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="379.5">
+    <row r="50" spans="1:6" ht="86.25">
       <c r="A50" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="327.75">
+    <row r="51" spans="1:6" ht="379.5">
       <c r="A51" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="189.75">
+    <row r="52" spans="1:6" ht="327.75">
       <c r="A52" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="103.5">
+    <row r="53" spans="1:6" ht="189.75">
       <c r="A53" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="409.5">
+    <row r="54" spans="1:6" ht="103.5">
       <c r="A54" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="345">
+    <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="327.75">
+    <row r="58" spans="1:6" ht="345">
       <c r="A58" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
@@ -5966,30 +5969,30 @@
     </row>
     <row r="59" spans="1:6" ht="57.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="409.5">
+    <row r="60" spans="1:6" ht="241.5">
       <c r="A60" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
@@ -5998,14 +6001,14 @@
     </row>
     <row r="61" spans="1:6" ht="409.5">
       <c r="A61" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>9</v>
@@ -6014,14 +6017,14 @@
     </row>
     <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
@@ -6030,103 +6033,101 @@
     </row>
     <row r="63" spans="1:6" ht="409.5">
       <c r="A63" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="276">
+    <row r="64" spans="1:6" ht="409.5">
       <c r="A64" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="409.5">
+    <row r="65" spans="1:6" ht="276">
       <c r="A65" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B65" s="4">
         <v>45463</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="409.5">
+      <c r="A67" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B67" s="4">
         <v>45461</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="120.75">
-      <c r="A67" s="6" t="s">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="120.75">
+      <c r="A68" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B68" s="8">
         <v>45461</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="409.5">
-      <c r="A68" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="E68" s="7" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="F68" s="10"/>
     </row>
@@ -6141,7 +6142,7 @@
         <v>173</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>9</v>
@@ -6150,19 +6151,19 @@
     </row>
     <row r="70" spans="1:6" ht="409.5">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="4">
         <v>45461</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="E70" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F70" s="10"/>
     </row>
@@ -6177,7 +6178,7 @@
         <v>27</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>9</v>
@@ -6270,7 +6271,7 @@
         <v>160</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F76" s="10"/>
     </row>
@@ -6288,7 +6289,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F77" s="10"/>
     </row>
@@ -6306,7 +6307,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -6450,7 +6451,7 @@
         <v>47</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -6486,7 +6487,7 @@
         <v>52</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -6504,7 +6505,7 @@
         <v>57</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F89" s="10"/>
     </row>
@@ -6684,7 +6685,7 @@
         <v>90</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -6810,7 +6811,7 @@
         <v>112</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F106" s="10"/>
     </row>
@@ -6843,7 +6844,7 @@
         <v>117</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>13</v>
@@ -6987,7 +6988,7 @@
         <v>145</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>13</v>
@@ -7005,7 +7006,7 @@
         <v>147</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>9</v>
@@ -7014,7 +7015,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F48" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F116">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
       <sortCondition descending="1" ref="B1:B48"/>
     </sortState>
   </autoFilter>
@@ -7035,7 +7036,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BBB58F-699E-498F-BAED-5E93B99626F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EBAC08-EAF0-4008-A7A8-BD510758696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -3739,207 +3739,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
-&lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
-&lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;금융, 회계 문의
-&lt;br&gt;
-&lt;br&gt;- 국가지정통계 산업연관표(경비_서비스업)
-&lt;br&gt;- 한국은행 기업경영분석 조사
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;함종석&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('heejung.cho@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;DMS(IMS) 사이트 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, lje@comnarae.co.kr, sunyong.kim@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;헤이볼보 어플 고객 DATA 시스템과 연동된 내용.
-&lt;br&gt;
-&lt;br&gt;-가입 및 탈퇴, 고객 차량 정보 미노출 등
-&lt;br&gt;-e?b?bi?y?s@naver.com 이상한 아이디로 확인됨; 차량 확인안됨
-&lt;br&gt;해당 고객님 헤이 볼보 앱 내 차량정보 연동되어 있으나 앱에서 [실시간 예약; 카카오 상담] 등 메뉴를 누를 때마다 '볼보 고객만 가능한 서비스입니다.' 라는 메시지 팝업
-&lt;br&gt;-서비스 쿠폰 리스트 보이지 않음
-&lt;br&gt;헤이볼보 어플 실시간 정비 알림 메뉴가 정비 대기로 안바뀜
-&lt;br&gt;헤이볼보 회원가입시 비정상적인 등록메세지
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, cjy@comnarae.co.kr, kts@comnarae.co.kr, heejaekelly.byun@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 고객인데 DMS 조회 안 되는 경우; 볼보 자동차 소유(VCK 직원 차량)인데 DMS 조회 안 되는 경우
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com')"&gt;박나혜 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;공항으로 볼보 자동차 화물 도착했을 때 전달 담당자
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('boram.joo@volvocars.com')"&gt;주보람 과장&lt;/button&gt;| &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, juho.kim@volvocars.com, jangwook.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량 수급 현황(재고,물량), 출시 문의, 세일즈 관련 서류 발급 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com')"&gt;김주호 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;프로덕트(product(생산물, 상품, 제품), 차량의 기능 장착 여부; 흡음재가 원래 없는 것인지, 대시보드 재질이 어떻게 되는지 등
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('euijoon.lee@volvocars.com')"&gt;이의준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; daemyeong.kim@volvocars.com; jangwook.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;E/B 콜 장애, 문의 관련; 소비자원에서 VCK 담당자를 찾는 경우; 스웨덴에서 수신된 메일
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com')"&gt;이승진 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;송경란 전무&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;
-서비스센터 설문조사(컨슈머인사이트) 관련 문의/미스터리 쇼핑, 서비스센터 경험 설문조사 관련 문의 및 기프티콘 재발송 요청
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hankoo.lee@volvocars.com')"&gt;이한구 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; junlee.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량 전반적 서비스 개선요청; 차량 용품 제안; 서비스바이볼보; 서비스 캠페인
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;개인정보위반/침해/한국인터넷 진흥원
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;부품, 서비스 쿠폰,액세서리 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;리콜, 무상수리, 리콜대상확인 인증 관련(KC) 업무, 첨단장치 장착에 따른 보험할인 미반영
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com')"&gt;이계현 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com; sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;구조변경/ 번호판 등록/차량 인증 관련;유로5 환경 문의 관련된 문의/저공해 차량
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungje.hong@volvocars.com')"&gt;홍성제 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; kyehyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;보증 정책, 위치정보사업 관련 자료 요청
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;고객지원센터 문의사항에 대한 서포트, VIDA 진단기, 정비매뉴얼 구입 관련 담당, 매뉴얼 상의 내용 관련 문의, 기술 관련 기능, 고장 문의, VOLVO CARS 앱, Spotify Errors, 커넥티비티/인포테이먼트 에러, 소프트웨어 업데이트 일정
-&lt;br&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com')"&gt;문형준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; jueun.kang@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 어프렌티스(VCAT) 관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('donghoon.han@volvocars.com')"&gt;한동훈 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; jueun.kang@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;견인 현장 조치 불가 엔지니어 출동 요청 건
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장; 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;차량/서비스 관련 고객불만 
-&lt;br&gt;- 부품 수급, 서비스 캠페인, 수리 후 동일증상, 하자재발통보서, 소비자원 또는 소비자연맹 차량/서비스 불만접수건
-&lt;br&gt;- 불만접수 : 딜러사가 확인 되는 경우 &gt; 기존 불만 접수대로 딜러사 TO로 진행; 딜러사가 확인 안되는 경우 &gt; 최종 출고 서비스센터로 진행
-&lt;br&gt;부품과 관련된 불만은 김정민과장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt;
-&lt;br&gt;보증과 관련된 불만은 김영하 부장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt;
-&lt;br&gt;서비스캠페인 관련불만은 이준이대리 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt;
-&lt;br&gt;수리후 동일증상,급발진, 화재, 첨단장치등과 같은 내용은 기술팀 모두 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com; seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; jueun.kang@volvocars.com; boogyu.kim@volvocars.com')"&gt;기술팀&lt;/button&gt;
-&lt;br&gt;언론,미디어 언급 시 남윤지차장 추가
-&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com')"&gt;남윤지 차장&lt;/button&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장, CR매니저, 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 세일즈 본부장; &lt;button class="contact-button" onclick="copyEmail('jisung.kim@volvocars.com; juho.kim@volvocars.com; jangwook.lee@volvocars.com; namtae.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;기획사 PD 제안서, 신규 컨텐츠 제안서, 광고/홍보/마케팅/제휴/행사제안/PPL/이벤트/저작권/어린이/학생 관련 측 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('eunha.jung@volvocars.com')"&gt;장은하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;이승진 부장&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;- 시승신청,  이벤트 상품권 고객 기프티콘 미지급 문의 시
-&lt;br&gt;- 시승 프로세스 지연, 마케팅 수신거부; CRM E-뉴스레터, 고객 1주년 감사카드 담당/ 저작권, MMS, SMS; DMS 정보 삭제(고객 정보 완전 삭제)
-&lt;br&gt;- 1주년 콜랙션 감사 20% 할인 쿠폰 앱에 없음/ 복원
-&lt;br&gt;- 다이캐스트
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;볼보 팝업 스토어, 볼보 자동차 진행 이벤트 문의, 헤이 플로깅
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('woojae.kim@volvocars.com')"&gt;김우재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; heejaekelly.byun@volvocars.com; yihwa.lim@volvocars.com; woojae.kim@volvocars.com; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;- VCK 온라인 채널 (홈페이지,페이스북, 인스타그램. 디지털마케팅)
-&lt;br&gt;- Hej Volvo(헤이 볼보) 앱 전반적인 콘텐츠에서 발생하는 이벤트
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jungsoo.kim.2@volvocars.com')"&gt;김정수 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; yihwa.lim@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;EX30 온라인 예약 관련; 온라인 에디션판매(Volvo Digital Shop)
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;FLO 쿠폰관련 문의
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('flo@music-flo.com; yuchae.jeon@sk.com; sungin.paek@volvocars.com; daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;대표님께 안내할 내용, VCK 입사 지원 , 잡지/신문 대금 관련해서 문의 등
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com')"&gt;신다희&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;규정 준수 관리자, 경력증명서, VCK 복지 지원 담당(장애어린이, 어린이 안전조끼등)
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;To: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com')"&gt;이정화 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;홍보(미디어 문의 포함), 언론, 기사, 취재 요청, 기자시승 
-&lt;br&gt;유튜버, 블로거 등 인플루언서 및 셀러브리티 등
-&lt;br&gt;
-&lt;br&gt;&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com; seungjun.lim@volvocars.com')"&gt;남윤지 차장, 임승준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;구입 고객 고객만족도 조사 관련 메일 발송
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('"hyungi.lee@volvocars.com; jisung.kim@volvocars.com;  juho.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt;딜러 개설 담당자, 충전서비스인프라, 딜러사 네트워크 전기차 충전기, 전기차 충전쿠폰
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
-&lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>8월 부산 Hej Familj FAQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4458,6 +4257,207 @@
 &lt;hr&gt;
 &lt;br&gt;&lt;h3&gt;자신은 차량의 게스트 사용자이며, 앱의 원격 기능을 사용하고 싶으나 자신의 휴대 전화를 페어링 할 수 없습니다.&lt;/h3&gt;
 &lt;br&gt;사용하는 휴대 전화의 Bluetooth가 켜져 있는지 확인합니다. 근처에 차량과 페어링된 다른 휴대 전화가 있는 경우, 해당 휴대 전화의 Bluetooth를 꺼야 합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
+&lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
+&lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;금융, 회계 문의
+&lt;br&gt;
+&lt;br&gt;- 국가지정통계 산업연관표(경비_서비스업)
+&lt;br&gt;- 한국은행 기업경영분석 조사
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('namtae.kim@volvocars.com')"&gt;함종석&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('heejung.cho@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;DMS(IMS) 사이트 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, lje@comnarae.co.kr, sunyong.kim@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;헤이볼보 어플 고객 DATA 시스템과 연동된 내용.
+&lt;br&gt;
+&lt;br&gt;-가입 및 탈퇴, 고객 차량 정보 미노출 등
+&lt;br&gt;-e?b?bi?y?s@naver.com 이상한 아이디로 확인됨; 차량 확인안됨
+&lt;br&gt;해당 고객님 헤이 볼보 앱 내 차량정보 연동되어 있으나 앱에서 [실시간 예약; 카카오 상담] 등 메뉴를 누를 때마다 '볼보 고객만 가능한 서비스입니다.' 라는 메시지 팝업
+&lt;br&gt;-서비스 쿠폰 리스트 보이지 않음
+&lt;br&gt;헤이볼보 어플 실시간 정비 알림 메뉴가 정비 대기로 안바뀜
+&lt;br&gt;헤이볼보 회원가입시 비정상적인 등록메세지
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com')"&gt;백성인 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('jjy@comnarae.co.kr, cjy@comnarae.co.kr, kts@comnarae.co.kr, heejaekelly.byun@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 고객인데 DMS 조회 안 되는 경우; 볼보 자동차 소유(VCK 직원 차량)인데 DMS 조회 안 되는 경우
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com')"&gt;박나혜 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('juho.kim@volvocars.com, seungjin.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;공항으로 볼보 자동차 화물 도착했을 때 전달 담당자
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('boram.joo@volvocars.com')"&gt;주보람 과장&lt;/button&gt;| &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('nahye.park@volvocars.com, seungjin.lee@volvocars.com, kyungran.song@volvocars.com, juho.kim@volvocars.com, jangwook.lee@volvocars.com, jeongho.suh@volvocars.com, heemin.park@volvocars.com, hyunho.shim@volvocars.com, jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량 수급 현황(재고,물량), 출시 문의, 세일즈 관련 서류 발급 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('')"&gt;보류&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;프로덕트(product(생산물, 상품, 제품), 차량의 기능 장착 여부; 흡음재가 원래 없는 것인지, 대시보드 재질이 어떻게 되는지 등
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('euijoon.lee@volvocars.com')"&gt;이의준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; daemyeong.kim@volvocars.com; jangwook.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;E/B 콜 장애, 문의 관련; 소비자원에서 VCK 담당자를 찾는 경우; 스웨덴에서 수신된 메일
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com')"&gt;이승진 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;송경란 전무&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;
+서비스센터 설문조사(컨슈머인사이트) 관련 문의/미스터리 쇼핑, 서비스센터 경험 설문조사 관련 문의 및 기프티콘 재발송 요청
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hankoo.lee@volvocars.com')"&gt;이한구 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; junlee.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량 전반적 서비스 개선요청; 차량 용품 제안; 서비스바이볼보; 서비스 캠페인
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; dongjune.lee@volvocars.com; jeongmin.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;개인정보위반/침해/한국인터넷 진흥원
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sungin.paek@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;부품, 서비스 쿠폰,액세서리 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;리콜, 무상수리, 리콜대상확인 인증 관련(KC) 업무, 첨단장치 장착에 따른 보험할인 미반영
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com')"&gt;이계현 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('kyehyun.lee@volvocars.com; sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;구조변경/ 번호판 등록/차량 인증 관련;유로5 환경 문의 관련된 문의/저공해 차량
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('sungje.hong@volvocars.com')"&gt;홍성제 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; kyehyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;보증 정책, 위치정보사업 관련 자료 요청
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sangyun.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;고객지원센터 문의사항에 대한 서포트, VIDA 진단기, 정비매뉴얼 구입 관련 담당, 매뉴얼 상의 내용 관련 문의, 기술 관련 기능, 고장 문의, VOLVO CARS 앱, Spotify Errors, 커넥티비티/인포테이먼트 에러, 소프트웨어 업데이트 일정
+&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com')"&gt;문형준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; jueun.kang@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 어프렌티스(VCAT) 관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('donghoon.han@volvocars.com')"&gt;한동훈 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; boogyu.kim@volvocars.com; seokjoon.chang@volvocars.com; jueun.kang@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;견인 현장 조치 불가 엔지니어 출동 요청 건
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장; 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;차량/서비스 관련 고객불만 
+&lt;br&gt;- 부품 수급, 서비스 캠페인, 수리 후 동일증상, 하자재발통보서, 소비자원 또는 소비자연맹 차량/서비스 불만접수건
+&lt;br&gt;- 불만접수 : 딜러사가 확인 되는 경우 &gt; 기존 불만 접수대로 딜러사 TO로 진행; 딜러사가 확인 안되는 경우 &gt; 최종 출고 서비스센터로 진행
+&lt;br&gt;부품과 관련된 불만은 김정민과장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('jeongmin.kim@volvocars.com')"&gt;김정민 과장&lt;/button&gt;
+&lt;br&gt;보증과 관련된 불만은 김영하 부장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('youngha.kim@volvocars.com')"&gt;김영하 부장&lt;/button&gt;
+&lt;br&gt;서비스캠페인 관련불만은 이준이대리 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt;
+&lt;br&gt;수리후 동일증상,급발진, 화재, 첨단장치등과 같은 내용은 기술팀 모두 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('hyungjoon.moon@volvocars.com; seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; jueun.kang@volvocars.com; boogyu.kim@volvocars.com')"&gt;기술팀&lt;/button&gt;
+&lt;br&gt;언론,미디어 언급 시 남윤지차장 추가
+&lt;br&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com')"&gt;남윤지 차장&lt;/button&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 서비스센터 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 서비스 본부장, CR매니저, 서비스 세팅루프(테크,포맨,보증,부품); &lt;button class="contact-button" onclick="copyEmail('dongjune.lee@volvocars.com; hanwool.kim.2@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt; 세일즈 본부장; &lt;button class="contact-button" onclick="copyEmail('jisung.kim@volvocars.com; juho.kim@volvocars.com; jangwook.lee@volvocars.com; namtae.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;기획사 PD 제안서, 신규 컨텐츠 제안서, 광고/홍보/마케팅/제휴/행사제안/PPL/이벤트/저작권/어린이/학생 관련 측 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('eunha.jung@volvocars.com')"&gt;장은하 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;이승진 부장&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;- 시승신청,  이벤트 상품권 고객 기프티콘 미지급 문의 시
+&lt;br&gt;- 시승 프로세스 지연, 마케팅 수신거부; CRM E-뉴스레터, 고객 1주년 감사카드 담당/ 저작권, MMS, SMS; DMS 정보 삭제(고객 정보 완전 삭제)
+&lt;br&gt;- 1주년 콜랙션 감사 20% 할인 쿠폰 앱에 없음/ 복원
+&lt;br&gt;- 다이캐스트
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('heejaekelly.byun@volvocars.com')"&gt;변희재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; cjy@comnarae.co.kr; sungin.paek@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;볼보 팝업 스토어, 볼보 자동차 진행 이벤트 문의, 헤이 플로깅
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('woojae.kim@volvocars.com')"&gt;김우재 차장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; heejaekelly.byun@volvocars.com; yihwa.lim@volvocars.com; woojae.kim@volvocars.com; jungsoo.kim.2@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;- VCK 온라인 채널 (홈페이지,페이스북, 인스타그램. 디지털마케팅)
+&lt;br&gt;- Hej Volvo(헤이 볼보) 앱 전반적인 콘텐츠에서 발생하는 이벤트
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('jungsoo.kim.2@volvocars.com')"&gt;김정수 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('yhj@mytable.co.kr; volvo@mytable.co.kr; yihwa.lim@volvocars.com; eunha.jung@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;EX30 온라인 예약 관련; 온라인 에디션판매(Volvo Digital Shop)
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;FLO 쿠폰관련 문의
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('youngeun.lee@volvocars.com')"&gt;이영은 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('flo@music-flo.com; yuchae.jeon@sk.com; sungin.paek@volvocars.com; daemyeong.kim@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;대표님께 안내할 내용, VCK 입사 지원 , 잡지/신문 대금 관련해서 문의 등
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com')"&gt;신다희&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;규정 준수 관리자, 경력증명서, VCK 복지 지원 담당(장애어린이, 어린이 안전조끼등)
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;To: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junghwa.lee@volvocars.com')"&gt;이정화 부장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('dahee.shin@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;홍보(미디어 문의 포함), 언론, 기사, 취재 요청, 기자시승 
+&lt;br&gt;유튜버, 블로거 등 인플루언서 및 셀러브리티 등
+&lt;br&gt;
+&lt;br&gt;&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('yoonji.nam@volvocars.com; seungjun.lim@volvocars.com')"&gt;남윤지 차장, 임승준 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;구입 고객 고객만족도 조사 관련 메일 발송
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('"hyungi.lee@volvocars.com; jisung.kim@volvocars.com;  juho.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt;딜러 개설 담당자, 충전서비스인프라, 딜러사 네트워크 전기차 충전기, 전기차 충전쿠폰
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('hyojin.lee@volvocars.com')"&gt;이효진 과장&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
+&lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5003,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5037,116 +5037,118 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="409.5">
+      <c r="A3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45475</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="258.75">
-      <c r="A3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>291</v>
-      </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
-      <c r="A4" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="14">
+    <row r="4" spans="1:6" ht="258.75">
+      <c r="A4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="4">
         <v>45474</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="409.5">
+      <c r="A5" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45474</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="224.25">
-      <c r="A5" s="3" t="s">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="224.25">
+      <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>45474</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="276">
-      <c r="A6" s="6" t="s">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="276">
+      <c r="A7" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7" s="8">
         <v>45474</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D7" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="409.5">
-      <c r="A7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>291</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B8" s="4">
         <v>45474</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>291</v>
@@ -5155,112 +5157,112 @@
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>291</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="396.75">
+    <row r="10" spans="1:6" ht="310.5">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4">
         <v>45474</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="396.75">
+      <c r="A11" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="207">
-      <c r="A11" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="B11" s="4">
         <v>45474</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="86.25">
+    <row r="12" spans="1:6" ht="207">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B12" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>305</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="189.75">
+    <row r="13" spans="1:6" ht="86.25">
       <c r="A13" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B13" s="4">
         <v>45471</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="409.5">
+    <row r="14" spans="1:6" ht="189.75">
       <c r="A14" s="3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
@@ -5269,130 +5271,128 @@
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="120.75">
+    <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="241.5">
+    <row r="18" spans="1:6" ht="120.75">
       <c r="A18" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="409.5">
+    <row r="19" spans="1:6" ht="241.5">
       <c r="A19" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>291</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="86.25">
+    <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="409.5">
+    <row r="21" spans="1:6" ht="86.25">
       <c r="A21" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="B22" s="4">
         <v>45471</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B23" s="4">
         <v>45471</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E23" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F23" s="10"/>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EBAC08-EAF0-4008-A7A8-BD510758696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0D51F-6740-4F7C-B903-F8CDDCAE6722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -1288,21 +1288,6 @@
 &lt;br&gt;• 고객과의 통화 연결은 실패하고 CCC 상에 고객정보만 보이는 경우 볼보온콜 상담사는 화면에 나타난 고객 정보에 따라 고객님 차량에 전화를 걸어야 합니다. 그 다음에는 위 2단계부터 정상적으로 진행합니다.
 &lt;br&gt;• 차량 충돌 후 고객이 반응 없을 경우 볼보온콜 상담사는 통화연결을 유지하며 PSAP가 현장 도착할때까지 고객에게 지속적으로 말을 겁니다. 
 &lt;a style="color: red;"&gt;&lt;br&gt;&lt;U&gt;• 예기치 않게 통화 연결이 끊어지면 볼보온콜 상담사는 고객에게 다시 전화를 걸어야 합니다.&lt;U&gt;&lt;/br&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;EX30을 사전 예약하거나 관심있는 고객이 EX30 출시일에 대해 문의할 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;EX30의 출시일은 6월 말 일부 물량을 시작으로 7월부터 본격적으로 출고됩니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;EX30 국내 판매가격&lt;/h3&gt;
-&lt;br&gt;일부 외관 및 실내옵션 / 파일럿 및 파크 파일럿 어시스트 / 360도 카메라 / 하만 카돈 프리미엄 사운드 바 시스템 등에 따라
-&lt;br&gt;친환경 세제 혜택 후 가격, 보조금 미포함 금액으로 각각 4,945만원(코어), 5,516만원(울트라)로 책정되었습니다.
-&lt;br&gt;&lt;h3&gt;구매 혜택&lt;/h3&gt;
-&lt;br&gt;5년 또는 10만km 일부 부품 보증 및 소모품 교환 서비스, 8년/16만km 고전압 배터리 보증
-&lt;br&gt;15년 무상 무선 업데이트(OTA)지원, TMAP 인포테인먼트 서비스가 포함된 디지털 서비스 패키지 5년 이용권 등 제공됩니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4458,6 +4443,21 @@
 &lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
 &lt;br&gt;
 &lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;EX30을 사전 예약하거나 관심있는 고객이 EX30 출시일에 대해 문의할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;EX30의 출시일은 현재 미정입니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;EX30 국내 판매가격&lt;/h3&gt;
+&lt;br&gt;일부 외관 및 실내옵션 / 파일럿 및 파크 파일럿 어시스트 / 360도 카메라 / 하만 카돈 프리미엄 사운드 바 시스템 등에 따라
+&lt;br&gt;친환경 세제 혜택 후 가격, 보조금 미포함 금액으로 각각 4,945만원(코어), 5,516만원(울트라)로 책정되었습니다.
+&lt;br&gt;&lt;h3&gt;구매 혜택&lt;/h3&gt;
+&lt;br&gt;5년 또는 10만km 일부 부품 보증 및 소모품 교환 서비스, 8년/16만km 고전압 배터리 보증
+&lt;br&gt;15년 무상 무선 업데이트(OTA)지원, TMAP 인포테인먼트 서비스가 포함된 디지털 서비스 패키지 5년 이용권 등 제공됩니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5046,239 +5046,241 @@
         <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="207">
+      <c r="A3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45476</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="409.5">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="409.5">
+      <c r="A4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45475</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="4">
-        <v>45475</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="258.75">
-      <c r="A4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>291</v>
-      </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="409.5">
-      <c r="A5" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="14">
+    <row r="5" spans="1:6" ht="258.75">
+      <c r="A5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="4">
         <v>45474</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>308</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="224.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" ht="409.5">
+      <c r="A6" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45474</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="224.25">
+      <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>45474</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="276">
-      <c r="A7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="D7" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="276">
+      <c r="A8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="8">
         <v>45474</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D8" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="409.5">
-      <c r="A8" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>291</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="310.5">
+    <row r="10" spans="1:6" ht="409.5">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="B10" s="4">
         <v>45474</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>291</v>
+        <v>302</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="396.75">
+    <row r="11" spans="1:6" ht="310.5">
       <c r="A11" s="3" t="s">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4">
         <v>45474</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="396.75">
+      <c r="A12" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="207">
-      <c r="A12" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="B12" s="4">
         <v>45474</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="86.25">
+    <row r="13" spans="1:6" ht="207">
       <c r="A13" s="3" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="B13" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="86.25">
+      <c r="A14" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="189.75">
-      <c r="A14" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="B14" s="4">
         <v>45471</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="409.5">
+    <row r="15" spans="1:6" ht="189.75">
       <c r="A15" s="3" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
@@ -5287,256 +5289,256 @@
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="120.75">
+    <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="241.5">
+    <row r="19" spans="1:6" ht="120.75">
       <c r="A19" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="241.5">
+      <c r="A20" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="409.5">
-      <c r="A20" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="86.25">
+    <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="86.25">
+      <c r="A22" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="409.5">
-      <c r="A22" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="B22" s="4">
         <v>45471</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="B23" s="4">
         <v>45471</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="B24" s="4">
         <v>45471</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="409.5">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="379.5">
-      <c r="A25" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>289</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="409.5">
+    <row r="26" spans="1:6" ht="379.5">
       <c r="A26" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B26" s="4">
         <v>45470</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="379.5">
+    <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="379.5">
+      <c r="A28" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="409.5">
-      <c r="A28" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B29" s="4">
         <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="409.5">
+      <c r="A30" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="103.5">
-      <c r="A30" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="103.5">
+      <c r="A31" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="409.5">
-      <c r="A31" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B32" s="4">
         <v>45470</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
@@ -5545,191 +5547,191 @@
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B33" s="4">
         <v>45470</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="69">
+    <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B34" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="69">
+      <c r="A35" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="293.25">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B35" s="4">
         <v>45469</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="293.25">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D36" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="241.5">
-      <c r="A36" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B36" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="409.5">
+    <row r="37" spans="1:6" ht="241.5">
       <c r="A37" s="3" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B37" s="4">
         <v>45468</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>9</v>
+        <v>249</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="86.25">
+    <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="B38" s="4">
         <v>45468</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="D38" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>291</v>
+        <v>237</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="207">
+    <row r="39" spans="1:6" ht="86.25">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="B39" s="4">
         <v>45468</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="207">
+      <c r="A40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D40" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="409.5">
-      <c r="A40" s="3" t="s">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="409.5">
+      <c r="A41" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B40" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="327.75">
-      <c r="A41" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="B41" s="4">
         <v>45467</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="D41" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="327.75">
+      <c r="A42" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="138">
-      <c r="A42" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="B42" s="4">
         <v>45467</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="293.25">
+    <row r="43" spans="1:6" ht="138">
       <c r="A43" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B43" s="4">
         <v>45467</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="396.75">
+    <row r="44" spans="1:6" ht="293.25">
       <c r="A44" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B44" s="4">
         <v>45467</v>
@@ -5739,228 +5741,228 @@
         <v>241</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="409.5">
+    <row r="45" spans="1:6" ht="396.75">
       <c r="A45" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B45" s="4">
         <v>45467</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="409.5">
+      <c r="A46" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="172.5">
-      <c r="A46" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="B46" s="4">
         <v>45467</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="409.5">
+    <row r="47" spans="1:6" ht="172.5">
       <c r="A47" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B47" s="4">
         <v>45467</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B48" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="409.5">
       <c r="A49" s="3" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="B49" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="86.25">
+    <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B50" s="4">
         <v>45463</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="379.5">
+    <row r="51" spans="1:6" ht="86.25">
       <c r="A51" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="327.75">
+    <row r="52" spans="1:6" ht="379.5">
       <c r="A52" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="189.75">
+    <row r="53" spans="1:6" ht="327.75">
       <c r="A53" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="103.5">
+    <row r="54" spans="1:6" ht="189.75">
       <c r="A54" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="409.5">
+    <row r="55" spans="1:6" ht="103.5">
       <c r="A55" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="409.5">
       <c r="A56" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="345">
+    <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>9</v>
@@ -5969,46 +5971,46 @@
     </row>
     <row r="59" spans="1:6" ht="57.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="241.5">
+    <row r="60" spans="1:6" ht="327.75">
       <c r="A60" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="409.5">
+    <row r="61" spans="1:6" ht="241.5">
       <c r="A61" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>9</v>
@@ -6017,14 +6019,14 @@
     </row>
     <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
@@ -6033,14 +6035,14 @@
     </row>
     <row r="63" spans="1:6" ht="409.5">
       <c r="A63" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
@@ -6049,193 +6051,191 @@
     </row>
     <row r="64" spans="1:6" ht="409.5">
       <c r="A64" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="276">
+    <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B65" s="4">
         <v>45463</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="409.5">
+    <row r="66" spans="1:6" ht="276">
       <c r="A66" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B66" s="4">
         <v>45463</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="409.5">
+      <c r="A68" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="4">
+      <c r="E68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" ht="120.75">
+      <c r="A69" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="8">
         <v>45461</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="120.75">
-      <c r="A68" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D69" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="293.25">
+      <c r="A70" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="293.25">
-      <c r="A69" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="409.5">
-      <c r="A70" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="B70" s="4">
         <v>45461</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="409.5">
+      <c r="A71" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="172.5">
-      <c r="A71" s="3" t="s">
+      <c r="E71" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="172.5">
+      <c r="A72" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B71" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="155.25">
-      <c r="A72" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="B72" s="4">
         <v>45460</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="409.5">
+    <row r="73" spans="1:6" ht="155.25">
       <c r="A73" s="3" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4">
         <v>45460</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="207">
+    <row r="74" spans="1:6" ht="409.5">
       <c r="A74" s="3" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="B74" s="4">
         <v>45460</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="F74" s="10"/>
     </row>
@@ -6259,19 +6259,19 @@
     </row>
     <row r="76" spans="1:6" ht="258.75">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B76" s="4">
         <v>45460</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="E76" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F76" s="10"/>
     </row>
@@ -6289,7 +6289,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F77" s="10"/>
     </row>
@@ -6307,7 +6307,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -6322,7 +6322,7 @@
         <v>18</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>19</v>
@@ -6412,7 +6412,7 @@
         <v>42</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>9</v>
@@ -6430,7 +6430,7 @@
         <v>44</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>9</v>
@@ -6451,7 +6451,7 @@
         <v>47</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -6466,7 +6466,7 @@
         <v>49</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>9</v>
@@ -6487,7 +6487,7 @@
         <v>52</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -6505,7 +6505,7 @@
         <v>57</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F89" s="10"/>
     </row>
@@ -6538,7 +6538,7 @@
         <v>66</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>9</v>
@@ -6592,7 +6592,7 @@
         <v>74</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>29</v>
@@ -6685,7 +6685,7 @@
         <v>90</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -6811,7 +6811,7 @@
         <v>112</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F106" s="10"/>
     </row>
@@ -6844,7 +6844,7 @@
         <v>117</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>13</v>
@@ -6988,7 +6988,7 @@
         <v>145</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>13</v>
@@ -7006,7 +7006,7 @@
         <v>147</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>9</v>
@@ -7036,7 +7036,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0D51F-6740-4F7C-B903-F8CDDCAE6722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E4779-08CB-47AA-884F-368D5E6824D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -308,42 +308,6 @@
   <si>
     <t>CP00008</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;이 문서는 RSA의 전반적인 내용에 대해 설명합니다.
-&lt;br&gt;
-&lt;br&gt;RSA(Road Side Assistance)는 볼보자동차에서 제공하는 무상견인 서비스 입니다.
-&lt;br&gt;
-&lt;br&gt;긴급출동 서비스는 출고 이후 5년또는 주행거리 100,000km(선도래 기준(XC60 중국생산분 7년 140,000km까지)까지 볼보자동차에서 제공하는 서비스 프로그램 입니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;긴급출동 서비스 항목&lt;/h3&gt;
-&lt;br&gt;&lt;strong&gt;배터리 충전&lt;/strong&gt;
-&lt;br&gt;배터리 방전으로 시동이 불가능한 경우 현장출동하여 12V 배터리를 충전해 드립니다.
-&lt;br&gt;EV 고전압 배터리 충전부족으로 인해 가까운 전기차 충전소로 견인이 필요할 경우 유상비용이 발생됩니다.
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;타이어 수리(견인 시 유상)&lt;/strong&gt;
-&lt;br&gt;타이어 펑크로 차량을 운행할 수 없을 경우 현장에서 타이어를 무상수리(연2회)해드립니다.
-&lt;br&gt;단, 타이어 펑크 위와 크기 및 형태에 따라 현장에서 수리되지 않을 수 있으며, &lt;em style=""color: red;""&gt;&lt;strong&gt;이후 견인조치가 필요한 경우 견인비용이 발생됩니다.&lt;/strong&gt;&lt;/em&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;비상 급유(유상)&lt;/strong&gt;
-&lt;br&gt;연료가 소진되어 운행이 정지된 경우 긴급운행용 연료를 주입하여 드립니다.
-&lt;br&gt;&lt;strong&gt;&lt;em&gt;이 서비스는 유상이며, &lt;a style=""color: red;""&gt;고객에게 희망하는 유종을 반드시 확인해야 합니다. 
-&lt;br&gt;가까운 주유소에 고급유가 없는 경우 일반유로만 가능함을 안내하고 고객으로부터 동의를 얻어야 합니다.&lt;/a&gt;&lt;/strong&gt;&lt;/em&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;견인&lt;/strong&gt;
-&lt;br&gt;고장으로 차량으로 자력으로 운행하지 못하여 수리를 위해 견인을 필요로 할 경우, 공식 서비스센터로 견인하여 드립니다.
-&lt;br&gt;고객 과실로 인한 고장 견인은 고객이 실비를 부담해야 합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;비고&lt;/strong&gt;
-&lt;br&gt;견인 서비스와 관련하여 고객은 차량 견인 시 항상 차량 인수, 인계 확인서를 현장에서 점검해야 하며,
-&lt;br&gt;가능하면 목적지의 공식 서비스센터까지 동승하여 차량 손상 여부를 확인할 것을 안내합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;ERS(RSA) 접수 방법&lt;/h3&gt;
-&lt;br&gt;견인 서비스를 접수하기 전 반드시 고객에게 입고 서비스센터를 파악해야 합니다. 특히 영등포라고만 고객이 언급하는 경우 &lt;strong&gt;양평인지 문래인지&lt;/strong&gt; 반드시 확인해야 합니다.
-&lt;br&gt;고객이 원하는 서비스 센터가 없다고 하는 경우 팀장님께 이관합니다.
-&lt;br&gt;&lt;img src="https://volvocarsapac.file.force.com/sfc/dist/version/renditionDownload?rendition=ORIGINAL_Png&amp;versionId=068Ig000000dm9Q&amp;operationContext=DELIVERY&amp;contentId=05TIg000001Q5Mm&amp;page=0&amp;d=/a/Ig000000TQ2L/FBaLj1iVHeGj_N3CDUlzXIg9AJACnOEFpyavb1XnSnU&amp;oid=00D2w000003wder&amp;dpt=null&amp;viewId=" style="width: 100%;"&gt;</t>
   </si>
   <si>
     <t>iCUP 차량에서 앱이 동작하지 않는 경우</t>
@@ -4458,6 +4422,49 @@
 &lt;br&gt;&lt;h3&gt;구매 혜택&lt;/h3&gt;
 &lt;br&gt;5년 또는 10만km 일부 부품 보증 및 소모품 교환 서비스, 8년/16만km 고전압 배터리 보증
 &lt;br&gt;15년 무상 무선 업데이트(OTA)지원, TMAP 인포테인먼트 서비스가 포함된 디지털 서비스 패키지 5년 이용권 등 제공됩니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;이 문서는 RSA의 전반적인 내용에 대해 설명합니다.
+&lt;br&gt;
+&lt;br&gt;RSA(Road Side Assistance)는 볼보자동차에서 제공하는 무상견인 서비스 입니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;
+&lt;br&gt;대치서비스센터로 견인을 요청하는 사고차는 삼성서비스센터로 견인
+&lt;br&gt;대치서비스센터로 견인을 요청하는 고장차는 삼성서비스센터로 견인
+&lt;br&gt;대치서비스센터 수리직후 문제가 발생되는 고장차는 삼성서비스센터로견인 &lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;긴급출동 서비스는 출고 이후 5년또는 주행거리 100,000km(선도래 기준(XC60 중국생산분 7년 140,000km까지)까지 볼보자동차에서 제공하는 서비스 프로그램 입니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;긴급출동 서비스 항목&lt;/h3&gt;
+&lt;br&gt;&lt;strong&gt;배터리 충전&lt;/strong&gt;
+&lt;br&gt;배터리 방전으로 시동이 불가능한 경우 현장출동하여 12V 배터리를 충전해 드립니다.
+&lt;br&gt;EV 고전압 배터리 충전부족으로 인해 가까운 전기차 충전소로 견인이 필요할 경우 유상비용이 발생됩니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;타이어 수리(견인 시 유상)&lt;/strong&gt;
+&lt;br&gt;타이어 펑크로 차량을 운행할 수 없을 경우 현장에서 타이어를 무상수리(연2회)해드립니다.
+&lt;br&gt;단, 타이어 펑크 위와 크기 및 형태에 따라 현장에서 수리되지 않을 수 있으며, &lt;em style=""color: red;""&gt;&lt;strong&gt;이후 견인조치가 필요한 경우 견인비용이 발생됩니다.&lt;/strong&gt;&lt;/em&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;비상 급유(유상)&lt;/strong&gt;
+&lt;br&gt;연료가 소진되어 운행이 정지된 경우 긴급운행용 연료를 주입하여 드립니다.
+&lt;br&gt;&lt;strong&gt;&lt;em&gt;이 서비스는 유상이며, &lt;a style=""color: red;""&gt;고객에게 희망하는 유종을 반드시 확인해야 합니다. 
+&lt;br&gt;가까운 주유소에 고급유가 없는 경우 일반유로만 가능함을 안내하고 고객으로부터 동의를 얻어야 합니다.&lt;/a&gt;&lt;/strong&gt;&lt;/em&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;견인&lt;/strong&gt;
+&lt;br&gt;고장으로 차량으로 자력으로 운행하지 못하여 수리를 위해 견인을 필요로 할 경우, 공식 서비스센터로 견인하여 드립니다.
+&lt;br&gt;고객 과실로 인한 고장 견인은 고객이 실비를 부담해야 합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;비고&lt;/strong&gt;
+&lt;br&gt;견인 서비스와 관련하여 고객은 차량 견인 시 항상 차량 인수, 인계 확인서를 현장에서 점검해야 하며,
+&lt;br&gt;가능하면 목적지의 공식 서비스센터까지 동승하여 차량 손상 여부를 확인할 것을 안내합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;ERS(RSA) 접수 방법&lt;/h3&gt;
+&lt;br&gt;견인 서비스를 접수하기 전 반드시 고객에게 입고 서비스센터를 파악해야 합니다. 특히 영등포라고만 고객이 언급하는 경우 &lt;strong&gt;양평인지 문래인지&lt;/strong&gt; 반드시 확인해야 합니다.
+&lt;br&gt;고객이 원하는 서비스 센터가 없다고 하는 경우 팀장님께 이관합니다.
+&lt;br&gt;&lt;img src="https://volvocarsapac.file.force.com/sfc/dist/version/renditionDownload?rendition=ORIGINAL_Png&amp;versionId=068Ig000000dm9Q&amp;operationContext=DELIVERY&amp;contentId=05TIg000001Q5Mm&amp;page=0&amp;d=/a/Ig000000TQ2L/FBaLj1iVHeGj_N3CDUlzXIg9AJACnOEFpyavb1XnSnU&amp;oid=00D2w000003wder&amp;dpt=null&amp;viewId=" style="width: 100%;"&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5003,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5046,257 +5053,259 @@
         <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="207">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="4">
         <v>45476</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="409.5">
       <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45476</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="409.5">
+      <c r="A5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45475</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="4">
-        <v>45475</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="258.75">
-      <c r="A5" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>290</v>
-      </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="409.5">
-      <c r="A6" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="14">
+    <row r="6" spans="1:6" ht="258.75">
+      <c r="A6" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="4">
         <v>45474</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>307</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="224.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" ht="409.5">
+      <c r="A7" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45474</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="224.25">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45474</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="4">
+      <c r="D8" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="186" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="8">
         <v>45474</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="276">
-      <c r="A8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="8">
-        <v>45474</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="186" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>290</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="409.5">
       <c r="A10" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B10" s="4">
         <v>45474</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="310.5">
+    <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="B11" s="4">
         <v>45474</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>290</v>
+        <v>301</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="396.75">
+    <row r="12" spans="1:6" ht="310.5">
       <c r="A12" s="3" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4">
         <v>45474</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="396.75">
+      <c r="A13" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="207">
-      <c r="A13" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="B13" s="4">
         <v>45474</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="86.25">
+    <row r="14" spans="1:6" ht="207">
       <c r="A14" s="3" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="B14" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="86.25">
+      <c r="A15" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="189.75">
-      <c r="A15" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="B15" s="4">
         <v>45471</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="409.5">
+    <row r="16" spans="1:6" ht="189.75">
       <c r="A16" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>9</v>
@@ -5305,256 +5314,256 @@
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="120.75">
+    <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="241.5">
+    <row r="20" spans="1:6" ht="120.75">
       <c r="A20" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="241.5">
+      <c r="A21" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="409.5">
-      <c r="A21" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="86.25">
+    <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B22" s="4">
         <v>45471</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="86.25">
+      <c r="A23" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="409.5">
-      <c r="A23" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="B23" s="4">
         <v>45471</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="409.5">
       <c r="A24" s="3" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="B24" s="4">
         <v>45471</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="B25" s="4">
         <v>45471</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>291</v>
+        <v>308</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="379.5">
+    <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="B26" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>45471</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D26" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="409.5">
+    <row r="27" spans="1:6" ht="379.5">
       <c r="A27" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B27" s="4">
         <v>45470</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="379.5">
+    <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="379.5">
+      <c r="A29" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="409.5">
-      <c r="A29" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="B29" s="4">
         <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="409.5">
       <c r="A30" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="409.5">
+      <c r="A31" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="103.5">
-      <c r="A31" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="103.5">
+      <c r="A32" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="409.5">
-      <c r="A32" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="B32" s="4">
         <v>45470</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B33" s="4">
         <v>45470</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -5563,191 +5572,191 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" s="4">
         <v>45470</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="69">
+    <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B35" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="69">
+      <c r="A36" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="293.25">
-      <c r="A36" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B36" s="4">
         <v>45469</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="293.25">
+      <c r="A37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="241.5">
-      <c r="A37" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B37" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="409.5">
+    <row r="38" spans="1:6" ht="241.5">
       <c r="A38" s="3" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="B38" s="4">
         <v>45468</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>9</v>
+        <v>248</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="86.25">
+    <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="B39" s="4">
         <v>45468</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="D39" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>290</v>
+        <v>236</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="207">
+    <row r="40" spans="1:6" ht="86.25">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="B40" s="4">
         <v>45468</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="207">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="409.5">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>290</v>
-      </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="327.75">
+    <row r="42" spans="1:6" ht="409.5">
       <c r="A42" s="3" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4">
         <v>45467</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="D42" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="327.75">
+      <c r="A43" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="138">
-      <c r="A43" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="B43" s="4">
         <v>45467</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="293.25">
+    <row r="44" spans="1:6" ht="138">
       <c r="A44" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B44" s="4">
         <v>45467</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="396.75">
+    <row r="45" spans="1:6" ht="293.25">
       <c r="A45" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B45" s="4">
         <v>45467</v>
@@ -5757,276 +5766,276 @@
         <v>240</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="409.5">
+    <row r="46" spans="1:6" ht="396.75">
       <c r="A46" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B46" s="4">
         <v>45467</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="409.5">
+      <c r="A47" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="172.5">
-      <c r="A47" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="B47" s="4">
         <v>45467</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="409.5">
+    <row r="48" spans="1:6" ht="172.5">
       <c r="A48" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B48" s="4">
         <v>45467</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="409.5">
       <c r="A49" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B49" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B50" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="86.25">
+    <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B51" s="4">
         <v>45463</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="379.5">
+    <row r="52" spans="1:6" ht="86.25">
       <c r="A52" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="327.75">
+    <row r="53" spans="1:6" ht="379.5">
       <c r="A53" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="189.75">
+    <row r="54" spans="1:6" ht="327.75">
       <c r="A54" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="103.5">
+    <row r="55" spans="1:6" ht="189.75">
       <c r="A55" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="409.5">
+    <row r="56" spans="1:6" ht="103.5">
       <c r="A56" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="409.5">
       <c r="A57" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" ht="57.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="327.75">
+    <row r="60" spans="1:6" ht="345">
       <c r="A60" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="241.5">
+    <row r="61" spans="1:6" ht="327.75">
       <c r="A61" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="409.5">
+    <row r="62" spans="1:6" ht="241.5">
       <c r="A62" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
@@ -6035,14 +6044,14 @@
     </row>
     <row r="63" spans="1:6" ht="409.5">
       <c r="A63" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
@@ -6051,14 +6060,14 @@
     </row>
     <row r="64" spans="1:6" ht="409.5">
       <c r="A64" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>9</v>
@@ -6067,352 +6076,350 @@
     </row>
     <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B65" s="4">
         <v>45463</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>292</v>
+        <v>9</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="276">
+    <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B66" s="4">
         <v>45463</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="409.5">
+    <row r="67" spans="1:6" ht="276">
       <c r="A67" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B67" s="4">
         <v>45463</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" ht="409.5">
+      <c r="A69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B68" s="4">
+      <c r="E69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="120.75">
+      <c r="A70" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="8">
         <v>45461</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="120.75">
-      <c r="A69" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="9" t="s">
+      <c r="D70" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="293.25">
+      <c r="A71" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="293.25">
-      <c r="A70" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="409.5">
-      <c r="A71" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="B71" s="4">
         <v>45461</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="409.5">
+      <c r="A72" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="172.5">
-      <c r="A72" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="E72" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="155.25">
+    <row r="73" spans="1:6" ht="172.5">
       <c r="A73" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="4">
         <v>45460</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="409.5">
+    <row r="74" spans="1:6" ht="155.25">
       <c r="A74" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B74" s="4">
         <v>45460</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B75" s="4">
         <v>45460</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>25</v>
+        <v>155</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="258.75">
+    <row r="76" spans="1:6" ht="409.5">
       <c r="A76" s="3" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="B76" s="4">
         <v>45460</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="258.75">
+      <c r="A77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="138">
-      <c r="A77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>290</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="409.5">
+    <row r="78" spans="1:6" ht="138">
       <c r="A78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="409.5">
+      <c r="A79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B79" s="4">
         <v>45457</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="276">
-      <c r="A79" s="3" t="s">
+      <c r="E79" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="276">
+      <c r="A80" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B79" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="409.5">
-      <c r="A80" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B80" s="4">
         <v>45456</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="310.5">
+    <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B81" s="4">
         <v>45456</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="138">
+    <row r="82" spans="1:6" ht="310.5">
       <c r="A82" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B82" s="4">
         <v>45456</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" ht="138">
+      <c r="A83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E83" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" ht="409.5">
-      <c r="A83" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" ht="409.5">
       <c r="A84" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" s="4">
         <v>45455</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>9</v>
@@ -6421,16 +6428,16 @@
     </row>
     <row r="85" spans="1:6" ht="409.5">
       <c r="A85" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" s="4">
         <v>45455</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>9</v>
@@ -6439,34 +6446,34 @@
     </row>
     <row r="86" spans="1:6" ht="409.5">
       <c r="A86" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" s="4">
         <v>45455</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E86" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6" ht="310.5">
       <c r="A87" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="4">
         <v>45455</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>9</v>
@@ -6475,52 +6482,52 @@
     </row>
     <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88" s="4">
         <v>45454</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E88" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" ht="224.25">
       <c r="A89" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="4">
         <v>45454</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E89" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="1:6" ht="103.5">
       <c r="A90" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" s="4">
         <v>45454</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>13</v>
@@ -6529,16 +6536,16 @@
     </row>
     <row r="91" spans="1:6" ht="409.5">
       <c r="A91" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="4">
         <v>45454</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>9</v>
@@ -6547,16 +6554,16 @@
     </row>
     <row r="92" spans="1:6" ht="409.5">
       <c r="A92" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B92" s="4">
         <v>45454</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>9</v>
@@ -6565,16 +6572,16 @@
     </row>
     <row r="93" spans="1:6" ht="241.5">
       <c r="A93" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" s="4">
         <v>45453</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>13</v>
@@ -6583,16 +6590,16 @@
     </row>
     <row r="94" spans="1:6" ht="207">
       <c r="A94" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>29</v>
@@ -6601,16 +6608,16 @@
     </row>
     <row r="95" spans="1:6" ht="155.25">
       <c r="A95" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>9</v>
@@ -6619,16 +6626,16 @@
     </row>
     <row r="96" spans="1:6" ht="207">
       <c r="A96" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="4">
         <v>45453</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>29</v>
@@ -6637,16 +6644,16 @@
     </row>
     <row r="97" spans="1:6" ht="120.75">
       <c r="A97" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="4">
         <v>45453</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>13</v>
@@ -6655,16 +6662,16 @@
     </row>
     <row r="98" spans="1:6" ht="276">
       <c r="A98" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="4">
         <v>45453</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>13</v>
@@ -6673,34 +6680,34 @@
     </row>
     <row r="99" spans="1:6" ht="396.75">
       <c r="A99" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="4">
         <v>45453</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="E99" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" ht="409.5">
       <c r="A100" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4">
         <v>45452</v>
       </c>
       <c r="C100" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>9</v>
@@ -6709,16 +6716,16 @@
     </row>
     <row r="101" spans="1:6" ht="276">
       <c r="A101" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" s="4">
         <v>45452</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>9</v>
@@ -6727,16 +6734,16 @@
     </row>
     <row r="102" spans="1:6" ht="86.25">
       <c r="A102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="8">
         <v>45450</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>13</v>
@@ -6745,16 +6752,16 @@
     </row>
     <row r="103" spans="1:6" ht="409.5">
       <c r="A103" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>13</v>
@@ -6763,16 +6770,16 @@
     </row>
     <row r="104" spans="1:6" ht="69">
       <c r="A104" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>13</v>
@@ -6781,16 +6788,16 @@
     </row>
     <row r="105" spans="1:6" ht="69">
       <c r="A105" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>13</v>
@@ -6799,52 +6806,52 @@
     </row>
     <row r="106" spans="1:6" ht="224.25">
       <c r="A106" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="E106" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" ht="103.5">
       <c r="A107" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="E107" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6" ht="51.75">
       <c r="A108" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>13</v>
@@ -6853,52 +6860,52 @@
     </row>
     <row r="109" spans="1:6" ht="409.5">
       <c r="A109" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" ht="51.75">
       <c r="A110" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="E110" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6" ht="69">
       <c r="A111" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>13</v>
@@ -6907,52 +6914,52 @@
     </row>
     <row r="112" spans="1:6" ht="69">
       <c r="A112" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="E112" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" ht="103.5">
       <c r="A113" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="E113" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6" ht="86.25">
       <c r="A114" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" s="8">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>13</v>
@@ -6961,34 +6968,34 @@
     </row>
     <row r="115" spans="1:6" ht="103.5">
       <c r="A115" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B115" s="8">
         <v>45450</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="E115" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="1:6" ht="86.25">
       <c r="A116" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" s="8">
         <v>45450</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>13</v>
@@ -6997,16 +7004,16 @@
     </row>
     <row r="117" spans="1:6" ht="86.25">
       <c r="A117" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B117" s="4">
         <v>45450</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>9</v>
@@ -7028,7 +7035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA47ABE8-A0DB-496C-8080-33CAD593BD66}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L17"/>
     </sheetView>
   </sheetViews>
@@ -7036,7 +7043,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E4779-08CB-47AA-884F-368D5E6824D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DCEAA7-6890-40D3-B497-F612FC978130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="315">
   <si>
     <t>Title</t>
   </si>
@@ -3884,21 +3884,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>충돌이 발생할 경우, 차량은 Volvo Assistance 또는 긴급 콜 센터에 자동으로 보고하며, 이를 통해 긴급 지원팀이 파견될 수 있습니다.
-&lt;h3&gt;Volvo Assistance&lt;/h3&gt;
-차량의 안전 시스템이 트리거되면(예: 안전벨트 프리텐셔너 또는 에어백 작동 레벨의 사고) 차량은 자동으로 Volvo Assistance에 전화하고 차량의 위치 등이 포함된 메시지가 전송됩니다.
-&lt;br&gt;1. Volvo Assistance는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 시도합니다.
-&lt;br&gt;2. 그런 다음 Volvo Assistance는 필요한 지원(경찰, 구급차, 차량 구조 등)을 받기 위해 연락합니다.
-&lt;br&gt;
-통화를 할 수 없는 경우에 Volvo Assistance는 적절한 조치를 통해 지원을 제공하는 관련 당국에 연락합니다.
-&lt;h3&gt;응급 콜센터&lt;sub&gt;대한민국은 대상 아님&lt;/sub&gt;&lt;/h3&gt;&lt;sub&gt;대한민국은 대상 아님&lt;/sub&gt;
-차량의 안전 시스템이 트리거되면(예를 들어 안전벨트 프리텐셔너 또는 에어백이 활성화되는 수준의 사고가 발생하면) 신호가 응급 콜센터로 직접 자동 전송됩니다.
-&lt;br&gt;
-&lt;br&gt;1. 긴급 전화 센터는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 합니다.
-&lt;br&gt;2. 긴급 전화 센터는 필요한 지원팀을 보냅니다(경찰, 구급차, 견인차 등).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>고객이 마케팅 수신 거부를 요청하거나, 정보 제거를 원하는 경우 아래 단계에 따라 진행합니다.
 &lt;br&gt;
 &lt;br&gt;&lt;h3&gt;마케팅 수신 거부를 요청하는 경우&lt;/h3&gt;
@@ -4465,6 +4450,58 @@
 &lt;br&gt;견인 서비스를 접수하기 전 반드시 고객에게 입고 서비스센터를 파악해야 합니다. 특히 영등포라고만 고객이 언급하는 경우 &lt;strong&gt;양평인지 문래인지&lt;/strong&gt; 반드시 확인해야 합니다.
 &lt;br&gt;고객이 원하는 서비스 센터가 없다고 하는 경우 팀장님께 이관합니다.
 &lt;br&gt;&lt;img src="https://volvocarsapac.file.force.com/sfc/dist/version/renditionDownload?rendition=ORIGINAL_Png&amp;versionId=068Ig000000dm9Q&amp;operationContext=DELIVERY&amp;contentId=05TIg000001Q5Mm&amp;page=0&amp;d=/a/Ig000000TQ2L/FBaLj1iVHeGj_N3CDUlzXIg9AJACnOEFpyavb1XnSnU&amp;oid=00D2w000003wder&amp;dpt=null&amp;viewId=" style="width: 100%;"&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차의 트립 컴퓨터는 주행거리, 평균 연료 소모량 및 평균 속도 등을 기록합니다.
+&lt;h3&gt;트립 컴퓨터의 정보&lt;/h3&gt;
+&lt;img src="https://www.volvocars.com/images/support/imgb1eb4994a3f14164c0a80152519ef10e_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;
+&lt;br&gt;트립 컴퓨터에 표시되는 숫자:
+&lt;br&gt;• 주행거리
+&lt;br&gt;• 평균 연료 소모량
+&lt;br&gt;• 운전 시간
+&lt;br&gt;• 평균 속도
+&lt;br&gt;
+&lt;h4&gt;트립 컴퓨터 열기&lt;/h4&gt;
+1. 스티어링 휠의 O 버튼을 누릅니다.
+&lt;br&gt;&gt; 트립 컴퓨터가 열립니다.
+&lt;br&gt;
+&lt;h4&gt;구간거리계&lt;/h4&gt;
+두 가지의 구간거리계(TM 및 TA)가 있습니다.&lt;sup&gt;*&lt;/sup&gt;
+&lt;br&gt;
+&lt;br&gt;TM은 수동으로 재설정할 수 있습니다. TA는 차량을 네 시간 이상 사용하지 않는 경우에 자동으로 재설정됩니다.
+&lt;br&gt;
+&lt;h4&gt;누적주행거리계&lt;/h4&gt;
+누적주행거리계는 차량의 총 주행거리를 기록합니다. 이 값은 영(0)으로 재설정할 수 없습니다.
+&lt;br&gt;
+&lt;h3&gt;트립 컴퓨터 설정&lt;/h3&gt;
+트립컴퓨터는 중앙 화면을 통해 설정 가능합니다.
+&lt;br&gt;
+&lt;br&gt;1. &lt;img src="https://www.volvocars.com/images/support/imgf1c5d0bf5cacf617c0a801521667c9fa_2_--_--_VOICEpnghigh.png" width="19" height="19"&gt;를 누릅니다.
+&lt;br&gt;2. 컨트롤을 선택합니다.
+&lt;br&gt;3. 원하는 설정을 변경합니다.
+&lt;br&gt;
+&lt;br&gt;* 트립 매뉴얼 및 트립 오토매틱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>트립 컴퓨터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌이 발생할 경우, 차량은 Volvo Assistance 또는 긴급 콜 센터에 자동으로 보고하며, 이를 통해 긴급 지원팀이 파견될 수 있습니다.
+&lt;h3&gt;Volvo Assistance&lt;/h3&gt;
+차량의 안전 시스템이 트리거되면(예: 안전벨트 프리텐셔너 또는 에어백 작동 레벨의 사고) 차량은 자동으로 Volvo Assistance에 전화하고 차량의 위치 등이 포함된 메시지가 전송됩니다.
+&lt;br&gt;1. Volvo Assistance는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 시도합니다.
+&lt;br&gt;2. 그런 다음 Volvo Assistance는 필요한 지원(경찰, 구급차, 차량 구조 등)을 받기 위해 연락합니다.
+&lt;br&gt;
+통화를 할 수 없는 경우에 Volvo Assistance는 적절한 조치를 통해 지원을 제공하는 관련 당국에 연락합니다.
+&lt;h3&gt;응급 콜센터&lt;sup&gt;대한민국은 대상 아님&lt;/sup&gt;&lt;/h3&gt;
+차량의 안전 시스템이 트리거되면(예를 들어 안전벨트 프리텐셔너 또는 에어백이 활성화되는 수준의 사고가 발생하면) 신호가 응급 콜센터로 직접 자동 전송됩니다.
+&lt;br&gt;
+&lt;br&gt;1. 긴급 전화 센터는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 합니다.
+&lt;br&gt;2. 긴급 전화 센터는 필요한 지원팀을 보냅니다(경찰, 구급차, 견인차 등).</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5008,10 +5045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5044,284 +5081,284 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45477</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="409.5">
+      <c r="A3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45476</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="207">
-      <c r="A3" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="B3" s="4">
         <v>45476</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>153</v>
+        <v>309</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:6" ht="207">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="B4" s="4">
         <v>45476</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>310</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45476</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="409.5">
+      <c r="A6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>45475</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="258.75">
-      <c r="A6" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>289</v>
-      </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
-      <c r="A7" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="14">
+    <row r="7" spans="1:6" ht="258.75">
+      <c r="A7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="4">
         <v>45474</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="409.5">
+      <c r="A8" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="14">
+        <v>45474</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="224.25">
-      <c r="A8" s="3" t="s">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="186" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>45474</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="186" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="276">
+      <c r="A10" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="8">
         <v>45474</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D10" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="409.5">
-      <c r="A10" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="409.5">
       <c r="A11" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B11" s="4">
         <v>45474</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="310.5">
+    <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="B12" s="4">
         <v>45474</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="396.75">
+    <row r="13" spans="1:6" ht="310.5">
       <c r="A13" s="3" t="s">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4">
         <v>45474</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>9</v>
+        <v>298</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="207">
+    <row r="14" spans="1:6" ht="396.75">
       <c r="A14" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B14" s="4">
         <v>45474</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="86.25">
+    <row r="15" spans="1:6" ht="207">
       <c r="A15" s="3" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B15" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
+        <v>314</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="189.75">
+    <row r="16" spans="1:6" ht="86.25">
       <c r="A16" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B16" s="4">
         <v>45471</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="409.5">
+    <row r="17" spans="1:6" ht="189.75">
       <c r="A17" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B17" s="4">
         <v>45471</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>9</v>
@@ -5330,192 +5367,192 @@
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="120.75">
+    <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="241.5">
+    <row r="21" spans="1:6" ht="120.75">
       <c r="A21" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="409.5">
+    <row r="22" spans="1:6" ht="241.5">
       <c r="A22" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B22" s="4">
         <v>45471</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="86.25">
+    <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B23" s="4">
         <v>45471</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="409.5">
+    <row r="24" spans="1:6" ht="86.25">
       <c r="A24" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B24" s="4">
         <v>45471</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="B25" s="4">
         <v>45471</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="B26" s="4">
         <v>45471</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="409.5">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="379.5">
-      <c r="A27" s="3" t="s">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="379.5">
+      <c r="A28" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B27" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="409.5">
-      <c r="A28" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="B28" s="4">
         <v>45470</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="379.5">
+    <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B29" s="4">
         <v>45470</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="409.5">
+    <row r="30" spans="1:6" ht="379.5">
       <c r="A30" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>289</v>
@@ -5524,62 +5561,62 @@
     </row>
     <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="103.5">
+    <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B32" s="4">
         <v>45470</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="409.5">
+    <row r="33" spans="1:6" ht="103.5">
       <c r="A33" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B33" s="4">
         <v>45470</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B34" s="4">
         <v>45470</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
@@ -5588,374 +5625,374 @@
     </row>
     <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="4">
         <v>45470</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="69">
+    <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B36" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="293.25">
+    <row r="37" spans="1:6" ht="69">
       <c r="A37" s="3" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="B37" s="4">
         <v>45469</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="293.25">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="241.5">
-      <c r="A38" s="3" t="s">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="241.5">
+      <c r="A39" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B38" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="409.5">
-      <c r="A39" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="B39" s="4">
         <v>45468</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>9</v>
+        <v>248</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="86.25">
+    <row r="40" spans="1:6" ht="409.5">
       <c r="A40" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="B40" s="4">
         <v>45468</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="D40" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>236</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="207">
+    <row r="41" spans="1:6" ht="86.25">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="B41" s="4">
         <v>45468</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="207">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="409.5">
-      <c r="A42" s="3" t="s">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="409.5">
+      <c r="A43" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B42" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="327.75">
-      <c r="A43" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="B43" s="4">
         <v>45467</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="D43" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>9</v>
+        <v>219</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="138">
+    <row r="44" spans="1:6" ht="327.75">
       <c r="A44" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B44" s="4">
         <v>45467</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="293.25">
+    <row r="45" spans="1:6" ht="138">
       <c r="A45" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B45" s="4">
         <v>45467</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="396.75">
+    <row r="46" spans="1:6" ht="293.25">
       <c r="A46" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B46" s="4">
         <v>45467</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="409.5">
+    <row r="47" spans="1:6" ht="396.75">
       <c r="A47" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B47" s="4">
         <v>45467</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="172.5">
+    <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B48" s="4">
         <v>45467</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="409.5">
+    <row r="49" spans="1:6" ht="172.5">
       <c r="A49" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B49" s="4">
         <v>45467</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B50" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="B51" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="86.25">
+    <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B52" s="4">
         <v>45463</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="379.5">
+    <row r="53" spans="1:6" ht="86.25">
       <c r="A53" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" s="4">
         <v>45463</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="327.75">
+    <row r="54" spans="1:6" ht="379.5">
       <c r="A54" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="189.75">
+    <row r="55" spans="1:6" ht="327.75">
       <c r="A55" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="103.5">
+    <row r="56" spans="1:6" ht="189.75">
       <c r="A56" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="409.5">
+    <row r="57" spans="1:6" ht="103.5">
       <c r="A57" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>289</v>
@@ -5964,94 +6001,94 @@
     </row>
     <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" ht="57.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="345">
+    <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="327.75">
+    <row r="61" spans="1:6" ht="345">
       <c r="A61" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="241.5">
+    <row r="62" spans="1:6" ht="327.75">
       <c r="A62" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="409.5">
+    <row r="63" spans="1:6" ht="241.5">
       <c r="A63" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
@@ -6060,14 +6097,14 @@
     </row>
     <row r="64" spans="1:6" ht="409.5">
       <c r="A64" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>9</v>
@@ -6076,14 +6113,14 @@
     </row>
     <row r="65" spans="1:6" ht="409.5">
       <c r="A65" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B65" s="4">
         <v>45463</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>9</v>
@@ -6092,46 +6129,46 @@
     </row>
     <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B66" s="4">
         <v>45463</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="276">
+    <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B67" s="4">
         <v>45463</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>291</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="409.5">
+    <row r="68" spans="1:6" ht="276">
       <c r="A68" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B68" s="4">
         <v>45463</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>291</v>
@@ -6140,304 +6177,302 @@
     </row>
     <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="409.5">
+      <c r="A70" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B70" s="4">
         <v>45461</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="120.75">
-      <c r="A70" s="6" t="s">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="120.75">
+      <c r="A71" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B71" s="8">
         <v>45461</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="293.25">
-      <c r="A71" s="3" t="s">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="293.25">
+      <c r="A72" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B71" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="409.5">
-      <c r="A72" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B72" s="4">
         <v>45461</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="409.5">
+      <c r="A73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="172.5">
-      <c r="A73" s="3" t="s">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="172.5">
+      <c r="A74" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B73" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="155.25">
-      <c r="A74" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="B74" s="4">
         <v>45460</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="409.5">
+    <row r="75" spans="1:6" ht="155.25">
       <c r="A75" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B75" s="4">
         <v>45460</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" ht="409.5">
       <c r="A76" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B76" s="4">
         <v>45460</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>25</v>
+        <v>155</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="258.75">
+    <row r="77" spans="1:6" ht="409.5">
       <c r="A77" s="3" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="B77" s="4">
         <v>45460</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="258.75">
+      <c r="A78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E78" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="138">
-      <c r="A78" s="3" t="s">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="138">
+      <c r="A79" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B79" s="4">
         <v>45459</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E79" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="409.5">
-      <c r="A79" s="3" t="s">
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="409.5">
+      <c r="A80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B80" s="4">
         <v>45457</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E80" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="276">
-      <c r="A80" s="3" t="s">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="276">
+      <c r="A81" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B80" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="409.5">
-      <c r="A81" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B81" s="4">
         <v>45456</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="310.5">
+    <row r="82" spans="1:6" ht="409.5">
       <c r="A82" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B82" s="4">
         <v>45456</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="138">
+    <row r="83" spans="1:6" ht="310.5">
       <c r="A83" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B83" s="4">
         <v>45456</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="138">
+      <c r="A84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E84" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="409.5">
-      <c r="A84" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="F84" s="10"/>
     </row>
     <row r="85" spans="1:6" ht="409.5">
       <c r="A85" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B85" s="4">
         <v>45455</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>9</v>
@@ -6446,169 +6481,169 @@
     </row>
     <row r="86" spans="1:6" ht="409.5">
       <c r="A86" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B86" s="4">
         <v>45455</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="310.5">
+    <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B87" s="4">
         <v>45455</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="310.5">
+      <c r="A88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E88" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="409.5">
-      <c r="A88" s="3" t="s">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" ht="409.5">
+      <c r="A89" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B88" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6" ht="224.25">
-      <c r="A89" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B89" s="4">
         <v>45454</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="103.5">
+    <row r="90" spans="1:6" ht="224.25">
       <c r="A90" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B90" s="4">
         <v>45454</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>13</v>
+        <v>289</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="409.5">
+    <row r="91" spans="1:6" ht="103.5">
       <c r="A91" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B91" s="4">
         <v>45454</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="1:6" ht="409.5">
       <c r="A92" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B92" s="4">
         <v>45454</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="241.5">
+    <row r="93" spans="1:6" ht="409.5">
       <c r="A93" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" ht="241.5">
+      <c r="A94" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B93" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6" ht="207">
-      <c r="A94" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B94" s="4">
         <v>45453</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="155.25">
+    <row r="95" spans="1:6" ht="207">
       <c r="A95" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B95" s="4">
         <v>45453</v>
@@ -6617,412 +6652,430 @@
         <v>73</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="207">
+    <row r="96" spans="1:6" ht="155.25">
       <c r="A96" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B96" s="4">
         <v>45453</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="120.75">
+    <row r="97" spans="1:6" ht="207">
       <c r="A97" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B97" s="4">
         <v>45453</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="276">
+    <row r="98" spans="1:6" ht="120.75">
       <c r="A98" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B98" s="4">
         <v>45453</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="396.75">
+    <row r="99" spans="1:6" ht="276">
       <c r="A99" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B99" s="4">
         <v>45453</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" ht="396.75">
+      <c r="A100" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E100" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" ht="409.5">
-      <c r="A100" s="6" t="s">
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" ht="409.5">
+      <c r="A101" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B100" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="10"/>
-    </row>
-    <row r="101" spans="1:6" ht="276">
-      <c r="A101" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="B101" s="4">
         <v>45452</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" ht="86.25">
+    <row r="102" spans="1:6" ht="276">
       <c r="A102" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" ht="86.25">
+      <c r="A103" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B102" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="1:6" ht="409.5">
-      <c r="A103" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="B103" s="8">
         <v>45450</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="15"/>
-    </row>
-    <row r="104" spans="1:6" ht="69">
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" ht="409.5">
       <c r="A104" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B104" s="8">
         <v>45450</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="10"/>
+      <c r="F104" s="15"/>
     </row>
     <row r="105" spans="1:6" ht="69">
       <c r="A105" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="224.25">
+    <row r="106" spans="1:6" ht="69">
       <c r="A106" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" ht="103.5">
+    <row r="107" spans="1:6" ht="224.25">
       <c r="A107" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" ht="51.75">
+    <row r="108" spans="1:6" ht="103.5">
       <c r="A108" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="409.5">
+    <row r="109" spans="1:6" ht="51.75">
       <c r="A109" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="51.75">
+    <row r="110" spans="1:6" ht="409.5">
       <c r="A110" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="69">
+    <row r="111" spans="1:6" ht="51.75">
       <c r="A111" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="1:6" ht="69">
       <c r="A112" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="103.5">
+    <row r="113" spans="1:6" ht="69">
       <c r="A113" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" ht="86.25">
-      <c r="A114" s="3" t="s">
-        <v>137</v>
+    <row r="114" spans="1:6" ht="103.5">
+      <c r="A114" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B114" s="8">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" ht="103.5">
-      <c r="A115" s="6" t="s">
-        <v>140</v>
+    <row r="115" spans="1:6" ht="86.25">
+      <c r="A115" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B115" s="8">
         <v>45450</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" ht="86.25">
+    <row r="116" spans="1:6" ht="103.5">
       <c r="A116" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B116" s="8">
         <v>45450</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="1:6" ht="86.25">
       <c r="A117" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" ht="86.25">
+      <c r="A118" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B118" s="4">
         <v>45450</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E118" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="10"/>
+      <c r="F118" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F48" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F118">
       <sortCondition descending="1" ref="B1:B48"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DCEAA7-6890-40D3-B497-F612FC978130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599BBF12-1D1C-4701-82F3-0F1B8E1884A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4196,6 +4196,116 @@
   <si>
     <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
 &lt;br&gt;
+&lt;br&gt;EX30을 사전 예약하거나 관심있는 고객이 EX30 출시일에 대해 문의할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;EX30의 출시일은 현재 미정입니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;EX30 국내 판매가격&lt;/h3&gt;
+&lt;br&gt;일부 외관 및 실내옵션 / 파일럿 및 파크 파일럿 어시스트 / 360도 카메라 / 하만 카돈 프리미엄 사운드 바 시스템 등에 따라
+&lt;br&gt;친환경 세제 혜택 후 가격, 보조금 미포함 금액으로 각각 4,945만원(코어), 5,516만원(울트라)로 책정되었습니다.
+&lt;br&gt;&lt;h3&gt;구매 혜택&lt;/h3&gt;
+&lt;br&gt;5년 또는 10만km 일부 부품 보증 및 소모품 교환 서비스, 8년/16만km 고전압 배터리 보증
+&lt;br&gt;15년 무상 무선 업데이트(OTA)지원, TMAP 인포테인먼트 서비스가 포함된 디지털 서비스 패키지 5년 이용권 등 제공됩니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;이 문서는 RSA의 전반적인 내용에 대해 설명합니다.
+&lt;br&gt;
+&lt;br&gt;RSA(Road Side Assistance)는 볼보자동차에서 제공하는 무상견인 서비스 입니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;
+&lt;br&gt;대치서비스센터로 견인을 요청하는 사고차는 삼성서비스센터로 견인
+&lt;br&gt;대치서비스센터로 견인을 요청하는 고장차는 삼성서비스센터로 견인
+&lt;br&gt;대치서비스센터 수리직후 문제가 발생되는 고장차는 삼성서비스센터로견인 &lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;긴급출동 서비스는 출고 이후 5년또는 주행거리 100,000km(선도래 기준(XC60 중국생산분 7년 140,000km까지)까지 볼보자동차에서 제공하는 서비스 프로그램 입니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;긴급출동 서비스 항목&lt;/h3&gt;
+&lt;br&gt;&lt;strong&gt;배터리 충전&lt;/strong&gt;
+&lt;br&gt;배터리 방전으로 시동이 불가능한 경우 현장출동하여 12V 배터리를 충전해 드립니다.
+&lt;br&gt;EV 고전압 배터리 충전부족으로 인해 가까운 전기차 충전소로 견인이 필요할 경우 유상비용이 발생됩니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;타이어 수리(견인 시 유상)&lt;/strong&gt;
+&lt;br&gt;타이어 펑크로 차량을 운행할 수 없을 경우 현장에서 타이어를 무상수리(연2회)해드립니다.
+&lt;br&gt;단, 타이어 펑크 위와 크기 및 형태에 따라 현장에서 수리되지 않을 수 있으며, &lt;em style=""color: red;""&gt;&lt;strong&gt;이후 견인조치가 필요한 경우 견인비용이 발생됩니다.&lt;/strong&gt;&lt;/em&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;비상 급유(유상)&lt;/strong&gt;
+&lt;br&gt;연료가 소진되어 운행이 정지된 경우 긴급운행용 연료를 주입하여 드립니다.
+&lt;br&gt;&lt;strong&gt;&lt;em&gt;이 서비스는 유상이며, &lt;a style=""color: red;""&gt;고객에게 희망하는 유종을 반드시 확인해야 합니다. 
+&lt;br&gt;가까운 주유소에 고급유가 없는 경우 일반유로만 가능함을 안내하고 고객으로부터 동의를 얻어야 합니다.&lt;/a&gt;&lt;/strong&gt;&lt;/em&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;견인&lt;/strong&gt;
+&lt;br&gt;고장으로 차량으로 자력으로 운행하지 못하여 수리를 위해 견인을 필요로 할 경우, 공식 서비스센터로 견인하여 드립니다.
+&lt;br&gt;고객 과실로 인한 고장 견인은 고객이 실비를 부담해야 합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;비고&lt;/strong&gt;
+&lt;br&gt;견인 서비스와 관련하여 고객은 차량 견인 시 항상 차량 인수, 인계 확인서를 현장에서 점검해야 하며,
+&lt;br&gt;가능하면 목적지의 공식 서비스센터까지 동승하여 차량 손상 여부를 확인할 것을 안내합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;ERS(RSA) 접수 방법&lt;/h3&gt;
+&lt;br&gt;견인 서비스를 접수하기 전 반드시 고객에게 입고 서비스센터를 파악해야 합니다. 특히 영등포라고만 고객이 언급하는 경우 &lt;strong&gt;양평인지 문래인지&lt;/strong&gt; 반드시 확인해야 합니다.
+&lt;br&gt;고객이 원하는 서비스 센터가 없다고 하는 경우 팀장님께 이관합니다.
+&lt;br&gt;&lt;img src="https://volvocarsapac.file.force.com/sfc/dist/version/renditionDownload?rendition=ORIGINAL_Png&amp;versionId=068Ig000000dm9Q&amp;operationContext=DELIVERY&amp;contentId=05TIg000001Q5Mm&amp;page=0&amp;d=/a/Ig000000TQ2L/FBaLj1iVHeGj_N3CDUlzXIg9AJACnOEFpyavb1XnSnU&amp;oid=00D2w000003wder&amp;dpt=null&amp;viewId=" style="width: 100%;"&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차의 트립 컴퓨터는 주행거리, 평균 연료 소모량 및 평균 속도 등을 기록합니다.
+&lt;h3&gt;트립 컴퓨터의 정보&lt;/h3&gt;
+&lt;img src="https://www.volvocars.com/images/support/imgb1eb4994a3f14164c0a80152519ef10e_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;
+&lt;br&gt;트립 컴퓨터에 표시되는 숫자:
+&lt;br&gt;• 주행거리
+&lt;br&gt;• 평균 연료 소모량
+&lt;br&gt;• 운전 시간
+&lt;br&gt;• 평균 속도
+&lt;br&gt;
+&lt;h4&gt;트립 컴퓨터 열기&lt;/h4&gt;
+1. 스티어링 휠의 O 버튼을 누릅니다.
+&lt;br&gt;&gt; 트립 컴퓨터가 열립니다.
+&lt;br&gt;
+&lt;h4&gt;구간거리계&lt;/h4&gt;
+두 가지의 구간거리계(TM 및 TA)가 있습니다.&lt;sup&gt;*&lt;/sup&gt;
+&lt;br&gt;
+&lt;br&gt;TM은 수동으로 재설정할 수 있습니다. TA는 차량을 네 시간 이상 사용하지 않는 경우에 자동으로 재설정됩니다.
+&lt;br&gt;
+&lt;h4&gt;누적주행거리계&lt;/h4&gt;
+누적주행거리계는 차량의 총 주행거리를 기록합니다. 이 값은 영(0)으로 재설정할 수 없습니다.
+&lt;br&gt;
+&lt;h3&gt;트립 컴퓨터 설정&lt;/h3&gt;
+트립컴퓨터는 중앙 화면을 통해 설정 가능합니다.
+&lt;br&gt;
+&lt;br&gt;1. &lt;img src="https://www.volvocars.com/images/support/imgf1c5d0bf5cacf617c0a801521667c9fa_2_--_--_VOICEpnghigh.png" width="19" height="19"&gt;를 누릅니다.
+&lt;br&gt;2. 컨트롤을 선택합니다.
+&lt;br&gt;3. 원하는 설정을 변경합니다.
+&lt;br&gt;
+&lt;br&gt;* 트립 매뉴얼 및 트립 오토매틱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>트립 컴퓨터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌이 발생할 경우, 차량은 Volvo Assistance 또는 긴급 콜 센터에 자동으로 보고하며, 이를 통해 긴급 지원팀이 파견될 수 있습니다.
+&lt;h3&gt;Volvo Assistance&lt;/h3&gt;
+차량의 안전 시스템이 트리거되면(예: 안전벨트 프리텐셔너 또는 에어백 작동 레벨의 사고) 차량은 자동으로 Volvo Assistance에 전화하고 차량의 위치 등이 포함된 메시지가 전송됩니다.
+&lt;br&gt;1. Volvo Assistance는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 시도합니다.
+&lt;br&gt;2. 그런 다음 Volvo Assistance는 필요한 지원(경찰, 구급차, 차량 구조 등)을 받기 위해 연락합니다.
+&lt;br&gt;
+통화를 할 수 없는 경우에 Volvo Assistance는 적절한 조치를 통해 지원을 제공하는 관련 당국에 연락합니다.
+&lt;h3&gt;응급 콜센터&lt;sup&gt;대한민국은 대상 아님&lt;/sup&gt;&lt;/h3&gt;
+차량의 안전 시스템이 트리거되면(예를 들어 안전벨트 프리텐셔너 또는 에어백이 활성화되는 수준의 사고가 발생하면) 신호가 응급 콜센터로 직접 자동 전송됩니다.
+&lt;br&gt;
+&lt;br&gt;1. 긴급 전화 센터는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 합니다.
+&lt;br&gt;2. 긴급 전화 센터는 필요한 지원팀을 보냅니다(경찰, 구급차, 견인차 등).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
+&lt;br&gt;
 &lt;br&gt;메일로 에스컬레이션 해야하는 경우 하기 내용을 확인하여 전달해야 합니다.
 &lt;br&gt;모든 메일에는 하기 메일 주소를 반드시 포함하여 주십시오.
 &lt;br&gt;jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com
@@ -4322,7 +4432,7 @@
 &lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
 &lt;br&gt;전시장 영업 불만, 영업직원 불친절, 약속불이행, 피드백 지연 또는 없음, 차량인도 및 출고 관련 불만, 해지 지연, 계약금 환불 지연, 계약금 환불 안됨, 시승 신청 후 연락 없음
 &lt;br&gt;
-&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
+&lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;각 전시장 지점장 | &lt;strong&gt;CC:&lt;/strong&gt;  세일즈 본부장, 딜러대표; &lt;button class="contact-button" onclick="copyEmail('jangwook.lee@volvocars.com; jisung.kim@volvocars.com; juho.kim@volvocars.com; seonghee.lee@volvocars.com; hyungi.lee@volvocars.com; namtae.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; manshik.lee@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;
 &lt;hr&gt;
 &lt;br&gt;&lt;strong&gt;문의 내용:&lt;/strong&gt;
 &lt;br&gt;세일즈(영업) 기타 불만(헤이 볼보 앱이 아닌 경우); 전시장 방문 후 이벤트 상품권; 기프티콘 미지급
@@ -4392,116 +4502,6 @@
 &lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
 &lt;br&gt;
 &lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;EX30을 사전 예약하거나 관심있는 고객이 EX30 출시일에 대해 문의할 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;EX30의 출시일은 현재 미정입니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;EX30 국내 판매가격&lt;/h3&gt;
-&lt;br&gt;일부 외관 및 실내옵션 / 파일럿 및 파크 파일럿 어시스트 / 360도 카메라 / 하만 카돈 프리미엄 사운드 바 시스템 등에 따라
-&lt;br&gt;친환경 세제 혜택 후 가격, 보조금 미포함 금액으로 각각 4,945만원(코어), 5,516만원(울트라)로 책정되었습니다.
-&lt;br&gt;&lt;h3&gt;구매 혜택&lt;/h3&gt;
-&lt;br&gt;5년 또는 10만km 일부 부품 보증 및 소모품 교환 서비스, 8년/16만km 고전압 배터리 보증
-&lt;br&gt;15년 무상 무선 업데이트(OTA)지원, TMAP 인포테인먼트 서비스가 포함된 디지털 서비스 패키지 5년 이용권 등 제공됩니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
-&lt;br&gt;
-&lt;br&gt;이 문서는 RSA의 전반적인 내용에 대해 설명합니다.
-&lt;br&gt;
-&lt;br&gt;RSA(Road Side Assistance)는 볼보자동차에서 제공하는 무상견인 서비스 입니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-&lt;br&gt;
-&lt;br&gt;대치서비스센터로 견인을 요청하는 사고차는 삼성서비스센터로 견인
-&lt;br&gt;대치서비스센터로 견인을 요청하는 고장차는 삼성서비스센터로 견인
-&lt;br&gt;대치서비스센터 수리직후 문제가 발생되는 고장차는 삼성서비스센터로견인 &lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;긴급출동 서비스는 출고 이후 5년또는 주행거리 100,000km(선도래 기준(XC60 중국생산분 7년 140,000km까지)까지 볼보자동차에서 제공하는 서비스 프로그램 입니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;긴급출동 서비스 항목&lt;/h3&gt;
-&lt;br&gt;&lt;strong&gt;배터리 충전&lt;/strong&gt;
-&lt;br&gt;배터리 방전으로 시동이 불가능한 경우 현장출동하여 12V 배터리를 충전해 드립니다.
-&lt;br&gt;EV 고전압 배터리 충전부족으로 인해 가까운 전기차 충전소로 견인이 필요할 경우 유상비용이 발생됩니다.
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;타이어 수리(견인 시 유상)&lt;/strong&gt;
-&lt;br&gt;타이어 펑크로 차량을 운행할 수 없을 경우 현장에서 타이어를 무상수리(연2회)해드립니다.
-&lt;br&gt;단, 타이어 펑크 위와 크기 및 형태에 따라 현장에서 수리되지 않을 수 있으며, &lt;em style=""color: red;""&gt;&lt;strong&gt;이후 견인조치가 필요한 경우 견인비용이 발생됩니다.&lt;/strong&gt;&lt;/em&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;비상 급유(유상)&lt;/strong&gt;
-&lt;br&gt;연료가 소진되어 운행이 정지된 경우 긴급운행용 연료를 주입하여 드립니다.
-&lt;br&gt;&lt;strong&gt;&lt;em&gt;이 서비스는 유상이며, &lt;a style=""color: red;""&gt;고객에게 희망하는 유종을 반드시 확인해야 합니다. 
-&lt;br&gt;가까운 주유소에 고급유가 없는 경우 일반유로만 가능함을 안내하고 고객으로부터 동의를 얻어야 합니다.&lt;/a&gt;&lt;/strong&gt;&lt;/em&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;견인&lt;/strong&gt;
-&lt;br&gt;고장으로 차량으로 자력으로 운행하지 못하여 수리를 위해 견인을 필요로 할 경우, 공식 서비스센터로 견인하여 드립니다.
-&lt;br&gt;고객 과실로 인한 고장 견인은 고객이 실비를 부담해야 합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;strong&gt;비고&lt;/strong&gt;
-&lt;br&gt;견인 서비스와 관련하여 고객은 차량 견인 시 항상 차량 인수, 인계 확인서를 현장에서 점검해야 하며,
-&lt;br&gt;가능하면 목적지의 공식 서비스센터까지 동승하여 차량 손상 여부를 확인할 것을 안내합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;ERS(RSA) 접수 방법&lt;/h3&gt;
-&lt;br&gt;견인 서비스를 접수하기 전 반드시 고객에게 입고 서비스센터를 파악해야 합니다. 특히 영등포라고만 고객이 언급하는 경우 &lt;strong&gt;양평인지 문래인지&lt;/strong&gt; 반드시 확인해야 합니다.
-&lt;br&gt;고객이 원하는 서비스 센터가 없다고 하는 경우 팀장님께 이관합니다.
-&lt;br&gt;&lt;img src="https://volvocarsapac.file.force.com/sfc/dist/version/renditionDownload?rendition=ORIGINAL_Png&amp;versionId=068Ig000000dm9Q&amp;operationContext=DELIVERY&amp;contentId=05TIg000001Q5Mm&amp;page=0&amp;d=/a/Ig000000TQ2L/FBaLj1iVHeGj_N3CDUlzXIg9AJACnOEFpyavb1XnSnU&amp;oid=00D2w000003wder&amp;dpt=null&amp;viewId=" style="width: 100%;"&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동차의 트립 컴퓨터는 주행거리, 평균 연료 소모량 및 평균 속도 등을 기록합니다.
-&lt;h3&gt;트립 컴퓨터의 정보&lt;/h3&gt;
-&lt;img src="https://www.volvocars.com/images/support/imgb1eb4994a3f14164c0a80152519ef10e_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
-&lt;br&gt;
-&lt;br&gt;트립 컴퓨터에 표시되는 숫자:
-&lt;br&gt;• 주행거리
-&lt;br&gt;• 평균 연료 소모량
-&lt;br&gt;• 운전 시간
-&lt;br&gt;• 평균 속도
-&lt;br&gt;
-&lt;h4&gt;트립 컴퓨터 열기&lt;/h4&gt;
-1. 스티어링 휠의 O 버튼을 누릅니다.
-&lt;br&gt;&gt; 트립 컴퓨터가 열립니다.
-&lt;br&gt;
-&lt;h4&gt;구간거리계&lt;/h4&gt;
-두 가지의 구간거리계(TM 및 TA)가 있습니다.&lt;sup&gt;*&lt;/sup&gt;
-&lt;br&gt;
-&lt;br&gt;TM은 수동으로 재설정할 수 있습니다. TA는 차량을 네 시간 이상 사용하지 않는 경우에 자동으로 재설정됩니다.
-&lt;br&gt;
-&lt;h4&gt;누적주행거리계&lt;/h4&gt;
-누적주행거리계는 차량의 총 주행거리를 기록합니다. 이 값은 영(0)으로 재설정할 수 없습니다.
-&lt;br&gt;
-&lt;h3&gt;트립 컴퓨터 설정&lt;/h3&gt;
-트립컴퓨터는 중앙 화면을 통해 설정 가능합니다.
-&lt;br&gt;
-&lt;br&gt;1. &lt;img src="https://www.volvocars.com/images/support/imgf1c5d0bf5cacf617c0a801521667c9fa_2_--_--_VOICEpnghigh.png" width="19" height="19"&gt;를 누릅니다.
-&lt;br&gt;2. 컨트롤을 선택합니다.
-&lt;br&gt;3. 원하는 설정을 변경합니다.
-&lt;br&gt;
-&lt;br&gt;* 트립 매뉴얼 및 트립 오토매틱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>트립 컴퓨터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>충돌이 발생할 경우, 차량은 Volvo Assistance 또는 긴급 콜 센터에 자동으로 보고하며, 이를 통해 긴급 지원팀이 파견될 수 있습니다.
-&lt;h3&gt;Volvo Assistance&lt;/h3&gt;
-차량의 안전 시스템이 트리거되면(예: 안전벨트 프리텐셔너 또는 에어백 작동 레벨의 사고) 차량은 자동으로 Volvo Assistance에 전화하고 차량의 위치 등이 포함된 메시지가 전송됩니다.
-&lt;br&gt;1. Volvo Assistance는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 시도합니다.
-&lt;br&gt;2. 그런 다음 Volvo Assistance는 필요한 지원(경찰, 구급차, 차량 구조 등)을 받기 위해 연락합니다.
-&lt;br&gt;
-통화를 할 수 없는 경우에 Volvo Assistance는 적절한 조치를 통해 지원을 제공하는 관련 당국에 연락합니다.
-&lt;h3&gt;응급 콜센터&lt;sup&gt;대한민국은 대상 아님&lt;/sup&gt;&lt;/h3&gt;
-차량의 안전 시스템이 트리거되면(예를 들어 안전벨트 프리텐셔너 또는 에어백이 활성화되는 수준의 사고가 발생하면) 신호가 응급 콜센터로 직접 자동 전송됩니다.
-&lt;br&gt;
-&lt;br&gt;1. 긴급 전화 센터는 차량의 운전자와 통화를 하고 충돌의 정도와 도움이 필요한지 여부를 알아내려 합니다.
-&lt;br&gt;2. 긴급 전화 센터는 필요한 지원팀을 보냅니다(경찰, 구급차, 견인차 등).</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5048,7 +5048,7 @@
   <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5081,14 +5081,14 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="4">
         <v>45477</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>289</v>
@@ -5100,13 +5100,13 @@
         <v>33</v>
       </c>
       <c r="B3" s="4">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>290</v>
@@ -5124,7 +5124,7 @@
         <v>152</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>153</v>
@@ -5142,7 +5142,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>16</v>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>289</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599BBF12-1D1C-4701-82F3-0F1B8E1884A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABE627E-6170-4E8D-BEBD-A60717AFEB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="319">
   <si>
     <t>Title</t>
   </si>
@@ -4502,6 +4502,44 @@
 &lt;br&gt; Hej Volvo 앱 내 주간 사다리타기 오류가 발생하는 경우
 &lt;br&gt;
 &lt;br&gt;&lt;strong&gt;TO: &lt;/strong&gt;&lt;button class="contact-button" onclick="copyEmail('junlee.lee@volvocars.com')"&gt;이준이 대리&lt;/button&gt; | &lt;strong&gt;CC:&lt;/strong&gt; &lt;button class="contact-button" onclick="copyEmail('sunyong.kim@volvocars.com; yhj@mytable.co.kr; seungjin.lee@volvocars.com; volvo@mytable.co.kr; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 목록&lt;/button&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;여러 시도 후에도 주차 브레이크를 해제하거나 체결할 수 없는 경우에는 볼보 서비스 센터에 연락하십시오.&lt;/h4&gt;
+주차 브레이크가 체결된 상태에서 주행하면 경고 신호음이 울립니다.
+&lt;br&gt;
+&lt;br&gt;가능한 결함을 수정하기 전에 차량을 주차해야 하는 경우에는 언덕에 주차하는 것처럼 휠을 돌려야 하며 기어 셀렉터를 P 위치에 두어야 합니다.
+&lt;h3&gt;낮은 배터리 전압&lt;/h3&gt;
+배터리 전압이 너무 낮은 경우에는 주차 브레이크를 해제하거나 체결할 수 없습니다. 배터리 전압이 너무 낮은 경우에는 전압을 제공할 배터리를 연결합니다.
+&lt;h3&gt;브레이크 라이닝 교체&lt;/h3&gt;
+후륜 브레이크 라이닝은 전동식 주차 브레이크 디자인으로 인해 볼보 서비스 센터에서 교체할 것을 권장합니다.
+&lt;h3&gt;운전자 화면의 심벌&lt;/h3&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgc0bedaa202d6e332c0a801527963c5a6_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;심벌이 깜박이는 경우에 이는 결함이 발생했음을 나타냅니다. 운전자 화면의 메시지를 확인합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img557f16d503699a5bc0a801525e2193be_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;브레이크 시스템의 결함. 운전자 화면의 메시지를 확인합니다.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img4d31c0fc33f6fb69c0a801522b3720a8_1_--_--_VOICEpnghigh.png" width="64" height="64"&gt;운전자 화면의 정보 메시지.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차 브레이크의 결함이 발생하는 경우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스티어링휠 컨트롤과 경음기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;스티어링휠에는 경적과 운전자 지원 시스템과 음성 인식 시스템 등을 위한 컨트롤이 장착되어 있습니다.&lt;/h4&gt;
+&lt;img src="https://www.volvocars.com/images/support/img9b28a65c3928ecd7c0a8015246d02f00_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
+&lt;a style="font-size: 8pt"&gt;스티어링휠의 키패드*&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 운전자 지원 시스템 컨트롤.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 음성 인식 및 메뉴, 메시지 및 휴대폰 활용 컨트롤.
+&lt;h3&gt;경적&lt;/h3&gt;
+&lt;img src="https://www.volvocars.com/images/support/img98cef5ed39446310c0a801524d174487_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
+&lt;a style="font-size: 8pt"&gt;경적은 스티어링휠 중앙에 장착되어 있습니다.&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;속도 제한기, 크루즈 컨트롤, 어댑티브 크루즈 컨트롤, 거리 경고 및 파일럿 보조 시스템(Pilot Assist).</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5045,10 +5083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5113,494 +5151,494 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="207">
+    <row r="4" spans="1:6" ht="258.75">
       <c r="A4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45477</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="207">
+      <c r="A5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45477</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="207">
+      <c r="A6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="4">
         <v>45476</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="409.5">
-      <c r="A5" s="3" t="s">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="409.5">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B7" s="4">
         <v>45476</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="409.5">
-      <c r="A6" s="3" t="s">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="409.5">
+      <c r="A8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B8" s="4">
         <v>45475</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="258.75">
-      <c r="A7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="409.5">
-      <c r="A8" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="14">
-        <v>45474</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="B9" s="4">
         <v>45474</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="276">
-      <c r="A10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" spans="1:6" ht="409.5">
+      <c r="A10" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="14">
         <v>45474</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>303</v>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:6" ht="224.25">
       <c r="A11" s="3" t="s">
-        <v>295</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4">
         <v>45474</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>289</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="409.5">
-      <c r="A12" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" spans="1:6" ht="276">
+      <c r="A12" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="8">
         <v>45474</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>289</v>
+      <c r="C12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="310.5">
+    <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="B13" s="4">
         <v>45474</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="396.75">
+    <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B14" s="4">
         <v>45474</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="207">
+    <row r="15" spans="1:6" ht="310.5">
       <c r="A15" s="3" t="s">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4">
         <v>45474</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>289</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="86.25">
+    <row r="16" spans="1:6" ht="396.75">
       <c r="A16" s="3" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B16" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="189.75">
+    <row r="17" spans="1:6" ht="207">
       <c r="A17" s="3" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="B17" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="409.5">
+    <row r="18" spans="1:6" ht="86.25">
       <c r="A18" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B18" s="4">
         <v>45471</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="409.5">
+    <row r="19" spans="1:6" ht="189.75">
       <c r="A19" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="409.5">
       <c r="A20" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="120.75">
+    <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="241.5">
+    <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B22" s="4">
         <v>45471</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="409.5">
+    <row r="23" spans="1:6" ht="120.75">
       <c r="A23" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B23" s="4">
         <v>45471</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="86.25">
+    <row r="24" spans="1:6" ht="241.5">
       <c r="A24" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B24" s="4">
         <v>45471</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B25" s="4">
         <v>45471</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="409.5">
+    <row r="26" spans="1:6" ht="86.25">
       <c r="A26" s="3" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="B26" s="4">
         <v>45471</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="B27" s="4">
         <v>45471</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="379.5">
+    <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B28" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="B29" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>45471</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D29" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="379.5">
       <c r="A30" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B30" s="4">
         <v>45470</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="409.5">
+    <row r="32" spans="1:6" ht="379.5">
       <c r="A32" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B32" s="4">
         <v>45470</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="103.5">
+    <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B33" s="4">
         <v>45470</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>289</v>
@@ -5609,294 +5647,294 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B34" s="4">
         <v>45470</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="409.5">
+    <row r="35" spans="1:6" ht="103.5">
       <c r="A35" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B35" s="4">
         <v>45470</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B36" s="4">
         <v>45470</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="69">
+    <row r="37" spans="1:6" ht="409.5">
       <c r="A37" s="3" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B37" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="293.25">
+    <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="B38" s="4">
+        <v>45470</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="69">
+      <c r="A39" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" s="4">
         <v>45469</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="241.5">
-      <c r="A39" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B39" s="4">
-        <v>45468</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="409.5">
+    <row r="40" spans="1:6" ht="293.25">
       <c r="A40" s="3" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="B40" s="4">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="86.25">
+    <row r="41" spans="1:6" ht="241.5">
       <c r="A41" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B41" s="4">
         <v>45468</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="207">
+    <row r="42" spans="1:6" ht="409.5">
       <c r="A42" s="3" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B42" s="4">
         <v>45468</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="86.25">
+      <c r="A43" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="207">
+      <c r="A44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="409.5">
-      <c r="A43" s="3" t="s">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="409.5">
+      <c r="A45" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B43" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="327.75">
-      <c r="A44" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="138">
-      <c r="A45" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="B45" s="4">
         <v>45467</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="D45" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>289</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="293.25">
+    <row r="46" spans="1:6" ht="327.75">
       <c r="A46" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B46" s="4">
         <v>45467</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="396.75">
+    <row r="47" spans="1:6" ht="138">
       <c r="A47" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B47" s="4">
         <v>45467</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="409.5">
+    <row r="48" spans="1:6" ht="293.25">
       <c r="A48" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B48" s="4">
         <v>45467</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="172.5">
+    <row r="49" spans="1:6" ht="396.75">
       <c r="A49" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B49" s="4">
         <v>45467</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B50" s="4">
         <v>45467</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="409.5">
+    <row r="51" spans="1:6" ht="172.5">
       <c r="A51" s="3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B51" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
@@ -5905,110 +5943,110 @@
     </row>
     <row r="52" spans="1:6" ht="409.5">
       <c r="A52" s="3" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="B52" s="4">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="86.25">
+    <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B53" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="379.5">
+    <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B54" s="4">
         <v>45463</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="327.75">
+    <row r="55" spans="1:6" ht="86.25">
       <c r="A55" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="189.75">
+    <row r="56" spans="1:6" ht="379.5">
       <c r="A56" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="103.5">
+    <row r="57" spans="1:6" ht="327.75">
       <c r="A57" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="409.5">
+    <row r="58" spans="1:6" ht="189.75">
       <c r="A58" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>289</v>
@@ -6017,110 +6055,110 @@
     </row>
     <row r="59" spans="1:6" ht="57.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="345">
+    <row r="61" spans="1:6" ht="409.5">
       <c r="A61" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="327.75">
+    <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="241.5">
+    <row r="63" spans="1:6" ht="345">
       <c r="A63" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="409.5">
+    <row r="64" spans="1:6" ht="327.75">
       <c r="A64" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="409.5">
+    <row r="65" spans="1:6" ht="241.5">
       <c r="A65" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4">
         <v>45463</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>9</v>
@@ -6129,14 +6167,14 @@
     </row>
     <row r="66" spans="1:6" ht="409.5">
       <c r="A66" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B66" s="4">
         <v>45463</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>9</v>
@@ -6145,388 +6183,384 @@
     </row>
     <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B67" s="4">
         <v>45463</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="276">
+    <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B68" s="4">
         <v>45463</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B69" s="4">
         <v>45463</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>291</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="409.5">
+    <row r="70" spans="1:6" ht="276">
       <c r="A70" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="409.5">
+      <c r="A71" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="409.5">
+      <c r="A72" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B70" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="120.75">
-      <c r="A71" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="293.25">
-      <c r="A72" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="B72" s="4">
         <v>45461</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="409.5">
-      <c r="A73" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B73" s="4">
+    <row r="73" spans="1:6" ht="120.75">
+      <c r="A73" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="8">
         <v>45461</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>179</v>
+      <c r="C73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="172.5">
+    <row r="74" spans="1:6" ht="293.25">
       <c r="A74" s="3" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B74" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="155.25">
+    <row r="75" spans="1:6" ht="409.5">
       <c r="A75" s="3" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B75" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="409.5">
+    <row r="76" spans="1:6" ht="172.5">
       <c r="A76" s="3" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="B76" s="4">
         <v>45460</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="409.5">
+    <row r="77" spans="1:6" ht="155.25">
       <c r="A77" s="3" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="B77" s="4">
         <v>45460</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>25</v>
+        <v>154</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="258.75">
+    <row r="78" spans="1:6" ht="409.5">
       <c r="A78" s="3" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B78" s="4">
         <v>45460</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="409.5">
+      <c r="A79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="258.75">
+      <c r="A80" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="138">
-      <c r="A79" s="3" t="s">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="138">
+      <c r="A81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B81" s="4">
         <v>45459</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="409.5">
-      <c r="A80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="4">
-        <v>45457</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="276">
-      <c r="A81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" ht="409.5">
       <c r="A82" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B82" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="310.5">
+    <row r="83" spans="1:6" ht="276">
       <c r="A83" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B83" s="4">
         <v>45456</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="138">
+    <row r="84" spans="1:6" ht="409.5">
       <c r="A84" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B84" s="4">
         <v>45456</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="310.5">
+      <c r="A85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" ht="138">
+      <c r="A86" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E86" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="409.5">
-      <c r="A85" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" ht="409.5">
-      <c r="A86" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B87" s="4">
         <v>45455</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="310.5">
+    <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B88" s="4">
         <v>45455</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>9</v>
@@ -6535,547 +6569,583 @@
     </row>
     <row r="89" spans="1:6" ht="409.5">
       <c r="A89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="310.5">
+      <c r="A90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="409.5">
+      <c r="A91" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B89" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="224.25">
-      <c r="A90" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" ht="103.5">
-      <c r="A91" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B91" s="4">
         <v>45454</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="409.5">
+    <row r="92" spans="1:6" ht="224.25">
       <c r="A92" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B92" s="4">
         <v>45454</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="409.5">
+    <row r="93" spans="1:6" ht="103.5">
       <c r="A93" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B93" s="4">
         <v>45454</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" ht="409.5">
+      <c r="A94" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" ht="409.5">
+      <c r="A95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D95" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E95" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6" ht="241.5">
-      <c r="A94" s="3" t="s">
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" ht="241.5">
+      <c r="A96" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B94" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="10"/>
-    </row>
-    <row r="95" spans="1:6" ht="207">
-      <c r="A95" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B95" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6" ht="155.25">
-      <c r="A96" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B96" s="4">
         <v>45453</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F96" s="10"/>
     </row>
     <row r="97" spans="1:6" ht="207">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B97" s="4">
         <v>45453</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="120.75">
+    <row r="98" spans="1:6" ht="155.25">
       <c r="A98" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B98" s="4">
         <v>45453</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="276">
+    <row r="99" spans="1:6" ht="207">
       <c r="A99" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B99" s="4">
         <v>45453</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="396.75">
+    <row r="100" spans="1:6" ht="120.75">
       <c r="A100" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B100" s="4">
         <v>45453</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" ht="276">
+      <c r="A101" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" ht="396.75">
+      <c r="A102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E102" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F100" s="10"/>
-    </row>
-    <row r="101" spans="1:6" ht="409.5">
-      <c r="A101" s="6" t="s">
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" ht="409.5">
+      <c r="A103" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B103" s="4">
         <v>45452</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D103" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6" ht="276">
-      <c r="A102" s="6" t="s">
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" ht="276">
+      <c r="A104" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B104" s="4">
         <v>45452</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="1:6" ht="86.25">
-      <c r="A103" s="6" t="s">
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:6" ht="86.25">
+      <c r="A105" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B103" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="10"/>
-    </row>
-    <row r="104" spans="1:6" ht="409.5">
-      <c r="A104" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="15"/>
-    </row>
-    <row r="105" spans="1:6" ht="69">
-      <c r="A105" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="B105" s="8">
         <v>45450</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" ht="69">
+    <row r="106" spans="1:6" ht="409.5">
       <c r="A106" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="1:6" ht="224.25">
+      <c r="F106" s="15"/>
+    </row>
+    <row r="107" spans="1:6" ht="69">
       <c r="A107" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" ht="103.5">
+    <row r="108" spans="1:6" ht="69">
       <c r="A108" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="51.75">
+    <row r="109" spans="1:6" ht="224.25">
       <c r="A109" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>13</v>
+        <v>289</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="409.5">
+    <row r="110" spans="1:6" ht="103.5">
       <c r="A110" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6" ht="51.75">
       <c r="A111" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="69">
+    <row r="112" spans="1:6" ht="409.5">
       <c r="A112" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="69">
+    <row r="113" spans="1:6" ht="51.75">
       <c r="A113" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" ht="103.5">
+    <row r="114" spans="1:6" ht="69">
       <c r="A114" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B114" s="8">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" ht="86.25">
-      <c r="A115" s="3" t="s">
-        <v>137</v>
+    <row r="115" spans="1:6" ht="69">
+      <c r="A115" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B115" s="8">
         <v>45450</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="1:6" ht="103.5">
       <c r="A116" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B116" s="8">
         <v>45450</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="1:6" ht="86.25">
-      <c r="A117" s="6" t="s">
-        <v>143</v>
+      <c r="A117" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B117" s="8">
         <v>45450</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>183</v>
+        <v>138</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" ht="86.25">
+    <row r="118" spans="1:6" ht="103.5">
       <c r="A118" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="1:6" ht="86.25">
+      <c r="A119" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" ht="86.25">
+      <c r="A120" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B120" s="4">
         <v>45450</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="10"/>
+      <c r="F120" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F48" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F118">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F120">
       <sortCondition descending="1" ref="B1:B48"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABE627E-6170-4E8D-BEBD-A60717AFEB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD596FC5-F45C-424A-86AF-74A1EC98F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4531,13 +4531,13 @@
   <si>
     <t>&lt;h4&gt;스티어링휠에는 경적과 운전자 지원 시스템과 음성 인식 시스템 등을 위한 컨트롤이 장착되어 있습니다.&lt;/h4&gt;
 &lt;img src="https://www.volvocars.com/images/support/img9b28a65c3928ecd7c0a8015246d02f00_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
-&lt;a style="font-size: 8pt"&gt;스티어링휠의 키패드*&lt;/a&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt"&gt;스티어링휠의 키패드*&lt;/a&gt;
 &lt;br&gt;
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 운전자 지원 시스템 컨트롤.
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 음성 인식 및 메뉴, 메시지 및 휴대폰 활용 컨트롤.
 &lt;h3&gt;경적&lt;/h3&gt;
 &lt;img src="https://www.volvocars.com/images/support/img98cef5ed39446310c0a801524d174487_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
-&lt;a style="font-size: 8pt"&gt;경적은 스티어링휠 중앙에 장착되어 있습니다.&lt;/a&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt"&gt;경적은 스티어링휠 중앙에 장착되어 있습니다.&lt;/a&gt;
 &lt;br&gt;
 &lt;br&gt;속도 제한기, 크루즈 컨트롤, 어댑티브 크루즈 컨트롤, 거리 경고 및 파일럿 보조 시스템(Pilot Assist).</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -5085,8 +5085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD596FC5-F45C-424A-86AF-74A1EC98F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF6B4A-091E-4CF9-9D78-B5E971C0F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="321">
   <si>
     <t>Title</t>
   </si>
@@ -4540,6 +4540,19 @@
 &lt;br&gt;&lt;a style="font-size: 8pt"&gt;경적은 스티어링휠 중앙에 장착되어 있습니다.&lt;/a&gt;
 &lt;br&gt;
 &lt;br&gt;속도 제한기, 크루즈 컨트롤, 어댑티브 크루즈 컨트롤, 거리 경고 및 파일럿 보조 시스템(Pilot Assist).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;자주 컨택해야하는 연락처 목록입니다.&lt;/h3&gt;
+&lt;br&gt;
+&lt;br&gt;삼성화재 RSA: 02-2091-1807
+&lt;br&gt;볼보 트럭: 080-038-1000
+&lt;br&gt;볼보 중장비: 1644-1172
+&lt;br&gt;한국도로공사 긴급 견인 서비스: 1588-2504</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처 목록</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4710,7 +4723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4766,6 +4779,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5083,10 +5099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5183,268 +5199,268 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="207">
+    <row r="6" spans="1:6" ht="103.5">
       <c r="A6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45477</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="207">
+      <c r="A7" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45476</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="409.5">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="B7" s="4">
         <v>45476</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>16</v>
+        <v>309</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="409.5">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>310</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="186" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45475</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="258.75">
+      <c r="A10" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="409.5">
-      <c r="A10" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="B10" s="4">
         <v>45474</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="409.5">
+      <c r="A11" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="14">
+        <v>45474</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="224.25">
-      <c r="A11" s="3" t="s">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="224.25">
+      <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>45474</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="276">
-      <c r="A12" s="6" t="s">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="276">
+      <c r="A13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <v>45474</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="409.5">
-      <c r="A13" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45474</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B14" s="4">
         <v>45474</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="310.5">
+    <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="B15" s="4">
         <v>45474</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="396.75">
+    <row r="16" spans="1:6" ht="310.5">
       <c r="A16" s="3" t="s">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4">
         <v>45474</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>9</v>
+        <v>298</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="207">
+    <row r="17" spans="1:6" ht="396.75">
       <c r="A17" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B17" s="4">
         <v>45474</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="86.25">
+    <row r="18" spans="1:6" ht="207">
       <c r="A18" s="3" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B18" s="4">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>313</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="189.75">
+    <row r="19" spans="1:6" ht="86.25">
       <c r="A19" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B19" s="4">
         <v>45471</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="409.5">
+    <row r="20" spans="1:6" ht="189.75">
       <c r="A20" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B20" s="4">
         <v>45471</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="409.5">
       <c r="A21" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="4">
         <v>45471</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
@@ -5453,192 +5469,192 @@
     </row>
     <row r="22" spans="1:6" ht="409.5">
       <c r="A22" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B22" s="4">
         <v>45471</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="120.75">
+    <row r="23" spans="1:6" ht="409.5">
       <c r="A23" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B23" s="4">
         <v>45471</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="241.5">
+    <row r="24" spans="1:6" ht="120.75">
       <c r="A24" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B24" s="4">
         <v>45471</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="409.5">
+    <row r="25" spans="1:6" ht="241.5">
       <c r="A25" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="4">
         <v>45471</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="86.25">
+    <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B26" s="4">
         <v>45471</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="409.5">
+    <row r="27" spans="1:6" ht="86.25">
       <c r="A27" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B27" s="4">
         <v>45471</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="B28" s="4">
         <v>45471</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="B29" s="4">
         <v>45471</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="409.5">
+      <c r="A30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45471</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="379.5">
-      <c r="A30" s="3" t="s">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="379.5">
+      <c r="A31" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B30" s="4">
-        <v>45470</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="409.5">
-      <c r="A31" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="B31" s="4">
         <v>45470</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="379.5">
+    <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B32" s="4">
         <v>45470</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="409.5">
+    <row r="33" spans="1:6" ht="379.5">
       <c r="A33" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B33" s="4">
         <v>45470</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>289</v>
@@ -5647,62 +5663,62 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B34" s="4">
         <v>45470</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="103.5">
+    <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B35" s="4">
         <v>45470</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="409.5">
+    <row r="36" spans="1:6" ht="103.5">
       <c r="A36" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B36" s="4">
         <v>45470</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="409.5">
       <c r="A37" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B37" s="4">
         <v>45470</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
@@ -5711,342 +5727,342 @@
     </row>
     <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" s="4">
         <v>45470</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="69">
+    <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B39" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="293.25">
+    <row r="40" spans="1:6" ht="69">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="B40" s="4">
         <v>45469</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="293.25">
+      <c r="A41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="241.5">
-      <c r="A41" s="3" t="s">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="241.5">
+      <c r="A42" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B41" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="409.5">
-      <c r="A42" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="B42" s="4">
         <v>45468</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>9</v>
+        <v>248</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="86.25">
+    <row r="43" spans="1:6" ht="409.5">
       <c r="A43" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="B43" s="4">
         <v>45468</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="D43" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>289</v>
+        <v>236</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="207">
+    <row r="44" spans="1:6" ht="86.25">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="B44" s="4">
         <v>45468</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="207">
+      <c r="A45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="409.5">
-      <c r="A45" s="3" t="s">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="409.5">
+      <c r="A46" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B45" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="327.75">
-      <c r="A46" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="B46" s="4">
         <v>45467</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="D46" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>9</v>
+        <v>219</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="138">
+    <row r="47" spans="1:6" ht="327.75">
       <c r="A47" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B47" s="4">
         <v>45467</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="293.25">
+    <row r="48" spans="1:6" ht="138">
       <c r="A48" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B48" s="4">
         <v>45467</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="396.75">
+    <row r="49" spans="1:6" ht="293.25">
       <c r="A49" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B49" s="4">
         <v>45467</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="409.5">
+    <row r="50" spans="1:6" ht="396.75">
       <c r="A50" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B50" s="4">
         <v>45467</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="172.5">
+    <row r="51" spans="1:6" ht="409.5">
       <c r="A51" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B51" s="4">
         <v>45467</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="409.5">
+    <row r="52" spans="1:6" ht="172.5">
       <c r="A52" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B52" s="4">
         <v>45467</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B53" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="B54" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="86.25">
+    <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B55" s="4">
         <v>45463</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="379.5">
+    <row r="56" spans="1:6" ht="86.25">
       <c r="A56" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B56" s="4">
         <v>45463</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="327.75">
+    <row r="57" spans="1:6" ht="379.5">
       <c r="A57" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B57" s="4">
         <v>45463</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="189.75">
+    <row r="58" spans="1:6" ht="327.75">
       <c r="A58" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B58" s="4">
         <v>45463</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>289</v>
@@ -6055,30 +6071,30 @@
     </row>
     <row r="59" spans="1:6" ht="57.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B59" s="4">
         <v>45463</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="409.5">
+    <row r="60" spans="1:6" ht="103.5">
       <c r="A60" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B60" s="4">
         <v>45463</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>289</v>
@@ -6087,94 +6103,94 @@
     </row>
     <row r="61" spans="1:6" ht="409.5">
       <c r="A61" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B61" s="4">
         <v>45463</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B62" s="4">
         <v>45463</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="345">
+    <row r="63" spans="1:6" ht="409.5">
       <c r="A63" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B63" s="4">
         <v>45463</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="327.75">
+    <row r="64" spans="1:6" ht="345">
       <c r="A64" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B64" s="4">
         <v>45463</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="241.5">
+    <row r="65" spans="1:6" ht="327.75">
       <c r="A65" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" s="4">
         <v>45463</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="409.5">
+    <row r="66" spans="1:6" ht="241.5">
       <c r="A66" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4">
         <v>45463</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="5" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>9</v>
@@ -6183,14 +6199,14 @@
     </row>
     <row r="67" spans="1:6" ht="409.5">
       <c r="A67" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B67" s="4">
         <v>45463</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="5" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>9</v>
@@ -6199,14 +6215,14 @@
     </row>
     <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B68" s="4">
         <v>45463</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>9</v>
@@ -6215,46 +6231,46 @@
     </row>
     <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B69" s="4">
         <v>45463</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="276">
+    <row r="70" spans="1:6" ht="409.5">
       <c r="A70" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B70" s="4">
         <v>45463</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>291</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="409.5">
+    <row r="71" spans="1:6" ht="276">
       <c r="A71" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B71" s="4">
         <v>45463</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>291</v>
@@ -6263,304 +6279,302 @@
     </row>
     <row r="72" spans="1:6" ht="409.5">
       <c r="A72" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="4">
+        <v>45463</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="409.5">
+      <c r="A73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B73" s="4">
         <v>45461</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="120.75">
-      <c r="A73" s="6" t="s">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="120.75">
+      <c r="A74" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B74" s="8">
         <v>45461</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="293.25">
-      <c r="A74" s="3" t="s">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="293.25">
+      <c r="A75" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B74" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="409.5">
-      <c r="A75" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B75" s="4">
         <v>45461</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="409.5">
+      <c r="A76" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45461</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="172.5">
-      <c r="A76" s="3" t="s">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="172.5">
+      <c r="A77" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B76" s="4">
-        <v>45460</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="155.25">
-      <c r="A77" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="B77" s="4">
         <v>45460</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="409.5">
+    <row r="78" spans="1:6" ht="155.25">
       <c r="A78" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B78" s="4">
         <v>45460</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:6" ht="409.5">
       <c r="A79" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B79" s="4">
         <v>45460</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>25</v>
+        <v>155</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="258.75">
+    <row r="80" spans="1:6" ht="409.5">
       <c r="A80" s="3" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="B80" s="4">
         <v>45460</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="258.75">
+      <c r="A81" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="138">
-      <c r="A81" s="3" t="s">
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" ht="138">
+      <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B82" s="4">
         <v>45459</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="409.5">
-      <c r="A82" s="3" t="s">
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" ht="409.5">
+      <c r="A83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B83" s="4">
         <v>45457</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E83" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" ht="276">
-      <c r="A83" s="3" t="s">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="276">
+      <c r="A84" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B83" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="409.5">
-      <c r="A84" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B84" s="4">
         <v>45456</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="310.5">
+    <row r="85" spans="1:6" ht="409.5">
       <c r="A85" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B85" s="4">
         <v>45456</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="138">
+    <row r="86" spans="1:6" ht="310.5">
       <c r="A86" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B86" s="4">
         <v>45456</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" ht="138">
+      <c r="A87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E87" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:6" ht="409.5">
-      <c r="A87" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" ht="409.5">
       <c r="A88" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B88" s="4">
         <v>45455</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>9</v>
@@ -6569,169 +6583,169 @@
     </row>
     <row r="89" spans="1:6" ht="409.5">
       <c r="A89" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B89" s="4">
         <v>45455</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="310.5">
+    <row r="90" spans="1:6" ht="409.5">
       <c r="A90" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B90" s="4">
         <v>45455</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="310.5">
+      <c r="A91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" ht="409.5">
-      <c r="A91" s="3" t="s">
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" ht="409.5">
+      <c r="A92" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B91" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" ht="224.25">
-      <c r="A92" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B92" s="4">
         <v>45454</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="103.5">
+    <row r="93" spans="1:6" ht="224.25">
       <c r="A93" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B93" s="4">
         <v>45454</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>13</v>
+        <v>289</v>
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="409.5">
+    <row r="94" spans="1:6" ht="103.5">
       <c r="A94" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B94" s="4">
         <v>45454</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F94" s="10"/>
     </row>
     <row r="95" spans="1:6" ht="409.5">
       <c r="A95" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B95" s="4">
         <v>45454</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="241.5">
+    <row r="96" spans="1:6" ht="409.5">
       <c r="A96" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" ht="241.5">
+      <c r="A97" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B96" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="10"/>
-    </row>
-    <row r="97" spans="1:6" ht="207">
-      <c r="A97" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B97" s="4">
         <v>45453</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="155.25">
+    <row r="98" spans="1:6" ht="207">
       <c r="A98" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B98" s="4">
         <v>45453</v>
@@ -6740,412 +6754,430 @@
         <v>73</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="207">
+    <row r="99" spans="1:6" ht="155.25">
       <c r="A99" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B99" s="4">
         <v>45453</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="120.75">
+    <row r="100" spans="1:6" ht="207">
       <c r="A100" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B100" s="4">
         <v>45453</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" ht="276">
+    <row r="101" spans="1:6" ht="120.75">
       <c r="A101" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B101" s="4">
         <v>45453</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" ht="396.75">
+    <row r="102" spans="1:6" ht="276">
       <c r="A102" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B102" s="4">
         <v>45453</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" ht="396.75">
+      <c r="A103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E103" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="1:6" ht="409.5">
-      <c r="A103" s="6" t="s">
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" ht="409.5">
+      <c r="A104" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B103" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="10"/>
-    </row>
-    <row r="104" spans="1:6" ht="276">
-      <c r="A104" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="B104" s="4">
         <v>45452</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="86.25">
+    <row r="105" spans="1:6" ht="276">
       <c r="A105" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" ht="86.25">
+      <c r="A106" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B105" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="10"/>
-    </row>
-    <row r="106" spans="1:6" ht="409.5">
-      <c r="A106" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="B106" s="8">
         <v>45450</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="15"/>
-    </row>
-    <row r="107" spans="1:6" ht="69">
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" ht="409.5">
       <c r="A107" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B107" s="8">
         <v>45450</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="10"/>
+      <c r="F107" s="15"/>
     </row>
     <row r="108" spans="1:6" ht="69">
       <c r="A108" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B108" s="8">
         <v>45450</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="224.25">
+    <row r="109" spans="1:6" ht="69">
       <c r="A109" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B109" s="8">
         <v>45450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" ht="103.5">
+    <row r="110" spans="1:6" ht="224.25">
       <c r="A110" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B110" s="8">
         <v>45450</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="51.75">
+    <row r="111" spans="1:6" ht="103.5">
       <c r="A111" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B111" s="8">
         <v>45450</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="409.5">
+    <row r="112" spans="1:6" ht="51.75">
       <c r="A112" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" s="8">
         <v>45450</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="51.75">
+    <row r="113" spans="1:6" ht="409.5">
       <c r="A113" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B113" s="8">
         <v>45450</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" ht="69">
+    <row r="114" spans="1:6" ht="51.75">
       <c r="A114" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B114" s="8">
         <v>45450</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:6" ht="69">
       <c r="A115" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B115" s="8">
         <v>45450</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" ht="103.5">
+    <row r="116" spans="1:6" ht="69">
       <c r="A116" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B116" s="8">
         <v>45450</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6" ht="86.25">
-      <c r="A117" s="3" t="s">
-        <v>137</v>
+    <row r="117" spans="1:6" ht="103.5">
+      <c r="A117" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B117" s="8">
         <v>45450</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" ht="103.5">
-      <c r="A118" s="6" t="s">
-        <v>140</v>
+    <row r="118" spans="1:6" ht="86.25">
+      <c r="A118" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B118" s="8">
         <v>45450</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="1:6" ht="86.25">
+    <row r="119" spans="1:6" ht="103.5">
       <c r="A119" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B119" s="8">
         <v>45450</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="1:6" ht="86.25">
       <c r="A120" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" ht="86.25">
+      <c r="A121" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B121" s="4">
         <v>45450</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E121" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="10"/>
+      <c r="F121" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F48" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F120">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F121">
       <sortCondition descending="1" ref="B1:B48"/>
     </sortState>
   </autoFilter>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF6B4A-091E-4CF9-9D78-B5E971C0F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D526D6F-A1A5-4309-A490-AAD771ABB738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4114,86 +4114,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>고객이 Volvo Cars앱에 대해 자주 묻는 질문들을 확인합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
-&lt;br&gt;Volvo Cars 앱에서 사용할 수 있는 기능은 차량 모델, 연식, 지역에 따라 다를 수 있습니다. 시간의 경과에 따라 제공되는 기능이 다를 수도 있습니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;페어링 후 모바일 앱에 정보가 표시되지 않습니다.&lt;/h3&gt;
-&lt;br&gt;모바일 앱을 다시 시작합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱을 삭제하기 전에 염두에 두어야 할 사항&lt;/h3&gt;
-&lt;br&gt;휴대폰에서 Volvo Cars앱을 삭제하기 전에 항상 차량의 페어링을 해제하십시오. 다음 항목에서는 유용한 지침을 확인할 수 있습니다.
-&lt;br&gt;&lt;a href="https://www.volvocars.com/kr/support/topic/081757d5ef6ccf12c0a8015150732a6a" target="_blank"&gt;Volvo Cars 앱과 차량의 페어링&lt;/a&gt;
-&lt;br&gt;&lt;a href="https://www.volvocars.com/kr/support/topic/a6228d0cf69703a3c0a801513c08ff7c" target="_blank"&gt;Volvo Cars 앱 페어링 해제&lt;/a&gt;
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱에서 배터리의 충전 레벨을 볼 수 있나요?&lt;/h3&gt;
-&lt;br&gt;충전 레벨은 앱의 홈 보기와 충전 메뉴에 표시됩니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱에서 충전을 예약할 수 있나요?&lt;/h3&gt;
-&lt;br&gt;네. 현재 충전 타이머는 2023년도식 또는 이후 연식의 모든 완전 전기차와 플러그인 하이브리드용으로 사용할 수 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;휴대폰에서 차량으로 목적지를 보낼 수 있는 방법은 무엇인가요?&lt;/h3&gt;
-&lt;br&gt;차량에 볼보의 내비게이션 시스템 Sensus Navigation이 장착되어 있는 경우에는 Volvo Cars앱을 사용하여 목적지(예: 호텔, 매장, 영화관, 레스토랑)를 차량에 전송하여 내비게이션 시스템이 이 목저지를 사용할 수 있도록 할 수 있습니다. &lt;img src="https://www.volvocars.com/images/support/img66a5501d0e688e64c0a80152356d4e94_1_--_--_VOICEpnghigh.png" width= "19" height= "19"&gt; 탭에서 목적지를 검색한 후 '차량에 보내기'버튼을 선택합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;모바일 앱에서 도어 상태, 배터리 상태를 확인할 수 없거나 에어컨을 시작할 수 없습니다.&lt;/h3&gt;
-&lt;br&gt;• 모바일 앱을 다시 시작한 후 차량이 인터넷에 연결되어있는지 확인하세요.
-&lt;br&gt;• 통신 조건이 나쁜 지역에 차량이 주차되어 있는 경우, 차량의 Bluetooth 거리에서만 앱이 제대로 작동할 수 있습니다.
-&lt;br&gt;• 데이터 공유를 활성화해야 합니다. 사용된 프로필이 관리자 프로필인지 또는 소유자 프로필인지 확인하여 시작합니다. 이는 기어 휠 아이콘을 클릭한 후 프로필 항목을 선택하여 실시합니다. 그런 다음 Volvo ID가 프로필에 연결되도록 하세요. 톱니바퀴 아이콘을 클릭하고 프로필 &gt; 계정을 선택합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;새로운 소프트웨어에 차량을 업데이트하고 앱으로 차량 상태를 확인할 수 없습니다.&lt;/h3&gt;
-&lt;br&gt;새 소프트웨어로 차량을 업데이트한 경우에 모바일 연결을 다시 활성화하려면 차량을 한 번 시동 및 운행해야 합니다. 모바일 앱을 지원하는 소프트웨어로 차량을 최초로 업데이트한 경우에는 24-36시간이 지나여 차량과 클라우드 간의 동기화가 완료될 수 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;페어링 시 차량의 중앙 화면에 PIN 코드가 표시되지 않습니다&lt;/h3&gt;
-&lt;br&gt;서리 제거 버튼을 20-30초 동안 누르세요.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;장치 관리가 무엇인가요?&lt;/h3&gt;
-&lt;br&gt;장치 관리는 차량과 페어링된 휴대폰의 목록을 볼 수 있다는 것을 의미합니다. 관리자 권한이 있는 사용자는 페어링된 휴대폰을 삭제할 수도 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱의 관리자와 비관리자 간 차이점은 무엇인가요?&lt;/h3&gt;
-&lt;br&gt;다른 프로필에 대해 페어링을 수행하려면 먼저 차량 소유자 프로필 앱과 페어링되어 있어야 합니다.
-&lt;br&gt;차량 내에 모든 키가 있을 때 자신의 휴대폰과 차량의 페어링을 실시하는 최초 사용자가 관리자입니다.
-&lt;br&gt;앱에서 관리자인 사용자는 다음을 수행할 수 있습니다.
-&lt;br&gt;• 어떤 휴대 전화 또는 기타 장치가 차량과 페어링되어 있는지 확인
-&lt;br&gt;• 자신과 다른 사람의 페어링 된 휴대 전화/장치를 차량에서 제거
-&lt;br&gt;앱에서 관리자가 아닌 사용자는 다음을 수행할 수 있습니다.
-&lt;br&gt;• 자신의 휴대 전화/장치가 차량과 페어링되어 있는지 확인하기
-&lt;br&gt;• 차량에서 자신의 휴대 전화/장치 제거
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;휴대 전화 및 기타 장치의 페어링을 해제하는 방법은 무엇인가요?&lt;/h3&gt;
-&lt;br&gt;휴대 전화와 차량 간의 페어링 연결을 해제하려면 반드시 모바일 앱을 사용합니다.
-&lt;br&gt;휴대 전화가 제거되면 차량의 중앙 화면에 상태가 동기화될 때까지 몇 분 정도 걸립니다.
-&lt;br&gt;차량에서 사용자 프로필이 삭제되었다고 해서 페어링된 장치가 삭제되는 것은 아닙니다.
-&lt;br&gt;페어링 된 휴대 전화 앱의 프로필 탭에서 삭제할 수 있습니다. iPhone 사용자의 경우 iPhone의 설정으로 이동하여 그곳에서 휴대폰을 제거해야 합니다.
-&lt;br&gt;Google built-in 내장 차량을 소프트웨어 2.5로 업데이트한 경우, 차량 중앙 화면에서 장치를 페어링 해제할 수 있는 옵션이 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱을 차량과 페어링하면 차량의 소유자를 먼저 해야 합니까? 아니면 게스트 사용자가 먼저 페어링할 수 있나요?&lt;/h3&gt;
-&lt;br&gt;소유자를 먼저 페어링해야 합니다. 휴대폰을 관리자 권한이 있는 소유자 프로필 또는 기타 프로필에 연결할 때 모든 키가 차량 내부에 있어야 합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;소유자 프로필만 차량에서 관리자 권한을 가지고 있었지만, 소유자 프로필과 페어링하고 있던 휴대 전화를 사용할 수 없게 되었습니다. 차량에서 휴대폰을 삭제하려면 어떻게 해야 하나요?&lt;/h3&gt;
-&lt;br&gt;새 프로필을 만들고 이 새 프로필에 관리자 권한을 부옇바니다. 그런 다음에 모든 키가 차량 내부에 있는 상태에서 새 프로필과 새 휴대폰의 페어링을 실시하세요. 이제 앱에서 이전 모바일을 확인할 수 있으며 삭제할 수 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;여러 모바일 장치를 소유자 프로필과 페어링 할 수 있습니까?&lt;/h3&gt;
-&lt;br&gt;한 장치만 차량 프로필과 페어링할 수 있습니다. 소유자 프로필에 장치가 하나 연결되면 나중에 프로필에 연결된 모든 장치는 일반 사용자 입니다. 일반 사용자를 차량 프로필의 관리자로 변경할 수 있습니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;모바일 장치가 관리자가 아닌 차량 프로필과 이미 페어링되어 있습니다. 그 차량의 사용자 프로필에 관리자 권한을 부여 할 경우 앱의 사용자 프로필도 관리자가 되나요?&lt;/h3&gt;
-&lt;br&gt;안 됩니다. 휴대전화와 페어링 된 자동차 프로필에 관리자 권한을 부여하더라도 그 모바일 앱의 사용자 프로필이 자동으로 관리자가 되는 것은 아닙니다. 차량 프로필이 관리자로 변경되면 모바일 장치에 대한 연결을 삭제해야 합니다. 그런 후에 모든 키가 차량 안에 있는 상태에서 해당 모바일 장치를 다시 페어링합니다. 그리고 모바일 앱의 사용자 프로필이 관리자입니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;페어링은 Bluetooth가 필요하나요?&lt;/h3&gt;
-&lt;br&gt;네, 페어링은 Bluetooth가 필요합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;차량에 가까이 있을 때 모바일 앱의 원격 기능만 사용할 수 있습니다. 무엇 때문인가요?&lt;/h3&gt;
-&lt;br&gt;모바일 앱, 차량, 또는 둘 모두가 클라우드와의 연결이 되지 않는 상황입니다. 이 문제가 발생하면 휴대폰의 Bluetooth 거리에서만 원격 기능이 작동합니다.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;앱에서 배터리 상태 또는 온도 조절장치 기능을 확인할 수 없습니다.&lt;/h3&gt;
-&lt;br&gt;앱 버전이 낮은 경우 이러한 문제를 경험할 수 있습니다. Google Play에서 업데이트가 있는지 식별한 후 업데이트를 우선 진행합니다.
-&lt;br&gt;활성상태의 자동차 프로필에 연결된 Volvo ID가 있는지 확인하세요. 없는 경우에 Volvo ID를 사용해 앱에 로그인하세요.
-&lt;hr&gt;
-&lt;br&gt;&lt;h3&gt;자신은 차량의 게스트 사용자이며, 앱의 원격 기능을 사용하고 싶으나 자신의 휴대 전화를 페어링 할 수 없습니다.&lt;/h3&gt;
-&lt;br&gt;사용하는 휴대 전화의 Bluetooth가 켜져 있는지 확인합니다. 근처에 차량과 페어링된 다른 휴대 전화가 있는 경우, 해당 휴대 전화의 Bluetooth를 꺼야 합니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;a style="color: red; font-weight: bold;"&gt;Volvo Internal Use Only&lt;/a&gt;
 &lt;br&gt;
 &lt;br&gt;EX30을 사전 예약하거나 관심있는 고객이 EX30 출시일에 대해 문의할 수 있습니다.
@@ -4249,39 +4169,6 @@
 &lt;br&gt;견인 서비스를 접수하기 전 반드시 고객에게 입고 서비스센터를 파악해야 합니다. 특히 영등포라고만 고객이 언급하는 경우 &lt;strong&gt;양평인지 문래인지&lt;/strong&gt; 반드시 확인해야 합니다.
 &lt;br&gt;고객이 원하는 서비스 센터가 없다고 하는 경우 팀장님께 이관합니다.
 &lt;br&gt;&lt;img src="https://volvocarsapac.file.force.com/sfc/dist/version/renditionDownload?rendition=ORIGINAL_Png&amp;versionId=068Ig000000dm9Q&amp;operationContext=DELIVERY&amp;contentId=05TIg000001Q5Mm&amp;page=0&amp;d=/a/Ig000000TQ2L/FBaLj1iVHeGj_N3CDUlzXIg9AJACnOEFpyavb1XnSnU&amp;oid=00D2w000003wder&amp;dpt=null&amp;viewId=" style="width: 100%;"&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동차의 트립 컴퓨터는 주행거리, 평균 연료 소모량 및 평균 속도 등을 기록합니다.
-&lt;h3&gt;트립 컴퓨터의 정보&lt;/h3&gt;
-&lt;img src="https://www.volvocars.com/images/support/imgb1eb4994a3f14164c0a80152519ef10e_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
-&lt;br&gt;
-&lt;br&gt;트립 컴퓨터에 표시되는 숫자:
-&lt;br&gt;• 주행거리
-&lt;br&gt;• 평균 연료 소모량
-&lt;br&gt;• 운전 시간
-&lt;br&gt;• 평균 속도
-&lt;br&gt;
-&lt;h4&gt;트립 컴퓨터 열기&lt;/h4&gt;
-1. 스티어링 휠의 O 버튼을 누릅니다.
-&lt;br&gt;&gt; 트립 컴퓨터가 열립니다.
-&lt;br&gt;
-&lt;h4&gt;구간거리계&lt;/h4&gt;
-두 가지의 구간거리계(TM 및 TA)가 있습니다.&lt;sup&gt;*&lt;/sup&gt;
-&lt;br&gt;
-&lt;br&gt;TM은 수동으로 재설정할 수 있습니다. TA는 차량을 네 시간 이상 사용하지 않는 경우에 자동으로 재설정됩니다.
-&lt;br&gt;
-&lt;h4&gt;누적주행거리계&lt;/h4&gt;
-누적주행거리계는 차량의 총 주행거리를 기록합니다. 이 값은 영(0)으로 재설정할 수 없습니다.
-&lt;br&gt;
-&lt;h3&gt;트립 컴퓨터 설정&lt;/h3&gt;
-트립컴퓨터는 중앙 화면을 통해 설정 가능합니다.
-&lt;br&gt;
-&lt;br&gt;1. &lt;img src="https://www.volvocars.com/images/support/imgf1c5d0bf5cacf617c0a801521667c9fa_2_--_--_VOICEpnghigh.png" width="19" height="19"&gt;를 누릅니다.
-&lt;br&gt;2. 컨트롤을 선택합니다.
-&lt;br&gt;3. 원하는 설정을 변경합니다.
-&lt;br&gt;
-&lt;br&gt;* 트립 매뉴얼 및 트립 오토매틱</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4529,7 +4416,139 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;h3&gt;자주 컨택해야하는 연락처 목록입니다.&lt;/h3&gt;
+&lt;br&gt;
+&lt;br&gt;삼성화재 RSA: 02-2091-1807
+&lt;br&gt;볼보 트럭: 080-038-1000
+&lt;br&gt;볼보 중장비: 1644-1172
+&lt;br&gt;한국도로공사 긴급 견인 서비스: 1588-2504</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처 목록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차의 트립 컴퓨터는 주행거리, 평균 연료 소모량 및 평균 속도 등을 기록합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;a href="https://youtu.be/Lk4j9dk4aCI?feature=shared" target="_blank"&gt;여기를 눌러 YouTube 영상 시청하기&lt;/a&gt;
+&lt;h3&gt;트립 컴퓨터의 정보&lt;/h3&gt;
+&lt;img src="https://www.volvocars.com/images/support/imgb1eb4994a3f14164c0a80152519ef10e_1_--_--_VOICEpnghigh.png" width="422" height="291"&gt;
+&lt;br&gt;
+&lt;br&gt;트립 컴퓨터에 표시되는 숫자:
+&lt;br&gt;• 주행거리
+&lt;br&gt;• 평균 연료 소모량
+&lt;br&gt;• 운전 시간
+&lt;br&gt;• 평균 속도
+&lt;br&gt;
+&lt;h4&gt;트립 컴퓨터 열기&lt;/h4&gt;
+1. 스티어링 휠의 O 버튼을 누릅니다.
+&lt;br&gt;&gt; 트립 컴퓨터가 열립니다.
+&lt;br&gt;
+&lt;h4&gt;구간거리계&lt;/h4&gt;
+두 가지의 구간거리계(TM 및 TA)가 있습니다.&lt;sup&gt;*&lt;/sup&gt;
+&lt;br&gt;
+&lt;br&gt;TM은 수동으로 재설정할 수 있습니다. TA는 차량을 네 시간 이상 사용하지 않는 경우에 자동으로 재설정됩니다.
+&lt;br&gt;
+&lt;h4&gt;누적주행거리계&lt;/h4&gt;
+누적주행거리계는 차량의 총 주행거리를 기록합니다. 이 값은 영(0)으로 재설정할 수 없습니다.
+&lt;br&gt;
+&lt;h3&gt;트립 컴퓨터 설정&lt;/h3&gt;
+트립컴퓨터는 중앙 화면을 통해 설정 가능합니다.
+&lt;br&gt;
+&lt;br&gt;1. &lt;img src="https://www.volvocars.com/images/support/imgf1c5d0bf5cacf617c0a801521667c9fa_2_--_--_VOICEpnghigh.png" width="19" height="19"&gt;를 누릅니다.
+&lt;br&gt;2. 컨트롤을 선택합니다.
+&lt;br&gt;3. 원하는 설정을 변경합니다.
+&lt;br&gt;
+&lt;br&gt;* 트립 매뉴얼 및 트립 오토매틱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 Volvo Cars앱에 대해 자주 묻는 질문들을 확인합니다.
+&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;a href="https://youtu.be/Lu2PSDI_v_4?feature=shared" target="_blank"&gt;여기를 눌러 YouTube 영상 시청하기&lt;/a&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;Volvo Cars 앱에서 사용할 수 있는 기능은 차량 모델, 연식, 지역에 따라 다를 수 있습니다. 시간의 경과에 따라 제공되는 기능이 다를 수도 있습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;페어링 후 모바일 앱에 정보가 표시되지 않습니다.&lt;/h3&gt;
+&lt;br&gt;모바일 앱을 다시 시작합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱을 삭제하기 전에 염두에 두어야 할 사항&lt;/h3&gt;
+&lt;br&gt;휴대폰에서 Volvo Cars앱을 삭제하기 전에 항상 차량의 페어링을 해제하십시오. 다음 항목에서는 유용한 지침을 확인할 수 있습니다.
+&lt;br&gt;&lt;a href="https://www.volvocars.com/kr/support/topic/081757d5ef6ccf12c0a8015150732a6a" target="_blank"&gt;Volvo Cars 앱과 차량의 페어링&lt;/a&gt;
+&lt;br&gt;&lt;a href="https://www.volvocars.com/kr/support/topic/a6228d0cf69703a3c0a801513c08ff7c" target="_blank"&gt;Volvo Cars 앱 페어링 해제&lt;/a&gt;
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱에서 배터리의 충전 레벨을 볼 수 있나요?&lt;/h3&gt;
+&lt;br&gt;충전 레벨은 앱의 홈 보기와 충전 메뉴에 표시됩니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱에서 충전을 예약할 수 있나요?&lt;/h3&gt;
+&lt;br&gt;네. 현재 충전 타이머는 2023년도식 또는 이후 연식의 모든 완전 전기차와 플러그인 하이브리드용으로 사용할 수 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;휴대폰에서 차량으로 목적지를 보낼 수 있는 방법은 무엇인가요?&lt;/h3&gt;
+&lt;br&gt;차량에 볼보의 내비게이션 시스템 Sensus Navigation이 장착되어 있는 경우에는 Volvo Cars앱을 사용하여 목적지(예: 호텔, 매장, 영화관, 레스토랑)를 차량에 전송하여 내비게이션 시스템이 이 목저지를 사용할 수 있도록 할 수 있습니다. &lt;img src="https://www.volvocars.com/images/support/img66a5501d0e688e64c0a80152356d4e94_1_--_--_VOICEpnghigh.png" width= "19" height= "19"&gt; 탭에서 목적지를 검색한 후 '차량에 보내기'버튼을 선택합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;모바일 앱에서 도어 상태, 배터리 상태를 확인할 수 없거나 에어컨을 시작할 수 없습니다.&lt;/h3&gt;
+&lt;br&gt;• 모바일 앱을 다시 시작한 후 차량이 인터넷에 연결되어있는지 확인하세요.
+&lt;br&gt;• 통신 조건이 나쁜 지역에 차량이 주차되어 있는 경우, 차량의 Bluetooth 거리에서만 앱이 제대로 작동할 수 있습니다.
+&lt;br&gt;• 데이터 공유를 활성화해야 합니다. 사용된 프로필이 관리자 프로필인지 또는 소유자 프로필인지 확인하여 시작합니다. 이는 기어 휠 아이콘을 클릭한 후 프로필 항목을 선택하여 실시합니다. 그런 다음 Volvo ID가 프로필에 연결되도록 하세요. 톱니바퀴 아이콘을 클릭하고 프로필 &gt; 계정을 선택합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;새로운 소프트웨어에 차량을 업데이트하고 앱으로 차량 상태를 확인할 수 없습니다.&lt;/h3&gt;
+&lt;br&gt;새 소프트웨어로 차량을 업데이트한 경우에 모바일 연결을 다시 활성화하려면 차량을 한 번 시동 및 운행해야 합니다. 모바일 앱을 지원하는 소프트웨어로 차량을 최초로 업데이트한 경우에는 24-36시간이 지나여 차량과 클라우드 간의 동기화가 완료될 수 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;페어링 시 차량의 중앙 화면에 PIN 코드가 표시되지 않습니다&lt;/h3&gt;
+&lt;br&gt;서리 제거 버튼을 20-30초 동안 누르세요.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;장치 관리가 무엇인가요?&lt;/h3&gt;
+&lt;br&gt;장치 관리는 차량과 페어링된 휴대폰의 목록을 볼 수 있다는 것을 의미합니다. 관리자 권한이 있는 사용자는 페어링된 휴대폰을 삭제할 수도 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱의 관리자와 비관리자 간 차이점은 무엇인가요?&lt;/h3&gt;
+&lt;br&gt;다른 프로필에 대해 페어링을 수행하려면 먼저 차량 소유자 프로필 앱과 페어링되어 있어야 합니다.
+&lt;br&gt;차량 내에 모든 키가 있을 때 자신의 휴대폰과 차량의 페어링을 실시하는 최초 사용자가 관리자입니다.
+&lt;br&gt;앱에서 관리자인 사용자는 다음을 수행할 수 있습니다.
+&lt;br&gt;• 어떤 휴대 전화 또는 기타 장치가 차량과 페어링되어 있는지 확인
+&lt;br&gt;• 자신과 다른 사람의 페어링 된 휴대 전화/장치를 차량에서 제거
+&lt;br&gt;앱에서 관리자가 아닌 사용자는 다음을 수행할 수 있습니다.
+&lt;br&gt;• 자신의 휴대 전화/장치가 차량과 페어링되어 있는지 확인하기
+&lt;br&gt;• 차량에서 자신의 휴대 전화/장치 제거
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;휴대 전화 및 기타 장치의 페어링을 해제하는 방법은 무엇인가요?&lt;/h3&gt;
+&lt;br&gt;휴대 전화와 차량 간의 페어링 연결을 해제하려면 반드시 모바일 앱을 사용합니다.
+&lt;br&gt;휴대 전화가 제거되면 차량의 중앙 화면에 상태가 동기화될 때까지 몇 분 정도 걸립니다.
+&lt;br&gt;차량에서 사용자 프로필이 삭제되었다고 해서 페어링된 장치가 삭제되는 것은 아닙니다.
+&lt;br&gt;페어링 된 휴대 전화 앱의 프로필 탭에서 삭제할 수 있습니다. iPhone 사용자의 경우 iPhone의 설정으로 이동하여 그곳에서 휴대폰을 제거해야 합니다.
+&lt;br&gt;Google built-in 내장 차량을 소프트웨어 2.5로 업데이트한 경우, 차량 중앙 화면에서 장치를 페어링 해제할 수 있는 옵션이 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱을 차량과 페어링하면 차량의 소유자를 먼저 해야 합니까? 아니면 게스트 사용자가 먼저 페어링할 수 있나요?&lt;/h3&gt;
+&lt;br&gt;소유자를 먼저 페어링해야 합니다. 휴대폰을 관리자 권한이 있는 소유자 프로필 또는 기타 프로필에 연결할 때 모든 키가 차량 내부에 있어야 합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;소유자 프로필만 차량에서 관리자 권한을 가지고 있었지만, 소유자 프로필과 페어링하고 있던 휴대 전화를 사용할 수 없게 되었습니다. 차량에서 휴대폰을 삭제하려면 어떻게 해야 하나요?&lt;/h3&gt;
+&lt;br&gt;새 프로필을 만들고 이 새 프로필에 관리자 권한을 부옇바니다. 그런 다음에 모든 키가 차량 내부에 있는 상태에서 새 프로필과 새 휴대폰의 페어링을 실시하세요. 이제 앱에서 이전 모바일을 확인할 수 있으며 삭제할 수 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;여러 모바일 장치를 소유자 프로필과 페어링 할 수 있습니까?&lt;/h3&gt;
+&lt;br&gt;한 장치만 차량 프로필과 페어링할 수 있습니다. 소유자 프로필에 장치가 하나 연결되면 나중에 프로필에 연결된 모든 장치는 일반 사용자 입니다. 일반 사용자를 차량 프로필의 관리자로 변경할 수 있습니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;모바일 장치가 관리자가 아닌 차량 프로필과 이미 페어링되어 있습니다. 그 차량의 사용자 프로필에 관리자 권한을 부여 할 경우 앱의 사용자 프로필도 관리자가 되나요?&lt;/h3&gt;
+&lt;br&gt;안 됩니다. 휴대전화와 페어링 된 자동차 프로필에 관리자 권한을 부여하더라도 그 모바일 앱의 사용자 프로필이 자동으로 관리자가 되는 것은 아닙니다. 차량 프로필이 관리자로 변경되면 모바일 장치에 대한 연결을 삭제해야 합니다. 그런 후에 모든 키가 차량 안에 있는 상태에서 해당 모바일 장치를 다시 페어링합니다. 그리고 모바일 앱의 사용자 프로필이 관리자입니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;페어링은 Bluetooth가 필요하나요?&lt;/h3&gt;
+&lt;br&gt;네, 페어링은 Bluetooth가 필요합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;차량에 가까이 있을 때 모바일 앱의 원격 기능만 사용할 수 있습니다. 무엇 때문인가요?&lt;/h3&gt;
+&lt;br&gt;모바일 앱, 차량, 또는 둘 모두가 클라우드와의 연결이 되지 않는 상황입니다. 이 문제가 발생하면 휴대폰의 Bluetooth 거리에서만 원격 기능이 작동합니다.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;앱에서 배터리 상태 또는 온도 조절장치 기능을 확인할 수 없습니다.&lt;/h3&gt;
+&lt;br&gt;앱 버전이 낮은 경우 이러한 문제를 경험할 수 있습니다. Google Play에서 업데이트가 있는지 식별한 후 업데이트를 우선 진행합니다.
+&lt;br&gt;활성상태의 자동차 프로필에 연결된 Volvo ID가 있는지 확인하세요. 없는 경우에 Volvo ID를 사용해 앱에 로그인하세요.
+&lt;hr&gt;
+&lt;br&gt;&lt;h3&gt;자신은 차량의 게스트 사용자이며, 앱의 원격 기능을 사용하고 싶으나 자신의 휴대 전화를 페어링 할 수 없습니다.&lt;/h3&gt;
+&lt;br&gt;사용하는 휴대 전화의 Bluetooth가 켜져 있는지 확인합니다. 근처에 차량과 페어링된 다른 휴대 전화가 있는 경우, 해당 휴대 전화의 Bluetooth를 꺼야 합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;h4&gt;스티어링휠에는 경적과 운전자 지원 시스템과 음성 인식 시스템 등을 위한 컨트롤이 장착되어 있습니다.&lt;/h4&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;a href="https://youtu.be/UDfrLxhfw2I?feature=shared" target="_blank"&gt;여기를 눌러 YouTube 영상 시청하기&lt;/a&gt;
 &lt;img src="https://www.volvocars.com/images/support/img9b28a65c3928ecd7c0a8015246d02f00_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
 &lt;br&gt;&lt;a style="font-size: 8pt"&gt;스티어링휠의 키패드*&lt;/a&gt;
 &lt;br&gt;
@@ -4540,19 +4559,6 @@
 &lt;br&gt;&lt;a style="font-size: 8pt"&gt;경적은 스티어링휠 중앙에 장착되어 있습니다.&lt;/a&gt;
 &lt;br&gt;
 &lt;br&gt;속도 제한기, 크루즈 컨트롤, 어댑티브 크루즈 컨트롤, 거리 경고 및 파일럿 보조 시스템(Pilot Assist).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;자주 컨택해야하는 연락처 목록입니다.&lt;/h3&gt;
-&lt;br&gt;
-&lt;br&gt;삼성화재 RSA: 02-2091-1807
-&lt;br&gt;볼보 트럭: 080-038-1000
-&lt;br&gt;볼보 중장비: 1644-1172
-&lt;br&gt;한국도로공사 긴급 견인 서비스: 1588-2504</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연락처 목록</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5101,8 +5107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -5135,14 +5141,14 @@
     </row>
     <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B2" s="4">
         <v>45477</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>289</v>
@@ -5160,7 +5166,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>290</v>
@@ -5169,30 +5175,30 @@
     </row>
     <row r="4" spans="1:6" ht="258.75">
       <c r="A4" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B4" s="4">
         <v>45477</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="207">
+    <row r="5" spans="1:6" ht="241.5">
       <c r="A5" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" s="4">
         <v>45477</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -5201,14 +5207,14 @@
     </row>
     <row r="6" spans="1:6" ht="103.5">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B6" s="4">
         <v>45477</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
@@ -5226,7 +5232,7 @@
         <v>152</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>153</v>
@@ -5244,7 +5250,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
@@ -5262,7 +5268,7 @@
         <v>167</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>166</v>
@@ -5412,7 +5418,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>289</v>

--- a/db/kbase.xlsx
+++ b/db/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D526D6F-A1A5-4309-A490-AAD771ABB738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2EA0CE-E7A4-4798-A3C8-EC41993067B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4464,6 +4464,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;h4&gt;스티어링휠에는 경적과 운전자 지원 시스템과 음성 인식 시스템 등을 위한 컨트롤이 장착되어 있습니다.&lt;/h4&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;a href="https://youtu.be/UDfrLxhfw2I?feature=shared" target="_blank"&gt;여기를 눌러 YouTube 영상 시청하기&lt;/a&gt;
+&lt;img src="https://www.volvocars.com/images/support/img9b28a65c3928ecd7c0a8015246d02f00_1_--_--_VOICEpnghigh.png" width="845" height="318"&gt;
+&lt;br&gt;&lt;a style="font-size: 8pt"&gt;스티어링휠의 키패드*&lt;/a&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img0fdb84773e1be862c0a801526d85d772_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt; 운전자 지원 시스템 컨트롤.
+&lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/imgd145437d66762d90c0a801520501e45a_1_--_--_VOICEpnghigh.png"